--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BACC899-AA87-44F2-94D9-B815ACFDE3A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5E803-6581-4CB8-90E8-C4769FB4EA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
@@ -86,9 +86,6 @@
     <t>ΔLd (m)</t>
   </si>
   <si>
-    <t>L0 (m)</t>
-  </si>
-  <si>
     <t>Carga</t>
   </si>
   <si>
@@ -123,6 +120,9 @@
   </si>
   <si>
     <t>Análise Estatística - Creep</t>
+  </si>
+  <si>
+    <t>L0 (mm)</t>
   </si>
 </sst>
 </file>
@@ -282,11 +282,36 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -297,40 +322,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,6 +523,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -533,55 +584,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>177</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>197</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>208</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>223</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>240</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>257</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>338</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1114,6 +1165,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1124,55 +1226,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>206</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>220</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>237</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>269</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>289</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>326</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>340</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1644,6 +1746,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -1654,55 +1807,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-151.78431372549022</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-121.53186274509807</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>-89.279411764705856</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-56.026960784313729</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-20.774509803921575</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>14.477941176470608</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>53.730392156862763</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>94.982843137254918</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>136.23529411764707</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>182.48774509803923</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>224.74019607843138</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>270.99264705882359</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>314.24509803921575</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-249.5024509803921</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-225.24999999999994</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-200.99754901960779</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-176.74509803921563</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2130,6 +2283,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>170</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2140,55 +2344,55 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>219.95392156862744</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>241.78333333333336</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>270.55588235294118</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>302.8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>342.9872549019608</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>384.17450980392164</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>438.24803921568628</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>497.26470588235304</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>554.28137254901969</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>628.65588235294126</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>693.14411764705892</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>764.51862745098049</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>825.47843137254915</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-1217.8039215686276</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>-1217.8039215686276</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-1217.8039215686276</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-1217.8039215686276</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2677,6 +2881,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -2687,208 +2942,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>265</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>268</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>268.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>268.70000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>269.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>269.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>269.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>269.79999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>269.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>270</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3032,6 +3287,7 @@
         <c:axId val="1955156671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="264"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3421,6 +3677,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="69"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -3431,208 +3732,208 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>168</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>166.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>166.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>166.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>166.3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>166</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>165.7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>165.60000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>165.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>165.2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>165.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
+                  <c:v>165</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>-250</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3776,6 +4077,8 @@
         <c:axId val="1992673471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="173"/>
+          <c:min val="160"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -3892,6 +4195,7 @@
         <c:crossAx val="1992673055"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
+        <c:majorUnit val="4"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3907,8 +4211,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.69429915265485764"/>
-          <c:y val="0.68708359888434312"/>
+          <c:x val="0.75683313851673939"/>
+          <c:y val="8.5460015690679583E-2"/>
           <c:w val="0.23947165798006806"/>
           <c:h val="0.14524263185770001"/>
         </c:manualLayout>
@@ -4104,6 +4408,57 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>205</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>305</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>417</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>472</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>536</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>594</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>652</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>709</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>784</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>905</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>944</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -4737,6 +5092,51 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="68"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>163</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>206</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>274</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>338</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>405</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>507</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>600</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>701</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>918</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1030</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
@@ -10316,8 +10716,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
   <dimension ref="A1:AC44"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M3" sqref="M3"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10329,906 +10729,1006 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="9" t="s">
+      <c r="C2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="9" t="s">
+      <c r="F2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10">
-        <f>B3-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10">
-        <f>D3-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10">
+      <c r="A3" s="5">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5">
+        <v>413</v>
+      </c>
+      <c r="C3" s="5">
+        <f t="shared" ref="C3:C19" si="0">B3-$M$3</f>
+        <v>163</v>
+      </c>
+      <c r="D3" s="5">
+        <v>417</v>
+      </c>
+      <c r="E3" s="5">
+        <f t="shared" ref="E3:E19" si="1">D3-$M$3</f>
+        <v>167</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="H3" s="5">
+        <v>188</v>
+      </c>
+      <c r="I3" s="5">
         <f xml:space="preserve"> F3*G3*H3*0.000000001</f>
-        <v>0</v>
+        <v>2.6330528000000001E-8</v>
       </c>
       <c r="L3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" s="1"/>
+        <v>28</v>
+      </c>
+      <c r="M3" s="1">
+        <v>250</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10">
-        <f>B4-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10">
-        <f>D4-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="A4" s="5">
+        <v>20</v>
+      </c>
+      <c r="B4" s="5">
+        <v>419</v>
+      </c>
+      <c r="C4" s="5">
+        <f t="shared" si="0"/>
+        <v>169</v>
+      </c>
+      <c r="D4" s="5">
+        <v>424</v>
+      </c>
+      <c r="E4" s="5">
+        <f t="shared" si="1"/>
+        <v>174</v>
+      </c>
+      <c r="F4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="14" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="H4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10">
-        <f>B5-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10">
-        <f>D5-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F5" s="14" t="s">
+      <c r="A5" s="5">
+        <v>30</v>
+      </c>
+      <c r="B5" s="5">
+        <v>427</v>
+      </c>
+      <c r="C5" s="5">
+        <f t="shared" si="0"/>
+        <v>177</v>
+      </c>
+      <c r="D5" s="5">
+        <v>433</v>
+      </c>
+      <c r="E5" s="5">
+        <f t="shared" si="1"/>
+        <v>183</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="14" t="s">
+      <c r="H5" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10">
-        <f>B6-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10">
-        <f>D6-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F6" s="14" t="s">
+      <c r="A6" s="5">
+        <v>40</v>
+      </c>
+      <c r="B6" s="5">
+        <v>436</v>
+      </c>
+      <c r="C6" s="5">
+        <f t="shared" si="0"/>
+        <v>186</v>
+      </c>
+      <c r="D6" s="5">
+        <v>443</v>
+      </c>
+      <c r="E6" s="5">
+        <f t="shared" si="1"/>
+        <v>193</v>
+      </c>
+      <c r="F6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="14" t="s">
+      <c r="G6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H6" s="14" t="s">
+      <c r="H6" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10"/>
-      <c r="C7" s="10">
-        <f>B7-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10">
-        <f>D7-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F7" s="14" t="s">
+      <c r="A7" s="5">
+        <v>50</v>
+      </c>
+      <c r="B7" s="5">
+        <v>447</v>
+      </c>
+      <c r="C7" s="5">
+        <f t="shared" si="0"/>
+        <v>197</v>
+      </c>
+      <c r="D7" s="5">
+        <v>456</v>
+      </c>
+      <c r="E7" s="5">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10">
-        <f>B8-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="10"/>
-      <c r="E8" s="10">
-        <f>D8-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="14" t="s">
+      <c r="A8" s="5">
+        <v>60</v>
+      </c>
+      <c r="B8" s="5">
+        <v>458</v>
+      </c>
+      <c r="C8" s="5">
+        <f t="shared" si="0"/>
+        <v>208</v>
+      </c>
+      <c r="D8" s="5">
+        <v>470</v>
+      </c>
+      <c r="E8" s="5">
+        <f t="shared" si="1"/>
+        <v>220</v>
+      </c>
+      <c r="F8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H8" s="14" t="s">
+      <c r="H8" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10">
-        <f>B9-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="10">
-        <f>D9-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="A9" s="5">
+        <v>70</v>
+      </c>
+      <c r="B9" s="5">
+        <v>473</v>
+      </c>
+      <c r="C9" s="5">
+        <f t="shared" si="0"/>
+        <v>223</v>
+      </c>
+      <c r="D9" s="5">
+        <v>487</v>
+      </c>
+      <c r="E9" s="5">
+        <f t="shared" si="1"/>
+        <v>237</v>
+      </c>
+      <c r="F9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G9" s="14" t="s">
+      <c r="G9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="14" t="s">
+      <c r="H9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10">
-        <f>B10-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="10"/>
-      <c r="E10" s="10">
-        <f>D10-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="14" t="s">
+      <c r="A10" s="5">
+        <v>80</v>
+      </c>
+      <c r="B10" s="5">
+        <v>490</v>
+      </c>
+      <c r="C10" s="5">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="D10" s="5">
+        <v>504</v>
+      </c>
+      <c r="E10" s="5">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="F10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G10" s="14" t="s">
+      <c r="G10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H10" s="14" t="s">
+      <c r="H10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10">
-        <f>B11-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10">
-        <f>D11-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="s">
+      <c r="A11" s="5">
+        <v>90</v>
+      </c>
+      <c r="B11" s="5">
+        <v>507</v>
+      </c>
+      <c r="C11" s="5">
+        <f t="shared" si="0"/>
+        <v>257</v>
+      </c>
+      <c r="D11" s="5">
+        <v>519</v>
+      </c>
+      <c r="E11" s="5">
+        <f t="shared" si="1"/>
+        <v>269</v>
+      </c>
+      <c r="F11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="14" t="s">
+      <c r="G11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H11" s="14" t="s">
+      <c r="H11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10">
-        <f>B12-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10">
-        <f>D12-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="s">
+      <c r="A12" s="5">
+        <v>100</v>
+      </c>
+      <c r="B12" s="5">
+        <v>529</v>
+      </c>
+      <c r="C12" s="5">
+        <f t="shared" si="0"/>
+        <v>279</v>
+      </c>
+      <c r="D12" s="5">
+        <v>539</v>
+      </c>
+      <c r="E12" s="5">
+        <f t="shared" si="1"/>
+        <v>289</v>
+      </c>
+      <c r="F12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="H12" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10">
-        <f>B13-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10">
-        <f>D13-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F13" s="14" t="s">
+      <c r="A13" s="5">
+        <v>110</v>
+      </c>
+      <c r="B13" s="5">
+        <v>547</v>
+      </c>
+      <c r="C13" s="5">
+        <f t="shared" si="0"/>
+        <v>297</v>
+      </c>
+      <c r="D13" s="5">
+        <v>559</v>
+      </c>
+      <c r="E13" s="5">
+        <f t="shared" si="1"/>
+        <v>309</v>
+      </c>
+      <c r="F13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="G13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10">
-        <f>B14-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10">
-        <f>D14-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="14" t="s">
+      <c r="A14" s="5">
+        <v>120</v>
+      </c>
+      <c r="B14" s="5">
+        <v>569</v>
+      </c>
+      <c r="C14" s="5">
+        <f t="shared" si="0"/>
+        <v>319</v>
+      </c>
+      <c r="D14" s="5">
+        <v>576</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="F14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="14" t="s">
+      <c r="G14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10">
-        <f>B15-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10">
-        <f>D15-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F15" s="14" t="s">
+      <c r="A15" s="5">
+        <v>130</v>
+      </c>
+      <c r="B15" s="5">
+        <v>588</v>
+      </c>
+      <c r="C15" s="5">
+        <f t="shared" si="0"/>
+        <v>338</v>
+      </c>
+      <c r="D15" s="5">
+        <v>590</v>
+      </c>
+      <c r="E15" s="5">
+        <f t="shared" si="1"/>
+        <v>340</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="14" t="s">
+      <c r="G15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10">
-        <f>B16-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10">
-        <f>D16-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="s">
+      <c r="A16" s="5">
+        <v>140</v>
+      </c>
+      <c r="B16" s="5"/>
+      <c r="C16" s="5">
+        <f t="shared" si="0"/>
+        <v>-250</v>
+      </c>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="F16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G16" s="14" t="s">
+      <c r="G16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H16" s="14" t="s">
+      <c r="H16" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I16" s="14" t="s">
+      <c r="I16" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="10"/>
-      <c r="C17" s="10">
-        <f>B17-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10">
-        <f>D17-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F17" s="14" t="s">
+      <c r="A17" s="5">
+        <v>150</v>
+      </c>
+      <c r="B17" s="5"/>
+      <c r="C17" s="5">
+        <f t="shared" si="0"/>
+        <v>-250</v>
+      </c>
+      <c r="D17" s="5"/>
+      <c r="E17" s="5">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="F17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="14" t="s">
+      <c r="G17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H17" s="14" t="s">
+      <c r="H17" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I17" s="14" t="s">
+      <c r="I17" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10">
-        <f>B18-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10">
-        <f>D18-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F18" s="14" t="s">
+      <c r="A18" s="5">
+        <v>160</v>
+      </c>
+      <c r="B18" s="5"/>
+      <c r="C18" s="5">
+        <f t="shared" si="0"/>
+        <v>-250</v>
+      </c>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="F18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H18" s="14" t="s">
+      <c r="H18" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I18" s="14" t="s">
+      <c r="I18" s="6" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="10"/>
-      <c r="C19" s="10">
-        <f>B19-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10">
-        <f>D19-$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="10"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10">
+      <c r="A19" s="5">
+        <v>170</v>
+      </c>
+      <c r="B19" s="5"/>
+      <c r="C19" s="5">
+        <f t="shared" si="0"/>
+        <v>-250</v>
+      </c>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5">
+        <f t="shared" si="1"/>
+        <v>-250</v>
+      </c>
+      <c r="F19" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="G19" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="H19" s="5">
+        <v>349</v>
+      </c>
+      <c r="I19" s="5">
         <f xml:space="preserve"> F19*G19*H19*0.000000001</f>
-        <v>0</v>
+        <v>3.2286688000000003E-8</v>
       </c>
     </row>
     <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="13"/>
+      <c r="E22" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="L22" s="15" t="s">
+      <c r="F22" s="13"/>
+      <c r="L22" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="T22" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M22" s="15"/>
-      <c r="N22" s="15"/>
-      <c r="O22" s="15"/>
-      <c r="P22" s="15"/>
-      <c r="T22" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-      <c r="X22" s="15"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
     </row>
     <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C23" s="17" t="s">
+      <c r="C23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D23" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D23" s="17" t="s">
+      <c r="E23" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="E23" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="F23" s="17" t="s">
+      <c r="M23" s="1">
+        <f t="array" ref="M23:N24">LINEST(C3:C19,A3:A19,TRUE,TRUE)</f>
+        <v>-2.4252450980392162</v>
+      </c>
+      <c r="N23" s="1">
+        <v>339.03676470588238</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="P23" s="10"/>
+      <c r="T23" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="L23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="M23" s="1" t="e">
-        <f t="array" ref="M23:N24">LINEST(C3:C19,A3:A19,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="N23" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="P23" s="15"/>
-      <c r="T23" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="U23" s="1" t="e">
+      <c r="U23" s="1">
         <f t="array" ref="U23:V24">LINEST(E3:E19,A3:A19,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="V23" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="W23" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="X23" s="15"/>
+        <v>-2.4715686274509809</v>
+      </c>
+      <c r="V23" s="1">
+        <v>349.91176470588243</v>
+      </c>
+      <c r="W23" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="X23" s="10"/>
     </row>
     <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C24" s="18" t="e">
-        <f>$M$23*A3+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D24" s="18" t="e">
-        <f>C3-C24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E24" s="18" t="e">
-        <f>$U$23*C3+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F24" s="18" t="e">
-        <f>E3-E24</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="L24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="M24" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="N24" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="O24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="P24" s="15"/>
-      <c r="T24" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="U24" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V24" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="W24" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="X24" s="15"/>
+      <c r="C24" s="8">
+        <f t="shared" ref="C24:C40" si="2">$M$23*A3+$N$23</f>
+        <v>314.78431372549022</v>
+      </c>
+      <c r="D24" s="8">
+        <f t="shared" ref="D24:D40" si="3">C3-C24</f>
+        <v>-151.78431372549022</v>
+      </c>
+      <c r="E24" s="8">
+        <f t="shared" ref="E24:E40" si="4">$U$23*C3+$V$23</f>
+        <v>-52.953921568627436</v>
+      </c>
+      <c r="F24" s="8">
+        <f t="shared" ref="F24:F40" si="5">E3-E24</f>
+        <v>219.95392156862744</v>
+      </c>
+      <c r="L24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M24" s="1">
+        <v>0.92235583599305082</v>
+      </c>
+      <c r="N24" s="1">
+        <v>94.513348401162986</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="P24" s="10"/>
+      <c r="T24" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="U24" s="1">
+        <v>0.93777066236862117</v>
+      </c>
+      <c r="V24" s="1">
+        <v>96.09289807052582</v>
+      </c>
+      <c r="W24" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="X24" s="10"/>
     </row>
     <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C25" s="18" t="e">
-        <f>$M$23*A4+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D25" s="18" t="e">
-        <f>C4-C25</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E25" s="18" t="e">
-        <f>$U$23*C4+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F25" s="18" t="e">
-        <f>E4-E25</f>
-        <v>#VALUE!</v>
+      <c r="C25" s="8">
+        <f t="shared" si="2"/>
+        <v>290.53186274509807</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" si="3"/>
+        <v>-121.53186274509807</v>
+      </c>
+      <c r="E25" s="8">
+        <f t="shared" si="4"/>
+        <v>-67.78333333333336</v>
+      </c>
+      <c r="F25" s="8">
+        <f t="shared" si="5"/>
+        <v>241.78333333333336</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C26" s="18" t="e">
-        <f>$M$23*A5+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D26" s="18" t="e">
-        <f>C5-C26</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E26" s="18" t="e">
-        <f>$U$23*C5+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F26" s="18" t="e">
-        <f>E5-E26</f>
-        <v>#VALUE!</v>
+      <c r="C26" s="8">
+        <f t="shared" si="2"/>
+        <v>266.27941176470586</v>
+      </c>
+      <c r="D26" s="8">
+        <f t="shared" si="3"/>
+        <v>-89.279411764705856</v>
+      </c>
+      <c r="E26" s="8">
+        <f t="shared" si="4"/>
+        <v>-87.555882352941182</v>
+      </c>
+      <c r="F26" s="8">
+        <f t="shared" si="5"/>
+        <v>270.55588235294118</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C27" s="18" t="e">
-        <f>$M$23*A6+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D27" s="18" t="e">
-        <f>C6-C27</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E27" s="18" t="e">
-        <f>$U$23*C6+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F27" s="18" t="e">
-        <f>E6-E27</f>
-        <v>#VALUE!</v>
+      <c r="C27" s="8">
+        <f t="shared" si="2"/>
+        <v>242.02696078431373</v>
+      </c>
+      <c r="D27" s="8">
+        <f t="shared" si="3"/>
+        <v>-56.026960784313729</v>
+      </c>
+      <c r="E27" s="8">
+        <f t="shared" si="4"/>
+        <v>-109.80000000000001</v>
+      </c>
+      <c r="F27" s="8">
+        <f t="shared" si="5"/>
+        <v>302.8</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C28" s="18" t="e">
-        <f>$M$23*A7+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D28" s="18" t="e">
-        <f>C7-C28</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E28" s="18" t="e">
-        <f>$U$23*C7+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F28" s="18" t="e">
-        <f>E7-E28</f>
-        <v>#VALUE!</v>
+      <c r="C28" s="8">
+        <f t="shared" si="2"/>
+        <v>217.77450980392157</v>
+      </c>
+      <c r="D28" s="8">
+        <f t="shared" si="3"/>
+        <v>-20.774509803921575</v>
+      </c>
+      <c r="E28" s="8">
+        <f t="shared" si="4"/>
+        <v>-136.9872549019608</v>
+      </c>
+      <c r="F28" s="8">
+        <f t="shared" si="5"/>
+        <v>342.9872549019608</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C29" s="18" t="e">
-        <f>$M$23*A8+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D29" s="18" t="e">
-        <f>C8-C29</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E29" s="18" t="e">
-        <f>$U$23*C8+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F29" s="18" t="e">
-        <f>E8-E29</f>
-        <v>#VALUE!</v>
+      <c r="C29" s="8">
+        <f t="shared" si="2"/>
+        <v>193.52205882352939</v>
+      </c>
+      <c r="D29" s="8">
+        <f t="shared" si="3"/>
+        <v>14.477941176470608</v>
+      </c>
+      <c r="E29" s="8">
+        <f t="shared" si="4"/>
+        <v>-164.17450980392164</v>
+      </c>
+      <c r="F29" s="8">
+        <f t="shared" si="5"/>
+        <v>384.17450980392164</v>
       </c>
     </row>
     <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C30" s="18" t="e">
-        <f>$M$23*A9+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D30" s="18" t="e">
-        <f>C9-C30</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E30" s="18" t="e">
-        <f>$U$23*C9+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F30" s="18" t="e">
-        <f>E9-E30</f>
-        <v>#VALUE!</v>
+      <c r="C30" s="8">
+        <f t="shared" si="2"/>
+        <v>169.26960784313724</v>
+      </c>
+      <c r="D30" s="8">
+        <f t="shared" si="3"/>
+        <v>53.730392156862763</v>
+      </c>
+      <c r="E30" s="8">
+        <f t="shared" si="4"/>
+        <v>-201.24803921568628</v>
+      </c>
+      <c r="F30" s="8">
+        <f t="shared" si="5"/>
+        <v>438.24803921568628</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C31" s="18" t="e">
-        <f>$M$23*A10+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D31" s="18" t="e">
-        <f>C10-C31</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E31" s="18" t="e">
-        <f>$U$23*C10+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F31" s="18" t="e">
-        <f>E10-E31</f>
-        <v>#VALUE!</v>
+      <c r="C31" s="8">
+        <f t="shared" si="2"/>
+        <v>145.01715686274508</v>
+      </c>
+      <c r="D31" s="8">
+        <f t="shared" si="3"/>
+        <v>94.982843137254918</v>
+      </c>
+      <c r="E31" s="8">
+        <f t="shared" si="4"/>
+        <v>-243.26470588235304</v>
+      </c>
+      <c r="F31" s="8">
+        <f t="shared" si="5"/>
+        <v>497.26470588235304</v>
       </c>
     </row>
     <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="18" t="e">
-        <f>$M$23*A11+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D32" s="18" t="e">
-        <f>C11-C32</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E32" s="18" t="e">
-        <f>$U$23*C11+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F32" s="18" t="e">
-        <f>E11-E32</f>
-        <v>#VALUE!</v>
+      <c r="C32" s="8">
+        <f t="shared" si="2"/>
+        <v>120.76470588235293</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" si="3"/>
+        <v>136.23529411764707</v>
+      </c>
+      <c r="E32" s="8">
+        <f t="shared" si="4"/>
+        <v>-285.28137254901969</v>
+      </c>
+      <c r="F32" s="8">
+        <f t="shared" si="5"/>
+        <v>554.28137254901969</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C33" s="18" t="e">
-        <f>$M$23*A12+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D33" s="18" t="e">
-        <f>C12-C33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="18" t="e">
-        <f>$U$23*C12+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F33" s="18" t="e">
-        <f>E12-E33</f>
-        <v>#VALUE!</v>
+      <c r="C33" s="8">
+        <f t="shared" si="2"/>
+        <v>96.512254901960773</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="3"/>
+        <v>182.48774509803923</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" si="4"/>
+        <v>-339.65588235294126</v>
+      </c>
+      <c r="F33" s="8">
+        <f t="shared" si="5"/>
+        <v>628.65588235294126</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C34" s="18" t="e">
-        <f>$M$23*A13+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D34" s="18" t="e">
-        <f>C13-C34</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" s="18" t="e">
-        <f>$U$23*C13+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F34" s="18" t="e">
-        <f>E13-E34</f>
-        <v>#VALUE!</v>
+      <c r="C34" s="8">
+        <f t="shared" si="2"/>
+        <v>72.259803921568619</v>
+      </c>
+      <c r="D34" s="8">
+        <f t="shared" si="3"/>
+        <v>224.74019607843138</v>
+      </c>
+      <c r="E34" s="8">
+        <f t="shared" si="4"/>
+        <v>-384.14411764705892</v>
+      </c>
+      <c r="F34" s="8">
+        <f t="shared" si="5"/>
+        <v>693.14411764705892</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C35" s="18" t="e">
-        <f>$M$23*A14+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D35" s="18" t="e">
-        <f>C14-C35</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" s="18" t="e">
-        <f>$U$23*C14+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F35" s="18" t="e">
-        <f>E14-E35</f>
-        <v>#VALUE!</v>
+      <c r="C35" s="8">
+        <f t="shared" si="2"/>
+        <v>48.007352941176407</v>
+      </c>
+      <c r="D35" s="8">
+        <f t="shared" si="3"/>
+        <v>270.99264705882359</v>
+      </c>
+      <c r="E35" s="8">
+        <f t="shared" si="4"/>
+        <v>-438.51862745098049</v>
+      </c>
+      <c r="F35" s="8">
+        <f t="shared" si="5"/>
+        <v>764.51862745098049</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C36" s="18" t="e">
-        <f>$M$23*A15+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D36" s="18" t="e">
-        <f>C15-C36</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" s="18" t="e">
-        <f>$U$23*C15+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F36" s="18" t="e">
-        <f>E15-E36</f>
-        <v>#VALUE!</v>
+      <c r="C36" s="8">
+        <f t="shared" si="2"/>
+        <v>23.754901960784252</v>
+      </c>
+      <c r="D36" s="8">
+        <f t="shared" si="3"/>
+        <v>314.24509803921575</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="4"/>
+        <v>-485.47843137254915</v>
+      </c>
+      <c r="F36" s="8">
+        <f t="shared" si="5"/>
+        <v>825.47843137254915</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C37" s="18" t="e">
-        <f>$M$23*A16+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D37" s="18" t="e">
-        <f>C16-C37</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" s="18" t="e">
-        <f>$U$23*C16+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F37" s="18" t="e">
-        <f>E16-E37</f>
-        <v>#VALUE!</v>
+      <c r="C37" s="8">
+        <f t="shared" si="2"/>
+        <v>-0.49754901960790221</v>
+      </c>
+      <c r="D37" s="8">
+        <f t="shared" si="3"/>
+        <v>-249.5024509803921</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="4"/>
+        <v>967.80392156862763</v>
+      </c>
+      <c r="F37" s="8">
+        <f t="shared" si="5"/>
+        <v>-1217.8039215686276</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C38" s="18" t="e">
-        <f>$M$23*A17+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D38" s="18" t="e">
-        <f>C17-C38</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" s="18" t="e">
-        <f>$U$23*C17+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F38" s="18" t="e">
-        <f>E17-E38</f>
-        <v>#VALUE!</v>
+      <c r="C38" s="8">
+        <f t="shared" si="2"/>
+        <v>-24.750000000000057</v>
+      </c>
+      <c r="D38" s="8">
+        <f t="shared" si="3"/>
+        <v>-225.24999999999994</v>
+      </c>
+      <c r="E38" s="8">
+        <f t="shared" si="4"/>
+        <v>967.80392156862763</v>
+      </c>
+      <c r="F38" s="8">
+        <f t="shared" si="5"/>
+        <v>-1217.8039215686276</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C39" s="18" t="e">
-        <f>$M$23*A18+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D39" s="18" t="e">
-        <f>C18-C39</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E39" s="18" t="e">
-        <f>$U$23*C18+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F39" s="18" t="e">
-        <f>E18-E39</f>
-        <v>#VALUE!</v>
+      <c r="C39" s="8">
+        <f t="shared" si="2"/>
+        <v>-49.002450980392211</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" si="3"/>
+        <v>-200.99754901960779</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="4"/>
+        <v>967.80392156862763</v>
+      </c>
+      <c r="F39" s="8">
+        <f t="shared" si="5"/>
+        <v>-1217.8039215686276</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C40" s="18" t="e">
-        <f>$M$23*A19+$N$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="D40" s="18" t="e">
-        <f>C19-C40</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="18" t="e">
-        <f>$U$23*C19+$V$23</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="F40" s="18" t="e">
-        <f>E19-E40</f>
-        <v>#VALUE!</v>
+      <c r="C40" s="8">
+        <f t="shared" si="2"/>
+        <v>-73.254901960784366</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="3"/>
+        <v>-176.74509803921563</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="4"/>
+        <v>967.80392156862763</v>
+      </c>
+      <c r="F40" s="8">
+        <f t="shared" si="5"/>
+        <v>-1217.8039215686276</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="19"/>
-      <c r="B44" s="19"/>
-      <c r="C44" s="19"/>
-      <c r="D44" s="19"/>
-      <c r="E44" s="19"/>
-      <c r="F44" s="19"/>
-      <c r="G44" s="19"/>
-      <c r="H44" s="19"/>
-      <c r="I44" s="19"/>
-      <c r="J44" s="19"/>
-      <c r="K44" s="19"/>
-      <c r="L44" s="19"/>
-      <c r="M44" s="19"/>
-      <c r="N44" s="19"/>
-      <c r="O44" s="19"/>
-      <c r="P44" s="19"/>
-      <c r="Q44" s="19"/>
-      <c r="R44" s="19"/>
-      <c r="S44" s="19"/>
-      <c r="T44" s="19"/>
-      <c r="U44" s="19"/>
-      <c r="V44" s="19"/>
-      <c r="W44" s="19"/>
-      <c r="X44" s="19"/>
-      <c r="Y44" s="19"/>
-      <c r="Z44" s="19"/>
-      <c r="AA44" s="19"/>
-      <c r="AB44" s="19"/>
-      <c r="AC44" s="19"/>
+      <c r="A44" s="9"/>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9"/>
+      <c r="F44" s="9"/>
+      <c r="G44" s="9"/>
+      <c r="H44" s="9"/>
+      <c r="I44" s="9"/>
+      <c r="J44" s="9"/>
+      <c r="K44" s="9"/>
+      <c r="L44" s="9"/>
+      <c r="M44" s="9"/>
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+      <c r="V44" s="9"/>
+      <c r="W44" s="9"/>
+      <c r="X44" s="9"/>
+      <c r="Y44" s="9"/>
+      <c r="Z44" s="9"/>
+      <c r="AA44" s="9"/>
+      <c r="AB44" s="9"/>
+      <c r="AC44" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="9">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="E22:F22"/>
     <mergeCell ref="O24:P24"/>
     <mergeCell ref="O23:P23"/>
     <mergeCell ref="L22:P22"/>
     <mergeCell ref="T22:X22"/>
     <mergeCell ref="W23:X23"/>
     <mergeCell ref="W24:X24"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11240,576 +11740,704 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2182AA-7EBB-49A0-89F7-5F73F45DCB8C}">
   <dimension ref="A3:AC72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="S55" sqref="S55"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G56" sqref="G56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7"/>
-      <c r="M3" s="5" t="s">
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="16"/>
+      <c r="M3" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="7"/>
-      <c r="Z3" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA3" s="16"/>
-      <c r="AB3" s="16" t="s">
+      <c r="N3" s="15"/>
+      <c r="O3" s="15"/>
+      <c r="P3" s="16"/>
+      <c r="Z3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA3" s="13"/>
+      <c r="AB3" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AC3" s="16"/>
+      <c r="AC3" s="13"/>
     </row>
     <row r="4" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="9" t="s">
+      <c r="C4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="O4" s="9" t="s">
+      <c r="O4" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="P4" s="9" t="s">
+      <c r="P4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="Z4" s="17" t="s">
+      <c r="Z4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AA4" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="AA4" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB4" s="17" t="s">
+      <c r="AB4" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="AC4" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="AC4" s="17" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="11"/>
-      <c r="B5" s="1"/>
+      <c r="A5" s="17">
+        <v>90.94</v>
+      </c>
+      <c r="B5" s="1">
+        <v>515</v>
+      </c>
       <c r="C5" s="1">
         <f>B5-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="1"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="1"/>
+        <v>265</v>
+      </c>
+      <c r="D5" s="1">
+        <v>30</v>
+      </c>
+      <c r="M5" s="17">
+        <v>10.29</v>
+      </c>
+      <c r="N5" s="1">
+        <v>418</v>
+      </c>
       <c r="O5" s="1">
         <f>N5-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P5" s="1"/>
-      <c r="Z5" s="18" t="e">
-        <f>$H$20*D5+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA5" s="18" t="e">
-        <f>C5-Z5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB5" s="18" t="e">
+        <v>168</v>
+      </c>
+      <c r="P5" s="1">
+        <v>12</v>
+      </c>
+      <c r="Z5" s="8" t="e">
+        <f t="shared" ref="Z5:Z21" si="0">$H$20*D5+$I$20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA5" s="8" t="e">
+        <f t="shared" ref="AA5:AA21" si="1">C5-Z5</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB5" s="8" t="e">
         <f>$T$20*P5+$U$20</f>
         <v>#VALUE!</v>
       </c>
-      <c r="AC5" s="18" t="e">
-        <f>C5-AB5</f>
+      <c r="AC5" s="8" t="e">
+        <f t="shared" ref="AC5:AC21" si="2">C5-AB5</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="12"/>
-      <c r="B6" s="1"/>
+      <c r="A6" s="18"/>
+      <c r="B6" s="1">
+        <v>517</v>
+      </c>
       <c r="C6" s="1">
         <f>B6-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="1"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="1"/>
+        <v>267</v>
+      </c>
+      <c r="D6" s="1">
+        <v>80</v>
+      </c>
+      <c r="M6" s="18"/>
+      <c r="N6" s="1">
+        <v>417</v>
+      </c>
       <c r="O6" s="1">
         <f>N6-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P6" s="1"/>
-      <c r="Z6" s="18" t="e">
-        <f>$H$20*D6+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" s="18" t="e">
-        <f>C6-Z6</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" s="18" t="e">
-        <f t="shared" ref="AB6:AB69" si="0">$T$20*P6+$U$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" s="18" t="e">
-        <f>C6-AB6</f>
+        <v>167</v>
+      </c>
+      <c r="P6" s="1">
+        <v>71</v>
+      </c>
+      <c r="Z6" s="8" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA6" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB6" s="8" t="e">
+        <f t="shared" ref="AB6:AB69" si="3">$T$20*P6+$U$20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC6" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="12"/>
-      <c r="B7" s="1"/>
+      <c r="A7" s="18"/>
+      <c r="B7" s="1">
+        <v>518</v>
+      </c>
       <c r="C7" s="1">
         <f>B7-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D7" s="1"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="D7" s="1">
+        <v>126</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="1">
+        <v>416.9</v>
+      </c>
       <c r="O7" s="1">
         <f>N7-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P7" s="1"/>
-      <c r="Z7" s="18" t="e">
-        <f>$H$20*D7+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" s="18" t="e">
-        <f>C7-Z7</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" s="18" t="e">
+        <v>166.89999999999998</v>
+      </c>
+      <c r="P7" s="1">
+        <v>124</v>
+      </c>
+      <c r="Z7" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC7" s="18" t="e">
-        <f>C7-AB7</f>
+      <c r="AA7" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB7" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC7" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="1"/>
+      <c r="A8" s="18"/>
+      <c r="B8" s="1">
+        <v>518</v>
+      </c>
       <c r="C8" s="1">
         <f>B8-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="1"/>
-      <c r="M8" s="12"/>
-      <c r="N8" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="D8" s="1">
+        <v>161</v>
+      </c>
+      <c r="M8" s="18"/>
+      <c r="N8" s="1">
+        <v>416.5</v>
+      </c>
       <c r="O8" s="1">
         <f>N8-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P8" s="1"/>
-      <c r="Z8" s="18" t="e">
-        <f>$H$20*D8+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA8" s="18" t="e">
-        <f>C8-Z8</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB8" s="18" t="e">
+        <v>166.5</v>
+      </c>
+      <c r="P8" s="1">
+        <v>163</v>
+      </c>
+      <c r="Z8" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC8" s="18" t="e">
-        <f>C8-AB8</f>
+      <c r="AA8" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB8" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC8" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="12"/>
-      <c r="B9" s="1"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="1">
+        <v>518</v>
+      </c>
       <c r="C9" s="1">
         <f>B9-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="1"/>
+        <v>268</v>
+      </c>
+      <c r="D9" s="1">
+        <v>205</v>
+      </c>
+      <c r="M9" s="18"/>
+      <c r="N9" s="1">
+        <v>416.4</v>
+      </c>
       <c r="O9" s="1">
         <f>N9-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P9" s="1"/>
-      <c r="Z9" s="18" t="e">
-        <f>$H$20*D9+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA9" s="18" t="e">
-        <f>C9-Z9</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB9" s="18" t="e">
+        <v>166.39999999999998</v>
+      </c>
+      <c r="P9" s="1">
+        <v>206</v>
+      </c>
+      <c r="Z9" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC9" s="18" t="e">
-        <f>C9-AB9</f>
+      <c r="AA9" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB9" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC9" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="12"/>
-      <c r="B10" s="1"/>
+      <c r="A10" s="18"/>
+      <c r="B10" s="1">
+        <v>518.5</v>
+      </c>
       <c r="C10" s="1">
         <f>B10-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D10" s="1"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="1"/>
+        <v>268.5</v>
+      </c>
+      <c r="D10" s="1">
+        <v>250</v>
+      </c>
+      <c r="M10" s="18"/>
+      <c r="N10" s="1">
+        <v>416.3</v>
+      </c>
       <c r="O10" s="1">
         <f>N10-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P10" s="1"/>
-      <c r="Z10" s="18" t="e">
-        <f>$H$20*D10+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA10" s="18" t="e">
-        <f>C10-Z10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB10" s="18" t="e">
+        <v>166.3</v>
+      </c>
+      <c r="P10" s="1">
+        <v>274</v>
+      </c>
+      <c r="Z10" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC10" s="18" t="e">
-        <f>C10-AB10</f>
+      <c r="AA10" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB10" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC10" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="12"/>
-      <c r="B11" s="1"/>
+      <c r="A11" s="18"/>
+      <c r="B11" s="1">
+        <v>518.70000000000005</v>
+      </c>
       <c r="C11" s="1">
         <f>B11-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="1"/>
-      <c r="M11" s="12"/>
-      <c r="N11" s="1"/>
+        <v>268.70000000000005</v>
+      </c>
+      <c r="D11" s="1">
+        <v>305</v>
+      </c>
+      <c r="M11" s="18"/>
+      <c r="N11" s="1">
+        <v>416</v>
+      </c>
       <c r="O11" s="1">
         <f>N11-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P11" s="1"/>
-      <c r="Z11" s="18" t="e">
-        <f>$H$20*D11+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA11" s="18" t="e">
-        <f>C11-Z11</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB11" s="18" t="e">
+        <v>166</v>
+      </c>
+      <c r="P11" s="1">
+        <v>338</v>
+      </c>
+      <c r="Z11" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC11" s="18" t="e">
-        <f>C11-AB11</f>
+      <c r="AA11" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB11" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC11" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="12"/>
-      <c r="B12" s="1"/>
+      <c r="A12" s="18"/>
+      <c r="B12" s="1">
+        <v>519.1</v>
+      </c>
       <c r="C12" s="1">
         <f>B12-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="1"/>
-      <c r="M12" s="12"/>
-      <c r="N12" s="1"/>
+        <v>269.10000000000002</v>
+      </c>
+      <c r="D12" s="1">
+        <v>417</v>
+      </c>
+      <c r="M12" s="18"/>
+      <c r="N12" s="1">
+        <v>415.7</v>
+      </c>
       <c r="O12" s="1">
         <f>N12-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P12" s="1"/>
-      <c r="Z12" s="18" t="e">
-        <f>$H$20*D12+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA12" s="18" t="e">
-        <f>C12-Z12</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB12" s="18" t="e">
+        <v>165.7</v>
+      </c>
+      <c r="P12" s="1">
+        <v>405</v>
+      </c>
+      <c r="Z12" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC12" s="18" t="e">
-        <f>C12-AB12</f>
+      <c r="AA12" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB12" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC12" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="12"/>
-      <c r="B13" s="1"/>
+      <c r="A13" s="18"/>
+      <c r="B13" s="1">
+        <v>519.5</v>
+      </c>
       <c r="C13" s="1">
         <f>B13-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="1"/>
-      <c r="M13" s="12"/>
-      <c r="N13" s="1"/>
+        <v>269.5</v>
+      </c>
+      <c r="D13" s="1">
+        <v>472</v>
+      </c>
+      <c r="M13" s="18"/>
+      <c r="N13" s="1">
+        <v>415.6</v>
+      </c>
       <c r="O13" s="1">
         <f>N13-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P13" s="1"/>
-      <c r="Z13" s="18" t="e">
-        <f>$H$20*D13+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA13" s="18" t="e">
-        <f>C13-Z13</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB13" s="18" t="e">
+        <v>165.60000000000002</v>
+      </c>
+      <c r="P13" s="1">
+        <v>507</v>
+      </c>
+      <c r="Z13" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC13" s="18" t="e">
-        <f>C13-AB13</f>
+      <c r="AA13" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB13" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC13" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="12"/>
-      <c r="B14" s="1"/>
+      <c r="A14" s="18"/>
+      <c r="B14" s="1">
+        <v>519.5</v>
+      </c>
       <c r="C14" s="1">
         <f>B14-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="1"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="1"/>
+        <v>269.5</v>
+      </c>
+      <c r="D14" s="1">
+        <v>536</v>
+      </c>
+      <c r="M14" s="18"/>
+      <c r="N14" s="1">
+        <v>415.5</v>
+      </c>
       <c r="O14" s="1">
         <f>N14-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P14" s="1"/>
-      <c r="Z14" s="18" t="e">
-        <f>$H$20*D14+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA14" s="18" t="e">
-        <f>C14-Z14</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB14" s="18" t="e">
+        <v>165.5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>600</v>
+      </c>
+      <c r="Z14" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC14" s="18" t="e">
-        <f>C14-AB14</f>
+      <c r="AA14" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB14" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC14" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="1"/>
+      <c r="A15" s="18"/>
+      <c r="B15" s="1">
+        <v>519.79999999999995</v>
+      </c>
       <c r="C15" s="1">
         <f>B15-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="1"/>
-      <c r="M15" s="12"/>
-      <c r="N15" s="1"/>
+        <v>269.79999999999995</v>
+      </c>
+      <c r="D15" s="1">
+        <v>594</v>
+      </c>
+      <c r="M15" s="18"/>
+      <c r="N15" s="1">
+        <v>415.2</v>
+      </c>
       <c r="O15" s="1">
         <f>N15-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P15" s="1"/>
-      <c r="Z15" s="18" t="e">
-        <f>$H$20*D15+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA15" s="18" t="e">
-        <f>C15-Z15</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB15" s="18" t="e">
+        <v>165.2</v>
+      </c>
+      <c r="P15" s="1">
+        <v>701</v>
+      </c>
+      <c r="Z15" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC15" s="18" t="e">
-        <f>C15-AB15</f>
+      <c r="AA15" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB15" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC15" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="1"/>
+      <c r="A16" s="18"/>
+      <c r="B16" s="1">
+        <v>519.9</v>
+      </c>
       <c r="C16" s="1">
         <f>B16-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="1"/>
-      <c r="M16" s="12"/>
-      <c r="N16" s="1"/>
+        <v>269.89999999999998</v>
+      </c>
+      <c r="D16" s="1">
+        <v>652</v>
+      </c>
+      <c r="M16" s="18"/>
+      <c r="N16" s="1">
+        <v>415.1</v>
+      </c>
       <c r="O16" s="1">
         <f>N16-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P16" s="1"/>
-      <c r="Z16" s="18" t="e">
-        <f>$H$20*D16+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA16" s="18" t="e">
-        <f>C16-Z16</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB16" s="18" t="e">
+        <v>165.10000000000002</v>
+      </c>
+      <c r="P16" s="1">
+        <v>808</v>
+      </c>
+      <c r="Z16" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC16" s="18" t="e">
-        <f>C16-AB16</f>
+      <c r="AA16" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB16" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC16" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="1"/>
+      <c r="A17" s="18"/>
+      <c r="B17" s="1">
+        <v>520</v>
+      </c>
       <c r="C17" s="1">
         <f>B17-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="1"/>
-      <c r="M17" s="12"/>
-      <c r="N17" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="D17" s="1">
+        <v>709</v>
+      </c>
+      <c r="M17" s="18"/>
+      <c r="N17" s="1">
+        <v>415</v>
+      </c>
       <c r="O17" s="1">
         <f>N17-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P17" s="1"/>
-      <c r="Z17" s="18" t="e">
-        <f>$H$20*D17+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA17" s="18" t="e">
-        <f>C17-Z17</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB17" s="18" t="e">
+        <v>165</v>
+      </c>
+      <c r="P17" s="1">
+        <v>918</v>
+      </c>
+      <c r="Z17" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC17" s="18" t="e">
-        <f>C17-AB17</f>
+      <c r="AA17" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB17" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC17" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="1"/>
+      <c r="A18" s="18"/>
+      <c r="B18" s="1">
+        <v>520</v>
+      </c>
       <c r="C18" s="1">
         <f>B18-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="1"/>
-      <c r="M18" s="12"/>
-      <c r="N18" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="D18" s="1">
+        <v>784</v>
+      </c>
+      <c r="M18" s="18"/>
+      <c r="N18" s="1">
+        <v>415</v>
+      </c>
       <c r="O18" s="1">
         <f>N18-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P18" s="1"/>
-      <c r="Z18" s="18" t="e">
-        <f>$H$20*D18+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA18" s="18" t="e">
-        <f>C18-Z18</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB18" s="18" t="e">
+        <v>165</v>
+      </c>
+      <c r="P18" s="1">
+        <v>996</v>
+      </c>
+      <c r="Z18" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC18" s="18" t="e">
-        <f>C18-AB18</f>
+      <c r="AA18" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB18" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC18" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="1"/>
+      <c r="A19" s="18"/>
+      <c r="B19" s="1">
+        <v>520</v>
+      </c>
       <c r="C19" s="1">
         <f>B19-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="G19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
-      <c r="K19" s="15"/>
-      <c r="M19" s="12"/>
-      <c r="N19" s="1"/>
+        <v>270</v>
+      </c>
+      <c r="D19" s="1">
+        <v>845</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="M19" s="18"/>
+      <c r="N19" s="1">
+        <v>415</v>
+      </c>
       <c r="O19" s="1">
         <f>N19-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="P19" s="1"/>
-      <c r="S19" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="T19" s="15"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-      <c r="Z19" s="18" t="e">
-        <f>$H$20*D19+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA19" s="18" t="e">
-        <f>C19-Z19</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB19" s="18" t="e">
+        <v>165</v>
+      </c>
+      <c r="P19" s="1">
+        <v>1030</v>
+      </c>
+      <c r="S19" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="Z19" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC19" s="18" t="e">
-        <f>C19-AB19</f>
+      <c r="AA19" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB19" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC19" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="12"/>
-      <c r="B20" s="1"/>
+      <c r="A20" s="18"/>
+      <c r="B20" s="1">
+        <v>520</v>
+      </c>
       <c r="C20" s="1">
         <f>B20-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D20" s="1"/>
-      <c r="G20" s="8" t="s">
-        <v>21</v>
+        <v>270</v>
+      </c>
+      <c r="D20" s="1">
+        <v>905</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="H20" s="1" t="e">
         <f t="array" ref="H20:I21">LINEST(C5:C72,D5:D72,TRUE,TRUE)</f>
@@ -11818,19 +12446,19 @@
       <c r="I20" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="K20" s="15"/>
-      <c r="M20" s="12"/>
+      <c r="J20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K20" s="10"/>
+      <c r="M20" s="18"/>
       <c r="N20" s="1"/>
       <c r="O20" s="1">
         <f>N20-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P20" s="1"/>
-      <c r="S20" s="8" t="s">
-        <v>21</v>
+      <c r="S20" s="3" t="s">
+        <v>20</v>
       </c>
       <c r="T20" s="1" t="e">
         <f t="array" ref="T20:U21">LINEST(O5:O72,P5:P72,TRUE,TRUE)</f>
@@ -11839,37 +12467,41 @@
       <c r="U20" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="V20" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="W20" s="15"/>
-      <c r="Z20" s="18" t="e">
-        <f>$H$20*D20+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA20" s="18" t="e">
-        <f>C20-Z20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB20" s="18" t="e">
+      <c r="V20" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="Z20" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC20" s="18" t="e">
-        <f>C20-AB20</f>
+      <c r="AA20" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB20" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC20" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="12"/>
-      <c r="B21" s="1"/>
+      <c r="A21" s="18"/>
+      <c r="B21" s="1">
+        <v>520</v>
+      </c>
       <c r="C21" s="1">
         <f>B21-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
-      </c>
-      <c r="D21" s="1"/>
-      <c r="G21" s="8" t="s">
-        <v>22</v>
+        <v>270</v>
+      </c>
+      <c r="D21" s="1">
+        <v>944</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="H21" s="1" t="e">
         <v>#VALUE!</v>
@@ -11877,19 +12509,19 @@
       <c r="I21" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="J21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K21" s="15"/>
-      <c r="M21" s="12"/>
+      <c r="J21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K21" s="10"/>
+      <c r="M21" s="18"/>
       <c r="N21" s="1"/>
       <c r="O21" s="1">
         <f>N21-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P21" s="1"/>
-      <c r="S21" s="8" t="s">
-        <v>22</v>
+      <c r="S21" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="T21" s="1" t="e">
         <v>#VALUE!</v>
@@ -11897,1666 +12529,1661 @@
       <c r="U21" s="1" t="e">
         <v>#VALUE!</v>
       </c>
-      <c r="V21" s="15" t="s">
-        <v>24</v>
-      </c>
-      <c r="W21" s="15"/>
-      <c r="Z21" s="18" t="e">
-        <f>$H$20*D21+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA21" s="18" t="e">
-        <f>C21-Z21</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB21" s="18" t="e">
+      <c r="V21" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="W21" s="10"/>
+      <c r="Z21" s="8" t="e">
         <f t="shared" si="0"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC21" s="18" t="e">
-        <f>C21-AB21</f>
+      <c r="AA21" s="8" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB21" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC21" s="8" t="e">
+        <f t="shared" si="2"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="12"/>
+      <c r="A22" s="18"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1">
         <f>B22-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="M22" s="12"/>
+      <c r="M22" s="18"/>
       <c r="N22" s="1"/>
       <c r="O22" s="1">
         <f>N22-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P22" s="1"/>
-      <c r="Z22" s="18" t="e">
-        <f t="shared" ref="Z22:Z72" si="1">$H$20*D22+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA22" s="18" t="e">
-        <f t="shared" ref="AA22:AA72" si="2">C22-Z22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB22" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC22" s="18" t="e">
-        <f t="shared" ref="AC22:AC72" si="3">C22-AB22</f>
+      <c r="Z22" s="8" t="e">
+        <f t="shared" ref="Z22:Z72" si="4">$H$20*D22+$I$20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA22" s="8" t="e">
+        <f t="shared" ref="AA22:AA72" si="5">C22-Z22</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB22" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC22" s="8" t="e">
+        <f t="shared" ref="AC22:AC72" si="6">C22-AB22</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
+      <c r="A23" s="18"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1">
         <f>B23-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D23" s="1"/>
-      <c r="M23" s="12"/>
+      <c r="M23" s="18"/>
       <c r="N23" s="1"/>
       <c r="O23" s="1">
         <f>N23-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P23" s="1"/>
-      <c r="Z23" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA23" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB23" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC23" s="18" t="e">
+      <c r="Z23" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA23" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB23" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC23" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="12"/>
+      <c r="A24" s="18"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1">
         <f>B24-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D24" s="1"/>
-      <c r="M24" s="12"/>
+      <c r="M24" s="18"/>
       <c r="N24" s="1"/>
       <c r="O24" s="1">
         <f>N24-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P24" s="1"/>
-      <c r="Z24" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA24" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB24" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC24" s="18" t="e">
+      <c r="Z24" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA24" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB24" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC24" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="12"/>
+      <c r="A25" s="18"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1">
         <f>B25-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D25" s="1"/>
-      <c r="M25" s="12"/>
+      <c r="M25" s="18"/>
       <c r="N25" s="1"/>
       <c r="O25" s="1">
         <f>N25-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P25" s="1"/>
-      <c r="Z25" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA25" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB25" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC25" s="18" t="e">
+      <c r="Z25" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA25" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB25" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC25" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="12"/>
+      <c r="A26" s="18"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1">
         <f>B26-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D26" s="1"/>
-      <c r="M26" s="12"/>
+      <c r="M26" s="18"/>
       <c r="N26" s="1"/>
       <c r="O26" s="1">
         <f>N26-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P26" s="1"/>
-      <c r="Z26" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA26" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB26" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC26" s="18" t="e">
+      <c r="Z26" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA26" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB26" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC26" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
+      <c r="A27" s="18"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1">
         <f>B27-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D27" s="1"/>
-      <c r="M27" s="12"/>
+      <c r="M27" s="18"/>
       <c r="N27" s="1"/>
       <c r="O27" s="1">
         <f>N27-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P27" s="1"/>
-      <c r="Z27" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA27" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB27" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC27" s="18" t="e">
+      <c r="Z27" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA27" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB27" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC27" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="12"/>
+      <c r="A28" s="18"/>
       <c r="B28" s="1"/>
       <c r="C28" s="1">
         <f>B28-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="M28" s="12"/>
+      <c r="M28" s="18"/>
       <c r="N28" s="1"/>
       <c r="O28" s="1">
         <f>N28-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P28" s="1"/>
-      <c r="Z28" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA28" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB28" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC28" s="18" t="e">
+      <c r="Z28" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA28" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB28" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC28" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="12"/>
+      <c r="A29" s="18"/>
       <c r="B29" s="1"/>
       <c r="C29" s="1">
         <f>B29-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="M29" s="12"/>
+      <c r="M29" s="18"/>
       <c r="N29" s="1"/>
       <c r="O29" s="1">
         <f>N29-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P29" s="1"/>
-      <c r="Z29" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA29" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB29" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC29" s="18" t="e">
+      <c r="Z29" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA29" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB29" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC29" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="12"/>
+      <c r="A30" s="18"/>
       <c r="B30" s="1"/>
       <c r="C30" s="1">
         <f>B30-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="M30" s="12"/>
+      <c r="M30" s="18"/>
       <c r="N30" s="1"/>
       <c r="O30" s="1">
         <f>N30-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P30" s="1"/>
-      <c r="Z30" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA30" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB30" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC30" s="18" t="e">
+      <c r="Z30" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA30" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB30" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC30" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="12"/>
+      <c r="A31" s="18"/>
       <c r="B31" s="1"/>
       <c r="C31" s="1">
         <f>B31-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D31" s="1"/>
-      <c r="M31" s="12"/>
+      <c r="M31" s="18"/>
       <c r="N31" s="1"/>
       <c r="O31" s="1">
         <f>N31-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P31" s="1"/>
-      <c r="Z31" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA31" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB31" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC31" s="18" t="e">
+      <c r="Z31" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA31" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB31" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC31" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="12"/>
+      <c r="A32" s="18"/>
       <c r="B32" s="1"/>
       <c r="C32" s="1">
         <f>B32-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="M32" s="12"/>
+      <c r="M32" s="18"/>
       <c r="N32" s="1"/>
       <c r="O32" s="1">
         <f>N32-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P32" s="1"/>
-      <c r="Z32" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA32" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB32" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC32" s="18" t="e">
+      <c r="Z32" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA32" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB32" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC32" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="12"/>
+      <c r="A33" s="18"/>
       <c r="B33" s="1"/>
       <c r="C33" s="1">
         <f>B33-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D33" s="1"/>
-      <c r="M33" s="12"/>
+      <c r="M33" s="18"/>
       <c r="N33" s="1"/>
       <c r="O33" s="1">
         <f>N33-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P33" s="1"/>
-      <c r="Z33" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA33" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB33" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC33" s="18" t="e">
+      <c r="Z33" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA33" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB33" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC33" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="12"/>
+      <c r="A34" s="18"/>
       <c r="B34" s="1"/>
       <c r="C34" s="1">
         <f>B34-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D34" s="1"/>
-      <c r="M34" s="12"/>
+      <c r="M34" s="18"/>
       <c r="N34" s="1"/>
       <c r="O34" s="1">
         <f>N34-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P34" s="1"/>
-      <c r="Z34" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA34" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB34" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC34" s="18" t="e">
+      <c r="Z34" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA34" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB34" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC34" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="12"/>
+      <c r="A35" s="18"/>
       <c r="B35" s="1"/>
       <c r="C35" s="1">
         <f>B35-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D35" s="1"/>
-      <c r="M35" s="12"/>
+      <c r="M35" s="18"/>
       <c r="N35" s="1"/>
       <c r="O35" s="1">
         <f>N35-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P35" s="1"/>
-      <c r="Z35" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA35" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB35" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC35" s="18" t="e">
+      <c r="Z35" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA35" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB35" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC35" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="12"/>
+      <c r="A36" s="18"/>
       <c r="B36" s="1"/>
       <c r="C36" s="1">
         <f>B36-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D36" s="1"/>
-      <c r="M36" s="12"/>
+      <c r="M36" s="18"/>
       <c r="N36" s="1"/>
       <c r="O36" s="1">
         <f>N36-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P36" s="1"/>
-      <c r="Z36" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA36" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB36" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC36" s="18" t="e">
+      <c r="Z36" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA36" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB36" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC36" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="12"/>
+      <c r="A37" s="18"/>
       <c r="B37" s="1"/>
       <c r="C37" s="1">
         <f>B37-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D37" s="1"/>
-      <c r="M37" s="12"/>
+      <c r="M37" s="18"/>
       <c r="N37" s="1"/>
       <c r="O37" s="1">
         <f>N37-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P37" s="1"/>
-      <c r="Z37" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA37" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB37" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC37" s="18" t="e">
+      <c r="Z37" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA37" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB37" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC37" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="12"/>
+      <c r="A38" s="18"/>
       <c r="B38" s="1"/>
       <c r="C38" s="1">
         <f>B38-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D38" s="1"/>
-      <c r="M38" s="12"/>
+      <c r="M38" s="18"/>
       <c r="N38" s="1"/>
       <c r="O38" s="1">
         <f>N38-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P38" s="1"/>
-      <c r="Z38" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA38" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB38" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC38" s="18" t="e">
+      <c r="Z38" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA38" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB38" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC38" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="12"/>
+      <c r="A39" s="18"/>
       <c r="B39" s="1"/>
       <c r="C39" s="1">
         <f>B39-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D39" s="1"/>
-      <c r="M39" s="12"/>
+      <c r="M39" s="18"/>
       <c r="N39" s="1"/>
       <c r="O39" s="1">
         <f>N39-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P39" s="1"/>
-      <c r="Z39" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA39" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB39" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC39" s="18" t="e">
+      <c r="Z39" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA39" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB39" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC39" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="12"/>
+      <c r="A40" s="18"/>
       <c r="B40" s="1"/>
       <c r="C40" s="1">
         <f>B40-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D40" s="1"/>
-      <c r="M40" s="12"/>
+      <c r="M40" s="18"/>
       <c r="N40" s="1"/>
       <c r="O40" s="1">
         <f>N40-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P40" s="1"/>
-      <c r="Z40" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA40" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB40" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC40" s="18" t="e">
+      <c r="Z40" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA40" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB40" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC40" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="12"/>
+      <c r="A41" s="18"/>
       <c r="B41" s="1"/>
       <c r="C41" s="1">
         <f>B41-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D41" s="1"/>
-      <c r="M41" s="12"/>
+      <c r="M41" s="18"/>
       <c r="N41" s="1"/>
       <c r="O41" s="1">
         <f>N41-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P41" s="1"/>
-      <c r="Z41" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA41" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB41" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC41" s="18" t="e">
+      <c r="Z41" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA41" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB41" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC41" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="12"/>
+      <c r="A42" s="18"/>
       <c r="B42" s="1"/>
       <c r="C42" s="1">
         <f>B42-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D42" s="1"/>
-      <c r="M42" s="12"/>
+      <c r="M42" s="18"/>
       <c r="N42" s="1"/>
       <c r="O42" s="1">
         <f>N42-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P42" s="1"/>
-      <c r="Z42" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA42" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB42" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC42" s="18" t="e">
+      <c r="Z42" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA42" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB42" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC42" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="12"/>
+      <c r="A43" s="18"/>
       <c r="B43" s="1"/>
       <c r="C43" s="1">
         <f>B43-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="M43" s="12"/>
+      <c r="M43" s="18"/>
       <c r="N43" s="1"/>
       <c r="O43" s="1">
         <f>N43-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P43" s="1"/>
-      <c r="Z43" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA43" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB43" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC43" s="18" t="e">
+      <c r="Z43" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA43" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB43" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC43" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="12"/>
+      <c r="A44" s="18"/>
       <c r="B44" s="1"/>
       <c r="C44" s="1">
         <f>B44-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="M44" s="12"/>
+      <c r="M44" s="18"/>
       <c r="N44" s="1"/>
       <c r="O44" s="1">
         <f>N44-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P44" s="1"/>
-      <c r="Z44" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA44" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB44" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC44" s="18" t="e">
+      <c r="Z44" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA44" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB44" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC44" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="12"/>
+      <c r="A45" s="18"/>
       <c r="B45" s="1"/>
       <c r="C45" s="1">
         <f>B45-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="M45" s="12"/>
+      <c r="M45" s="18"/>
       <c r="N45" s="1"/>
       <c r="O45" s="1">
         <f>N45-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P45" s="1"/>
-      <c r="Z45" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA45" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB45" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC45" s="18" t="e">
+      <c r="Z45" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA45" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB45" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC45" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="12"/>
+      <c r="A46" s="18"/>
       <c r="B46" s="1"/>
       <c r="C46" s="1">
         <f>B46-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="M46" s="12"/>
+      <c r="M46" s="18"/>
       <c r="N46" s="1"/>
       <c r="O46" s="1">
         <f>N46-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P46" s="1"/>
-      <c r="Z46" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA46" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB46" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC46" s="18" t="e">
+      <c r="Z46" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA46" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB46" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC46" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="12"/>
+      <c r="A47" s="18"/>
       <c r="B47" s="1"/>
       <c r="C47" s="1">
         <f>B47-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="M47" s="12"/>
+      <c r="M47" s="18"/>
       <c r="N47" s="1"/>
       <c r="O47" s="1">
         <f>N47-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P47" s="1"/>
-      <c r="Z47" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA47" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB47" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC47" s="18" t="e">
+      <c r="Z47" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA47" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB47" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC47" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="12"/>
+      <c r="A48" s="18"/>
       <c r="B48" s="1"/>
       <c r="C48" s="1">
         <f>B48-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="M48" s="12"/>
+      <c r="M48" s="18"/>
       <c r="N48" s="1"/>
       <c r="O48" s="1">
         <f>N48-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P48" s="1"/>
-      <c r="Z48" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA48" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB48" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC48" s="18" t="e">
+      <c r="Z48" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA48" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB48" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC48" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="12"/>
+      <c r="A49" s="18"/>
       <c r="B49" s="1"/>
       <c r="C49" s="1">
         <f>B49-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="M49" s="12"/>
+      <c r="M49" s="18"/>
       <c r="N49" s="1"/>
       <c r="O49" s="1">
         <f>N49-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P49" s="1"/>
-      <c r="Z49" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA49" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB49" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC49" s="18" t="e">
+      <c r="Z49" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA49" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB49" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC49" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="12"/>
+      <c r="A50" s="18"/>
       <c r="B50" s="1"/>
       <c r="C50" s="1">
         <f>B50-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="M50" s="12"/>
+      <c r="M50" s="18"/>
       <c r="N50" s="1"/>
       <c r="O50" s="1">
         <f>N50-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P50" s="1"/>
-      <c r="Z50" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA50" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB50" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC50" s="18" t="e">
+      <c r="Z50" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA50" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB50" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC50" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A51" s="12"/>
+      <c r="A51" s="18"/>
       <c r="B51" s="1"/>
       <c r="C51" s="1">
         <f>B51-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="M51" s="12"/>
+      <c r="M51" s="18"/>
       <c r="N51" s="1"/>
       <c r="O51" s="1">
         <f>N51-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P51" s="1"/>
-      <c r="Z51" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA51" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB51" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC51" s="18" t="e">
+      <c r="Z51" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA51" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB51" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC51" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A52" s="12"/>
+      <c r="A52" s="18"/>
       <c r="B52" s="1"/>
       <c r="C52" s="1">
         <f>B52-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="M52" s="12"/>
+      <c r="M52" s="18"/>
       <c r="N52" s="1"/>
       <c r="O52" s="1">
         <f>N52-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P52" s="1"/>
-      <c r="Z52" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA52" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB52" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC52" s="18" t="e">
+      <c r="Z52" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA52" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB52" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC52" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A53" s="12"/>
+      <c r="A53" s="18"/>
       <c r="B53" s="1"/>
       <c r="C53" s="1">
         <f>B53-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="M53" s="12"/>
+      <c r="M53" s="18"/>
       <c r="N53" s="1"/>
       <c r="O53" s="1">
         <f>N53-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P53" s="1"/>
-      <c r="Z53" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA53" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB53" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC53" s="18" t="e">
+      <c r="Z53" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA53" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB53" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC53" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" s="12"/>
+      <c r="A54" s="18"/>
       <c r="B54" s="1"/>
       <c r="C54" s="1">
         <f>B54-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="M54" s="12"/>
+      <c r="M54" s="18"/>
       <c r="N54" s="1"/>
       <c r="O54" s="1">
         <f>N54-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P54" s="1"/>
-      <c r="Z54" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA54" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB54" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC54" s="18" t="e">
+      <c r="Z54" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA54" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB54" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC54" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A55" s="12"/>
+      <c r="A55" s="18"/>
       <c r="B55" s="1"/>
       <c r="C55" s="1">
         <f>B55-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="M55" s="12"/>
+      <c r="M55" s="18"/>
       <c r="N55" s="1"/>
       <c r="O55" s="1">
         <f>N55-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P55" s="1"/>
-      <c r="Z55" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA55" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB55" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC55" s="18" t="e">
+      <c r="Z55" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA55" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB55" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC55" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="12"/>
+      <c r="A56" s="18"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1">
         <f>B56-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="M56" s="12"/>
+      <c r="M56" s="18"/>
       <c r="N56" s="1"/>
       <c r="O56" s="1">
         <f>N56-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P56" s="1"/>
-      <c r="Z56" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA56" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB56" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC56" s="18" t="e">
+      <c r="Z56" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA56" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB56" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC56" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="12"/>
+      <c r="A57" s="18"/>
       <c r="B57" s="1"/>
       <c r="C57" s="1">
         <f>B57-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D57" s="1"/>
-      <c r="M57" s="12"/>
+      <c r="M57" s="18"/>
       <c r="N57" s="1"/>
       <c r="O57" s="1">
         <f>N57-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P57" s="1"/>
-      <c r="Z57" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA57" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB57" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC57" s="18" t="e">
+      <c r="Z57" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA57" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB57" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC57" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A58" s="12"/>
+      <c r="A58" s="18"/>
       <c r="B58" s="1"/>
       <c r="C58" s="1">
         <f>B58-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D58" s="1"/>
-      <c r="M58" s="12"/>
+      <c r="M58" s="18"/>
       <c r="N58" s="1"/>
       <c r="O58" s="1">
         <f>N58-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P58" s="1"/>
-      <c r="Z58" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA58" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB58" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC58" s="18" t="e">
+      <c r="Z58" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA58" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB58" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC58" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A59" s="12"/>
+      <c r="A59" s="18"/>
       <c r="B59" s="1"/>
       <c r="C59" s="1">
         <f>B59-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D59" s="1"/>
-      <c r="M59" s="12"/>
+      <c r="M59" s="18"/>
       <c r="N59" s="1"/>
       <c r="O59" s="1">
         <f>N59-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P59" s="1"/>
-      <c r="Z59" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA59" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB59" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC59" s="18" t="e">
+      <c r="Z59" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA59" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB59" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC59" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A60" s="12"/>
+      <c r="A60" s="18"/>
       <c r="B60" s="1"/>
       <c r="C60" s="1">
         <f>B60-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D60" s="1"/>
-      <c r="M60" s="12"/>
+      <c r="M60" s="18"/>
       <c r="N60" s="1"/>
       <c r="O60" s="1">
         <f>N60-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P60" s="1"/>
-      <c r="Z60" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA60" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB60" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC60" s="18" t="e">
+      <c r="Z60" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA60" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB60" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC60" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A61" s="12"/>
+      <c r="A61" s="18"/>
       <c r="B61" s="1"/>
       <c r="C61" s="1">
         <f>B61-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D61" s="1"/>
-      <c r="M61" s="12"/>
+      <c r="M61" s="18"/>
       <c r="N61" s="1"/>
       <c r="O61" s="1">
         <f>N61-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P61" s="1"/>
-      <c r="Z61" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA61" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB61" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC61" s="18" t="e">
+      <c r="Z61" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA61" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB61" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC61" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A62" s="12"/>
+      <c r="A62" s="18"/>
       <c r="B62" s="1"/>
       <c r="C62" s="1">
         <f>B62-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D62" s="1"/>
-      <c r="M62" s="12"/>
+      <c r="M62" s="18"/>
       <c r="N62" s="1"/>
       <c r="O62" s="1">
         <f>N62-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P62" s="1"/>
-      <c r="Z62" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA62" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB62" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC62" s="18" t="e">
+      <c r="Z62" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA62" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB62" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC62" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A63" s="12"/>
+      <c r="A63" s="18"/>
       <c r="B63" s="1"/>
       <c r="C63" s="1">
         <f>B63-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D63" s="1"/>
-      <c r="M63" s="12"/>
+      <c r="M63" s="18"/>
       <c r="N63" s="1"/>
       <c r="O63" s="1">
         <f>N63-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P63" s="1"/>
-      <c r="Z63" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA63" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB63" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC63" s="18" t="e">
+      <c r="Z63" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA63" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB63" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC63" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A64" s="12"/>
+      <c r="A64" s="18"/>
       <c r="B64" s="1"/>
       <c r="C64" s="1">
         <f>B64-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D64" s="1"/>
-      <c r="M64" s="12"/>
+      <c r="M64" s="18"/>
       <c r="N64" s="1"/>
       <c r="O64" s="1">
         <f>N64-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P64" s="1"/>
-      <c r="Z64" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA64" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB64" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC64" s="18" t="e">
+      <c r="Z64" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA64" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB64" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC64" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="12"/>
+      <c r="A65" s="18"/>
       <c r="B65" s="1"/>
       <c r="C65" s="1">
         <f>B65-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D65" s="1"/>
-      <c r="M65" s="12"/>
+      <c r="M65" s="18"/>
       <c r="N65" s="1"/>
       <c r="O65" s="1">
         <f>N65-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P65" s="1"/>
-      <c r="Z65" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA65" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB65" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC65" s="18" t="e">
+      <c r="Z65" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA65" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB65" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC65" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="12"/>
+      <c r="A66" s="18"/>
       <c r="B66" s="1"/>
       <c r="C66" s="1">
         <f>B66-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D66" s="1"/>
-      <c r="M66" s="12"/>
+      <c r="M66" s="18"/>
       <c r="N66" s="1"/>
       <c r="O66" s="1">
         <f>N66-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P66" s="1"/>
-      <c r="Z66" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA66" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB66" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC66" s="18" t="e">
+      <c r="Z66" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA66" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB66" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC66" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A67" s="12"/>
+      <c r="A67" s="18"/>
       <c r="B67" s="1"/>
       <c r="C67" s="1">
         <f>B67-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D67" s="1"/>
-      <c r="M67" s="12"/>
+      <c r="M67" s="18"/>
       <c r="N67" s="1"/>
       <c r="O67" s="1">
         <f>N67-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P67" s="1"/>
-      <c r="Z67" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA67" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB67" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC67" s="18" t="e">
+      <c r="Z67" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA67" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB67" s="8" t="e">
+        <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC67" s="8" t="e">
         <f>C67-AB67</f>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A68" s="12"/>
+      <c r="A68" s="18"/>
       <c r="B68" s="1"/>
       <c r="C68" s="1">
         <f>B68-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D68" s="1"/>
-      <c r="M68" s="12"/>
+      <c r="M68" s="18"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1">
         <f>N68-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P68" s="1"/>
-      <c r="Z68" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA68" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB68" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC68" s="18" t="e">
+      <c r="Z68" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA68" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB68" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC68" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A69" s="12"/>
+      <c r="A69" s="18"/>
       <c r="B69" s="1"/>
       <c r="C69" s="1">
         <f>B69-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="M69" s="12"/>
+      <c r="M69" s="18"/>
       <c r="N69" s="1"/>
       <c r="O69" s="1">
         <f>N69-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P69" s="1"/>
-      <c r="Z69" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA69" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB69" s="18" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC69" s="18" t="e">
+      <c r="Z69" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA69" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB69" s="8" t="e">
         <f t="shared" si="3"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC69" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A70" s="12"/>
+      <c r="A70" s="18"/>
       <c r="B70" s="1"/>
       <c r="C70" s="1">
         <f>B70-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D70" s="1"/>
-      <c r="M70" s="12"/>
+      <c r="M70" s="18"/>
       <c r="N70" s="1"/>
       <c r="O70" s="1">
         <f>N70-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P70" s="1"/>
-      <c r="Z70" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA70" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB70" s="18" t="e">
-        <f t="shared" ref="AB70:AB72" si="4">$T$20*P70+$U$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC70" s="18" t="e">
-        <f t="shared" si="3"/>
+      <c r="Z70" s="8" t="e">
+        <f t="shared" si="4"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AA70" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB70" s="8" t="e">
+        <f t="shared" ref="AB70:AB72" si="7">$T$20*P70+$U$20</f>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC70" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A71" s="12"/>
+      <c r="A71" s="18"/>
       <c r="B71" s="1"/>
       <c r="C71" s="1">
         <f>B71-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D71" s="1"/>
-      <c r="M71" s="12"/>
+      <c r="M71" s="18"/>
       <c r="N71" s="1"/>
       <c r="O71" s="1">
         <f>N71-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P71" s="1"/>
-      <c r="Z71" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA71" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB71" s="18" t="e">
+      <c r="Z71" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC71" s="18" t="e">
-        <f t="shared" si="3"/>
+      <c r="AA71" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB71" s="8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC71" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A72" s="13"/>
+      <c r="A72" s="19"/>
       <c r="B72" s="1"/>
       <c r="C72" s="1">
         <f>B72-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="D72" s="1"/>
-      <c r="M72" s="13"/>
+      <c r="M72" s="19"/>
       <c r="N72" s="1"/>
       <c r="O72" s="1">
         <f>N72-'Carga e Descarga'!$M$3</f>
-        <v>0</v>
+        <v>-250</v>
       </c>
       <c r="P72" s="1"/>
-      <c r="Z72" s="18" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA72" s="18" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB72" s="18" t="e">
+      <c r="Z72" s="8" t="e">
         <f t="shared" si="4"/>
         <v>#VALUE!</v>
       </c>
-      <c r="AC72" s="18" t="e">
-        <f t="shared" si="3"/>
+      <c r="AA72" s="8" t="e">
+        <f t="shared" si="5"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AB72" s="8" t="e">
+        <f t="shared" si="7"/>
+        <v>#VALUE!</v>
+      </c>
+      <c r="AC72" s="8" t="e">
+        <f t="shared" si="6"/>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="M5:M72"/>
-    <mergeCell ref="A5:A72"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="G19:K19"/>
     <mergeCell ref="J20:K20"/>
@@ -13564,6 +14191,11 @@
     <mergeCell ref="S19:W19"/>
     <mergeCell ref="V20:W20"/>
     <mergeCell ref="V21:W21"/>
+    <mergeCell ref="M5:M72"/>
+    <mergeCell ref="A5:A72"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="M3:P3"/>
+    <mergeCell ref="Z3:AA3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09A5E803-6581-4CB8-90E8-C4769FB4EA15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E20B9EE-171B-4D6F-8A44-C446948876F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga e Descarga" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="33">
   <si>
     <t>m (g)</t>
   </si>
@@ -110,12 +110,6 @@
     <t>u (b)</t>
   </si>
   <si>
-    <t>Análise Estatística - Carga</t>
-  </si>
-  <si>
-    <t>Análise Estatística - Desarga</t>
-  </si>
-  <si>
     <t>Creep</t>
   </si>
   <si>
@@ -123,6 +117,24 @@
   </si>
   <si>
     <t>L0 (mm)</t>
+  </si>
+  <si>
+    <t>F (N)</t>
+  </si>
+  <si>
+    <t>Coef 1</t>
+  </si>
+  <si>
+    <t>Coef 2</t>
+  </si>
+  <si>
+    <t>Coef 3</t>
+  </si>
+  <si>
+    <t>Coef 4</t>
+  </si>
+  <si>
+    <t>m (kg)</t>
   </si>
 </sst>
 </file>
@@ -177,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -237,48 +249,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -304,6 +279,15 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,15 +306,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,7 +437,7 @@
             <c:v>ΔL(m)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -483,10 +468,77 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,0002x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0,1579x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 48,748x - 4509,4</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -519,120 +571,96 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$A$3:$A$19</c:f>
+              <c:f>'Carga e Descarga'!$F$3:$F$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.16699999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0.17399999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0.183</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>0.193</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>0.20600000000000002</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>0.21999999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>0.23699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>0.254</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>0.26900000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>0.28900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>0.30900000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>0.32599999999999996</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>0.33999999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$C$3:$C$19</c:f>
+              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>163</c:v>
+                  <c:v>0.10045440000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>169</c:v>
+                  <c:v>0.19865250000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>177</c:v>
+                  <c:v>0.29763539999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>186</c:v>
+                  <c:v>0.39720690000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>197</c:v>
+                  <c:v>0.49599360000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>208</c:v>
+                  <c:v>0.59458409999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>223</c:v>
+                  <c:v>0.6930765000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>240</c:v>
+                  <c:v>0.79215750000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>257</c:v>
+                  <c:v>0.89202329999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>279</c:v>
+                  <c:v>0.99051570000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>297</c:v>
+                  <c:v>1.0892043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>319</c:v>
+                  <c:v>1.1877948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>338</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-250</c:v>
+                  <c:v>1.2876605999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -659,6 +687,7 @@
         <c:axId val="1955156255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -696,8 +725,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>m (g)</a:t>
+                  <a:t>L (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -776,6 +809,7 @@
         <c:axId val="1955156671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -813,13 +847,10 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1400"/>
-                  <a:t>Δ</a:t>
+                  <a:rPr lang="pt-PT" sz="1400"/>
+                  <a:t>F (N)</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>L (m)</a:t>
-                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -907,10 +938,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67243044619422576"/>
-          <c:y val="0.6535640857392826"/>
-          <c:w val="0.24979177602799649"/>
-          <c:h val="0.14572640855126273"/>
+          <c:x val="0.68898484835825968"/>
+          <c:y val="0.62883774488627397"/>
+          <c:w val="0.22939461771491212"/>
+          <c:h val="0.16004134068992507"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1024,20 +1055,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>F(</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="el-GR"/>
               <a:t>Δ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>L(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>m</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>) - Descarga</a:t>
+              <a:t>L) - Descarga</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -1091,7 +1118,7 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
-            <c:v>ΔL(m)</c:v>
+            <c:v>F(ΔL)</c:v>
           </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
@@ -1105,11 +1132,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -1119,162 +1146,109 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="linear"/>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
+            <c:dispEq val="0"/>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$A$3:$A$19</c:f>
+              <c:f>'Carga e Descarga'!$D$3:$D$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>0.16299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>0.16899999999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>0.17699999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>0.186</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>0.19700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>0.20800000000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>0.22299999999999998</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>0.24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>0.25700000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>0.27900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>0.29700000000000004</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>0.31899999999999995</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>0.33799999999999997</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$E$3:$E$19</c:f>
+              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="17"/>
+                <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>167</c:v>
+                  <c:v>0.10045440000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>174</c:v>
+                  <c:v>0.19865250000000001</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>183</c:v>
+                  <c:v>0.29763539999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>193</c:v>
+                  <c:v>0.39720690000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>206</c:v>
+                  <c:v>0.49599360000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>220</c:v>
+                  <c:v>0.59458409999999995</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>237</c:v>
+                  <c:v>0.6930765000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>254</c:v>
+                  <c:v>0.79215750000000007</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>269</c:v>
+                  <c:v>0.89202329999999996</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>289</c:v>
+                  <c:v>0.99051570000000011</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>309</c:v>
+                  <c:v>1.0892043</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>326</c:v>
+                  <c:v>1.1877948</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>340</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-250</c:v>
+                  <c:v>1.2876605999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1301,6 +1275,7 @@
         <c:axId val="1955156255"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1338,8 +1313,12 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>m (g)</a:t>
+                  <a:t>L (m)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1418,6 +1397,7 @@
         <c:axId val="1955156671"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1455,12 +1435,8 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="el-GR" sz="1400"/>
-                  <a:t>Δ</a:t>
-                </a:r>
-                <a:r>
                   <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>L (m)</a:t>
+                  <a:t>F (N)</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -1549,10 +1525,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.67243044619422576"/>
-          <c:y val="0.6535640857392826"/>
-          <c:w val="0.24979177602799649"/>
-          <c:h val="0.14572640855126273"/>
+          <c:x val="0.72838295552407895"/>
+          <c:y val="0.63905325873271113"/>
+          <c:w val="0.20082671612413733"/>
+          <c:h val="0.1555551442529105"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1744,118 +1720,94 @@
             <c:numRef>
               <c:f>'Carga e Descarga'!$A$3:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1.0240000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2.0250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>3.0339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>4.0489999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>5.0560000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>6.0609999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>7.0650000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>8.0750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>9.0929999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>0.10097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>0.11103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>0.12107999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>0.13125999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$D$24:$D$40</c:f>
+              <c:f>'Carga e Descarga'!$X$3:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>-151.78431372549022</c:v>
+                  <c:v>-1.4982489731141066E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-121.53186274509807</c:v>
+                  <c:v>5.0075495929261526E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-89.279411764705856</c:v>
+                  <c:v>7.6359747018931445E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-56.026960784313729</c:v>
+                  <c:v>8.9009089132736641E-3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-20.774509803921575</c:v>
+                  <c:v>7.6706817184457599E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.477941176470608</c:v>
+                  <c:v>5.4335862691002879E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>53.730392156862763</c:v>
+                  <c:v>-6.2051782775469633E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94.982843137254918</c:v>
+                  <c:v>-1.1765501150515334E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>136.23529411764707</c:v>
+                  <c:v>-9.9013109781331821E-4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>182.48774509803923</c:v>
+                  <c:v>-4.6891445881603877E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>224.74019607843138</c:v>
+                  <c:v>1.2856874048770006E-2</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>270.99264705882359</c:v>
+                  <c:v>3.9552547897969692E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>314.24509803921575</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-249.5024509803921</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-225.24999999999994</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-200.99754901960779</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-176.74509803921563</c:v>
+                  <c:v>-5.9247716424042363E-3</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1919,17 +1871,24 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>m</a:t>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>Δ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (g)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>L (m)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.47910320563722641"/>
+              <c:y val="0.8543306636345559"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1959,7 +1918,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1997,7 +1956,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-2.0000000000000004E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -2281,118 +2240,94 @@
             <c:numRef>
               <c:f>'Carga e Descarga'!$A$3:$A$19</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>10</c:v>
+                  <c:v>1.0240000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>20</c:v>
+                  <c:v>2.0250000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>30</c:v>
+                  <c:v>3.0339999999999999E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40</c:v>
+                  <c:v>4.0489999999999998E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>5.0560000000000001E-2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>60</c:v>
+                  <c:v>6.0609999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>70</c:v>
+                  <c:v>7.0650000000000004E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>80</c:v>
+                  <c:v>8.0750000000000002E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>9.0929999999999997E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>100</c:v>
+                  <c:v>0.10097</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>110</c:v>
+                  <c:v>0.11103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>120</c:v>
+                  <c:v>0.12107999999999999</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>170</c:v>
+                  <c:v>0.13125999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$F$24:$F$40</c:f>
+              <c:f>'Carga e Descarga'!$Z$3:$Z$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>219.95392156862744</c:v>
+                  <c:v>-1.3420638559530837E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>241.78333333333336</c:v>
+                  <c:v>4.3047762543174661E-3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>270.55588235294118</c:v>
+                  <c:v>8.2088115879851431E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>302.8</c:v>
+                  <c:v>1.2262586637404649E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>342.9872549019608</c:v>
+                  <c:v>9.9100050025291431E-4</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>384.17450980392164</c:v>
+                  <c:v>-3.7584090230723399E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>438.24803921568628</c:v>
+                  <c:v>-1.3989992167502407E-2</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>497.26470588235304</c:v>
+                  <c:v>-1.0526819527479248E-2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>554.28137254901969</c:v>
+                  <c:v>1.138158809650669E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>628.65588235294126</c:v>
+                  <c:v>8.3585039590930998E-3</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>693.14411764705892</c:v>
+                  <c:v>-6.1203901348338974E-5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>764.51862745098049</c:v>
+                  <c:v>-3.7281778502282759E-3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>825.47843137254915</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1217.8039215686276</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1217.8039215686276</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1217.8039215686276</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1217.8039215686276</c:v>
+                  <c:v>-2.202600639011898E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2456,14 +2391,13 @@
                   </a:defRPr>
                 </a:pPr>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400"/>
-                  <a:t>m</a:t>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>Δ</a:t>
                 </a:r>
                 <a:r>
-                  <a:rPr lang="en-US" sz="1400" baseline="0"/>
-                  <a:t> (g)</a:t>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>L (m)</a:t>
                 </a:r>
-                <a:endParaRPr lang="en-US" sz="1400"/>
               </a:p>
             </c:rich>
           </c:tx>
@@ -2496,7 +2430,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2534,7 +2468,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-2.0000000000000004E-2"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -2740,6 +2674,963 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Carga e Descarga: </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Δ</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>L(</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.16434737315354525"/>
+          <c:y val="0.17378178468299524"/>
+          <c:w val="0.78610886123337231"/>
+          <c:h val="0.64823624113790057"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Carga</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="7.0077374413088046E-3"/>
+                  <c:y val="-4.4375819250652669E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,0002x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0,1765x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 54,452x - 4970,9</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent1"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga e Descarga'!$D$3:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.16299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16899999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.186</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.22299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.24</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.25700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.27900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.29700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.31899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33799999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.10045440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19865250000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29763539999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39720690000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49599360000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59458409999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6930765000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79215750000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89202329999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99051570000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0892043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1877948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2876605999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CE47-4013-BB1C-C220E3E38D4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Descarga</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="poly"/>
+            <c:order val="3"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-9.4849694560874401E-2"/>
+                  <c:y val="0.49935640201981663"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:pPr>
+                      <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="tx1">
+                            <a:lumMod val="65000"/>
+                            <a:lumOff val="35000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                        <a:latin typeface="+mn-lt"/>
+                        <a:ea typeface="+mn-ea"/>
+                        <a:cs typeface="+mn-cs"/>
+                      </a:defRPr>
+                    </a:pPr>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>y = 0,0002x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>3</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> - 0,1579x</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="30000">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>2</a:t>
+                    </a:r>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="accent2"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t> + 48,748x - 4509,4</a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US">
+                      <a:solidFill>
+                        <a:schemeClr val="accent2"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Carga e Descarga'!$F$3:$F$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.16699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.183</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.193</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.20600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.23699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.254</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.26900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.28900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.30900000000000005</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.32599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.33999999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="13"/>
+                <c:pt idx="0">
+                  <c:v>0.10045440000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19865250000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29763539999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.39720690000000003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.49599360000000003</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.59458409999999995</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.6930765000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.79215750000000007</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.89202329999999996</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.99051570000000011</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0892043</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.1877948</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.2876605999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CE47-4013-BB1C-C220E3E38D4B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1184421247"/>
+        <c:axId val="1184421663"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1184421247"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0.15000000000000002"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="el-GR" sz="1400"/>
+                  <a:t>Δ</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1400"/>
+                  <a:t>L (m)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184421663"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1184421663"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:min val="0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:effectLst/>
+                  </a:rPr>
+                  <a:t>F (N)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US" sz="1400"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1184421247"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="tr"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.17427917415978"/>
+          <c:y val="0.18783800884177082"/>
+          <c:w val="0.26474321071451062"/>
+          <c:h val="0.1991320558279282"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="t" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="800" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="el-GR"/>
               <a:t>Δ</a:t>
             </a:r>
@@ -2877,10 +3768,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$D$5:$D$72</c:f>
+              <c:f>'Creep e Relax'!$D$5:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -2937,213 +3828,60 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$C$5:$C$72</c:f>
+              <c:f>'Creep e Relax'!$C$5:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
-                  <c:v>265</c:v>
+                  <c:v>514.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>267</c:v>
+                  <c:v>516.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>268</c:v>
+                  <c:v>517.75</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>268</c:v>
+                  <c:v>517.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>268</c:v>
+                  <c:v>517.75</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>268.5</c:v>
+                  <c:v>518.25</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>268.70000000000005</c:v>
+                  <c:v>518.45000000000005</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>269.10000000000002</c:v>
+                  <c:v>518.85</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>269.5</c:v>
+                  <c:v>519.25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>269.5</c:v>
+                  <c:v>519.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>269.79999999999995</c:v>
+                  <c:v>519.54999999999995</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>269.89999999999998</c:v>
+                  <c:v>519.65</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>270</c:v>
+                  <c:v>519.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>270</c:v>
+                  <c:v>519.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>270</c:v>
+                  <c:v>519.75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>270</c:v>
+                  <c:v>519.75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>270</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-250</c:v>
+                  <c:v>519.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3502,7 +4240,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3606,7 +4344,7 @@
             <c:v>ΔL(Δt)</c:v>
           </c:tx>
           <c:spPr>
-            <a:ln w="19050" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -3673,10 +4411,10 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$P$5:$P$73</c:f>
+              <c:f>'Creep e Relax'!$D$25:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -3727,213 +4465,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$O$5:$O$72</c:f>
+              <c:f>'Creep e Relax'!$C$25:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>168</c:v>
+                  <c:v>417.75</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>167</c:v>
+                  <c:v>416.75</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>166.89999999999998</c:v>
+                  <c:v>416.65</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>166.5</c:v>
+                  <c:v>416.25</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>166.39999999999998</c:v>
+                  <c:v>416.15</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>166.3</c:v>
+                  <c:v>416.05</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>166</c:v>
+                  <c:v>415.75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>165.7</c:v>
+                  <c:v>415.45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>165.60000000000002</c:v>
+                  <c:v>415.35</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>165.5</c:v>
+                  <c:v>415.25</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>165.2</c:v>
+                  <c:v>414.95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>165.10000000000002</c:v>
+                  <c:v>414.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>165</c:v>
+                  <c:v>414.75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>165</c:v>
+                  <c:v>414.75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-250</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-250</c:v>
+                  <c:v>414.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4211,8 +4790,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.75683313851673939"/>
-          <c:y val="8.5460015690679583E-2"/>
+          <c:x val="0.68886141475382456"/>
+          <c:y val="0.25392610393092124"/>
           <c:w val="0.23947165798006806"/>
           <c:h val="0.14524263185770001"/>
         </c:manualLayout>
@@ -4294,7 +4873,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4404,10 +4983,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$D$5:$D$72</c:f>
+              <c:f>'Creep e Relax'!$D$5:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="17"/>
                 <c:pt idx="0">
                   <c:v>30</c:v>
                 </c:pt>
@@ -4464,213 +5043,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$AA$5:$AA$72</c:f>
+              <c:f>'Creep e Relax'!$Q$4:$Q$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>-2.1572279575827906</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>-0.35261186645084308</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.46763493739058504</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>0.33086620118297105</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.15892836137913946</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.48308284339782404</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.46816054364308002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>0.43050058777862432</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.61557828802369841</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>0.36548688467257762</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>0.43884155038563222</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>0.31219621609875503</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.1894585599891343</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>-0.10361730331294439</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>-0.34198567213195474</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4807,7 +5227,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-2.5"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -4979,7 +5399,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5088,10 +5508,10 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$P$5:$P$72</c:f>
+              <c:f>'Creep e Relax'!$D$25:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="68"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -5142,213 +5562,54 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$AC$5:$AC$73</c:f>
+              <c:f>'Creep e Relax'!$S$4:$S$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="69"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>0.946214939299864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>8.6728316428775543E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.11295219757840869</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>-0.19416607855674783</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>-0.19175802403913167</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>-0.12981040294141621</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>-0.27738911249650755</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>-0.41782307406208474</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>-0.27490164241550019</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>-0.15341445473779913</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-0.21287460575450723</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>-5.8045260791971032E-2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>0.10392883216013615</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>0.28969227988983448</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0</c:v>
+                  <c:v>0.37066609043870358</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5485,7 +5746,7 @@
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
-        <c:crosses val="autoZero"/>
+        <c:crossesAt val="-0.60000000000000009"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
@@ -5977,6 +6238,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -10105,20 +10406,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>11973</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573231</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>48341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29391</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>166254</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10147,16 +10964,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>10886</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>11974</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>526969</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>98563</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>315686</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>29392</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>116528</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>110836</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10185,16 +11002,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>179615</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>422562</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>186542</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>146957</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>739238</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>153885</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10221,16 +11038,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>-1</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>573232</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>64076</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>76942</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>36368</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10257,6 +11074,42 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>447596</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>79082</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>44824</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8D6D4CE-CC3E-4951-8645-64D6C8F84331}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -10265,15 +11118,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>171994</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:colOff>144285</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>110840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>476794</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>15241</xdr:rowOff>
+      <xdr:colOff>449085</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>101059</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10302,16 +11155,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>223157</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>347848</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>96982</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>17417</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142108</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>92134</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10340,15 +11193,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>609599</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>12224</xdr:colOff>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>87085</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>99310</xdr:colOff>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -10378,16 +11231,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>13854</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>13854</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>45</xdr:col>
-      <xdr:colOff>206828</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>220682</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>166254</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10714,120 +11567,159 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
-  <dimension ref="A1:AC44"/>
+  <dimension ref="A1:AD44"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AB27" sqref="AB27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="11" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="15" max="15" width="10.6640625" customWidth="1"/>
-    <col min="20" max="20" width="10.33203125" customWidth="1"/>
+    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="13" max="13" width="10" customWidth="1"/>
+    <col min="16" max="16" width="10.6640625" customWidth="1"/>
+    <col min="21" max="21" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A1" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="W1" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="X1" s="16"/>
+      <c r="Y1" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="16"/>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="I2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="J2" s="4" t="s">
         <v>4</v>
       </c>
+      <c r="W2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Z2" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="5">
-        <v>10</v>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A3" s="22">
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="B3" s="5">
-        <v>413</v>
-      </c>
-      <c r="C3" s="5">
-        <f t="shared" ref="C3:C19" si="0">B3-$M$3</f>
-        <v>163</v>
+        <f>A3*9.81</f>
+        <v>0.10045440000000001</v>
+      </c>
+      <c r="C3" s="22">
+        <v>0.41299999999999998</v>
       </c>
       <c r="D3" s="5">
-        <v>417</v>
-      </c>
-      <c r="E3" s="5">
-        <f t="shared" ref="E3:E19" si="1">D3-$M$3</f>
-        <v>167</v>
+        <f>C3-$I$17</f>
+        <v>0.16299999999999998</v>
+      </c>
+      <c r="E3" s="22">
+        <v>0.41699999999999998</v>
       </c>
       <c r="F3" s="5">
+        <f>E3-$I$17</f>
+        <v>0.16699999999999998</v>
+      </c>
+      <c r="G3" s="5">
         <v>0.32800000000000001</v>
       </c>
-      <c r="G3" s="5">
+      <c r="H3" s="5">
         <v>0.42699999999999999</v>
       </c>
-      <c r="H3" s="5">
+      <c r="I3" s="5">
         <v>188</v>
       </c>
-      <c r="I3" s="5">
-        <f xml:space="preserve"> F3*G3*H3*0.000000001</f>
+      <c r="J3" s="5">
+        <f xml:space="preserve"> G3*H3*I3*0.000000001</f>
         <v>2.6330528000000001E-8</v>
       </c>
-      <c r="L3" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="M3" s="1">
-        <v>250</v>
+      <c r="W3" s="8">
+        <f>$B$18*D3^3+$C$18*D3^2+$D$18*D3+$E$18</f>
+        <v>0.11543688973114108</v>
+      </c>
+      <c r="X3" s="8">
+        <f>B3-W3</f>
+        <v>-1.4982489731141066E-2</v>
+      </c>
+      <c r="Y3" s="12">
+        <f>$B$22*(F3^3)+$C$22*(F3^2)+$D$22*F3+$E$22</f>
+        <v>0.11387503855953085</v>
+      </c>
+      <c r="Z3" s="8">
+        <f>B3-Y3</f>
+        <v>-1.3420638559530837E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="5">
-        <v>20</v>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A4" s="22">
+        <v>2.0250000000000001E-2</v>
       </c>
       <c r="B4" s="5">
-        <v>419</v>
-      </c>
-      <c r="C4" s="5">
-        <f t="shared" si="0"/>
-        <v>169</v>
+        <f t="shared" ref="B4:B15" si="0">A4*9.81</f>
+        <v>0.19865250000000001</v>
+      </c>
+      <c r="C4" s="22">
+        <v>0.41899999999999998</v>
       </c>
       <c r="D4" s="5">
-        <v>424</v>
-      </c>
-      <c r="E4" s="5">
-        <f t="shared" si="1"/>
-        <v>174</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>9</v>
+        <f>C4-$I$17</f>
+        <v>0.16899999999999998</v>
+      </c>
+      <c r="E4" s="22">
+        <v>0.42399999999999999</v>
+      </c>
+      <c r="F4" s="5">
+        <f>E4-$I$17</f>
+        <v>0.17399999999999999</v>
       </c>
       <c r="G4" s="6" t="s">
         <v>9</v>
@@ -10838,27 +11730,47 @@
       <c r="I4" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W4" s="12">
+        <f t="shared" ref="W4:W19" si="1">$B$18*D4^3+$C$18*D4^2+$D$18*D4+$E$18</f>
+        <v>0.19364495040707386</v>
+      </c>
+      <c r="X4" s="12">
+        <f t="shared" ref="X4:X15" si="2">B4-W4</f>
+        <v>5.0075495929261526E-3</v>
+      </c>
+      <c r="Y4" s="12">
+        <f t="shared" ref="Y4:Y14" si="3">$B$22*(F4^3)+$C$22*(F4^2)+$D$22*F4+$E$22</f>
+        <v>0.19434772374568254</v>
+      </c>
+      <c r="Z4" s="12">
+        <f t="shared" ref="Z4:Z15" si="4">B4-Y4</f>
+        <v>4.3047762543174661E-3</v>
+      </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="5">
-        <v>30</v>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A5" s="22">
+        <v>3.0339999999999999E-2</v>
       </c>
       <c r="B5" s="5">
-        <v>427</v>
-      </c>
-      <c r="C5" s="5">
         <f t="shared" si="0"/>
-        <v>177</v>
+        <v>0.29763539999999999</v>
+      </c>
+      <c r="C5" s="22">
+        <v>0.42699999999999999</v>
       </c>
       <c r="D5" s="5">
-        <v>433</v>
-      </c>
-      <c r="E5" s="5">
-        <f t="shared" si="1"/>
-        <v>183</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>9</v>
+        <f>C5-$I$17</f>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="E5" s="22">
+        <v>0.433</v>
+      </c>
+      <c r="F5" s="5">
+        <f>E5-$I$17</f>
+        <v>0.183</v>
       </c>
       <c r="G5" s="6" t="s">
         <v>9</v>
@@ -10869,27 +11781,47 @@
       <c r="I5" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W5" s="12">
+        <f t="shared" si="1"/>
+        <v>0.28999942529810685</v>
+      </c>
+      <c r="X5" s="12">
+        <f t="shared" si="2"/>
+        <v>7.6359747018931445E-3</v>
+      </c>
+      <c r="Y5" s="12">
+        <f t="shared" si="3"/>
+        <v>0.28942658841201485</v>
+      </c>
+      <c r="Z5" s="12">
+        <f t="shared" si="4"/>
+        <v>8.2088115879851431E-3</v>
+      </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="5">
-        <v>40</v>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A6" s="22">
+        <v>4.0489999999999998E-2</v>
       </c>
       <c r="B6" s="5">
-        <v>436</v>
-      </c>
-      <c r="C6" s="5">
         <f t="shared" si="0"/>
-        <v>186</v>
+        <v>0.39720690000000003</v>
+      </c>
+      <c r="C6" s="22">
+        <v>0.436</v>
       </c>
       <c r="D6" s="5">
-        <v>443</v>
-      </c>
-      <c r="E6" s="5">
-        <f t="shared" si="1"/>
-        <v>193</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>9</v>
+        <f>C6-$I$17</f>
+        <v>0.186</v>
+      </c>
+      <c r="E6" s="22">
+        <v>0.443</v>
+      </c>
+      <c r="F6" s="5">
+        <f>E6-$I$17</f>
+        <v>0.193</v>
       </c>
       <c r="G6" s="6" t="s">
         <v>9</v>
@@ -10900,27 +11832,47 @@
       <c r="I6" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W6" s="12">
+        <f t="shared" si="1"/>
+        <v>0.38830599108672637</v>
+      </c>
+      <c r="X6" s="12">
+        <f t="shared" si="2"/>
+        <v>8.9009089132736641E-3</v>
+      </c>
+      <c r="Y6" s="12">
+        <f t="shared" si="3"/>
+        <v>0.38494431336259538</v>
+      </c>
+      <c r="Z6" s="12">
+        <f t="shared" si="4"/>
+        <v>1.2262586637404649E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="5">
-        <v>50</v>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A7" s="22">
+        <v>5.0560000000000001E-2</v>
       </c>
       <c r="B7" s="5">
-        <v>447</v>
-      </c>
-      <c r="C7" s="5">
         <f t="shared" si="0"/>
-        <v>197</v>
+        <v>0.49599360000000003</v>
+      </c>
+      <c r="C7" s="22">
+        <v>0.44700000000000001</v>
       </c>
       <c r="D7" s="5">
-        <v>456</v>
-      </c>
-      <c r="E7" s="5">
-        <f t="shared" si="1"/>
-        <v>206</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>9</v>
+        <f>C7-$I$17</f>
+        <v>0.19700000000000001</v>
+      </c>
+      <c r="E7" s="22">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F7" s="5">
+        <f>E7-$I$17</f>
+        <v>0.20600000000000002</v>
       </c>
       <c r="G7" s="6" t="s">
         <v>9</v>
@@ -10931,27 +11883,47 @@
       <c r="I7" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W7" s="12">
+        <f t="shared" si="1"/>
+        <v>0.49522653182815546</v>
+      </c>
+      <c r="X7" s="12">
+        <f t="shared" si="2"/>
+        <v>7.6706817184457599E-4</v>
+      </c>
+      <c r="Y7" s="12">
+        <f t="shared" si="3"/>
+        <v>0.49500259949974712</v>
+      </c>
+      <c r="Z7" s="12">
+        <f t="shared" si="4"/>
+        <v>9.9100050025291431E-4</v>
+      </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="5">
-        <v>60</v>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A8" s="22">
+        <v>6.0609999999999997E-2</v>
       </c>
       <c r="B8" s="5">
-        <v>458</v>
-      </c>
-      <c r="C8" s="5">
         <f t="shared" si="0"/>
-        <v>208</v>
+        <v>0.59458409999999995</v>
+      </c>
+      <c r="C8" s="22">
+        <v>0.45800000000000002</v>
       </c>
       <c r="D8" s="5">
-        <v>470</v>
-      </c>
-      <c r="E8" s="5">
-        <f t="shared" si="1"/>
-        <v>220</v>
-      </c>
-      <c r="F8" s="6" t="s">
-        <v>9</v>
+        <f>C8-$I$17</f>
+        <v>0.20800000000000002</v>
+      </c>
+      <c r="E8" s="22">
+        <v>0.47</v>
+      </c>
+      <c r="F8" s="5">
+        <f>E8-$I$17</f>
+        <v>0.21999999999999997</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>9</v>
@@ -10962,27 +11934,47 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W8" s="12">
+        <f t="shared" si="1"/>
+        <v>0.58915051373089966</v>
+      </c>
+      <c r="X8" s="12">
+        <f t="shared" si="2"/>
+        <v>5.4335862691002879E-3</v>
+      </c>
+      <c r="Y8" s="12">
+        <f t="shared" si="3"/>
+        <v>0.59834250902307229</v>
+      </c>
+      <c r="Z8" s="12">
+        <f t="shared" si="4"/>
+        <v>-3.7584090230723399E-3</v>
+      </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="5">
-        <v>70</v>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A9" s="22">
+        <v>7.0650000000000004E-2</v>
       </c>
       <c r="B9" s="5">
-        <v>473</v>
-      </c>
-      <c r="C9" s="5">
         <f t="shared" si="0"/>
-        <v>223</v>
+        <v>0.6930765000000001</v>
+      </c>
+      <c r="C9" s="22">
+        <v>0.47299999999999998</v>
       </c>
       <c r="D9" s="5">
-        <v>487</v>
-      </c>
-      <c r="E9" s="5">
-        <f t="shared" si="1"/>
-        <v>237</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>9</v>
+        <f>C9-$I$17</f>
+        <v>0.22299999999999998</v>
+      </c>
+      <c r="E9" s="22">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F9" s="5">
+        <f>E9-$I$17</f>
+        <v>0.23699999999999999</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>9</v>
@@ -10993,27 +11985,47 @@
       <c r="I9" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W9" s="12">
+        <f t="shared" si="1"/>
+        <v>0.69928167827754706</v>
+      </c>
+      <c r="X9" s="12">
+        <f t="shared" si="2"/>
+        <v>-6.2051782775469633E-3</v>
+      </c>
+      <c r="Y9" s="12">
+        <f t="shared" si="3"/>
+        <v>0.7070664921675025</v>
+      </c>
+      <c r="Z9" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.3989992167502407E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="5">
-        <v>80</v>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A10" s="22">
+        <v>8.0750000000000002E-2</v>
       </c>
       <c r="B10" s="5">
-        <v>490</v>
-      </c>
-      <c r="C10" s="5">
         <f t="shared" si="0"/>
-        <v>240</v>
+        <v>0.79215750000000007</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.49</v>
       </c>
       <c r="D10" s="5">
-        <v>504</v>
-      </c>
-      <c r="E10" s="5">
-        <f t="shared" si="1"/>
-        <v>254</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>9</v>
+        <f>C10-$I$17</f>
+        <v>0.24</v>
+      </c>
+      <c r="E10" s="22">
+        <v>0.504</v>
+      </c>
+      <c r="F10" s="5">
+        <f>E10-$I$17</f>
+        <v>0.254</v>
       </c>
       <c r="G10" s="6" t="s">
         <v>9</v>
@@ -11024,27 +12036,47 @@
       <c r="I10" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W10" s="12">
+        <f t="shared" si="1"/>
+        <v>0.8039230011505154</v>
+      </c>
+      <c r="X10" s="12">
+        <f t="shared" si="2"/>
+        <v>-1.1765501150515334E-2</v>
+      </c>
+      <c r="Y10" s="12">
+        <f t="shared" si="3"/>
+        <v>0.80268431952747932</v>
+      </c>
+      <c r="Z10" s="12">
+        <f t="shared" si="4"/>
+        <v>-1.0526819527479248E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="5">
-        <v>90</v>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A11" s="22">
+        <v>9.0929999999999997E-2</v>
       </c>
       <c r="B11" s="5">
-        <v>507</v>
-      </c>
-      <c r="C11" s="5">
         <f t="shared" si="0"/>
-        <v>257</v>
+        <v>0.89202329999999996</v>
+      </c>
+      <c r="C11" s="22">
+        <v>0.50700000000000001</v>
       </c>
       <c r="D11" s="5">
-        <v>519</v>
-      </c>
-      <c r="E11" s="5">
-        <f t="shared" si="1"/>
-        <v>269</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>9</v>
+        <f>C11-$I$17</f>
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="E11" s="22">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F11" s="5">
+        <f>E11-$I$17</f>
+        <v>0.26900000000000002</v>
       </c>
       <c r="G11" s="6" t="s">
         <v>9</v>
@@ -11055,27 +12087,47 @@
       <c r="I11" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W11" s="12">
+        <f t="shared" si="1"/>
+        <v>0.89301343109781328</v>
+      </c>
+      <c r="X11" s="12">
+        <f t="shared" si="2"/>
+        <v>-9.9013109781331821E-4</v>
+      </c>
+      <c r="Y11" s="12">
+        <f t="shared" si="3"/>
+        <v>0.88064171190349327</v>
+      </c>
+      <c r="Z11" s="12">
+        <f t="shared" si="4"/>
+        <v>1.138158809650669E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="5">
-        <v>100</v>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A12" s="22">
+        <v>0.10097</v>
       </c>
       <c r="B12" s="5">
-        <v>529</v>
-      </c>
-      <c r="C12" s="5">
         <f t="shared" si="0"/>
-        <v>279</v>
+        <v>0.99051570000000011</v>
+      </c>
+      <c r="C12" s="22">
+        <v>0.52900000000000003</v>
       </c>
       <c r="D12" s="5">
-        <v>539</v>
-      </c>
-      <c r="E12" s="5">
-        <f t="shared" si="1"/>
-        <v>289</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>9</v>
+        <f>C12-$I$17</f>
+        <v>0.27900000000000003</v>
+      </c>
+      <c r="E12" s="22">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F12" s="5">
+        <f>E12-$I$17</f>
+        <v>0.28900000000000003</v>
       </c>
       <c r="G12" s="6" t="s">
         <v>9</v>
@@ -11086,27 +12138,47 @@
       <c r="I12" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W12" s="12">
+        <f t="shared" si="1"/>
+        <v>0.9952048445881605</v>
+      </c>
+      <c r="X12" s="12">
+        <f t="shared" si="2"/>
+        <v>-4.6891445881603877E-3</v>
+      </c>
+      <c r="Y12" s="12">
+        <f t="shared" si="3"/>
+        <v>0.98215719604090701</v>
+      </c>
+      <c r="Z12" s="12">
+        <f t="shared" si="4"/>
+        <v>8.3585039590930998E-3</v>
+      </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="5">
-        <v>110</v>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A13" s="22">
+        <v>0.11103</v>
       </c>
       <c r="B13" s="5">
-        <v>547</v>
-      </c>
-      <c r="C13" s="5">
         <f t="shared" si="0"/>
-        <v>297</v>
+        <v>1.0892043</v>
+      </c>
+      <c r="C13" s="22">
+        <v>0.54700000000000004</v>
       </c>
       <c r="D13" s="5">
-        <v>559</v>
-      </c>
-      <c r="E13" s="5">
-        <f t="shared" si="1"/>
-        <v>309</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>9</v>
+        <f>C13-$I$17</f>
+        <v>0.29700000000000004</v>
+      </c>
+      <c r="E13" s="22">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F13" s="5">
+        <f>E13-$I$17</f>
+        <v>0.30900000000000005</v>
       </c>
       <c r="G13" s="6" t="s">
         <v>9</v>
@@ -11117,27 +12189,47 @@
       <c r="I13" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W13" s="12">
+        <f t="shared" si="1"/>
+        <v>1.07634742595123</v>
+      </c>
+      <c r="X13" s="12">
+        <f t="shared" si="2"/>
+        <v>1.2856874048770006E-2</v>
+      </c>
+      <c r="Y13" s="12">
+        <f t="shared" si="3"/>
+        <v>1.0892655039013484</v>
+      </c>
+      <c r="Z13" s="12">
+        <f t="shared" si="4"/>
+        <v>-6.1203901348338974E-5</v>
+      </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="5">
-        <v>120</v>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A14" s="22">
+        <v>0.12107999999999999</v>
       </c>
       <c r="B14" s="5">
-        <v>569</v>
-      </c>
-      <c r="C14" s="5">
         <f t="shared" si="0"/>
-        <v>319</v>
+        <v>1.1877948</v>
+      </c>
+      <c r="C14" s="22">
+        <v>0.56899999999999995</v>
       </c>
       <c r="D14" s="5">
-        <v>576</v>
-      </c>
-      <c r="E14" s="5">
-        <f t="shared" si="1"/>
-        <v>326</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>9</v>
+        <f>C14-$I$17</f>
+        <v>0.31899999999999995</v>
+      </c>
+      <c r="E14" s="22">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F14" s="5">
+        <f>E14-$I$17</f>
+        <v>0.32599999999999996</v>
       </c>
       <c r="G14" s="6" t="s">
         <v>9</v>
@@ -11148,546 +12240,148 @@
       <c r="I14" s="6" t="s">
         <v>9</v>
       </c>
+      <c r="J14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="W14" s="12">
+        <f t="shared" si="1"/>
+        <v>1.1838395452102031</v>
+      </c>
+      <c r="X14" s="12">
+        <f t="shared" si="2"/>
+        <v>3.9552547897969692E-3</v>
+      </c>
+      <c r="Y14" s="12">
+        <f t="shared" si="3"/>
+        <v>1.1915229778502283</v>
+      </c>
+      <c r="Z14" s="12">
+        <f t="shared" si="4"/>
+        <v>-3.7281778502282759E-3</v>
+      </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="5">
-        <v>130</v>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A15" s="22">
+        <v>0.13125999999999999</v>
       </c>
       <c r="B15" s="5">
-        <v>588</v>
-      </c>
-      <c r="C15" s="5">
         <f t="shared" si="0"/>
-        <v>338</v>
+        <v>1.2876605999999999</v>
+      </c>
+      <c r="C15" s="22">
+        <v>0.58799999999999997</v>
       </c>
       <c r="D15" s="5">
-        <v>590</v>
-      </c>
-      <c r="E15" s="5">
+        <f>C15-$I$17</f>
+        <v>0.33799999999999997</v>
+      </c>
+      <c r="E15" s="22">
+        <v>0.59</v>
+      </c>
+      <c r="F15" s="5">
+        <f>E15-$I$17</f>
+        <v>0.33999999999999997</v>
+      </c>
+      <c r="G15" s="5">
+        <v>0.224</v>
+      </c>
+      <c r="H15" s="5">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="I15" s="5">
+        <v>349</v>
+      </c>
+      <c r="J15" s="5">
+        <f xml:space="preserve"> G15*H15*I15*0.000000001</f>
+        <v>3.2286688000000003E-8</v>
+      </c>
+      <c r="W15" s="12">
         <f t="shared" si="1"/>
-        <v>340</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I15" s="6" t="s">
-        <v>9</v>
+        <v>1.2935853716424042</v>
+      </c>
+      <c r="X15" s="12">
+        <f t="shared" si="2"/>
+        <v>-5.9247716424042363E-3</v>
+      </c>
+      <c r="Y15" s="12">
+        <f>$B$22*(F15^3)+$C$22*(F15^2)+$D$22*F15+$E$22</f>
+        <v>1.2876826260063901</v>
+      </c>
+      <c r="Z15" s="12">
+        <f t="shared" si="4"/>
+        <v>-2.202600639011898E-5</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="5">
-        <v>140</v>
-      </c>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5">
-        <f t="shared" si="0"/>
-        <v>-250</v>
-      </c>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5">
-        <f t="shared" si="1"/>
-        <v>-250</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I16" s="6" t="s">
-        <v>9</v>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A17" s="21"/>
+      <c r="B17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="23">
+        <v>0.25</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A17" s="5">
-        <v>150</v>
-      </c>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5">
-        <f t="shared" si="0"/>
-        <v>-250</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5">
-        <f t="shared" si="1"/>
-        <v>-250</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I17" s="6" t="s">
-        <v>9</v>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="21"/>
+      <c r="B18" s="1">
+        <f t="array" ref="B18:E18">LINEST(B3:B15,D3:D15^{1,2,3},TRUE,TRUE)</f>
+        <v>207.7529422376181</v>
+      </c>
+      <c r="C18" s="1">
+        <v>-176.48677745203955</v>
+      </c>
+      <c r="D18" s="1">
+        <v>54.451896888019711</v>
+      </c>
+      <c r="E18" s="1">
+        <v>-4.9708705442295695</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A18" s="5">
-        <v>160</v>
-      </c>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5">
-        <f t="shared" si="0"/>
-        <v>-250</v>
-      </c>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5">
-        <f t="shared" si="1"/>
-        <v>-250</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="I18" s="6" t="s">
-        <v>9</v>
-      </c>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A19" s="21"/>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="A19" s="5">
-        <v>170</v>
-      </c>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5">
-        <f t="shared" si="0"/>
-        <v>-250</v>
-      </c>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5">
-        <f t="shared" si="1"/>
-        <v>-250</v>
-      </c>
-      <c r="F19" s="5">
-        <v>0.224</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="H19" s="5">
-        <v>349</v>
-      </c>
-      <c r="I19" s="5">
-        <f xml:space="preserve"> F19*G19*H19*0.000000001</f>
-        <v>3.2286688000000003E-8</v>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>31</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C22" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="D22" s="13"/>
-      <c r="E22" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="13"/>
-      <c r="L22" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="M22" s="10"/>
-      <c r="N22" s="10"/>
-      <c r="O22" s="10"/>
-      <c r="P22" s="10"/>
-      <c r="T22" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="U22" s="10"/>
-      <c r="V22" s="10"/>
-      <c r="W22" s="10"/>
-      <c r="X22" s="10"/>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="1">
+        <f t="array" ref="B22:E22">LINEST(B3:B15,F3:F15^{1,2,3},TRUE,TRUE)</f>
+        <v>190.1669209069762</v>
+      </c>
+      <c r="C22" s="1">
+        <v>-157.88369077256488</v>
+      </c>
+      <c r="D22" s="1">
+        <v>48.747507094911406</v>
+      </c>
+      <c r="E22" s="1">
+        <v>-4.5094357922827797</v>
+      </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="M23" s="1">
-        <f t="array" ref="M23:N24">LINEST(C3:C19,A3:A19,TRUE,TRUE)</f>
-        <v>-2.4252450980392162</v>
-      </c>
-      <c r="N23" s="1">
-        <v>339.03676470588238</v>
-      </c>
-      <c r="O23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="P23" s="10"/>
-      <c r="T23" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="U23" s="1">
-        <f t="array" ref="U23:V24">LINEST(E3:E19,A3:A19,TRUE,TRUE)</f>
-        <v>-2.4715686274509809</v>
-      </c>
-      <c r="V23" s="1">
-        <v>349.91176470588243</v>
-      </c>
-      <c r="W23" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="X23" s="10"/>
-    </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C24" s="8">
-        <f t="shared" ref="C24:C40" si="2">$M$23*A3+$N$23</f>
-        <v>314.78431372549022</v>
-      </c>
-      <c r="D24" s="8">
-        <f t="shared" ref="D24:D40" si="3">C3-C24</f>
-        <v>-151.78431372549022</v>
-      </c>
-      <c r="E24" s="8">
-        <f t="shared" ref="E24:E40" si="4">$U$23*C3+$V$23</f>
-        <v>-52.953921568627436</v>
-      </c>
-      <c r="F24" s="8">
-        <f t="shared" ref="F24:F40" si="5">E3-E24</f>
-        <v>219.95392156862744</v>
-      </c>
-      <c r="L24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M24" s="1">
-        <v>0.92235583599305082</v>
-      </c>
-      <c r="N24" s="1">
-        <v>94.513348401162986</v>
-      </c>
-      <c r="O24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="P24" s="10"/>
-      <c r="T24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="U24" s="1">
-        <v>0.93777066236862117</v>
-      </c>
-      <c r="V24" s="1">
-        <v>96.09289807052582</v>
-      </c>
-      <c r="W24" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="X24" s="10"/>
-    </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C25" s="8">
-        <f t="shared" si="2"/>
-        <v>290.53186274509807</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" si="3"/>
-        <v>-121.53186274509807</v>
-      </c>
-      <c r="E25" s="8">
-        <f t="shared" si="4"/>
-        <v>-67.78333333333336</v>
-      </c>
-      <c r="F25" s="8">
-        <f t="shared" si="5"/>
-        <v>241.78333333333336</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C26" s="8">
-        <f t="shared" si="2"/>
-        <v>266.27941176470586</v>
-      </c>
-      <c r="D26" s="8">
-        <f t="shared" si="3"/>
-        <v>-89.279411764705856</v>
-      </c>
-      <c r="E26" s="8">
-        <f t="shared" si="4"/>
-        <v>-87.555882352941182</v>
-      </c>
-      <c r="F26" s="8">
-        <f t="shared" si="5"/>
-        <v>270.55588235294118</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C27" s="8">
-        <f t="shared" si="2"/>
-        <v>242.02696078431373</v>
-      </c>
-      <c r="D27" s="8">
-        <f t="shared" si="3"/>
-        <v>-56.026960784313729</v>
-      </c>
-      <c r="E27" s="8">
-        <f t="shared" si="4"/>
-        <v>-109.80000000000001</v>
-      </c>
-      <c r="F27" s="8">
-        <f t="shared" si="5"/>
-        <v>302.8</v>
-      </c>
-    </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C28" s="8">
-        <f t="shared" si="2"/>
-        <v>217.77450980392157</v>
-      </c>
-      <c r="D28" s="8">
-        <f t="shared" si="3"/>
-        <v>-20.774509803921575</v>
-      </c>
-      <c r="E28" s="8">
-        <f t="shared" si="4"/>
-        <v>-136.9872549019608</v>
-      </c>
-      <c r="F28" s="8">
-        <f t="shared" si="5"/>
-        <v>342.9872549019608</v>
-      </c>
-    </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C29" s="8">
-        <f t="shared" si="2"/>
-        <v>193.52205882352939</v>
-      </c>
-      <c r="D29" s="8">
-        <f t="shared" si="3"/>
-        <v>14.477941176470608</v>
-      </c>
-      <c r="E29" s="8">
-        <f t="shared" si="4"/>
-        <v>-164.17450980392164</v>
-      </c>
-      <c r="F29" s="8">
-        <f t="shared" si="5"/>
-        <v>384.17450980392164</v>
-      </c>
-    </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C30" s="8">
-        <f t="shared" si="2"/>
-        <v>169.26960784313724</v>
-      </c>
-      <c r="D30" s="8">
-        <f t="shared" si="3"/>
-        <v>53.730392156862763</v>
-      </c>
-      <c r="E30" s="8">
-        <f t="shared" si="4"/>
-        <v>-201.24803921568628</v>
-      </c>
-      <c r="F30" s="8">
-        <f t="shared" si="5"/>
-        <v>438.24803921568628</v>
-      </c>
-    </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C31" s="8">
-        <f t="shared" si="2"/>
-        <v>145.01715686274508</v>
-      </c>
-      <c r="D31" s="8">
-        <f t="shared" si="3"/>
-        <v>94.982843137254918</v>
-      </c>
-      <c r="E31" s="8">
-        <f t="shared" si="4"/>
-        <v>-243.26470588235304</v>
-      </c>
-      <c r="F31" s="8">
-        <f t="shared" si="5"/>
-        <v>497.26470588235304</v>
-      </c>
-    </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="C32" s="8">
-        <f t="shared" si="2"/>
-        <v>120.76470588235293</v>
-      </c>
-      <c r="D32" s="8">
-        <f t="shared" si="3"/>
-        <v>136.23529411764707</v>
-      </c>
-      <c r="E32" s="8">
-        <f t="shared" si="4"/>
-        <v>-285.28137254901969</v>
-      </c>
-      <c r="F32" s="8">
-        <f t="shared" si="5"/>
-        <v>554.28137254901969</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C33" s="8">
-        <f t="shared" si="2"/>
-        <v>96.512254901960773</v>
-      </c>
-      <c r="D33" s="8">
-        <f t="shared" si="3"/>
-        <v>182.48774509803923</v>
-      </c>
-      <c r="E33" s="8">
-        <f t="shared" si="4"/>
-        <v>-339.65588235294126</v>
-      </c>
-      <c r="F33" s="8">
-        <f t="shared" si="5"/>
-        <v>628.65588235294126</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C34" s="8">
-        <f t="shared" si="2"/>
-        <v>72.259803921568619</v>
-      </c>
-      <c r="D34" s="8">
-        <f t="shared" si="3"/>
-        <v>224.74019607843138</v>
-      </c>
-      <c r="E34" s="8">
-        <f t="shared" si="4"/>
-        <v>-384.14411764705892</v>
-      </c>
-      <c r="F34" s="8">
-        <f t="shared" si="5"/>
-        <v>693.14411764705892</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C35" s="8">
-        <f t="shared" si="2"/>
-        <v>48.007352941176407</v>
-      </c>
-      <c r="D35" s="8">
-        <f t="shared" si="3"/>
-        <v>270.99264705882359</v>
-      </c>
-      <c r="E35" s="8">
-        <f t="shared" si="4"/>
-        <v>-438.51862745098049</v>
-      </c>
-      <c r="F35" s="8">
-        <f t="shared" si="5"/>
-        <v>764.51862745098049</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C36" s="8">
-        <f t="shared" si="2"/>
-        <v>23.754901960784252</v>
-      </c>
-      <c r="D36" s="8">
-        <f t="shared" si="3"/>
-        <v>314.24509803921575</v>
-      </c>
-      <c r="E36" s="8">
-        <f t="shared" si="4"/>
-        <v>-485.47843137254915</v>
-      </c>
-      <c r="F36" s="8">
-        <f t="shared" si="5"/>
-        <v>825.47843137254915</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C37" s="8">
-        <f t="shared" si="2"/>
-        <v>-0.49754901960790221</v>
-      </c>
-      <c r="D37" s="8">
-        <f t="shared" si="3"/>
-        <v>-249.5024509803921</v>
-      </c>
-      <c r="E37" s="8">
-        <f t="shared" si="4"/>
-        <v>967.80392156862763</v>
-      </c>
-      <c r="F37" s="8">
-        <f t="shared" si="5"/>
-        <v>-1217.8039215686276</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C38" s="8">
-        <f t="shared" si="2"/>
-        <v>-24.750000000000057</v>
-      </c>
-      <c r="D38" s="8">
-        <f t="shared" si="3"/>
-        <v>-225.24999999999994</v>
-      </c>
-      <c r="E38" s="8">
-        <f t="shared" si="4"/>
-        <v>967.80392156862763</v>
-      </c>
-      <c r="F38" s="8">
-        <f t="shared" si="5"/>
-        <v>-1217.8039215686276</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C39" s="8">
-        <f t="shared" si="2"/>
-        <v>-49.002450980392211</v>
-      </c>
-      <c r="D39" s="8">
-        <f t="shared" si="3"/>
-        <v>-200.99754901960779</v>
-      </c>
-      <c r="E39" s="8">
-        <f t="shared" si="4"/>
-        <v>967.80392156862763</v>
-      </c>
-      <c r="F39" s="8">
-        <f t="shared" si="5"/>
-        <v>-1217.8039215686276</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="C40" s="8">
-        <f t="shared" si="2"/>
-        <v>-73.254901960784366</v>
-      </c>
-      <c r="D40" s="8">
-        <f t="shared" si="3"/>
-        <v>-176.74509803921563</v>
-      </c>
-      <c r="E40" s="8">
-        <f t="shared" si="4"/>
-        <v>967.80392156862763</v>
-      </c>
-      <c r="F40" s="8">
-        <f t="shared" si="5"/>
-        <v>-1217.8039215686276</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:30" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -11717,18 +12411,13 @@
       <c r="AA44" s="9"/>
       <c r="AB44" s="9"/>
       <c r="AC44" s="9"/>
+      <c r="AD44" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="O24:P24"/>
-    <mergeCell ref="O23:P23"/>
-    <mergeCell ref="L22:P22"/>
-    <mergeCell ref="T22:X22"/>
-    <mergeCell ref="W23:X23"/>
-    <mergeCell ref="W24:X24"/>
+  <mergeCells count="3">
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:Z1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -11738,37 +12427,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2182AA-7EBB-49A0-89F7-5F73F45DCB8C}">
-  <dimension ref="A3:AC72"/>
+  <dimension ref="A2:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G56" sqref="G56"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="11" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A3" s="14" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="P2" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="16"/>
+      <c r="R2" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="S2" s="16"/>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A3" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="16"/>
-      <c r="M3" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="16"/>
-      <c r="Z3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="AA3" s="13"/>
-      <c r="AB3" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="AC3" s="13"/>
+      <c r="B3" s="18"/>
+      <c r="C3" s="18"/>
+      <c r="D3" s="19"/>
+      <c r="P3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="R3" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="S3" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -11781,2423 +12481,776 @@
       <c r="D4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="P4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="Z4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AA4" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB4" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="AC4" s="7" t="s">
-        <v>19</v>
+      <c r="P4" s="8">
+        <f t="shared" ref="P4:P18" si="0">$H$19*D5+$I$19</f>
+        <v>516.90722795758279</v>
+      </c>
+      <c r="Q4" s="8">
+        <f t="shared" ref="Q4:Q18" si="1">C5-P4</f>
+        <v>-2.1572279575827906</v>
+      </c>
+      <c r="R4" s="8">
+        <f t="shared" ref="R4:R18" si="2">$H$39*D25+$I$39</f>
+        <v>416.80378506070014</v>
+      </c>
+      <c r="S4" s="8">
+        <f t="shared" ref="S4:S18" si="3">C25-R4</f>
+        <v>0.946214939299864</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="20">
         <v>90.94</v>
       </c>
       <c r="B5" s="1">
         <v>515</v>
       </c>
       <c r="C5" s="1">
-        <f>B5-'Carga e Descarga'!$M$3</f>
-        <v>265</v>
+        <f>B5-'Carga e Descarga'!$I$17</f>
+        <v>514.75</v>
       </c>
       <c r="D5" s="1">
         <v>30</v>
       </c>
-      <c r="M5" s="17">
-        <v>10.29</v>
-      </c>
-      <c r="N5" s="1">
-        <v>418</v>
-      </c>
-      <c r="O5" s="1">
-        <f>N5-'Carga e Descarga'!$M$3</f>
-        <v>168</v>
-      </c>
-      <c r="P5" s="1">
-        <v>12</v>
-      </c>
-      <c r="Z5" s="8" t="e">
-        <f t="shared" ref="Z5:Z21" si="0">$H$20*D5+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA5" s="8" t="e">
-        <f t="shared" ref="AA5:AA21" si="1">C5-Z5</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB5" s="8" t="e">
-        <f>$T$20*P5+$U$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC5" s="8" t="e">
-        <f t="shared" ref="AC5:AC21" si="2">C5-AB5</f>
-        <v>#VALUE!</v>
+      <c r="P5" s="8">
+        <f t="shared" si="0"/>
+        <v>517.10261186645084</v>
+      </c>
+      <c r="Q5" s="8">
+        <f t="shared" si="1"/>
+        <v>-0.35261186645084308</v>
+      </c>
+      <c r="R5" s="8">
+        <f t="shared" si="2"/>
+        <v>416.66327168357122</v>
+      </c>
+      <c r="S5" s="8">
+        <f t="shared" si="3"/>
+        <v>8.6728316428775543E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A6" s="18"/>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="20"/>
       <c r="B6" s="1">
         <v>517</v>
       </c>
       <c r="C6" s="1">
-        <f>B6-'Carga e Descarga'!$M$3</f>
-        <v>267</v>
+        <f>B6-'Carga e Descarga'!$I$17</f>
+        <v>516.75</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
       </c>
-      <c r="M6" s="18"/>
-      <c r="N6" s="1">
-        <v>417</v>
-      </c>
-      <c r="O6" s="1">
-        <f>N6-'Carga e Descarga'!$M$3</f>
-        <v>167</v>
-      </c>
-      <c r="P6" s="1">
-        <v>71</v>
-      </c>
-      <c r="Z6" s="8" t="e">
+      <c r="P6" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA6" s="8" t="e">
+        <v>517.28236506260941</v>
+      </c>
+      <c r="Q6" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB6" s="8" t="e">
-        <f t="shared" ref="AB6:AB69" si="3">$T$20*P6+$U$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC6" s="8" t="e">
+        <v>0.46763493739058504</v>
+      </c>
+      <c r="R6" s="8">
         <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>416.53704780242157</v>
+      </c>
+      <c r="S6" s="8">
+        <f t="shared" si="3"/>
+        <v>0.11295219757840869</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A7" s="18"/>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="20"/>
       <c r="B7" s="1">
         <v>518</v>
       </c>
       <c r="C7" s="1">
-        <f>B7-'Carga e Descarga'!$M$3</f>
-        <v>268</v>
+        <f>B7-'Carga e Descarga'!$I$17</f>
+        <v>517.75</v>
       </c>
       <c r="D7" s="1">
         <v>126</v>
       </c>
-      <c r="M7" s="18"/>
-      <c r="N7" s="1">
-        <v>416.9</v>
-      </c>
-      <c r="O7" s="1">
-        <f>N7-'Carga e Descarga'!$M$3</f>
-        <v>166.89999999999998</v>
-      </c>
-      <c r="P7" s="1">
-        <v>124</v>
-      </c>
-      <c r="Z7" s="8" t="e">
+      <c r="P7" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA7" s="8" t="e">
+        <v>517.41913379881703</v>
+      </c>
+      <c r="Q7" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB7" s="8" t="e">
+        <v>0.33086620118297105</v>
+      </c>
+      <c r="R7" s="8">
+        <f t="shared" si="2"/>
+        <v>416.44416607855675</v>
+      </c>
+      <c r="S7" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC7" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.19416607855674783</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A8" s="18"/>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="20"/>
       <c r="B8" s="1">
         <v>518</v>
       </c>
       <c r="C8" s="1">
-        <f>B8-'Carga e Descarga'!$M$3</f>
-        <v>268</v>
+        <f>B8-'Carga e Descarga'!$I$17</f>
+        <v>517.75</v>
       </c>
       <c r="D8" s="1">
         <v>161</v>
       </c>
-      <c r="M8" s="18"/>
-      <c r="N8" s="1">
-        <v>416.5</v>
-      </c>
-      <c r="O8" s="1">
-        <f>N8-'Carga e Descarga'!$M$3</f>
-        <v>166.5</v>
-      </c>
-      <c r="P8" s="1">
-        <v>163</v>
-      </c>
-      <c r="Z8" s="8" t="e">
+      <c r="P8" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA8" s="8" t="e">
+        <v>517.59107163862086</v>
+      </c>
+      <c r="Q8" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB8" s="8" t="e">
+        <v>0.15892836137913946</v>
+      </c>
+      <c r="R8" s="8">
+        <f t="shared" si="2"/>
+        <v>416.34175802403911</v>
+      </c>
+      <c r="S8" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC8" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.19175802403913167</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A9" s="18"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="20"/>
       <c r="B9" s="1">
         <v>518</v>
       </c>
       <c r="C9" s="1">
-        <f>B9-'Carga e Descarga'!$M$3</f>
-        <v>268</v>
+        <f>B9-'Carga e Descarga'!$I$17</f>
+        <v>517.75</v>
       </c>
       <c r="D9" s="1">
         <v>205</v>
       </c>
-      <c r="M9" s="18"/>
-      <c r="N9" s="1">
-        <v>416.4</v>
-      </c>
-      <c r="O9" s="1">
-        <f>N9-'Carga e Descarga'!$M$3</f>
-        <v>166.39999999999998</v>
-      </c>
-      <c r="P9" s="1">
-        <v>206</v>
-      </c>
-      <c r="Z9" s="8" t="e">
+      <c r="P9" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA9" s="8" t="e">
+        <v>517.76691715660218</v>
+      </c>
+      <c r="Q9" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB9" s="8" t="e">
+        <v>0.48308284339782404</v>
+      </c>
+      <c r="R9" s="8">
+        <f t="shared" si="2"/>
+        <v>416.17981040294143</v>
+      </c>
+      <c r="S9" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC9" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.12981040294141621</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A10" s="18"/>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="20"/>
       <c r="B10" s="1">
         <v>518.5</v>
       </c>
       <c r="C10" s="1">
-        <f>B10-'Carga e Descarga'!$M$3</f>
-        <v>268.5</v>
+        <f>B10-'Carga e Descarga'!$I$17</f>
+        <v>518.25</v>
       </c>
       <c r="D10" s="1">
         <v>250</v>
       </c>
-      <c r="M10" s="18"/>
-      <c r="N10" s="1">
-        <v>416.3</v>
-      </c>
-      <c r="O10" s="1">
-        <f>N10-'Carga e Descarga'!$M$3</f>
-        <v>166.3</v>
-      </c>
-      <c r="P10" s="1">
-        <v>274</v>
-      </c>
-      <c r="Z10" s="8" t="e">
+      <c r="P10" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA10" s="8" t="e">
+        <v>517.98183945635697</v>
+      </c>
+      <c r="Q10" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB10" s="8" t="e">
+        <v>0.46816054364308002</v>
+      </c>
+      <c r="R10" s="8">
+        <f t="shared" si="2"/>
+        <v>416.02738911249651</v>
+      </c>
+      <c r="S10" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC10" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.27738911249650755</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A11" s="18"/>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="20"/>
       <c r="B11" s="1">
         <v>518.70000000000005</v>
       </c>
       <c r="C11" s="1">
-        <f>B11-'Carga e Descarga'!$M$3</f>
-        <v>268.70000000000005</v>
+        <f>B11-'Carga e Descarga'!$I$17</f>
+        <v>518.45000000000005</v>
       </c>
       <c r="D11" s="1">
         <v>305</v>
       </c>
-      <c r="M11" s="18"/>
-      <c r="N11" s="1">
-        <v>416</v>
-      </c>
-      <c r="O11" s="1">
-        <f>N11-'Carga e Descarga'!$M$3</f>
-        <v>166</v>
-      </c>
-      <c r="P11" s="1">
-        <v>338</v>
-      </c>
-      <c r="Z11" s="8" t="e">
+      <c r="P11" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA11" s="8" t="e">
+        <v>518.4194994122214</v>
+      </c>
+      <c r="Q11" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB11" s="8" t="e">
+        <v>0.43050058777862432</v>
+      </c>
+      <c r="R11" s="8">
+        <f t="shared" si="2"/>
+        <v>415.86782307406207</v>
+      </c>
+      <c r="S11" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC11" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.41782307406208474</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A12" s="18"/>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A12" s="20"/>
       <c r="B12" s="1">
         <v>519.1</v>
       </c>
       <c r="C12" s="1">
-        <f>B12-'Carga e Descarga'!$M$3</f>
-        <v>269.10000000000002</v>
+        <f>B12-'Carga e Descarga'!$I$17</f>
+        <v>518.85</v>
       </c>
       <c r="D12" s="1">
         <v>417</v>
       </c>
-      <c r="M12" s="18"/>
-      <c r="N12" s="1">
-        <v>415.7</v>
-      </c>
-      <c r="O12" s="1">
-        <f>N12-'Carga e Descarga'!$M$3</f>
-        <v>165.7</v>
-      </c>
-      <c r="P12" s="1">
-        <v>405</v>
-      </c>
-      <c r="Z12" s="8" t="e">
+      <c r="P12" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA12" s="8" t="e">
+        <v>518.6344217119763</v>
+      </c>
+      <c r="Q12" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB12" s="8" t="e">
+        <v>0.61557828802369841</v>
+      </c>
+      <c r="R12" s="8">
+        <f t="shared" si="2"/>
+        <v>415.62490164241552</v>
+      </c>
+      <c r="S12" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC12" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.27490164241550019</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A13" s="18"/>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A13" s="20"/>
       <c r="B13" s="1">
         <v>519.5</v>
       </c>
       <c r="C13" s="1">
-        <f>B13-'Carga e Descarga'!$M$3</f>
-        <v>269.5</v>
+        <f>B13-'Carga e Descarga'!$I$17</f>
+        <v>519.25</v>
       </c>
       <c r="D13" s="1">
         <v>472</v>
       </c>
-      <c r="M13" s="18"/>
-      <c r="N13" s="1">
-        <v>415.6</v>
-      </c>
-      <c r="O13" s="1">
-        <f>N13-'Carga e Descarga'!$M$3</f>
-        <v>165.60000000000002</v>
-      </c>
-      <c r="P13" s="1">
-        <v>507</v>
-      </c>
-      <c r="Z13" s="8" t="e">
+      <c r="P13" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA13" s="8" t="e">
+        <v>518.88451311532742</v>
+      </c>
+      <c r="Q13" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB13" s="8" t="e">
+        <v>0.36548688467257762</v>
+      </c>
+      <c r="R13" s="8">
+        <f t="shared" si="2"/>
+        <v>415.4034144547378</v>
+      </c>
+      <c r="S13" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC13" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.15341445473779913</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A14" s="18"/>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A14" s="20"/>
       <c r="B14" s="1">
         <v>519.5</v>
       </c>
       <c r="C14" s="1">
-        <f>B14-'Carga e Descarga'!$M$3</f>
-        <v>269.5</v>
+        <f>B14-'Carga e Descarga'!$I$17</f>
+        <v>519.25</v>
       </c>
       <c r="D14" s="1">
         <v>536</v>
       </c>
-      <c r="M14" s="18"/>
-      <c r="N14" s="1">
-        <v>415.5</v>
-      </c>
-      <c r="O14" s="1">
-        <f>N14-'Carga e Descarga'!$M$3</f>
-        <v>165.5</v>
-      </c>
-      <c r="P14" s="1">
-        <v>600</v>
-      </c>
-      <c r="Z14" s="8" t="e">
+      <c r="P14" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA14" s="8" t="e">
+        <v>519.11115844961432</v>
+      </c>
+      <c r="Q14" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB14" s="8" t="e">
+        <v>0.43884155038563222</v>
+      </c>
+      <c r="R14" s="8">
+        <f t="shared" si="2"/>
+        <v>415.1628746057545</v>
+      </c>
+      <c r="S14" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC14" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-0.21287460575450723</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A15" s="18"/>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A15" s="20"/>
       <c r="B15" s="1">
         <v>519.79999999999995</v>
       </c>
       <c r="C15" s="1">
-        <f>B15-'Carga e Descarga'!$M$3</f>
-        <v>269.79999999999995</v>
+        <f>B15-'Carga e Descarga'!$I$17</f>
+        <v>519.54999999999995</v>
       </c>
       <c r="D15" s="1">
         <v>594</v>
       </c>
-      <c r="M15" s="18"/>
-      <c r="N15" s="1">
-        <v>415.2</v>
-      </c>
-      <c r="O15" s="1">
-        <f>N15-'Carga e Descarga'!$M$3</f>
-        <v>165.2</v>
-      </c>
-      <c r="P15" s="1">
-        <v>701</v>
-      </c>
-      <c r="Z15" s="8" t="e">
+      <c r="P15" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA15" s="8" t="e">
+        <v>519.33780378390122</v>
+      </c>
+      <c r="Q15" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB15" s="8" t="e">
+        <v>0.31219621609875503</v>
+      </c>
+      <c r="R15" s="8">
+        <f t="shared" si="2"/>
+        <v>414.90804526079199</v>
+      </c>
+      <c r="S15" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC15" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>-5.8045260791971032E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A16" s="18"/>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="20"/>
       <c r="B16" s="1">
         <v>519.9</v>
       </c>
       <c r="C16" s="1">
-        <f>B16-'Carga e Descarga'!$M$3</f>
-        <v>269.89999999999998</v>
+        <f>B16-'Carga e Descarga'!$I$17</f>
+        <v>519.65</v>
       </c>
       <c r="D16" s="1">
         <v>652</v>
       </c>
-      <c r="M16" s="18"/>
-      <c r="N16" s="1">
-        <v>415.1</v>
-      </c>
-      <c r="O16" s="1">
-        <f>N16-'Carga e Descarga'!$M$3</f>
-        <v>165.10000000000002</v>
-      </c>
-      <c r="P16" s="1">
-        <v>808</v>
-      </c>
-      <c r="Z16" s="8" t="e">
+      <c r="P16" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA16" s="8" t="e">
+        <v>519.56054144001087</v>
+      </c>
+      <c r="Q16" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB16" s="8" t="e">
+        <v>0.1894585599891343</v>
+      </c>
+      <c r="R16" s="8">
+        <f t="shared" si="2"/>
+        <v>414.64607116783986</v>
+      </c>
+      <c r="S16" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC16" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>0.10392883216013615</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A17" s="18"/>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="20"/>
       <c r="B17" s="1">
         <v>520</v>
       </c>
       <c r="C17" s="1">
-        <f>B17-'Carga e Descarga'!$M$3</f>
-        <v>270</v>
+        <f>B17-'Carga e Descarga'!$I$17</f>
+        <v>519.75</v>
       </c>
       <c r="D17" s="1">
         <v>709</v>
       </c>
-      <c r="M17" s="18"/>
-      <c r="N17" s="1">
-        <v>415</v>
-      </c>
-      <c r="O17" s="1">
-        <f>N17-'Carga e Descarga'!$M$3</f>
-        <v>165</v>
-      </c>
-      <c r="P17" s="1">
-        <v>918</v>
-      </c>
-      <c r="Z17" s="8" t="e">
+      <c r="P17" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA17" s="8" t="e">
+        <v>519.85361730331294</v>
+      </c>
+      <c r="Q17" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB17" s="8" t="e">
+        <v>-0.10361730331294439</v>
+      </c>
+      <c r="R17" s="8">
+        <f t="shared" si="2"/>
+        <v>414.46030772011017</v>
+      </c>
+      <c r="S17" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC17" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>0.28969227988983448</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A18" s="18"/>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="20"/>
       <c r="B18" s="1">
         <v>520</v>
       </c>
       <c r="C18" s="1">
-        <f>B18-'Carga e Descarga'!$M$3</f>
-        <v>270</v>
+        <f>B18-'Carga e Descarga'!$I$17</f>
+        <v>519.75</v>
       </c>
       <c r="D18" s="1">
         <v>784</v>
       </c>
-      <c r="M18" s="18"/>
-      <c r="N18" s="1">
-        <v>415</v>
-      </c>
-      <c r="O18" s="1">
-        <f>N18-'Carga e Descarga'!$M$3</f>
-        <v>165</v>
-      </c>
-      <c r="P18" s="1">
-        <v>996</v>
-      </c>
-      <c r="Z18" s="8" t="e">
+      <c r="G18" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="13"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="13"/>
+      <c r="P18" s="8">
         <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA18" s="8" t="e">
+        <v>520.09198567213195</v>
+      </c>
+      <c r="Q18" s="8">
         <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB18" s="8" t="e">
+        <v>-0.34198567213195474</v>
+      </c>
+      <c r="R18" s="8">
+        <f t="shared" si="2"/>
+        <v>414.3793339095613</v>
+      </c>
+      <c r="S18" s="8">
         <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC18" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
+        <v>0.37066609043870358</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A19" s="18"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="20"/>
       <c r="B19" s="1">
         <v>520</v>
       </c>
       <c r="C19" s="1">
-        <f>B19-'Carga e Descarga'!$M$3</f>
-        <v>270</v>
+        <f>B19-'Carga e Descarga'!$I$17</f>
+        <v>519.75</v>
       </c>
       <c r="D19" s="1">
         <v>845</v>
       </c>
-      <c r="G19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="10"/>
-      <c r="I19" s="10"/>
-      <c r="J19" s="10"/>
-      <c r="K19" s="10"/>
-      <c r="M19" s="18"/>
-      <c r="N19" s="1">
-        <v>415</v>
-      </c>
-      <c r="O19" s="1">
-        <f>N19-'Carga e Descarga'!$M$3</f>
-        <v>165</v>
-      </c>
-      <c r="P19" s="1">
-        <v>1030</v>
-      </c>
-      <c r="S19" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="T19" s="10"/>
-      <c r="U19" s="10"/>
-      <c r="V19" s="10"/>
-      <c r="W19" s="10"/>
-      <c r="Z19" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA19" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB19" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC19" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="G19" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H19" s="1">
+        <f t="array" ref="H19:I20">LINEST(C5:C21,D5:D21,TRUE,TRUE)</f>
+        <v>3.9076781773609518E-3</v>
+      </c>
+      <c r="I19" s="1">
+        <v>516.78999761226191</v>
+      </c>
+      <c r="J19" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K19" s="13"/>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A20" s="18"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="20"/>
       <c r="B20" s="1">
         <v>520</v>
       </c>
       <c r="C20" s="1">
-        <f>B20-'Carga e Descarga'!$M$3</f>
-        <v>270</v>
+        <f>B20-'Carga e Descarga'!$I$17</f>
+        <v>519.75</v>
       </c>
       <c r="D20" s="1">
         <v>905</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="H20" s="1" t="e">
-        <f t="array" ref="H20:I21">LINEST(C5:C72,D5:D72,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="I20" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K20" s="10"/>
-      <c r="M20" s="18"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1">
-        <f>N20-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P20" s="1"/>
-      <c r="S20" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="T20" s="1" t="e">
-        <f t="array" ref="T20:U21">LINEST(O5:O72,P5:P72,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="U20" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V20" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="W20" s="10"/>
-      <c r="Z20" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA20" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB20" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC20" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="H20" s="1">
+        <v>5.8679715109678831E-4</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0.32609673852935367</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="K20" s="13"/>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A21" s="18"/>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="20"/>
       <c r="B21" s="1">
         <v>520</v>
       </c>
       <c r="C21" s="1">
-        <f>B21-'Carga e Descarga'!$M$3</f>
-        <v>270</v>
+        <f>B21-'Carga e Descarga'!$I$17</f>
+        <v>519.75</v>
       </c>
       <c r="D21" s="1">
         <v>944</v>
       </c>
-      <c r="G21" s="3" t="s">
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="18"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="19"/>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D24" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="20">
+        <v>10.29</v>
+      </c>
+      <c r="B25" s="1">
+        <v>418</v>
+      </c>
+      <c r="C25" s="1">
+        <f>B25-'Carga e Descarga'!$I$17</f>
+        <v>417.75</v>
+      </c>
+      <c r="D25" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="20"/>
+      <c r="B26" s="1">
+        <v>417</v>
+      </c>
+      <c r="C26" s="1">
+        <f>B26-'Carga e Descarga'!$I$17</f>
+        <v>416.75</v>
+      </c>
+      <c r="D26" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A27" s="20"/>
+      <c r="B27" s="1">
+        <v>416.9</v>
+      </c>
+      <c r="C27" s="1">
+        <f>B27-'Carga e Descarga'!$I$17</f>
+        <v>416.65</v>
+      </c>
+      <c r="D27" s="1">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="20"/>
+      <c r="B28" s="1">
+        <v>416.5</v>
+      </c>
+      <c r="C28" s="1">
+        <f>B28-'Carga e Descarga'!$I$17</f>
+        <v>416.25</v>
+      </c>
+      <c r="D28" s="1">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="20"/>
+      <c r="B29" s="1">
+        <v>416.4</v>
+      </c>
+      <c r="C29" s="1">
+        <f>B29-'Carga e Descarga'!$I$17</f>
+        <v>416.15</v>
+      </c>
+      <c r="D29" s="1">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="20"/>
+      <c r="B30" s="1">
+        <v>416.3</v>
+      </c>
+      <c r="C30" s="1">
+        <f>B30-'Carga e Descarga'!$I$17</f>
+        <v>416.05</v>
+      </c>
+      <c r="D30" s="1">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="20"/>
+      <c r="B31" s="1">
+        <v>416</v>
+      </c>
+      <c r="C31" s="1">
+        <f>B31-'Carga e Descarga'!$I$17</f>
+        <v>415.75</v>
+      </c>
+      <c r="D31" s="1">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="20"/>
+      <c r="B32" s="1">
+        <v>415.7</v>
+      </c>
+      <c r="C32" s="1">
+        <f>B32-'Carga e Descarga'!$I$17</f>
+        <v>415.45</v>
+      </c>
+      <c r="D32" s="1">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="20"/>
+      <c r="B33" s="1">
+        <v>415.6</v>
+      </c>
+      <c r="C33" s="1">
+        <f>B33-'Carga e Descarga'!$I$17</f>
+        <v>415.35</v>
+      </c>
+      <c r="D33" s="1">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="20"/>
+      <c r="B34" s="1">
+        <v>415.5</v>
+      </c>
+      <c r="C34" s="1">
+        <f>B34-'Carga e Descarga'!$I$17</f>
+        <v>415.25</v>
+      </c>
+      <c r="D34" s="1">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="20"/>
+      <c r="B35" s="1">
+        <v>415.2</v>
+      </c>
+      <c r="C35" s="1">
+        <f>B35-'Carga e Descarga'!$I$17</f>
+        <v>414.95</v>
+      </c>
+      <c r="D35" s="1">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="20"/>
+      <c r="B36" s="1">
+        <v>415.1</v>
+      </c>
+      <c r="C36" s="1">
+        <f>B36-'Carga e Descarga'!$I$17</f>
+        <v>414.85</v>
+      </c>
+      <c r="D36" s="1">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="20"/>
+      <c r="B37" s="1">
+        <v>415</v>
+      </c>
+      <c r="C37" s="1">
+        <f>B37-'Carga e Descarga'!$I$17</f>
+        <v>414.75</v>
+      </c>
+      <c r="D37" s="1">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="20"/>
+      <c r="B38" s="1">
+        <v>415</v>
+      </c>
+      <c r="C38" s="1">
+        <f>B38-'Carga e Descarga'!$I$17</f>
+        <v>414.75</v>
+      </c>
+      <c r="D38" s="1">
+        <v>996</v>
+      </c>
+      <c r="G38" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H38" s="13"/>
+      <c r="I38" s="13"/>
+      <c r="J38" s="13"/>
+      <c r="K38" s="13"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="20"/>
+      <c r="B39" s="1">
+        <v>415</v>
+      </c>
+      <c r="C39" s="1">
+        <f>B39-'Carga e Descarga'!$I$17</f>
+        <v>414.75</v>
+      </c>
+      <c r="D39" s="1">
+        <v>1030</v>
+      </c>
+      <c r="G39" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H39" s="1">
+        <f t="array" ref="H39:I40">LINEST(C25:C39,D25:D39,TRUE,TRUE)</f>
+        <v>-2.3815826632011825E-3</v>
+      </c>
+      <c r="I39" s="1">
+        <v>416.83236405265853</v>
+      </c>
+      <c r="J39" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="K39" s="13"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="G40" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="H21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="I21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="J21" s="10" t="s">
+      <c r="H40" s="1">
+        <v>2.7317327659565587E-4</v>
+      </c>
+      <c r="I40" s="1">
+        <v>0.15928391526733282</v>
+      </c>
+      <c r="J40" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="K21" s="10"/>
-      <c r="M21" s="18"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1">
-        <f>N21-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P21" s="1"/>
-      <c r="S21" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="T21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="U21" s="1" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="V21" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="W21" s="10"/>
-      <c r="Z21" s="8" t="e">
-        <f t="shared" si="0"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA21" s="8" t="e">
-        <f t="shared" si="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB21" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC21" s="8" t="e">
-        <f t="shared" si="2"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A22" s="18"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1">
-        <f>B22-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D22" s="1"/>
-      <c r="M22" s="18"/>
-      <c r="N22" s="1"/>
-      <c r="O22" s="1">
-        <f>N22-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P22" s="1"/>
-      <c r="Z22" s="8" t="e">
-        <f t="shared" ref="Z22:Z72" si="4">$H$20*D22+$I$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA22" s="8" t="e">
-        <f t="shared" ref="AA22:AA72" si="5">C22-Z22</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB22" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC22" s="8" t="e">
-        <f t="shared" ref="AC22:AC72" si="6">C22-AB22</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A23" s="18"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1">
-        <f>B23-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D23" s="1"/>
-      <c r="M23" s="18"/>
-      <c r="N23" s="1"/>
-      <c r="O23" s="1">
-        <f>N23-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P23" s="1"/>
-      <c r="Z23" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA23" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB23" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC23" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A24" s="18"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1">
-        <f>B24-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D24" s="1"/>
-      <c r="M24" s="18"/>
-      <c r="N24" s="1"/>
-      <c r="O24" s="1">
-        <f>N24-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P24" s="1"/>
-      <c r="Z24" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA24" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB24" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC24" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A25" s="18"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1">
-        <f>B25-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="1"/>
-      <c r="O25" s="1">
-        <f>N25-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P25" s="1"/>
-      <c r="Z25" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA25" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB25" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC25" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A26" s="18"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1">
-        <f>B26-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="1"/>
-      <c r="O26" s="1">
-        <f>N26-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P26" s="1"/>
-      <c r="Z26" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA26" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB26" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC26" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A27" s="18"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1">
-        <f>B27-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D27" s="1"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="1"/>
-      <c r="O27" s="1">
-        <f>N27-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P27" s="1"/>
-      <c r="Z27" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA27" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB27" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC27" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A28" s="18"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1">
-        <f>B28-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="1"/>
-      <c r="O28" s="1">
-        <f>N28-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P28" s="1"/>
-      <c r="Z28" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA28" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB28" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC28" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A29" s="18"/>
-      <c r="B29" s="1"/>
-      <c r="C29" s="1">
-        <f>B29-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="1"/>
-      <c r="O29" s="1">
-        <f>N29-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P29" s="1"/>
-      <c r="Z29" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA29" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB29" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC29" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A30" s="18"/>
-      <c r="B30" s="1"/>
-      <c r="C30" s="1">
-        <f>B30-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="1"/>
-      <c r="O30" s="1">
-        <f>N30-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P30" s="1"/>
-      <c r="Z30" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA30" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB30" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC30" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A31" s="18"/>
-      <c r="B31" s="1"/>
-      <c r="C31" s="1">
-        <f>B31-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="1"/>
-      <c r="O31" s="1">
-        <f>N31-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P31" s="1"/>
-      <c r="Z31" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA31" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB31" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC31" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A32" s="18"/>
-      <c r="B32" s="1"/>
-      <c r="C32" s="1">
-        <f>B32-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="1"/>
-      <c r="O32" s="1">
-        <f>N32-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P32" s="1"/>
-      <c r="Z32" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA32" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB32" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC32" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A33" s="18"/>
-      <c r="B33" s="1"/>
-      <c r="C33" s="1">
-        <f>B33-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D33" s="1"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="1"/>
-      <c r="O33" s="1">
-        <f>N33-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P33" s="1"/>
-      <c r="Z33" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA33" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB33" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC33" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A34" s="18"/>
-      <c r="B34" s="1"/>
-      <c r="C34" s="1">
-        <f>B34-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D34" s="1"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="1"/>
-      <c r="O34" s="1">
-        <f>N34-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P34" s="1"/>
-      <c r="Z34" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA34" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB34" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC34" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A35" s="18"/>
-      <c r="B35" s="1"/>
-      <c r="C35" s="1">
-        <f>B35-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1">
-        <f>N35-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P35" s="1"/>
-      <c r="Z35" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA35" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB35" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC35" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A36" s="18"/>
-      <c r="B36" s="1"/>
-      <c r="C36" s="1">
-        <f>B36-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="1"/>
-      <c r="O36" s="1">
-        <f>N36-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P36" s="1"/>
-      <c r="Z36" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA36" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB36" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC36" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A37" s="18"/>
-      <c r="B37" s="1"/>
-      <c r="C37" s="1">
-        <f>B37-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1">
-        <f>N37-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P37" s="1"/>
-      <c r="Z37" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA37" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB37" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC37" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A38" s="18"/>
-      <c r="B38" s="1"/>
-      <c r="C38" s="1">
-        <f>B38-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D38" s="1"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1">
-        <f>N38-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P38" s="1"/>
-      <c r="Z38" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA38" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB38" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC38" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A39" s="18"/>
-      <c r="B39" s="1"/>
-      <c r="C39" s="1">
-        <f>B39-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D39" s="1"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1">
-        <f>N39-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P39" s="1"/>
-      <c r="Z39" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA39" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB39" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC39" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="1"/>
-      <c r="C40" s="1">
-        <f>B40-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D40" s="1"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="1"/>
-      <c r="O40" s="1">
-        <f>N40-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P40" s="1"/>
-      <c r="Z40" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA40" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB40" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC40" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="1"/>
-      <c r="C41" s="1">
-        <f>B41-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D41" s="1"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="1"/>
-      <c r="O41" s="1">
-        <f>N41-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P41" s="1"/>
-      <c r="Z41" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA41" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB41" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC41" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="B42" s="1"/>
-      <c r="C42" s="1">
-        <f>B42-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D42" s="1"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="1"/>
-      <c r="O42" s="1">
-        <f>N42-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P42" s="1"/>
-      <c r="Z42" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA42" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB42" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC42" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="1"/>
-      <c r="C43" s="1">
-        <f>B43-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="1"/>
-      <c r="O43" s="1">
-        <f>N43-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P43" s="1"/>
-      <c r="Z43" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA43" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB43" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC43" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="1"/>
-      <c r="C44" s="1">
-        <f>B44-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D44" s="1"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1">
-        <f>N44-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P44" s="1"/>
-      <c r="Z44" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA44" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB44" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC44" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="1"/>
-      <c r="C45" s="1">
-        <f>B45-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D45" s="1"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="1"/>
-      <c r="O45" s="1">
-        <f>N45-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P45" s="1"/>
-      <c r="Z45" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA45" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB45" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC45" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="1"/>
-      <c r="C46" s="1">
-        <f>B46-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D46" s="1"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="1"/>
-      <c r="O46" s="1">
-        <f>N46-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P46" s="1"/>
-      <c r="Z46" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA46" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB46" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC46" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="1"/>
-      <c r="C47" s="1">
-        <f>B47-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D47" s="1"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="1"/>
-      <c r="O47" s="1">
-        <f>N47-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P47" s="1"/>
-      <c r="Z47" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA47" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB47" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC47" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A48" s="18"/>
-      <c r="B48" s="1"/>
-      <c r="C48" s="1">
-        <f>B48-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D48" s="1"/>
-      <c r="M48" s="18"/>
-      <c r="N48" s="1"/>
-      <c r="O48" s="1">
-        <f>N48-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P48" s="1"/>
-      <c r="Z48" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA48" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB48" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC48" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A49" s="18"/>
-      <c r="B49" s="1"/>
-      <c r="C49" s="1">
-        <f>B49-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D49" s="1"/>
-      <c r="M49" s="18"/>
-      <c r="N49" s="1"/>
-      <c r="O49" s="1">
-        <f>N49-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P49" s="1"/>
-      <c r="Z49" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA49" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB49" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC49" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A50" s="18"/>
-      <c r="B50" s="1"/>
-      <c r="C50" s="1">
-        <f>B50-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D50" s="1"/>
-      <c r="M50" s="18"/>
-      <c r="N50" s="1"/>
-      <c r="O50" s="1">
-        <f>N50-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P50" s="1"/>
-      <c r="Z50" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA50" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB50" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC50" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A51" s="18"/>
-      <c r="B51" s="1"/>
-      <c r="C51" s="1">
-        <f>B51-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D51" s="1"/>
-      <c r="M51" s="18"/>
-      <c r="N51" s="1"/>
-      <c r="O51" s="1">
-        <f>N51-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P51" s="1"/>
-      <c r="Z51" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA51" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB51" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC51" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A52" s="18"/>
-      <c r="B52" s="1"/>
-      <c r="C52" s="1">
-        <f>B52-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D52" s="1"/>
-      <c r="M52" s="18"/>
-      <c r="N52" s="1"/>
-      <c r="O52" s="1">
-        <f>N52-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P52" s="1"/>
-      <c r="Z52" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA52" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB52" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC52" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A53" s="18"/>
-      <c r="B53" s="1"/>
-      <c r="C53" s="1">
-        <f>B53-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D53" s="1"/>
-      <c r="M53" s="18"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1">
-        <f>N53-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P53" s="1"/>
-      <c r="Z53" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA53" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB53" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC53" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A54" s="18"/>
-      <c r="B54" s="1"/>
-      <c r="C54" s="1">
-        <f>B54-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D54" s="1"/>
-      <c r="M54" s="18"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1">
-        <f>N54-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P54" s="1"/>
-      <c r="Z54" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA54" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB54" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC54" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A55" s="18"/>
-      <c r="B55" s="1"/>
-      <c r="C55" s="1">
-        <f>B55-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D55" s="1"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1">
-        <f>N55-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P55" s="1"/>
-      <c r="Z55" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA55" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB55" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC55" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A56" s="18"/>
-      <c r="B56" s="1"/>
-      <c r="C56" s="1">
-        <f>B56-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D56" s="1"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="1"/>
-      <c r="O56" s="1">
-        <f>N56-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P56" s="1"/>
-      <c r="Z56" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA56" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB56" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC56" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A57" s="18"/>
-      <c r="B57" s="1"/>
-      <c r="C57" s="1">
-        <f>B57-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D57" s="1"/>
-      <c r="M57" s="18"/>
-      <c r="N57" s="1"/>
-      <c r="O57" s="1">
-        <f>N57-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P57" s="1"/>
-      <c r="Z57" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA57" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB57" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC57" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A58" s="18"/>
-      <c r="B58" s="1"/>
-      <c r="C58" s="1">
-        <f>B58-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D58" s="1"/>
-      <c r="M58" s="18"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1">
-        <f>N58-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P58" s="1"/>
-      <c r="Z58" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA58" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB58" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC58" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A59" s="18"/>
-      <c r="B59" s="1"/>
-      <c r="C59" s="1">
-        <f>B59-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D59" s="1"/>
-      <c r="M59" s="18"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1">
-        <f>N59-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P59" s="1"/>
-      <c r="Z59" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA59" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB59" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC59" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A60" s="18"/>
-      <c r="B60" s="1"/>
-      <c r="C60" s="1">
-        <f>B60-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D60" s="1"/>
-      <c r="M60" s="18"/>
-      <c r="N60" s="1"/>
-      <c r="O60" s="1">
-        <f>N60-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P60" s="1"/>
-      <c r="Z60" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA60" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB60" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC60" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A61" s="18"/>
-      <c r="B61" s="1"/>
-      <c r="C61" s="1">
-        <f>B61-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D61" s="1"/>
-      <c r="M61" s="18"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1">
-        <f>N61-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P61" s="1"/>
-      <c r="Z61" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA61" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB61" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC61" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A62" s="18"/>
-      <c r="B62" s="1"/>
-      <c r="C62" s="1">
-        <f>B62-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D62" s="1"/>
-      <c r="M62" s="18"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1">
-        <f>N62-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P62" s="1"/>
-      <c r="Z62" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA62" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB62" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC62" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A63" s="18"/>
-      <c r="B63" s="1"/>
-      <c r="C63" s="1">
-        <f>B63-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D63" s="1"/>
-      <c r="M63" s="18"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1">
-        <f>N63-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P63" s="1"/>
-      <c r="Z63" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA63" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB63" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC63" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A64" s="18"/>
-      <c r="B64" s="1"/>
-      <c r="C64" s="1">
-        <f>B64-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D64" s="1"/>
-      <c r="M64" s="18"/>
-      <c r="N64" s="1"/>
-      <c r="O64" s="1">
-        <f>N64-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P64" s="1"/>
-      <c r="Z64" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA64" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB64" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC64" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A65" s="18"/>
-      <c r="B65" s="1"/>
-      <c r="C65" s="1">
-        <f>B65-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="M65" s="18"/>
-      <c r="N65" s="1"/>
-      <c r="O65" s="1">
-        <f>N65-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P65" s="1"/>
-      <c r="Z65" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA65" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB65" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC65" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A66" s="18"/>
-      <c r="B66" s="1"/>
-      <c r="C66" s="1">
-        <f>B66-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="M66" s="18"/>
-      <c r="N66" s="1"/>
-      <c r="O66" s="1">
-        <f>N66-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P66" s="1"/>
-      <c r="Z66" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA66" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB66" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC66" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A67" s="18"/>
-      <c r="B67" s="1"/>
-      <c r="C67" s="1">
-        <f>B67-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="M67" s="18"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1">
-        <f>N67-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P67" s="1"/>
-      <c r="Z67" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA67" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB67" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC67" s="8" t="e">
-        <f>C67-AB67</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A68" s="18"/>
-      <c r="B68" s="1"/>
-      <c r="C68" s="1">
-        <f>B68-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="M68" s="18"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1">
-        <f>N68-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P68" s="1"/>
-      <c r="Z68" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA68" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB68" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC68" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A69" s="18"/>
-      <c r="B69" s="1"/>
-      <c r="C69" s="1">
-        <f>B69-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D69" s="1"/>
-      <c r="M69" s="18"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1">
-        <f>N69-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P69" s="1"/>
-      <c r="Z69" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA69" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB69" s="8" t="e">
-        <f t="shared" si="3"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC69" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A70" s="18"/>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1">
-        <f>B70-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="M70" s="18"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1">
-        <f>N70-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P70" s="1"/>
-      <c r="Z70" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA70" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB70" s="8" t="e">
-        <f t="shared" ref="AB70:AB72" si="7">$T$20*P70+$U$20</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC70" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A71" s="18"/>
-      <c r="B71" s="1"/>
-      <c r="C71" s="1">
-        <f>B71-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="M71" s="18"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1">
-        <f>N71-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P71" s="1"/>
-      <c r="Z71" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA71" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB71" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC71" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.3">
-      <c r="A72" s="19"/>
-      <c r="B72" s="1"/>
-      <c r="C72" s="1">
-        <f>B72-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="M72" s="19"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1">
-        <f>N72-'Carga e Descarga'!$M$3</f>
-        <v>-250</v>
-      </c>
-      <c r="P72" s="1"/>
-      <c r="Z72" s="8" t="e">
-        <f t="shared" si="4"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AA72" s="8" t="e">
-        <f t="shared" si="5"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AB72" s="8" t="e">
-        <f t="shared" si="7"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="AC72" s="8" t="e">
-        <f t="shared" si="6"/>
-        <v>#VALUE!</v>
-      </c>
+      <c r="K40" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="AB3:AC3"/>
-    <mergeCell ref="G19:K19"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="G18:K18"/>
+    <mergeCell ref="J19:K19"/>
     <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="S19:W19"/>
-    <mergeCell ref="V20:W20"/>
-    <mergeCell ref="V21:W21"/>
-    <mergeCell ref="M5:M72"/>
-    <mergeCell ref="A5:A72"/>
+    <mergeCell ref="G38:K38"/>
     <mergeCell ref="A3:D3"/>
-    <mergeCell ref="M3:P3"/>
-    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A23:D23"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="A25:A39"/>
+    <mergeCell ref="J39:K39"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.43307086614173229" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3994BEAD-2735-43F2-855E-8FBA1927CFC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8725E2AA-73FB-415B-93BD-3605F104D7E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga e Descarga" sheetId="1" r:id="rId1"/>
@@ -210,7 +210,7 @@
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.00000"/>
-    <numFmt numFmtId="167" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -393,6 +393,14 @@
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -417,17 +425,9 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -446,7 +446,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -520,7 +520,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -608,7 +608,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -803,7 +803,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -841,7 +841,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -930,7 +930,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -968,7 +968,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -1024,7 +1024,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1061,7 +1061,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1075,7 +1075,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1141,7 +1141,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1377,7 +1377,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1415,7 +1415,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -1494,7 +1494,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1532,7 +1532,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -1580,7 +1580,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1594,7 +1594,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1631,7 +1631,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1711,7 +1711,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -1903,7 +1903,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1151925264"/>
@@ -1965,7 +1965,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1151924432"/>
@@ -2013,7 +2013,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2027,7 +2027,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2064,7 +2064,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2083,7 +2083,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>#NÚM!</c:v>
+                  <c:v>#NUM!</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -2155,7 +2155,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2338,7 +2338,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066472000"/>
@@ -2401,7 +2401,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066474080"/>
@@ -2449,7 +2449,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2463,7 +2463,7 @@
 <file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2536,7 +2536,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4146,7 +4146,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1109024591"/>
@@ -4208,7 +4208,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1109013775"/>
@@ -4256,7 +4256,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4270,7 +4270,7 @@
 <file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4332,7 +4332,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4412,7 +4412,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5978,7 +5978,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022653552"/>
@@ -6040,7 +6040,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1022649392"/>
@@ -6088,7 +6088,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6102,7 +6102,7 @@
 <file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6164,7 +6164,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7781,7 +7781,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7819,7 +7819,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="374822528"/>
@@ -7901,7 +7901,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7939,7 +7939,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516379200"/>
@@ -7987,7 +7987,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -8001,7 +8001,7 @@
 <file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -8072,7 +8072,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -8152,7 +8152,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -9817,7 +9817,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="374822528"/>
@@ -9879,7 +9879,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="516379200"/>
@@ -9927,7 +9927,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -9941,7 +9941,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10011,7 +10011,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10099,7 +10099,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -10294,7 +10294,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10332,7 +10332,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -10412,7 +10412,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10450,7 +10450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -10506,7 +10506,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -10543,7 +10543,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -10557,7 +10557,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -10624,7 +10624,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -10861,7 +10861,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -10899,7 +10899,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -10978,7 +10978,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11016,7 +11016,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -11064,7 +11064,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11078,7 +11078,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11145,7 +11145,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11235,7 +11235,7 @@
             <c:numRef>
               <c:f>'Carga e Descarga'!$AA$3:$AA$15</c:f>
               <c:numCache>
-                <c:formatCode>0\.000</c:formatCode>
+                <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
                   <c:v>-1.3420638559530088E-2</c:v>
@@ -11374,7 +11374,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11412,7 +11412,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -11493,7 +11493,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -11531,7 +11531,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -11579,7 +11579,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -11593,7 +11593,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -11680,7 +11680,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -11788,7 +11788,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -11970,7 +11970,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -12165,7 +12165,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12203,7 +12203,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184421663"/>
@@ -12286,7 +12286,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12324,7 +12324,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184421247"/>
@@ -12380,7 +12380,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -12417,7 +12417,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -12431,7 +12431,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -12514,7 +12514,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -12896,7 +12896,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -12934,7 +12934,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023469344"/>
@@ -13025,7 +13025,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13063,7 +13063,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023479744"/>
@@ -13119,7 +13119,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13156,7 +13156,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13170,7 +13170,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13244,7 +13244,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -13502,7 +13502,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13540,7 +13540,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -13623,7 +13623,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -13661,7 +13661,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -13717,7 +13717,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -13754,7 +13754,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -13768,7 +13768,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -13842,7 +13842,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14090,7 +14090,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14128,7 +14128,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1992673471"/>
@@ -14211,7 +14211,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14249,7 +14249,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1992673055"/>
@@ -14305,7 +14305,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -14342,7 +14342,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14356,7 +14356,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -14423,7 +14423,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -14665,7 +14665,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14703,7 +14703,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -14782,7 +14782,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -14820,7 +14820,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -14868,7 +14868,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -24388,7 +24388,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -24686,44 +24686,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
   <dimension ref="A1:AE44"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R21" sqref="R21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="9.5546875" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11" customWidth="1"/>
     <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.7109375" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="10.6640625" customWidth="1"/>
+    <col min="22" max="22" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="X1" s="28" t="s">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="X1" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28" t="s">
+      <c r="Y1" s="32"/>
+      <c r="Z1" s="32" t="s">
         <v>13</v>
       </c>
-      <c r="AA1" s="28"/>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.25">
+      <c r="AA1" s="32"/>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
         <v>22</v>
       </c>
@@ -24764,26 +24764,26 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="36">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="28">
         <v>1.0240000000000001E-2</v>
       </c>
-      <c r="B3" s="36">
+      <c r="B3" s="28">
         <f>A3*9.81</f>
         <v>0.10045440000000001</v>
       </c>
-      <c r="C3" s="36">
+      <c r="C3" s="28">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D3" s="36">
-        <f>C3-$G$17</f>
+      <c r="D3" s="28">
+        <f t="shared" ref="D3:D15" si="0">C3-$G$17</f>
         <v>0</v>
       </c>
-      <c r="E3" s="36">
+      <c r="E3" s="28">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F3" s="36">
-        <f>E3-$G$17</f>
+      <c r="F3" s="28">
+        <f t="shared" ref="F3:F15" si="1">E3-$G$17</f>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="G3" s="5">
@@ -24796,43 +24796,43 @@
         <f>G3*H3</f>
         <v>1.4005600000000002E-7</v>
       </c>
-      <c r="X3" s="39">
-        <f>$A$18*D3^3+$B$18*D3^2+$C$18*D3+$D$18</f>
+      <c r="X3" s="31">
+        <f t="shared" ref="X3:X15" si="2">$A$18*D3^3+$B$18*D3^2+$C$18*D3+$D$18</f>
         <v>0.11543688973114569</v>
       </c>
-      <c r="Y3" s="39">
+      <c r="Y3" s="31">
         <f>B3-X3</f>
         <v>-1.4982489731145673E-2</v>
       </c>
-      <c r="Z3" s="39">
-        <f>$A$21*(F3^3)+$B$21*(F3^2)+$C$21*F3+$D$21</f>
+      <c r="Z3" s="31">
+        <f t="shared" ref="Z3:Z15" si="3">$A$21*(F3^3)+$B$21*(F3^2)+$C$21*F3+$D$21</f>
         <v>0.1138750385595301</v>
       </c>
-      <c r="AA3" s="39">
+      <c r="AA3" s="31">
         <f>B3-Z3</f>
         <v>-1.3420638559530088E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="36">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A4" s="28">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="B4" s="36">
-        <f t="shared" ref="B4:B15" si="0">A4*9.81</f>
+      <c r="B4" s="28">
+        <f t="shared" ref="B4:B15" si="4">A4*9.81</f>
         <v>0.19865250000000001</v>
       </c>
-      <c r="C4" s="36">
+      <c r="C4" s="28">
         <v>0.41899999999999998</v>
       </c>
-      <c r="D4" s="36">
-        <f>C4-$G$17</f>
+      <c r="D4" s="28">
+        <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="E4" s="36">
+      <c r="E4" s="28">
         <v>0.42399999999999999</v>
       </c>
-      <c r="F4" s="36">
-        <f>E4-$G$17</f>
+      <c r="F4" s="28">
+        <f t="shared" si="1"/>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="G4" s="6" t="s">
@@ -24844,43 +24844,43 @@
       <c r="I4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X4" s="39">
-        <f>$A$18*D4^3+$B$18*D4^2+$C$18*D4+$D$18</f>
+      <c r="X4" s="31">
+        <f t="shared" si="2"/>
         <v>0.19364495040707835</v>
       </c>
-      <c r="Y4" s="39">
-        <f t="shared" ref="Y4:Y15" si="1">B4-X4</f>
+      <c r="Y4" s="31">
+        <f t="shared" ref="Y4:Y15" si="5">B4-X4</f>
         <v>5.0075495929216562E-3</v>
       </c>
-      <c r="Z4" s="39">
-        <f>$A$21*(F4^3)+$B$21*(F4^2)+$C$21*F4+$D$21</f>
+      <c r="Z4" s="31">
+        <f t="shared" si="3"/>
         <v>0.19434772374568215</v>
       </c>
-      <c r="AA4" s="39">
-        <f t="shared" ref="AA4:AA15" si="2">B4-Z4</f>
+      <c r="AA4" s="31">
+        <f t="shared" ref="AA4:AA15" si="6">B4-Z4</f>
         <v>4.3047762543178547E-3</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="36">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="28">
         <v>3.0339999999999999E-2</v>
       </c>
-      <c r="B5" s="36">
+      <c r="B5" s="28">
+        <f t="shared" si="4"/>
+        <v>0.29763539999999999</v>
+      </c>
+      <c r="C5" s="28">
+        <v>0.42699999999999999</v>
+      </c>
+      <c r="D5" s="28">
         <f t="shared" si="0"/>
-        <v>0.29763539999999999</v>
-      </c>
-      <c r="C5" s="36">
-        <v>0.42699999999999999</v>
-      </c>
-      <c r="D5" s="36">
-        <f>C5-$G$17</f>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="E5" s="36">
+      <c r="E5" s="28">
         <v>0.433</v>
       </c>
-      <c r="F5" s="36">
-        <f>E5-$G$17</f>
+      <c r="F5" s="28">
+        <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="G5" s="6" t="s">
@@ -24892,43 +24892,43 @@
       <c r="I5" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X5" s="39">
-        <f>$A$18*D5^3+$B$18*D5^2+$C$18*D5+$D$18</f>
+      <c r="X5" s="31">
+        <f t="shared" si="2"/>
         <v>0.28999942529810896</v>
       </c>
-      <c r="Y5" s="39">
+      <c r="Y5" s="31">
+        <f t="shared" si="5"/>
+        <v>7.6359747018910351E-3</v>
+      </c>
+      <c r="Z5" s="31">
+        <f t="shared" si="3"/>
+        <v>0.28942658841201363</v>
+      </c>
+      <c r="AA5" s="31">
+        <f t="shared" si="6"/>
+        <v>8.2088115879863643E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="28">
+        <v>4.0489999999999998E-2</v>
+      </c>
+      <c r="B6" s="28">
+        <f t="shared" si="4"/>
+        <v>0.39720690000000003</v>
+      </c>
+      <c r="C6" s="28">
+        <v>0.436</v>
+      </c>
+      <c r="D6" s="28">
+        <f t="shared" si="0"/>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="E6" s="28">
+        <v>0.443</v>
+      </c>
+      <c r="F6" s="28">
         <f t="shared" si="1"/>
-        <v>7.6359747018910351E-3</v>
-      </c>
-      <c r="Z5" s="39">
-        <f>$A$21*(F5^3)+$B$21*(F5^2)+$C$21*F5+$D$21</f>
-        <v>0.28942658841201363</v>
-      </c>
-      <c r="AA5" s="39">
-        <f t="shared" si="2"/>
-        <v>8.2088115879863643E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="36">
-        <v>4.0489999999999998E-2</v>
-      </c>
-      <c r="B6" s="36">
-        <f t="shared" si="0"/>
-        <v>0.39720690000000003</v>
-      </c>
-      <c r="C6" s="36">
-        <v>0.436</v>
-      </c>
-      <c r="D6" s="36">
-        <f>C6-$G$17</f>
-        <v>2.300000000000002E-2</v>
-      </c>
-      <c r="E6" s="36">
-        <v>0.443</v>
-      </c>
-      <c r="F6" s="36">
-        <f>E6-$G$17</f>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="G6" s="6" t="s">
@@ -24940,43 +24940,43 @@
       <c r="I6" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X6" s="39">
-        <f>$A$18*D6^3+$B$18*D6^2+$C$18*D6+$D$18</f>
+      <c r="X6" s="31">
+        <f t="shared" si="2"/>
         <v>0.38830599108672942</v>
       </c>
-      <c r="Y6" s="39">
+      <c r="Y6" s="31">
+        <f t="shared" si="5"/>
+        <v>8.900908913270611E-3</v>
+      </c>
+      <c r="Z6" s="31">
+        <f t="shared" si="3"/>
+        <v>0.38494431336259582</v>
+      </c>
+      <c r="AA6" s="31">
+        <f t="shared" si="6"/>
+        <v>1.2262586637404205E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="28">
+        <v>5.0560000000000001E-2</v>
+      </c>
+      <c r="B7" s="28">
+        <f t="shared" si="4"/>
+        <v>0.49599360000000003</v>
+      </c>
+      <c r="C7" s="28">
+        <v>0.44700000000000001</v>
+      </c>
+      <c r="D7" s="28">
+        <f t="shared" si="0"/>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="E7" s="28">
+        <v>0.45600000000000002</v>
+      </c>
+      <c r="F7" s="28">
         <f t="shared" si="1"/>
-        <v>8.900908913270611E-3</v>
-      </c>
-      <c r="Z6" s="39">
-        <f>$A$21*(F6^3)+$B$21*(F6^2)+$C$21*F6+$D$21</f>
-        <v>0.38494431336259582</v>
-      </c>
-      <c r="AA6" s="39">
-        <f t="shared" si="2"/>
-        <v>1.2262586637404205E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="36">
-        <v>5.0560000000000001E-2</v>
-      </c>
-      <c r="B7" s="36">
-        <f t="shared" si="0"/>
-        <v>0.49599360000000003</v>
-      </c>
-      <c r="C7" s="36">
-        <v>0.44700000000000001</v>
-      </c>
-      <c r="D7" s="36">
-        <f>C7-$G$17</f>
-        <v>3.400000000000003E-2</v>
-      </c>
-      <c r="E7" s="36">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="F7" s="36">
-        <f>E7-$G$17</f>
         <v>4.3000000000000038E-2</v>
       </c>
       <c r="G7" s="6" t="s">
@@ -24988,43 +24988,43 @@
       <c r="I7" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X7" s="39">
-        <f>$A$18*D7^3+$B$18*D7^2+$C$18*D7+$D$18</f>
+      <c r="X7" s="31">
+        <f t="shared" si="2"/>
         <v>0.49522653182815812</v>
       </c>
-      <c r="Y7" s="39">
+      <c r="Y7" s="31">
+        <f t="shared" si="5"/>
+        <v>7.6706817184191145E-4</v>
+      </c>
+      <c r="Z7" s="31">
+        <f t="shared" si="3"/>
+        <v>0.4950025994997459</v>
+      </c>
+      <c r="AA7" s="31">
+        <f t="shared" si="6"/>
+        <v>9.9100050025413555E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="28">
+        <v>6.0609999999999997E-2</v>
+      </c>
+      <c r="B8" s="28">
+        <f t="shared" si="4"/>
+        <v>0.59458409999999995</v>
+      </c>
+      <c r="C8" s="28">
+        <v>0.45800000000000002</v>
+      </c>
+      <c r="D8" s="28">
+        <f t="shared" si="0"/>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="E8" s="28">
+        <v>0.47</v>
+      </c>
+      <c r="F8" s="28">
         <f t="shared" si="1"/>
-        <v>7.6706817184191145E-4</v>
-      </c>
-      <c r="Z7" s="39">
-        <f>$A$21*(F7^3)+$B$21*(F7^2)+$C$21*F7+$D$21</f>
-        <v>0.4950025994997459</v>
-      </c>
-      <c r="AA7" s="39">
-        <f t="shared" si="2"/>
-        <v>9.9100050025413555E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="36">
-        <v>6.0609999999999997E-2</v>
-      </c>
-      <c r="B8" s="36">
-        <f t="shared" si="0"/>
-        <v>0.59458409999999995</v>
-      </c>
-      <c r="C8" s="36">
-        <v>0.45800000000000002</v>
-      </c>
-      <c r="D8" s="36">
-        <f>C8-$G$17</f>
-        <v>4.500000000000004E-2</v>
-      </c>
-      <c r="E8" s="36">
-        <v>0.47</v>
-      </c>
-      <c r="F8" s="36">
-        <f>E8-$G$17</f>
         <v>5.6999999999999995E-2</v>
       </c>
       <c r="G8" s="6" t="s">
@@ -25036,43 +25036,43 @@
       <c r="I8" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X8" s="39">
-        <f>$A$18*D8^3+$B$18*D8^2+$C$18*D8+$D$18</f>
+      <c r="X8" s="31">
+        <f t="shared" si="2"/>
         <v>0.58915051373090188</v>
       </c>
-      <c r="Y8" s="39">
+      <c r="Y8" s="31">
+        <f t="shared" si="5"/>
+        <v>5.4335862690980674E-3</v>
+      </c>
+      <c r="Z8" s="31">
+        <f t="shared" si="3"/>
+        <v>0.59834250902307207</v>
+      </c>
+      <c r="AA8" s="31">
+        <f t="shared" si="6"/>
+        <v>-3.7584090230721179E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="28">
+        <v>7.0650000000000004E-2</v>
+      </c>
+      <c r="B9" s="28">
+        <f t="shared" si="4"/>
+        <v>0.6930765000000001</v>
+      </c>
+      <c r="C9" s="28">
+        <v>0.47299999999999998</v>
+      </c>
+      <c r="D9" s="28">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="28">
+        <v>0.48699999999999999</v>
+      </c>
+      <c r="F9" s="28">
         <f t="shared" si="1"/>
-        <v>5.4335862690980674E-3</v>
-      </c>
-      <c r="Z8" s="39">
-        <f>$A$21*(F8^3)+$B$21*(F8^2)+$C$21*F8+$D$21</f>
-        <v>0.59834250902307207</v>
-      </c>
-      <c r="AA8" s="39">
-        <f t="shared" si="2"/>
-        <v>-3.7584090230721179E-3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="36">
-        <v>7.0650000000000004E-2</v>
-      </c>
-      <c r="B9" s="36">
-        <f t="shared" si="0"/>
-        <v>0.6930765000000001</v>
-      </c>
-      <c r="C9" s="36">
-        <v>0.47299999999999998</v>
-      </c>
-      <c r="D9" s="36">
-        <f>C9-$G$17</f>
-        <v>0.06</v>
-      </c>
-      <c r="E9" s="36">
-        <v>0.48699999999999999</v>
-      </c>
-      <c r="F9" s="36">
-        <f>E9-$G$17</f>
         <v>7.400000000000001E-2</v>
       </c>
       <c r="G9" s="6" t="s">
@@ -25084,43 +25084,43 @@
       <c r="I9" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X9" s="39">
-        <f>$A$18*D9^3+$B$18*D9^2+$C$18*D9+$D$18</f>
+      <c r="X9" s="31">
+        <f t="shared" si="2"/>
         <v>0.69928167827754861</v>
       </c>
-      <c r="Y9" s="39">
+      <c r="Y9" s="31">
+        <f t="shared" si="5"/>
+        <v>-6.2051782775485176E-3</v>
+      </c>
+      <c r="Z9" s="31">
+        <f t="shared" si="3"/>
+        <v>0.7070664921675025</v>
+      </c>
+      <c r="AA9" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.3989992167502407E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="28">
+        <v>8.0750000000000002E-2</v>
+      </c>
+      <c r="B10" s="28">
+        <f t="shared" si="4"/>
+        <v>0.79215750000000007</v>
+      </c>
+      <c r="C10" s="28">
+        <v>0.49</v>
+      </c>
+      <c r="D10" s="28">
+        <f t="shared" si="0"/>
+        <v>7.7000000000000013E-2</v>
+      </c>
+      <c r="E10" s="28">
+        <v>0.504</v>
+      </c>
+      <c r="F10" s="28">
         <f t="shared" si="1"/>
-        <v>-6.2051782775485176E-3</v>
-      </c>
-      <c r="Z9" s="39">
-        <f>$A$21*(F9^3)+$B$21*(F9^2)+$C$21*F9+$D$21</f>
-        <v>0.7070664921675025</v>
-      </c>
-      <c r="AA9" s="39">
-        <f t="shared" si="2"/>
-        <v>-1.3989992167502407E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="36">
-        <v>8.0750000000000002E-2</v>
-      </c>
-      <c r="B10" s="36">
-        <f t="shared" si="0"/>
-        <v>0.79215750000000007</v>
-      </c>
-      <c r="C10" s="36">
-        <v>0.49</v>
-      </c>
-      <c r="D10" s="36">
-        <f>C10-$G$17</f>
-        <v>7.7000000000000013E-2</v>
-      </c>
-      <c r="E10" s="36">
-        <v>0.504</v>
-      </c>
-      <c r="F10" s="36">
-        <f>E10-$G$17</f>
         <v>9.1000000000000025E-2</v>
       </c>
       <c r="G10" s="6" t="s">
@@ -25132,43 +25132,43 @@
       <c r="I10" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X10" s="39">
-        <f>$A$18*D10^3+$B$18*D10^2+$C$18*D10+$D$18</f>
+      <c r="X10" s="31">
+        <f t="shared" si="2"/>
         <v>0.80392300115051696</v>
       </c>
-      <c r="Y10" s="39">
+      <c r="Y10" s="31">
+        <f t="shared" si="5"/>
+        <v>-1.1765501150516888E-2</v>
+      </c>
+      <c r="Z10" s="31">
+        <f t="shared" si="3"/>
+        <v>0.80268431952747932</v>
+      </c>
+      <c r="AA10" s="31">
+        <f t="shared" si="6"/>
+        <v>-1.0526819527479248E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="28">
+        <v>9.0929999999999997E-2</v>
+      </c>
+      <c r="B11" s="28">
+        <f t="shared" si="4"/>
+        <v>0.89202329999999996</v>
+      </c>
+      <c r="C11" s="28">
+        <v>0.50700000000000001</v>
+      </c>
+      <c r="D11" s="28">
+        <f t="shared" si="0"/>
+        <v>9.4000000000000028E-2</v>
+      </c>
+      <c r="E11" s="28">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="F11" s="28">
         <f t="shared" si="1"/>
-        <v>-1.1765501150516888E-2</v>
-      </c>
-      <c r="Z10" s="39">
-        <f>$A$21*(F10^3)+$B$21*(F10^2)+$C$21*F10+$D$21</f>
-        <v>0.80268431952747932</v>
-      </c>
-      <c r="AA10" s="39">
-        <f t="shared" si="2"/>
-        <v>-1.0526819527479248E-2</v>
-      </c>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="36">
-        <v>9.0929999999999997E-2</v>
-      </c>
-      <c r="B11" s="36">
-        <f t="shared" si="0"/>
-        <v>0.89202329999999996</v>
-      </c>
-      <c r="C11" s="36">
-        <v>0.50700000000000001</v>
-      </c>
-      <c r="D11" s="36">
-        <f>C11-$G$17</f>
-        <v>9.4000000000000028E-2</v>
-      </c>
-      <c r="E11" s="36">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="F11" s="36">
-        <f>E11-$G$17</f>
         <v>0.10600000000000004</v>
       </c>
       <c r="G11" s="6" t="s">
@@ -25180,43 +25180,43 @@
       <c r="I11" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X11" s="39">
-        <f>$A$18*D11^3+$B$18*D11^2+$C$18*D11+$D$18</f>
+      <c r="X11" s="31">
+        <f t="shared" si="2"/>
         <v>0.89301343109781373</v>
       </c>
-      <c r="Y11" s="39">
+      <c r="Y11" s="31">
+        <f t="shared" si="5"/>
+        <v>-9.901310978137623E-4</v>
+      </c>
+      <c r="Z11" s="31">
+        <f t="shared" si="3"/>
+        <v>0.88064171190349305</v>
+      </c>
+      <c r="AA11" s="31">
+        <f t="shared" si="6"/>
+        <v>1.1381588096506912E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="28">
+        <v>0.10097</v>
+      </c>
+      <c r="B12" s="28">
+        <f t="shared" si="4"/>
+        <v>0.99051570000000011</v>
+      </c>
+      <c r="C12" s="28">
+        <v>0.52900000000000003</v>
+      </c>
+      <c r="D12" s="28">
+        <f t="shared" si="0"/>
+        <v>0.11600000000000005</v>
+      </c>
+      <c r="E12" s="28">
+        <v>0.53900000000000003</v>
+      </c>
+      <c r="F12" s="28">
         <f t="shared" si="1"/>
-        <v>-9.901310978137623E-4</v>
-      </c>
-      <c r="Z11" s="39">
-        <f>$A$21*(F11^3)+$B$21*(F11^2)+$C$21*F11+$D$21</f>
-        <v>0.88064171190349305</v>
-      </c>
-      <c r="AA11" s="39">
-        <f t="shared" si="2"/>
-        <v>1.1381588096506912E-2</v>
-      </c>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="36">
-        <v>0.10097</v>
-      </c>
-      <c r="B12" s="36">
-        <f t="shared" si="0"/>
-        <v>0.99051570000000011</v>
-      </c>
-      <c r="C12" s="36">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D12" s="36">
-        <f>C12-$G$17</f>
-        <v>0.11600000000000005</v>
-      </c>
-      <c r="E12" s="36">
-        <v>0.53900000000000003</v>
-      </c>
-      <c r="F12" s="36">
-        <f>E12-$G$17</f>
         <v>0.12600000000000006</v>
       </c>
       <c r="G12" s="6" t="s">
@@ -25228,43 +25228,43 @@
       <c r="I12" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X12" s="39">
-        <f>$A$18*D12^3+$B$18*D12^2+$C$18*D12+$D$18</f>
+      <c r="X12" s="31">
+        <f t="shared" si="2"/>
         <v>0.99520484458816205</v>
       </c>
-      <c r="Y12" s="39">
+      <c r="Y12" s="31">
+        <f t="shared" si="5"/>
+        <v>-4.689144588161942E-3</v>
+      </c>
+      <c r="Z12" s="31">
+        <f t="shared" si="3"/>
+        <v>0.98215719604090768</v>
+      </c>
+      <c r="AA12" s="31">
+        <f t="shared" si="6"/>
+        <v>8.3585039590924337E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="28">
+        <v>0.11103</v>
+      </c>
+      <c r="B13" s="28">
+        <f t="shared" si="4"/>
+        <v>1.0892043</v>
+      </c>
+      <c r="C13" s="28">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="D13" s="28">
+        <f t="shared" si="0"/>
+        <v>0.13400000000000006</v>
+      </c>
+      <c r="E13" s="28">
+        <v>0.55900000000000005</v>
+      </c>
+      <c r="F13" s="28">
         <f t="shared" si="1"/>
-        <v>-4.689144588161942E-3</v>
-      </c>
-      <c r="Z12" s="39">
-        <f>$A$21*(F12^3)+$B$21*(F12^2)+$C$21*F12+$D$21</f>
-        <v>0.98215719604090768</v>
-      </c>
-      <c r="AA12" s="39">
-        <f t="shared" si="2"/>
-        <v>8.3585039590924337E-3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="36">
-        <v>0.11103</v>
-      </c>
-      <c r="B13" s="36">
-        <f t="shared" si="0"/>
-        <v>1.0892043</v>
-      </c>
-      <c r="C13" s="36">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D13" s="36">
-        <f>C13-$G$17</f>
-        <v>0.13400000000000006</v>
-      </c>
-      <c r="E13" s="36">
-        <v>0.55900000000000005</v>
-      </c>
-      <c r="F13" s="36">
-        <f>E13-$G$17</f>
         <v>0.14600000000000007</v>
       </c>
       <c r="G13" s="6" t="s">
@@ -25276,43 +25276,43 @@
       <c r="I13" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X13" s="39">
-        <f>$A$18*D13^3+$B$18*D13^2+$C$18*D13+$D$18</f>
+      <c r="X13" s="31">
+        <f t="shared" si="2"/>
         <v>1.0763474259512305</v>
       </c>
-      <c r="Y13" s="39">
+      <c r="Y13" s="31">
+        <f t="shared" si="5"/>
+        <v>1.2856874048769562E-2</v>
+      </c>
+      <c r="Z13" s="31">
+        <f t="shared" si="3"/>
+        <v>1.089265503901349</v>
+      </c>
+      <c r="AA13" s="31">
+        <f t="shared" si="6"/>
+        <v>-6.1203901349005108E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="28">
+        <v>0.12107999999999999</v>
+      </c>
+      <c r="B14" s="28">
+        <f t="shared" si="4"/>
+        <v>1.1877948</v>
+      </c>
+      <c r="C14" s="28">
+        <v>0.56899999999999995</v>
+      </c>
+      <c r="D14" s="28">
+        <f t="shared" si="0"/>
+        <v>0.15599999999999997</v>
+      </c>
+      <c r="E14" s="28">
+        <v>0.57599999999999996</v>
+      </c>
+      <c r="F14" s="28">
         <f t="shared" si="1"/>
-        <v>1.2856874048769562E-2</v>
-      </c>
-      <c r="Z13" s="39">
-        <f>$A$21*(F13^3)+$B$21*(F13^2)+$C$21*F13+$D$21</f>
-        <v>1.089265503901349</v>
-      </c>
-      <c r="AA13" s="39">
-        <f t="shared" si="2"/>
-        <v>-6.1203901349005108E-5</v>
-      </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="36">
-        <v>0.12107999999999999</v>
-      </c>
-      <c r="B14" s="36">
-        <f t="shared" si="0"/>
-        <v>1.1877948</v>
-      </c>
-      <c r="C14" s="36">
-        <v>0.56899999999999995</v>
-      </c>
-      <c r="D14" s="36">
-        <f>C14-$G$17</f>
-        <v>0.15599999999999997</v>
-      </c>
-      <c r="E14" s="36">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="F14" s="36">
-        <f>E14-$G$17</f>
         <v>0.16299999999999998</v>
       </c>
       <c r="G14" s="6" t="s">
@@ -25324,43 +25324,43 @@
       <c r="I14" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="X14" s="39">
-        <f>$A$18*D14^3+$B$18*D14^2+$C$18*D14+$D$18</f>
+      <c r="X14" s="31">
+        <f t="shared" si="2"/>
         <v>1.1838395452102002</v>
       </c>
-      <c r="Y14" s="39">
+      <c r="Y14" s="31">
+        <f t="shared" si="5"/>
+        <v>3.9552547897998558E-3</v>
+      </c>
+      <c r="Z14" s="31">
+        <f t="shared" si="3"/>
+        <v>1.1915229778502316</v>
+      </c>
+      <c r="AA14" s="31">
+        <f t="shared" si="6"/>
+        <v>-3.7281778502316065E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="28">
+        <v>0.13125999999999999</v>
+      </c>
+      <c r="B15" s="28">
+        <f t="shared" si="4"/>
+        <v>1.2876605999999999</v>
+      </c>
+      <c r="C15" s="28">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D15" s="28">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E15" s="28">
+        <v>0.59</v>
+      </c>
+      <c r="F15" s="28">
         <f t="shared" si="1"/>
-        <v>3.9552547897998558E-3</v>
-      </c>
-      <c r="Z14" s="39">
-        <f>$A$21*(F14^3)+$B$21*(F14^2)+$C$21*F14+$D$21</f>
-        <v>1.1915229778502316</v>
-      </c>
-      <c r="AA14" s="39">
-        <f t="shared" si="2"/>
-        <v>-3.7281778502316065E-3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="36">
-        <v>0.13125999999999999</v>
-      </c>
-      <c r="B15" s="36">
-        <f t="shared" si="0"/>
-        <v>1.2876605999999999</v>
-      </c>
-      <c r="C15" s="36">
-        <v>0.58799999999999997</v>
-      </c>
-      <c r="D15" s="36">
-        <f>C15-$G$17</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="E15" s="36">
-        <v>0.59</v>
-      </c>
-      <c r="F15" s="36">
-        <f>E15-$G$17</f>
         <v>0.17699999999999999</v>
       </c>
       <c r="G15" s="5">
@@ -25373,24 +25373,24 @@
         <f>G15*H15</f>
         <v>9.2512000000000001E-8</v>
       </c>
-      <c r="X15" s="39">
-        <f>$A$18*D15^3+$B$18*D15^2+$C$18*D15+$D$18</f>
+      <c r="X15" s="31">
+        <f t="shared" si="2"/>
         <v>1.2935853716424059</v>
       </c>
-      <c r="Y15" s="39">
-        <f t="shared" si="1"/>
+      <c r="Y15" s="31">
+        <f t="shared" si="5"/>
         <v>-5.9247716424060126E-3</v>
       </c>
-      <c r="Z15" s="39">
-        <f>$A$21*(F15^3)+$B$21*(F15^2)+$C$21*F15+$D$21</f>
+      <c r="Z15" s="31">
+        <f t="shared" si="3"/>
         <v>1.287682626006394</v>
       </c>
-      <c r="AA15" s="39">
-        <f t="shared" si="2"/>
+      <c r="AA15" s="31">
+        <f t="shared" si="6"/>
         <v>-2.2026006394115782E-5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>18</v>
       </c>
@@ -25411,7 +25411,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <f t="array" ref="A18:D18">LINEST(B3:B15,D3:D15^{1,2,3},TRUE,TRUE)</f>
         <v>207.75294223761728</v>
@@ -25426,7 +25426,7 @@
         <v>0.11543688973114569</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="F19" s="2" t="s">
         <v>9</v>
@@ -25435,7 +25435,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -25457,7 +25457,7 @@
         <v>1.4005600000000002E-7</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <f t="array" ref="A21:D21">LINEST(B3:B15,F3:F15^{1,2,3},TRUE,TRUE)</f>
         <v>190.1669209069772</v>
@@ -25480,13 +25480,13 @@
         <v>9.2512000000000001E-8</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="29" t="s">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B23" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="29"/>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="33"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="20" t="s">
         <v>35</v>
       </c>
@@ -25497,12 +25497,12 @@
       <c r="C24" s="1">
         <v>1.4005600000000002E-7</v>
       </c>
-      <c r="D24" s="30" t="s">
+      <c r="D24" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="E24" s="29"/>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E24" s="33"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="20" t="s">
         <v>38</v>
       </c>
@@ -25512,12 +25512,12 @@
       <c r="C25" s="1">
         <v>0</v>
       </c>
-      <c r="D25" s="30" t="s">
+      <c r="D25" s="34" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="29"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E25" s="33"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="20" t="s">
         <v>39</v>
       </c>
@@ -25527,12 +25527,12 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="30" t="s">
+      <c r="D26" s="34" t="s">
         <v>40</v>
       </c>
-      <c r="E26" s="29"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E26" s="33"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="18" t="s">
         <v>41</v>
       </c>
@@ -25558,29 +25558,29 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="37">
-        <f>B3</f>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A29" s="29">
+        <f t="shared" ref="A29:A41" si="7">B3</f>
         <v>0.10045440000000001</v>
       </c>
-      <c r="B29" s="37">
-        <f>D3</f>
+      <c r="B29" s="29">
+        <f t="shared" ref="B29:B41" si="8">D3</f>
         <v>0</v>
       </c>
-      <c r="C29" s="37">
-        <f>F3</f>
+      <c r="C29" s="29">
+        <f t="shared" ref="C29:C41" si="9">F3</f>
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="D29" s="13">
-        <f>$B$24*D3+$C$24</f>
+        <f t="shared" ref="D29:D41" si="10">$B$24*D3+$C$24</f>
         <v>1.4005600000000002E-7</v>
       </c>
-      <c r="E29" s="37">
-        <f>D3/$G$17</f>
+      <c r="E29" s="29">
+        <f t="shared" ref="E29:E41" si="11">D3/$G$17</f>
         <v>0</v>
       </c>
-      <c r="F29" s="38">
-        <f>F3/$G$17</f>
+      <c r="F29" s="30">
+        <f t="shared" ref="F29:F41" si="12">F3/$G$17</f>
         <v>9.6852300242130842E-3</v>
       </c>
       <c r="G29" s="13">
@@ -25591,33 +25591,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A30" s="37">
-        <f>B4</f>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A30" s="29">
+        <f t="shared" si="7"/>
         <v>0.19865250000000001</v>
       </c>
-      <c r="B30" s="37">
-        <f>D4</f>
+      <c r="B30" s="29">
+        <f t="shared" si="8"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="C30" s="37">
-        <f>F4</f>
+      <c r="C30" s="29">
+        <f t="shared" si="9"/>
         <v>1.100000000000001E-2</v>
       </c>
       <c r="D30" s="13">
-        <f>$B$24*D4+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.3842592000000003E-7</v>
       </c>
-      <c r="E30" s="37">
-        <f>D4/$G$17</f>
+      <c r="E30" s="29">
+        <f t="shared" si="11"/>
         <v>1.4527845036319625E-2</v>
       </c>
-      <c r="F30" s="38">
-        <f>F4/$G$17</f>
+      <c r="F30" s="30">
+        <f t="shared" si="12"/>
         <v>2.6634382566585981E-2</v>
       </c>
       <c r="G30" s="13">
-        <f t="shared" ref="G30:G41" si="3">A30/D30</f>
+        <f t="shared" ref="G30:G41" si="13">A30/D30</f>
         <v>1435081.6667861047</v>
       </c>
       <c r="H30" s="13">
@@ -25625,384 +25625,384 @@
         <v>53880793.489332788</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A31" s="37">
-        <f>B5</f>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A31" s="29">
+        <f t="shared" si="7"/>
         <v>0.29763539999999999</v>
       </c>
-      <c r="B31" s="37">
-        <f>D5</f>
+      <c r="B31" s="29">
+        <f t="shared" si="8"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="C31" s="37">
-        <f>F5</f>
+      <c r="C31" s="29">
+        <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="D31" s="13">
-        <f>$B$24*D5+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.3625248000000002E-7</v>
       </c>
-      <c r="E31" s="37">
-        <f>D5/$G$17</f>
+      <c r="E31" s="29">
+        <f t="shared" si="11"/>
         <v>3.3898305084745797E-2</v>
       </c>
-      <c r="F31" s="38">
-        <f>F5/$G$17</f>
+      <c r="F31" s="30">
+        <f t="shared" si="12"/>
         <v>4.8426150121065423E-2</v>
       </c>
       <c r="G31" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2184440.2391794994</v>
       </c>
       <c r="H31" s="13">
-        <f t="shared" ref="H31:H41" si="4">G31/E31</f>
+        <f t="shared" ref="H31:H41" si="14">G31/E31</f>
         <v>64440987.05579517</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A32" s="37">
-        <f>B6</f>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A32" s="29">
+        <f t="shared" si="7"/>
         <v>0.39720690000000003</v>
       </c>
-      <c r="B32" s="37">
-        <f>D6</f>
+      <c r="B32" s="29">
+        <f t="shared" si="8"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="C32" s="37">
-        <f>F6</f>
+      <c r="C32" s="29">
+        <f t="shared" si="9"/>
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="D32" s="13">
-        <f>$B$24*D6+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.3380736000000001E-7</v>
       </c>
-      <c r="E32" s="37">
-        <f>D6/$G$17</f>
+      <c r="E32" s="29">
+        <f t="shared" si="11"/>
         <v>5.5690072639225235E-2</v>
       </c>
-      <c r="F32" s="38">
-        <f>F6/$G$17</f>
+      <c r="F32" s="30">
+        <f t="shared" si="12"/>
         <v>7.2639225181598127E-2</v>
       </c>
       <c r="G32" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>2968498.1453934968</v>
       </c>
       <c r="H32" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>53303901.480326653</v>
       </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A33" s="37">
-        <f>B7</f>
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A33" s="29">
+        <f t="shared" si="7"/>
         <v>0.49599360000000003</v>
       </c>
-      <c r="B33" s="37">
-        <f>D7</f>
+      <c r="B33" s="29">
+        <f t="shared" si="8"/>
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="C33" s="37">
-        <f>F7</f>
+      <c r="C33" s="29">
+        <f t="shared" si="9"/>
         <v>4.3000000000000038E-2</v>
       </c>
       <c r="D33" s="13">
-        <f>$B$24*D7+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.3081888000000002E-7</v>
       </c>
-      <c r="E33" s="37">
-        <f>D7/$G$17</f>
+      <c r="E33" s="29">
+        <f t="shared" si="11"/>
         <v>8.232445520581122E-2</v>
       </c>
-      <c r="F33" s="38">
-        <f>F7/$G$17</f>
+      <c r="F33" s="30">
+        <f t="shared" si="12"/>
         <v>0.10411622276029066</v>
       </c>
       <c r="G33" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>3791452.7322050147</v>
       </c>
       <c r="H33" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>46054999.364725575</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A34" s="37">
-        <f>B8</f>
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A34" s="29">
+        <f t="shared" si="7"/>
         <v>0.59458409999999995</v>
       </c>
-      <c r="B34" s="37">
-        <f>D8</f>
+      <c r="B34" s="29">
+        <f t="shared" si="8"/>
         <v>4.500000000000004E-2</v>
       </c>
-      <c r="C34" s="37">
-        <f>F8</f>
+      <c r="C34" s="29">
+        <f t="shared" si="9"/>
         <v>5.6999999999999995E-2</v>
       </c>
       <c r="D34" s="13">
-        <f>$B$24*D8+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.278304E-7</v>
       </c>
-      <c r="E34" s="37">
-        <f>D8/$G$17</f>
+      <c r="E34" s="29">
+        <f t="shared" si="11"/>
         <v>0.10895883777239719</v>
       </c>
-      <c r="F34" s="38">
-        <f>F8/$G$17</f>
+      <c r="F34" s="30">
+        <f t="shared" si="12"/>
         <v>0.13801452784503632</v>
       </c>
       <c r="G34" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>4651351.3217513198</v>
       </c>
       <c r="H34" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>42689068.797406517</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A35" s="37">
-        <f>B9</f>
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A35" s="29">
+        <f t="shared" si="7"/>
         <v>0.6930765000000001</v>
       </c>
-      <c r="B35" s="37">
-        <f>D9</f>
+      <c r="B35" s="29">
+        <f t="shared" si="8"/>
         <v>0.06</v>
       </c>
-      <c r="C35" s="37">
-        <f>F9</f>
+      <c r="C35" s="29">
+        <f t="shared" si="9"/>
         <v>7.400000000000001E-2</v>
       </c>
       <c r="D35" s="13">
-        <f>$B$24*D9+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.237552E-7</v>
       </c>
-      <c r="E35" s="37">
-        <f>D9/$G$17</f>
+      <c r="E35" s="29">
+        <f t="shared" si="11"/>
         <v>0.14527845036319612</v>
       </c>
-      <c r="F35" s="38">
-        <f>F9/$G$17</f>
+      <c r="F35" s="30">
+        <f t="shared" si="12"/>
         <v>0.17917675544794193</v>
       </c>
       <c r="G35" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>5600382.8525993265</v>
       </c>
       <c r="H35" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>38549301.968725368</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A36" s="37">
-        <f>B10</f>
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A36" s="29">
+        <f t="shared" si="7"/>
         <v>0.79215750000000007</v>
       </c>
-      <c r="B36" s="37">
-        <f>D10</f>
+      <c r="B36" s="29">
+        <f t="shared" si="8"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="C36" s="37">
-        <f>F10</f>
+      <c r="C36" s="29">
+        <f t="shared" si="9"/>
         <v>9.1000000000000025E-2</v>
       </c>
       <c r="D36" s="13">
-        <f>$B$24*D10+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.1913664000000001E-7</v>
       </c>
-      <c r="E36" s="37">
-        <f>D10/$G$17</f>
+      <c r="E36" s="29">
+        <f t="shared" si="11"/>
         <v>0.18644067796610173</v>
       </c>
-      <c r="F36" s="38">
-        <f>F10/$G$17</f>
+      <c r="F36" s="30">
+        <f t="shared" si="12"/>
         <v>0.22033898305084754</v>
       </c>
       <c r="G36" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>6649150.9245182676</v>
       </c>
       <c r="H36" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>35663627.686052524</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A37" s="37">
-        <f>B11</f>
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A37" s="29">
+        <f t="shared" si="7"/>
         <v>0.89202329999999996</v>
       </c>
-      <c r="B37" s="37">
-        <f>D11</f>
+      <c r="B37" s="29">
+        <f t="shared" si="8"/>
         <v>9.4000000000000028E-2</v>
       </c>
-      <c r="C37" s="37">
-        <f>F11</f>
+      <c r="C37" s="29">
+        <f t="shared" si="9"/>
         <v>0.10600000000000004</v>
       </c>
       <c r="D37" s="13">
-        <f>$B$24*D11+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.1451807999999999E-7</v>
       </c>
-      <c r="E37" s="37">
-        <f>D11/$G$17</f>
+      <c r="E37" s="29">
+        <f t="shared" si="11"/>
         <v>0.22760290556900734</v>
       </c>
-      <c r="F37" s="38">
-        <f>F11/$G$17</f>
+      <c r="F37" s="30">
+        <f t="shared" si="12"/>
         <v>0.25665859564164661</v>
       </c>
       <c r="G37" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>7789366.5349611174</v>
       </c>
       <c r="H37" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>34223493.392967455</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A38" s="37">
-        <f>B12</f>
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A38" s="29">
+        <f t="shared" si="7"/>
         <v>0.99051570000000011</v>
       </c>
-      <c r="B38" s="37">
-        <f>D12</f>
+      <c r="B38" s="29">
+        <f t="shared" si="8"/>
         <v>0.11600000000000005</v>
       </c>
-      <c r="C38" s="37">
-        <f>F12</f>
+      <c r="C38" s="29">
+        <f t="shared" si="9"/>
         <v>0.12600000000000006</v>
       </c>
       <c r="D38" s="13">
-        <f>$B$24*D12+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.0854111999999998E-7</v>
       </c>
-      <c r="E38" s="37">
-        <f>D12/$G$17</f>
+      <c r="E38" s="29">
+        <f t="shared" si="11"/>
         <v>0.28087167070217933</v>
       </c>
-      <c r="F38" s="38">
-        <f>F12/$G$17</f>
+      <c r="F38" s="30">
+        <f t="shared" si="12"/>
         <v>0.305084745762712</v>
       </c>
       <c r="G38" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>9125718.4373995792</v>
       </c>
       <c r="H38" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>32490704.436603658</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A39" s="37">
-        <f>B13</f>
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A39" s="29">
+        <f t="shared" si="7"/>
         <v>1.0892043</v>
       </c>
-      <c r="B39" s="37">
-        <f>D13</f>
+      <c r="B39" s="29">
+        <f t="shared" si="8"/>
         <v>0.13400000000000006</v>
       </c>
-      <c r="C39" s="37">
-        <f>F13</f>
+      <c r="C39" s="29">
+        <f t="shared" si="9"/>
         <v>0.14600000000000007</v>
       </c>
       <c r="D39" s="13">
-        <f>$B$24*D13+$C$24</f>
+        <f t="shared" si="10"/>
         <v>1.0365087999999997E-7</v>
       </c>
-      <c r="E39" s="37">
-        <f>D13/$G$17</f>
+      <c r="E39" s="29">
+        <f t="shared" si="11"/>
         <v>0.32445520581113818</v>
       </c>
-      <c r="F39" s="38">
-        <f>F13/$G$17</f>
+      <c r="F39" s="30">
+        <f t="shared" si="12"/>
         <v>0.35351089588377743</v>
       </c>
       <c r="G39" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>10508394.140020812</v>
       </c>
       <c r="H39" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>32387811.789765619</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A40" s="37">
-        <f>B14</f>
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A40" s="29">
+        <f t="shared" si="7"/>
         <v>1.1877948</v>
       </c>
-      <c r="B40" s="37">
-        <f>D14</f>
+      <c r="B40" s="29">
+        <f t="shared" si="8"/>
         <v>0.15599999999999997</v>
       </c>
-      <c r="C40" s="37">
-        <f>F14</f>
+      <c r="C40" s="29">
+        <f t="shared" si="9"/>
         <v>0.16299999999999998</v>
       </c>
       <c r="D40" s="13">
-        <f>$B$24*D14+$C$24</f>
+        <f t="shared" si="10"/>
         <v>9.7673919999999993E-8</v>
       </c>
-      <c r="E40" s="37">
-        <f>D14/$G$17</f>
+      <c r="E40" s="29">
+        <f t="shared" si="11"/>
         <v>0.37772397094430987</v>
       </c>
-      <c r="F40" s="38">
-        <f>F14/$G$17</f>
+      <c r="F40" s="30">
+        <f t="shared" si="12"/>
         <v>0.39467312348668276</v>
       </c>
       <c r="G40" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>12160818.363796601</v>
       </c>
       <c r="H40" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>32194987.078512803</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.25">
-      <c r="A41" s="37">
-        <f>B15</f>
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="A41" s="29">
+        <f t="shared" si="7"/>
         <v>1.2876605999999999</v>
       </c>
-      <c r="B41" s="37">
-        <f>D15</f>
+      <c r="B41" s="29">
+        <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="C41" s="37">
-        <f>F15</f>
+      <c r="C41" s="29">
+        <f t="shared" si="9"/>
         <v>0.17699999999999999</v>
       </c>
       <c r="D41" s="13">
-        <f>$B$24*D15+$C$24</f>
+        <f t="shared" si="10"/>
         <v>9.2511999999999975E-8</v>
       </c>
-      <c r="E41" s="37">
-        <f>D15/$G$17</f>
+      <c r="E41" s="29">
+        <f t="shared" si="11"/>
         <v>0.42372881355932202</v>
       </c>
-      <c r="F41" s="38">
-        <f>F15/$G$17</f>
+      <c r="F41" s="30">
+        <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G41" s="13">
-        <f t="shared" si="3"/>
+        <f t="shared" si="13"/>
         <v>13918849.446558287</v>
       </c>
       <c r="H41" s="13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="14"/>
         <v>32848484.693877559</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="I42" s="16"/>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="9"/>
       <c r="B44" s="9"/>
       <c r="C44" s="9"/>
@@ -26059,34 +26059,34 @@
       <selection activeCell="Y5" sqref="Y5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
     <col min="9" max="9" width="11" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="AE2" s="28" t="s">
+    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="AE2" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="AF2" s="28"/>
-      <c r="AG2" s="28" t="s">
+      <c r="AF2" s="32"/>
+      <c r="AG2" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="AH2" s="28"/>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="AH2" s="32"/>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="34"/>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="38"/>
       <c r="AE3" s="7" t="s">
         <v>14</v>
       </c>
@@ -26100,7 +26100,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
         <v>22</v>
       </c>
@@ -26136,8 +26136,8 @@
         <v>1.2106537530266356E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A5" s="35">
+    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A5" s="39">
         <v>9.0939999999999993E-2</v>
       </c>
       <c r="B5" s="19">
@@ -26175,8 +26175,8 @@
         <v>9.6852300242130842E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A6" s="33"/>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A6" s="37"/>
       <c r="B6" s="19">
         <v>0.51700000000000002</v>
       </c>
@@ -26212,8 +26212,8 @@
         <v>9.4430992736077839E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A7" s="33"/>
+    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A7" s="37"/>
       <c r="B7" s="19">
         <v>0.51800000000000002</v>
       </c>
@@ -26249,8 +26249,8 @@
         <v>8.4745762711864493E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A8" s="37"/>
       <c r="B8" s="19">
         <v>0.51819999999999999</v>
       </c>
@@ -26286,8 +26286,8 @@
         <v>8.2324455205811491E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A9" s="33"/>
+    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A9" s="37"/>
       <c r="B9" s="19">
         <v>0.51780000000000004</v>
       </c>
@@ -26323,8 +26323,8 @@
         <v>7.9903147699758488E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A10" s="33"/>
+    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A10" s="37"/>
       <c r="B10" s="19">
         <v>0.51849999999999996</v>
       </c>
@@ -26360,8 +26360,8 @@
         <v>7.2639225181598127E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A11" s="33"/>
+    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A11" s="37"/>
       <c r="B11" s="19">
         <v>0.51870000000000005</v>
       </c>
@@ -26397,8 +26397,8 @@
         <v>6.5375302663439128E-3</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
+    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A12" s="37"/>
       <c r="B12" s="19">
         <v>0.51910000000000001</v>
       </c>
@@ -26434,8 +26434,8 @@
         <v>6.2953995157386125E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
+    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A13" s="37"/>
       <c r="B13" s="19">
         <v>0.51949999999999996</v>
       </c>
@@ -26471,8 +26471,8 @@
         <v>6.0532687651331778E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A14" s="33"/>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A14" s="37"/>
       <c r="B14" s="19">
         <v>0.51949999999999996</v>
       </c>
@@ -26508,8 +26508,8 @@
         <v>5.3268765133172771E-3</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A15" s="33"/>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
       <c r="B15" s="19">
         <v>0.51980000000000004</v>
       </c>
@@ -26545,8 +26545,8 @@
         <v>5.0847457627119768E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A16" s="33"/>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A16" s="37"/>
       <c r="B16" s="19">
         <v>0.51990000000000003</v>
       </c>
@@ -26585,8 +26585,8 @@
         <v>4.8426150121065421E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A17" s="33"/>
+    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A17" s="37"/>
       <c r="B17" s="19">
         <v>0.52</v>
       </c>
@@ -26622,8 +26622,8 @@
         <v>4.8426150121065421E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A18" s="33"/>
+    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A18" s="37"/>
       <c r="B18" s="19">
         <v>0.52</v>
       </c>
@@ -26665,8 +26665,8 @@
         <v>4.8426150121065421E-3</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A19" s="33"/>
+    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A19" s="37"/>
       <c r="B19" s="19">
         <v>0.52</v>
       </c>
@@ -26697,8 +26697,8 @@
         <v>0.25907990314769985</v>
       </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A20" s="33"/>
+    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A20" s="37"/>
       <c r="B20" s="19">
         <v>0.52</v>
       </c>
@@ -26726,8 +26726,8 @@
         <v>0.25907990314769985</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A21" s="33"/>
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A21" s="37"/>
       <c r="B21" s="19">
         <v>0.52</v>
       </c>
@@ -26747,17 +26747,17 @@
         <v>944</v>
       </c>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A23" s="31" t="s">
+    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A23" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="34"/>
-    </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="B23" s="36"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="3" t="s">
         <v>0</v>
       </c>
@@ -26777,8 +26777,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A25" s="33">
+    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A25" s="37">
         <v>10.29</v>
       </c>
       <c r="B25" s="13">
@@ -26800,8 +26800,8 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A26" s="33"/>
+    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A26" s="37"/>
       <c r="B26" s="13">
         <v>0.41699999999999998</v>
       </c>
@@ -26821,8 +26821,8 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A27" s="33"/>
+    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A27" s="37"/>
       <c r="B27" s="13">
         <v>0.41689999999999999</v>
       </c>
@@ -26842,8 +26842,8 @@
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A28" s="33"/>
+    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A28" s="37"/>
       <c r="B28" s="13">
         <v>0.41649999999999998</v>
       </c>
@@ -26863,8 +26863,8 @@
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A29" s="33"/>
+    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A29" s="37"/>
       <c r="B29" s="13">
         <v>0.41639999999999999</v>
       </c>
@@ -26884,8 +26884,8 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A30" s="33"/>
+    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A30" s="37"/>
       <c r="B30" s="13">
         <v>0.4163</v>
       </c>
@@ -26905,8 +26905,8 @@
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A31" s="33"/>
+    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A31" s="37"/>
       <c r="B31" s="13">
         <v>0.41599999999999998</v>
       </c>
@@ -26926,8 +26926,8 @@
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A32" s="33"/>
+    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
+      <c r="A32" s="37"/>
       <c r="B32" s="13">
         <v>0.41570000000000001</v>
       </c>
@@ -26947,8 +26947,8 @@
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="33"/>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="37"/>
       <c r="B33" s="13">
         <v>0.41560000000000002</v>
       </c>
@@ -26968,8 +26968,8 @@
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="33"/>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="37"/>
       <c r="B34" s="13">
         <v>0.41549999999999998</v>
       </c>
@@ -26989,8 +26989,8 @@
         <v>600</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="33"/>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="37"/>
       <c r="B35" s="13">
         <v>0.41520000000000001</v>
       </c>
@@ -27010,8 +27010,8 @@
         <v>701</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="33"/>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="37"/>
       <c r="B36" s="13">
         <v>0.41510000000000002</v>
       </c>
@@ -27031,8 +27031,8 @@
         <v>808</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="33"/>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="37"/>
       <c r="B37" s="13">
         <v>0.41499999999999998</v>
       </c>
@@ -27052,8 +27052,8 @@
         <v>918</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="33"/>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="37"/>
       <c r="B38" s="13">
         <v>0.41499999999999998</v>
       </c>
@@ -27073,8 +27073,8 @@
         <v>996</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="33"/>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="37"/>
       <c r="B39" s="13">
         <v>0.41499999999999998</v>
       </c>
@@ -27094,7 +27094,7 @@
         <v>1030</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E42" s="4" t="s">
         <v>47</v>
       </c>
@@ -27106,7 +27106,7 @@
         <v>#NUM!</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E43" s="13"/>
       <c r="F43" s="26" t="e">
         <f>LN(E25)</f>
@@ -27123,7 +27123,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E44" s="13">
         <f t="shared" ref="E44:E57" si="8">E26</f>
         <v>2.4213075060532715E-3</v>
@@ -27140,7 +27140,7 @@
         <v>-3.5263605246161607</v>
       </c>
       <c r="L44">
-        <f t="shared" ref="L44:L60" si="11">EXP(E6)</f>
+        <f t="shared" ref="L44:L59" si="11">EXP(E6)</f>
         <v>1.0198013395064836</v>
       </c>
       <c r="M44">
@@ -27148,7 +27148,7 @@
         <v>-3.9318256327243217</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E45" s="13">
         <f t="shared" si="8"/>
         <v>2.6634382566585717E-3</v>
@@ -27173,7 +27173,7 @@
         <v>-3.5263605246161629</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E46" s="13">
         <f t="shared" si="8"/>
         <v>3.6319612590799064E-3</v>
@@ -27198,7 +27198,7 @@
         <v>-3.4618220034785967</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E47" s="13">
         <f t="shared" si="8"/>
         <v>3.8740920096852066E-3</v>
@@ -27223,7 +27223,7 @@
         <v>-3.5953533961031088</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="E48" s="13">
         <f t="shared" si="8"/>
         <v>4.1162227602905069E-3</v>
@@ -27248,7 +27248,7 @@
         <v>-3.3722098447889226</v>
       </c>
     </row>
-    <row r="49" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E49" s="13">
         <f t="shared" si="8"/>
         <v>4.842615012106543E-3</v>
@@ -27273,7 +27273,7 @@
         <v>-3.3166399936340842</v>
       </c>
     </row>
-    <row r="50" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E50" s="13">
         <f t="shared" si="8"/>
         <v>5.5690072639224429E-3</v>
@@ -27298,7 +27298,7 @@
         <v>-3.2139858395740095</v>
       </c>
     </row>
-    <row r="51" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E51" s="13">
         <f t="shared" si="8"/>
         <v>5.8111380145277431E-3</v>
@@ -27323,7 +27323,7 @@
         <v>-3.1208954165080098</v>
       </c>
     </row>
-    <row r="52" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E52" s="13">
         <f t="shared" si="8"/>
         <v>6.0532687651331778E-3</v>
@@ -27348,7 +27348,7 @@
         <v>-3.1208954165080098</v>
       </c>
     </row>
-    <row r="53" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E53" s="13">
         <f t="shared" si="8"/>
         <v>6.7796610169490786E-3</v>
@@ -27373,7 +27373,7 @@
         <v>-3.0563568953704192</v>
       </c>
     </row>
-    <row r="54" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E54" s="13">
         <f t="shared" si="8"/>
         <v>7.0217917675543789E-3</v>
@@ -27398,7 +27398,7 @@
         <v>-3.0357376081676901</v>
       </c>
     </row>
-    <row r="55" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E55" s="13">
         <f t="shared" si="8"/>
         <v>7.2639225181598136E-3</v>
@@ -27423,7 +27423,7 @@
         <v>-3.015534900850172</v>
       </c>
     </row>
-    <row r="56" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E56" s="13">
         <f t="shared" si="8"/>
         <v>7.2639225181598136E-3</v>
@@ -27448,7 +27448,7 @@
         <v>-3.015534900850172</v>
       </c>
     </row>
-    <row r="57" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="5:13" x14ac:dyDescent="0.3">
       <c r="E57" s="13">
         <f t="shared" si="8"/>
         <v>7.2639225181598136E-3</v>
@@ -27473,7 +27473,7 @@
         <v>-3.015534900850172</v>
       </c>
     </row>
-    <row r="58" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F58" s="16"/>
       <c r="L58">
         <f>EXP(E20)</f>
@@ -27484,7 +27484,7 @@
         <v>-3.015534900850172</v>
       </c>
     </row>
-    <row r="59" spans="5:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="5:13" x14ac:dyDescent="0.3">
       <c r="F59" s="16"/>
       <c r="L59">
         <f t="shared" si="11"/>
@@ -27518,12 +27518,12 @@
       <selection activeCell="P37" sqref="P37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="7" max="9" width="11.7109375" customWidth="1"/>
+    <col min="7" max="9" width="11.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>24</v>
       </c>
@@ -27534,7 +27534,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>25</v>
       </c>
@@ -27558,7 +27558,7 @@
       </c>
       <c r="I4" s="25"/>
     </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>2.5375000000000001</v>
       </c>
@@ -27587,7 +27587,7 @@
       </c>
       <c r="I5" s="23"/>
     </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>5.0750000000000002</v>
       </c>
@@ -27616,7 +27616,7 @@
       </c>
       <c r="I6" s="23"/>
     </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>7.6124999999999998</v>
       </c>
@@ -27645,7 +27645,7 @@
       </c>
       <c r="I7" s="23"/>
     </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>10.15</v>
       </c>
@@ -27674,7 +27674,7 @@
       </c>
       <c r="I8" s="23"/>
     </row>
-    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>12.6875</v>
       </c>
@@ -27703,7 +27703,7 @@
       </c>
       <c r="I9" s="23"/>
     </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>17.762499999999999</v>
       </c>
@@ -27732,7 +27732,7 @@
       </c>
       <c r="I10" s="23"/>
     </row>
-    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>20.3</v>
       </c>
@@ -27761,7 +27761,7 @@
       </c>
       <c r="I11" s="23"/>
     </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>22.82751111</v>
       </c>
@@ -27790,7 +27790,7 @@
       </c>
       <c r="I12" s="23"/>
     </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>25.365011110000001</v>
       </c>
@@ -27819,7 +27819,7 @@
       </c>
       <c r="I13" s="23"/>
     </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>27.91252222</v>
       </c>
@@ -27848,7 +27848,7 @@
       </c>
       <c r="I14" s="23"/>
     </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>30.450022220000001</v>
       </c>
@@ -27877,7 +27877,7 @@
       </c>
       <c r="I15" s="23"/>
     </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>32.97753333</v>
       </c>
@@ -27906,7 +27906,7 @@
       </c>
       <c r="I16" s="23"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
         <v>35.525044440000002</v>
       </c>
@@ -27935,7 +27935,7 @@
       </c>
       <c r="I17" s="23"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>38.062544440000003</v>
       </c>
@@ -27964,7 +27964,7 @@
       </c>
       <c r="I18" s="23"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>40.600044439999998</v>
       </c>
@@ -27993,7 +27993,7 @@
       </c>
       <c r="I19" s="23"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
         <v>45.675044440000001</v>
       </c>
@@ -28022,7 +28022,7 @@
       </c>
       <c r="I20" s="23"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
         <v>48.212544440000002</v>
       </c>
@@ -28051,7 +28051,7 @@
       </c>
       <c r="I21" s="23"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>50.750044440000003</v>
       </c>
@@ -28080,7 +28080,7 @@
       </c>
       <c r="I22" s="23"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>53.287544439999998</v>
       </c>
@@ -28109,7 +28109,7 @@
       </c>
       <c r="I23" s="23"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>55.825044439999999</v>
       </c>
@@ -28138,7 +28138,7 @@
       </c>
       <c r="I24" s="23"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
         <v>58.362544440000001</v>
       </c>
@@ -28167,7 +28167,7 @@
       </c>
       <c r="I25" s="23"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
         <v>60.900044440000002</v>
       </c>
@@ -28196,7 +28196,7 @@
       </c>
       <c r="I26" s="23"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B27" s="16">
         <v>63.437544440000003</v>
       </c>
@@ -28225,7 +28225,7 @@
       </c>
       <c r="I27" s="23"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <v>65.975044440000005</v>
       </c>
@@ -28254,7 +28254,7 @@
       </c>
       <c r="I28" s="23"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
         <v>68.512544439999999</v>
       </c>
@@ -28283,7 +28283,7 @@
       </c>
       <c r="I29" s="23"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B30" s="16">
         <v>71.050044439999994</v>
       </c>
@@ -28312,7 +28312,7 @@
       </c>
       <c r="I30" s="23"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B31" s="16">
         <v>73.587544440000002</v>
       </c>
@@ -28341,7 +28341,7 @@
       </c>
       <c r="I31" s="23"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
         <v>76.125044439999996</v>
       </c>
@@ -28370,7 +28370,7 @@
       </c>
       <c r="I32" s="23"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B33" s="16">
         <v>86.275066670000001</v>
       </c>
@@ -28399,7 +28399,7 @@
       </c>
       <c r="I33" s="23"/>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B34" s="16">
         <v>88.812566669999995</v>
       </c>
@@ -28428,7 +28428,7 @@
       </c>
       <c r="I34" s="23"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B35" s="16">
         <v>96.425066670000007</v>
       </c>
@@ -28457,7 +28457,7 @@
       </c>
       <c r="I35" s="23"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B36" s="16">
         <v>98.962566670000001</v>
       </c>
@@ -28486,7 +28486,7 @@
       </c>
       <c r="I36" s="23"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B37" s="16">
         <v>101.5000667</v>
       </c>
@@ -28515,7 +28515,7 @@
       </c>
       <c r="I37" s="23"/>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B38" s="16">
         <v>104.0375667</v>
       </c>
@@ -28544,7 +28544,7 @@
       </c>
       <c r="I38" s="23"/>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
         <v>106.57506669999999</v>
       </c>
@@ -28573,7 +28573,7 @@
       </c>
       <c r="I39" s="23"/>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
         <v>126.86507779999999</v>
       </c>
@@ -28602,7 +28602,7 @@
       </c>
       <c r="I40" s="23"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B41" s="16">
         <v>129.40257779999999</v>
       </c>
@@ -28631,7 +28631,7 @@
       </c>
       <c r="I41" s="23"/>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B42" s="16">
         <v>131.94007780000001</v>
       </c>
@@ -28660,7 +28660,7 @@
       </c>
       <c r="I42" s="23"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B43" s="16">
         <v>134.47757780000001</v>
       </c>
@@ -28689,7 +28689,7 @@
       </c>
       <c r="I43" s="23"/>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B44" s="16">
         <v>137.0150778</v>
       </c>
@@ -28718,7 +28718,7 @@
       </c>
       <c r="I44" s="23"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B45" s="16">
         <v>149.7025778</v>
       </c>
@@ -28747,7 +28747,7 @@
       </c>
       <c r="I45" s="23"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B46" s="16">
         <v>152.24007779999999</v>
       </c>
@@ -28776,7 +28776,7 @@
       </c>
       <c r="I46" s="23"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B47" s="16">
         <v>154.77757779999999</v>
       </c>
@@ -28805,7 +28805,7 @@
       </c>
       <c r="I47" s="23"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B48" s="16">
         <v>164.92757779999999</v>
       </c>
@@ -28834,7 +28834,7 @@
       </c>
       <c r="I48" s="23"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B49" s="16">
         <v>172.54007780000001</v>
       </c>
@@ -28863,7 +28863,7 @@
       </c>
       <c r="I49" s="23"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
         <v>175.0775778</v>
       </c>
@@ -28892,7 +28892,7 @@
       </c>
       <c r="I50" s="23"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B51" s="16">
         <v>177.61507779999999</v>
       </c>
@@ -28921,7 +28921,7 @@
       </c>
       <c r="I51" s="23"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B52" s="16">
         <v>180.15257779999999</v>
       </c>
@@ -28950,7 +28950,7 @@
       </c>
       <c r="I52" s="23"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B53" s="16">
         <v>195.37757780000001</v>
       </c>
@@ -28979,7 +28979,7 @@
       </c>
       <c r="I53" s="23"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B54" s="16">
         <v>200.4525778</v>
       </c>
@@ -29008,7 +29008,7 @@
       </c>
       <c r="I54" s="23"/>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B55" s="16">
         <v>202.99007779999999</v>
       </c>
@@ -29037,7 +29037,7 @@
       </c>
       <c r="I55" s="23"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B56" s="16">
         <v>215.67757779999999</v>
       </c>
@@ -29066,7 +29066,7 @@
       </c>
       <c r="I56" s="23"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B57" s="16">
         <v>223.29007780000001</v>
       </c>
@@ -29095,7 +29095,7 @@
       </c>
       <c r="I57" s="23"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B58" s="16">
         <v>228.36507779999999</v>
       </c>
@@ -29124,7 +29124,7 @@
       </c>
       <c r="I58" s="23"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B59" s="16">
         <v>241.05257779999999</v>
       </c>
@@ -29153,7 +29153,7 @@
       </c>
       <c r="I59" s="23"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B60" s="16">
         <v>246.12757780000001</v>
       </c>
@@ -29182,7 +29182,7 @@
       </c>
       <c r="I60" s="23"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B61" s="16">
         <v>253.74007779999999</v>
       </c>
@@ -29211,7 +29211,7 @@
       </c>
       <c r="I61" s="23"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B62" s="16">
         <v>256.27757780000002</v>
       </c>
@@ -29240,7 +29240,7 @@
       </c>
       <c r="I62" s="23"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B63" s="16">
         <v>258.81507779999998</v>
       </c>
@@ -29269,7 +29269,7 @@
       </c>
       <c r="I63" s="23"/>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B64" s="16">
         <v>263.89007779999997</v>
       </c>
@@ -29298,7 +29298,7 @@
       </c>
       <c r="I64" s="23"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B65" s="16">
         <v>268.96507780000002</v>
       </c>
@@ -29327,7 +29327,7 @@
       </c>
       <c r="I65" s="23"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B66" s="16">
         <v>271.50257779999998</v>
       </c>
@@ -29356,7 +29356,7 @@
       </c>
       <c r="I66" s="23"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B67" s="16">
         <v>274.04007780000001</v>
       </c>
@@ -29385,7 +29385,7 @@
       </c>
       <c r="I67" s="23"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B68" s="16">
         <v>279.11507779999999</v>
       </c>
@@ -29414,7 +29414,7 @@
       </c>
       <c r="I68" s="23"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B69" s="16">
         <v>281.65257780000002</v>
       </c>
@@ -29443,7 +29443,7 @@
       </c>
       <c r="I69" s="23"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>284.19007779999998</v>
       </c>
@@ -29472,7 +29472,7 @@
       </c>
       <c r="I70" s="23"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B71" s="16">
         <v>286.72757780000001</v>
       </c>
@@ -29501,7 +29501,7 @@
       </c>
       <c r="I71" s="23"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
         <v>289.26507779999997</v>
       </c>
@@ -29530,7 +29530,7 @@
       </c>
       <c r="I72" s="23"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B73" s="16">
         <v>291.80257779999999</v>
       </c>
@@ -29559,7 +29559,7 @@
       </c>
       <c r="I73" s="23"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B74" s="16">
         <v>294.34007780000002</v>
       </c>
@@ -29588,7 +29588,7 @@
       </c>
       <c r="I74" s="23"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B75" s="16">
         <v>296.87757779999998</v>
       </c>
@@ -29617,7 +29617,7 @@
       </c>
       <c r="I75" s="23"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B76" s="16">
         <v>299.41507780000001</v>
       </c>
@@ -29646,7 +29646,7 @@
       </c>
       <c r="I76" s="23"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B77" s="16">
         <v>301.95257779999997</v>
       </c>
@@ -29675,7 +29675,7 @@
       </c>
       <c r="I77" s="23"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B78" s="16">
         <v>304.49007779999999</v>
       </c>
@@ -29704,7 +29704,7 @@
       </c>
       <c r="I78" s="23"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B79" s="16">
         <v>307.02757780000002</v>
       </c>
@@ -29733,7 +29733,7 @@
       </c>
       <c r="I79" s="23"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B80" s="16">
         <v>309.56507779999998</v>
       </c>
@@ -29762,7 +29762,7 @@
       </c>
       <c r="I80" s="23"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B81" s="16">
         <v>312.10257780000001</v>
       </c>
@@ -29791,7 +29791,7 @@
       </c>
       <c r="I81" s="23"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B82" s="16">
         <v>314.64007779999997</v>
       </c>
@@ -29820,7 +29820,7 @@
       </c>
       <c r="I82" s="23"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B83" s="16">
         <v>317.17757779999999</v>
       </c>
@@ -29849,7 +29849,7 @@
       </c>
       <c r="I83" s="23"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B84" s="16">
         <v>319.71507780000002</v>
       </c>
@@ -29878,7 +29878,7 @@
       </c>
       <c r="I84" s="23"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B85" s="16">
         <v>322.25257779999998</v>
       </c>
@@ -29907,7 +29907,7 @@
       </c>
       <c r="I85" s="23"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B86" s="16">
         <v>324.79007780000001</v>
       </c>
@@ -29936,7 +29936,7 @@
       </c>
       <c r="I86" s="23"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B87" s="16">
         <v>327.32757779999997</v>
       </c>
@@ -29965,7 +29965,7 @@
       </c>
       <c r="I87" s="23"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B88" s="16">
         <v>332.40257780000002</v>
       </c>
@@ -29994,7 +29994,7 @@
       </c>
       <c r="I88" s="23"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B89" s="16">
         <v>334.94007779999998</v>
       </c>
@@ -30023,7 +30023,7 @@
       </c>
       <c r="I89" s="23"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B90" s="16">
         <v>337.47757780000001</v>
       </c>
@@ -30052,7 +30052,7 @@
       </c>
       <c r="I90" s="23"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B91" s="16">
         <v>340.01507779999997</v>
       </c>
@@ -30081,7 +30081,7 @@
       </c>
       <c r="I91" s="23"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B92" s="16">
         <v>342.55257779999999</v>
       </c>
@@ -30110,7 +30110,7 @@
       </c>
       <c r="I92" s="23"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B93" s="16">
         <v>345.09007780000002</v>
       </c>
@@ -30139,7 +30139,7 @@
       </c>
       <c r="I93" s="23"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B94" s="16">
         <v>347.62757779999998</v>
       </c>
@@ -30168,7 +30168,7 @@
       </c>
       <c r="I94" s="23"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B95" s="16">
         <v>350.16507780000001</v>
       </c>
@@ -30197,7 +30197,7 @@
       </c>
       <c r="I95" s="23"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B96" s="16">
         <v>352.70257779999997</v>
       </c>
@@ -30226,7 +30226,7 @@
       </c>
       <c r="I96" s="23"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B97" s="16">
         <v>355.24007779999999</v>
       </c>
@@ -30255,7 +30255,7 @@
       </c>
       <c r="I97" s="23"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B98" s="16">
         <v>357.77757780000002</v>
       </c>
@@ -30284,7 +30284,7 @@
       </c>
       <c r="I98" s="23"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B99" s="16">
         <v>360.31507779999998</v>
       </c>
@@ -30313,7 +30313,7 @@
       </c>
       <c r="I99" s="23"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B100" s="16">
         <v>362.85257780000001</v>
       </c>
@@ -30342,7 +30342,7 @@
       </c>
       <c r="I100" s="23"/>
     </row>
-    <row r="101" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B101" s="16">
         <v>365.39007779999997</v>
       </c>
@@ -30371,7 +30371,7 @@
       </c>
       <c r="I101" s="23"/>
     </row>
-    <row r="102" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B102" s="16">
         <v>367.92757779999999</v>
       </c>
@@ -30400,7 +30400,7 @@
       </c>
       <c r="I102" s="23"/>
     </row>
-    <row r="103" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B103" s="16">
         <v>370.46507780000002</v>
       </c>
@@ -30429,7 +30429,7 @@
       </c>
       <c r="I103" s="23"/>
     </row>
-    <row r="104" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B104" s="16">
         <v>373.00257779999998</v>
       </c>
@@ -30458,7 +30458,7 @@
       </c>
       <c r="I104" s="23"/>
     </row>
-    <row r="105" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B105" s="16">
         <v>375.54007780000001</v>
       </c>
@@ -30487,7 +30487,7 @@
       </c>
       <c r="I105" s="23"/>
     </row>
-    <row r="106" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B106" s="16">
         <v>383.15257780000002</v>
       </c>
@@ -30516,7 +30516,7 @@
       </c>
       <c r="I106" s="23"/>
     </row>
-    <row r="107" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B107" s="16">
         <v>385.69007779999998</v>
       </c>
@@ -30545,7 +30545,7 @@
       </c>
       <c r="I107" s="23"/>
     </row>
-    <row r="108" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B108" s="16">
         <v>388.22757780000001</v>
       </c>
@@ -30574,7 +30574,7 @@
       </c>
       <c r="I108" s="23"/>
     </row>
-    <row r="109" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B109" s="16">
         <v>390.76507779999997</v>
       </c>
@@ -30603,7 +30603,7 @@
       </c>
       <c r="I109" s="23"/>
     </row>
-    <row r="110" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B110" s="16">
         <v>393.30257779999999</v>
       </c>
@@ -30632,7 +30632,7 @@
       </c>
       <c r="I110" s="23"/>
     </row>
-    <row r="111" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B111" s="16">
         <v>395.84007780000002</v>
       </c>
@@ -30661,7 +30661,7 @@
       </c>
       <c r="I111" s="23"/>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B112" s="16">
         <v>400.91507780000001</v>
       </c>
@@ -30690,7 +30690,7 @@
       </c>
       <c r="I112" s="23"/>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B113" s="16">
         <v>405.99007779999999</v>
       </c>
@@ -30719,7 +30719,7 @@
       </c>
       <c r="I113" s="23"/>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B114" s="16">
         <v>421.21507780000002</v>
       </c>
@@ -30748,7 +30748,7 @@
       </c>
       <c r="I114" s="23"/>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B115" s="16">
         <v>436.44007779999998</v>
       </c>
@@ -30777,7 +30777,7 @@
       </c>
       <c r="I115" s="23"/>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B116" s="16">
         <v>444.05257779999999</v>
       </c>
@@ -30806,7 +30806,7 @@
       </c>
       <c r="I116" s="23"/>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B117" s="16">
         <v>446.59007780000002</v>
       </c>
@@ -30835,7 +30835,7 @@
       </c>
       <c r="I117" s="23"/>
     </row>
-    <row r="118" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B118" s="16">
         <v>449.12757779999998</v>
       </c>
@@ -30864,7 +30864,7 @@
       </c>
       <c r="I118" s="23"/>
     </row>
-    <row r="119" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B119" s="16">
         <v>466.89007779999997</v>
       </c>
@@ -30893,7 +30893,7 @@
       </c>
       <c r="I119" s="23"/>
     </row>
-    <row r="120" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B120" s="16">
         <v>482.11507779999999</v>
       </c>
@@ -30922,7 +30922,7 @@
       </c>
       <c r="I120" s="23"/>
     </row>
-    <row r="121" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B121" s="16">
         <v>487.19007779999998</v>
       </c>
@@ -30951,7 +30951,7 @@
       </c>
       <c r="I121" s="23"/>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B122" s="16">
         <v>494.80257779999999</v>
       </c>
@@ -30980,7 +30980,7 @@
       </c>
       <c r="I122" s="23"/>
     </row>
-    <row r="123" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B123" s="16">
         <v>497.34007780000002</v>
       </c>
@@ -31009,7 +31009,7 @@
       </c>
       <c r="I123" s="23"/>
     </row>
-    <row r="124" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B124" s="16">
         <v>499.87757779999998</v>
       </c>
@@ -31038,7 +31038,7 @@
       </c>
       <c r="I124" s="23"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B125" s="16">
         <v>502.41507780000001</v>
       </c>
@@ -31067,7 +31067,7 @@
       </c>
       <c r="I125" s="23"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B126" s="16">
         <v>504.95257779999997</v>
       </c>
@@ -31096,7 +31096,7 @@
       </c>
       <c r="I126" s="23"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B127" s="16">
         <v>507.49007779999999</v>
       </c>
@@ -31125,7 +31125,7 @@
       </c>
       <c r="I127" s="23"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B128" s="16">
         <v>510.02757780000002</v>
       </c>
@@ -31154,7 +31154,7 @@
       </c>
       <c r="I128" s="23"/>
     </row>
-    <row r="129" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B129" s="16">
         <v>532.86509999999998</v>
       </c>
@@ -31183,7 +31183,7 @@
       </c>
       <c r="I129" s="23"/>
     </row>
-    <row r="130" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B130" s="16">
         <v>535.40260000000001</v>
       </c>
@@ -31212,7 +31212,7 @@
       </c>
       <c r="I130" s="23"/>
     </row>
-    <row r="131" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B131" s="16">
         <v>537.94010000000003</v>
       </c>
@@ -31241,7 +31241,7 @@
       </c>
       <c r="I131" s="23"/>
     </row>
-    <row r="132" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B132" s="16">
         <v>540.47760000000005</v>
       </c>
@@ -31270,7 +31270,7 @@
       </c>
       <c r="I132" s="23"/>
     </row>
-    <row r="133" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B133" s="16">
         <v>553.16510000000005</v>
       </c>
@@ -31299,7 +31299,7 @@
       </c>
       <c r="I133" s="23"/>
     </row>
-    <row r="134" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B134" s="16">
         <v>558.25011110000003</v>
       </c>
@@ -31328,7 +31328,7 @@
       </c>
       <c r="I134" s="23"/>
     </row>
-    <row r="135" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B135" s="16">
         <v>563.32511109999996</v>
       </c>
@@ -31357,7 +31357,7 @@
       </c>
       <c r="I135" s="23"/>
     </row>
-    <row r="136" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B136" s="16">
         <v>565.86261109999998</v>
       </c>
@@ -31386,7 +31386,7 @@
       </c>
       <c r="I136" s="23"/>
     </row>
-    <row r="137" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B137" s="16">
         <v>573.4651222</v>
       </c>
@@ -31415,7 +31415,7 @@
       </c>
       <c r="I137" s="23"/>
     </row>
-    <row r="138" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B138" s="16">
         <v>581.07762219999995</v>
       </c>
@@ -31444,7 +31444,7 @@
       </c>
       <c r="I138" s="23"/>
     </row>
-    <row r="139" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B139" s="16">
         <v>583.61512219999997</v>
       </c>
@@ -31473,7 +31473,7 @@
       </c>
       <c r="I139" s="23"/>
     </row>
-    <row r="140" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B140" s="16">
         <v>588.69012220000002</v>
       </c>
@@ -31502,7 +31502,7 @@
       </c>
       <c r="I140" s="23"/>
     </row>
-    <row r="141" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B141" s="16">
         <v>591.22762220000004</v>
       </c>
@@ -31531,7 +31531,7 @@
       </c>
       <c r="I141" s="23"/>
     </row>
-    <row r="142" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B142" s="16">
         <v>596.30262219999997</v>
       </c>
@@ -31560,7 +31560,7 @@
       </c>
       <c r="I142" s="23"/>
     </row>
-    <row r="143" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B143" s="16">
         <v>598.8401222</v>
       </c>
@@ -31589,7 +31589,7 @@
       </c>
       <c r="I143" s="23"/>
     </row>
-    <row r="144" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B144" s="16">
         <v>606.45262219999995</v>
       </c>
@@ -31618,7 +31618,7 @@
       </c>
       <c r="I144" s="23"/>
     </row>
-    <row r="145" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B145" s="16">
         <v>608.99012219999997</v>
       </c>
@@ -31647,7 +31647,7 @@
       </c>
       <c r="I145" s="23"/>
     </row>
-    <row r="146" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B146" s="16">
         <v>611.5276222</v>
       </c>
@@ -31676,7 +31676,7 @@
       </c>
       <c r="I146" s="23"/>
     </row>
-    <row r="147" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B147" s="16">
         <v>614.06512220000002</v>
       </c>
@@ -31705,7 +31705,7 @@
       </c>
       <c r="I147" s="23"/>
     </row>
-    <row r="148" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B148" s="16">
         <v>616.60262220000004</v>
       </c>
@@ -31734,7 +31734,7 @@
       </c>
       <c r="I148" s="23"/>
     </row>
-    <row r="149" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B149" s="16">
         <v>619.14012219999995</v>
       </c>
@@ -31763,7 +31763,7 @@
       </c>
       <c r="I149" s="23"/>
     </row>
-    <row r="150" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B150" s="16">
         <v>621.67762219999997</v>
       </c>
@@ -31792,7 +31792,7 @@
       </c>
       <c r="I150" s="23"/>
     </row>
-    <row r="151" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B151" s="16">
         <v>624.2151222</v>
       </c>
@@ -31821,7 +31821,7 @@
       </c>
       <c r="I151" s="23"/>
     </row>
-    <row r="152" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B152" s="16">
         <v>626.75262220000002</v>
       </c>
@@ -31850,7 +31850,7 @@
       </c>
       <c r="I152" s="23"/>
     </row>
-    <row r="153" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B153" s="16">
         <v>629.29012220000004</v>
       </c>
@@ -31879,7 +31879,7 @@
       </c>
       <c r="I153" s="23"/>
     </row>
-    <row r="154" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B154" s="16">
         <v>631.82762219999995</v>
       </c>
@@ -31908,7 +31908,7 @@
       </c>
       <c r="I154" s="23"/>
     </row>
-    <row r="155" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B155" s="16">
         <v>634.36512219999997</v>
       </c>
@@ -31937,7 +31937,7 @@
       </c>
       <c r="I155" s="23"/>
     </row>
-    <row r="156" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B156" s="16">
         <v>636.9026222</v>
       </c>
@@ -31966,7 +31966,7 @@
       </c>
       <c r="I156" s="23"/>
     </row>
-    <row r="157" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B157" s="16">
         <v>639.44012220000002</v>
       </c>
@@ -31995,7 +31995,7 @@
       </c>
       <c r="I157" s="23"/>
     </row>
-    <row r="158" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B158" s="16">
         <v>641.97762220000004</v>
       </c>
@@ -32024,7 +32024,7 @@
       </c>
       <c r="I158" s="23"/>
     </row>
-    <row r="159" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B159" s="16">
         <v>644.51512219999995</v>
       </c>
@@ -32053,7 +32053,7 @@
       </c>
       <c r="I159" s="23"/>
     </row>
-    <row r="160" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B160" s="16">
         <v>647.05262219999997</v>
       </c>
@@ -32082,7 +32082,7 @@
       </c>
       <c r="I160" s="23"/>
     </row>
-    <row r="161" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B161" s="16">
         <v>649.5901222</v>
       </c>
@@ -32111,7 +32111,7 @@
       </c>
       <c r="I161" s="23"/>
     </row>
-    <row r="162" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B162" s="16">
         <v>652.12762220000002</v>
       </c>
@@ -32140,7 +32140,7 @@
       </c>
       <c r="I162" s="23"/>
     </row>
-    <row r="163" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B163" s="16">
         <v>654.66512220000004</v>
       </c>
@@ -32169,7 +32169,7 @@
       </c>
       <c r="I163" s="23"/>
     </row>
-    <row r="164" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B164" s="16">
         <v>659.74012219999997</v>
       </c>
@@ -32198,7 +32198,7 @@
       </c>
       <c r="I164" s="23"/>
     </row>
-    <row r="165" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B165" s="16">
         <v>662.2776222</v>
       </c>
@@ -32227,7 +32227,7 @@
       </c>
       <c r="I165" s="23"/>
     </row>
-    <row r="166" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B166" s="16">
         <v>669.89012219999995</v>
       </c>
@@ -32256,7 +32256,7 @@
       </c>
       <c r="I166" s="23"/>
     </row>
-    <row r="167" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B167" s="16">
         <v>672.42762219999997</v>
       </c>
@@ -32285,7 +32285,7 @@
       </c>
       <c r="I167" s="23"/>
     </row>
-    <row r="168" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B168" s="16">
         <v>674.9651222</v>
       </c>
@@ -32314,7 +32314,7 @@
       </c>
       <c r="I168" s="23"/>
     </row>
-    <row r="169" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B169" s="16">
         <v>680.04012220000004</v>
       </c>
@@ -32343,7 +32343,7 @@
       </c>
       <c r="I169" s="23"/>
     </row>
-    <row r="170" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B170" s="16">
         <v>682.57762219999995</v>
       </c>
@@ -32372,7 +32372,7 @@
       </c>
       <c r="I170" s="23"/>
     </row>
-    <row r="171" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B171" s="16">
         <v>685.11512219999997</v>
       </c>
@@ -32401,7 +32401,7 @@
       </c>
       <c r="I171" s="23"/>
     </row>
-    <row r="172" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B172" s="16">
         <v>687.6526222</v>
       </c>
@@ -32430,7 +32430,7 @@
       </c>
       <c r="I172" s="23"/>
     </row>
-    <row r="173" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B173" s="16">
         <v>690.19012220000002</v>
       </c>
@@ -32459,7 +32459,7 @@
       </c>
       <c r="I173" s="23"/>
     </row>
-    <row r="174" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B174" s="16">
         <v>692.72762220000004</v>
       </c>
@@ -32488,7 +32488,7 @@
       </c>
       <c r="I174" s="23"/>
     </row>
-    <row r="175" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B175" s="16">
         <v>695.26512219999995</v>
       </c>
@@ -32517,7 +32517,7 @@
       </c>
       <c r="I175" s="23"/>
     </row>
-    <row r="176" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B176" s="16">
         <v>697.80262219999997</v>
       </c>
@@ -32546,7 +32546,7 @@
       </c>
       <c r="I176" s="23"/>
     </row>
-    <row r="177" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B177" s="16">
         <v>700.3401222</v>
       </c>
@@ -32575,7 +32575,7 @@
       </c>
       <c r="I177" s="23"/>
     </row>
-    <row r="178" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B178" s="16">
         <v>702.87762220000002</v>
       </c>
@@ -32604,7 +32604,7 @@
       </c>
       <c r="I178" s="23"/>
     </row>
-    <row r="179" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B179" s="16">
         <v>705.41512220000004</v>
       </c>
@@ -32633,7 +32633,7 @@
       </c>
       <c r="I179" s="23"/>
     </row>
-    <row r="180" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B180" s="16">
         <v>707.95262219999995</v>
       </c>
@@ -32662,7 +32662,7 @@
       </c>
       <c r="I180" s="23"/>
     </row>
-    <row r="181" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B181" s="16">
         <v>710.49012219999997</v>
       </c>
@@ -32691,7 +32691,7 @@
       </c>
       <c r="I181" s="23"/>
     </row>
-    <row r="182" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B182" s="16">
         <v>713.0276222</v>
       </c>
@@ -32720,7 +32720,7 @@
       </c>
       <c r="I182" s="23"/>
     </row>
-    <row r="183" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B183" s="16">
         <v>715.56512220000002</v>
       </c>
@@ -32749,7 +32749,7 @@
       </c>
       <c r="I183" s="23"/>
     </row>
-    <row r="184" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B184" s="16">
         <v>718.10262220000004</v>
       </c>
@@ -32778,7 +32778,7 @@
       </c>
       <c r="I184" s="23"/>
     </row>
-    <row r="185" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B185" s="16">
         <v>723.17762219999997</v>
       </c>
@@ -32807,7 +32807,7 @@
       </c>
       <c r="I185" s="23"/>
     </row>
-    <row r="186" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B186" s="16">
         <v>725.7151222</v>
       </c>
@@ -32836,7 +32836,7 @@
       </c>
       <c r="I186" s="23"/>
     </row>
-    <row r="187" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B187" s="16">
         <v>728.25262220000002</v>
       </c>
@@ -32865,7 +32865,7 @@
       </c>
       <c r="I187" s="23"/>
     </row>
-    <row r="188" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B188" s="16">
         <v>733.32762219999995</v>
       </c>
@@ -32894,7 +32894,7 @@
       </c>
       <c r="I188" s="23"/>
     </row>
-    <row r="189" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B189" s="16">
         <v>738.4026222</v>
       </c>
@@ -32923,7 +32923,7 @@
       </c>
       <c r="I189" s="23"/>
     </row>
-    <row r="190" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B190" s="16">
         <v>740.94012220000002</v>
       </c>
@@ -32952,7 +32952,7 @@
       </c>
       <c r="I190" s="23"/>
     </row>
-    <row r="191" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B191" s="16">
         <v>743.47762220000004</v>
       </c>
@@ -32981,7 +32981,7 @@
       </c>
       <c r="I191" s="23"/>
     </row>
-    <row r="192" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B192" s="16">
         <v>746.01512219999995</v>
       </c>
@@ -33010,7 +33010,7 @@
       </c>
       <c r="I192" s="23"/>
     </row>
-    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B193" s="16">
         <v>748.55262219999997</v>
       </c>
@@ -33039,7 +33039,7 @@
       </c>
       <c r="I193" s="23"/>
     </row>
-    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B194" s="16">
         <v>751.0901222</v>
       </c>
@@ -33068,7 +33068,7 @@
       </c>
       <c r="I194" s="23"/>
     </row>
-    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B195" s="16">
         <v>753.62762220000002</v>
       </c>
@@ -33097,7 +33097,7 @@
       </c>
       <c r="I195" s="23"/>
     </row>
-    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B196" s="16">
         <v>756.16512220000004</v>
       </c>
@@ -33126,7 +33126,7 @@
       </c>
       <c r="I196" s="23"/>
     </row>
-    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B197" s="16">
         <v>758.70262219999995</v>
       </c>
@@ -33155,7 +33155,7 @@
       </c>
       <c r="I197" s="23"/>
     </row>
-    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B198" s="16">
         <v>761.24012219999997</v>
       </c>
@@ -33184,7 +33184,7 @@
       </c>
       <c r="I198" s="23"/>
     </row>
-    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B199" s="16">
         <v>763.7776222</v>
       </c>
@@ -33213,7 +33213,7 @@
       </c>
       <c r="I199" s="23"/>
     </row>
-    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B200" s="16">
         <v>768.85262220000004</v>
       </c>
@@ -33242,7 +33242,7 @@
       </c>
       <c r="I200" s="23"/>
     </row>
-    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B201" s="16">
         <v>771.39012219999995</v>
       </c>
@@ -33271,7 +33271,7 @@
       </c>
       <c r="I201" s="23"/>
     </row>
-    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B202" s="16">
         <v>773.92762219999997</v>
       </c>
@@ -33300,7 +33300,7 @@
       </c>
       <c r="I202" s="23"/>
     </row>
-    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B203" s="16">
         <v>776.4651222</v>
       </c>
@@ -33329,7 +33329,7 @@
       </c>
       <c r="I203" s="23"/>
     </row>
-    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B204" s="16">
         <v>781.54012220000004</v>
       </c>
@@ -33358,7 +33358,7 @@
       </c>
       <c r="I204" s="23"/>
     </row>
-    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B205" s="16">
         <v>784.07762219999995</v>
       </c>
@@ -33387,7 +33387,7 @@
       </c>
       <c r="I205" s="23"/>
     </row>
-    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B206" s="16">
         <v>786.61512219999997</v>
       </c>
@@ -33416,7 +33416,7 @@
       </c>
       <c r="I206" s="23"/>
     </row>
-    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B207" s="16">
         <v>789.1526222</v>
       </c>
@@ -33445,7 +33445,7 @@
       </c>
       <c r="I207" s="23"/>
     </row>
-    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B208" s="16">
         <v>791.69012220000002</v>
       </c>
@@ -33474,7 +33474,7 @@
       </c>
       <c r="I208" s="23"/>
     </row>
-    <row r="209" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B209" s="16">
         <v>796.76512219999995</v>
       </c>
@@ -33503,7 +33503,7 @@
       </c>
       <c r="I209" s="23"/>
     </row>
-    <row r="210" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B210" s="16">
         <v>806.91512220000004</v>
       </c>
@@ -33532,7 +33532,7 @@
       </c>
       <c r="I210" s="23"/>
     </row>
-    <row r="211" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B211" s="16">
         <v>809.45262219999995</v>
       </c>
@@ -33561,7 +33561,7 @@
       </c>
       <c r="I211" s="23"/>
     </row>
-    <row r="212" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B212" s="16">
         <v>811.99012219999997</v>
       </c>
@@ -33590,7 +33590,7 @@
       </c>
       <c r="I212" s="23"/>
     </row>
-    <row r="213" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B213" s="16">
         <v>817.06512220000002</v>
       </c>
@@ -33619,7 +33619,7 @@
       </c>
       <c r="I213" s="23"/>
     </row>
-    <row r="214" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B214" s="16">
         <v>819.60262220000004</v>
       </c>
@@ -33648,7 +33648,7 @@
       </c>
       <c r="I214" s="23"/>
     </row>
-    <row r="215" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B215" s="16">
         <v>822.14012219999995</v>
       </c>
@@ -33677,7 +33677,7 @@
       </c>
       <c r="I215" s="23"/>
     </row>
-    <row r="216" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B216" s="16">
         <v>827.2151222</v>
       </c>
@@ -33706,7 +33706,7 @@
       </c>
       <c r="I216" s="23"/>
     </row>
-    <row r="217" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B217" s="16">
         <v>829.75262220000002</v>
       </c>
@@ -33735,7 +33735,7 @@
       </c>
       <c r="I217" s="23"/>
     </row>
-    <row r="218" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B218" s="16">
         <v>832.29012220000004</v>
       </c>
@@ -33764,7 +33764,7 @@
       </c>
       <c r="I218" s="23"/>
     </row>
-    <row r="219" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B219" s="16">
         <v>834.82762219999995</v>
       </c>
@@ -33793,7 +33793,7 @@
       </c>
       <c r="I219" s="23"/>
     </row>
-    <row r="220" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B220" s="16">
         <v>837.36512219999997</v>
       </c>
@@ -33822,7 +33822,7 @@
       </c>
       <c r="I220" s="23"/>
     </row>
-    <row r="221" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B221" s="16">
         <v>839.9026222</v>
       </c>
@@ -33851,7 +33851,7 @@
       </c>
       <c r="I221" s="23"/>
     </row>
-    <row r="222" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B222" s="16">
         <v>842.44012220000002</v>
       </c>
@@ -33880,7 +33880,7 @@
       </c>
       <c r="I222" s="23"/>
     </row>
-    <row r="223" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B223" s="16">
         <v>844.97762220000004</v>
       </c>
@@ -33909,7 +33909,7 @@
       </c>
       <c r="I223" s="23"/>
     </row>
-    <row r="224" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B224" s="16">
         <v>850.05262219999997</v>
       </c>
@@ -33938,7 +33938,7 @@
       </c>
       <c r="I224" s="23"/>
     </row>
-    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B225" s="16">
         <v>852.5901222</v>
       </c>
@@ -33967,7 +33967,7 @@
       </c>
       <c r="I225" s="23"/>
     </row>
-    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B226" s="16">
         <v>855.12762220000002</v>
       </c>
@@ -33996,7 +33996,7 @@
       </c>
       <c r="I226" s="23"/>
     </row>
-    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B227" s="16">
         <v>857.66512220000004</v>
       </c>
@@ -34025,7 +34025,7 @@
       </c>
       <c r="I227" s="23"/>
     </row>
-    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B228" s="16">
         <v>860.20262219999995</v>
       </c>
@@ -34054,7 +34054,7 @@
       </c>
       <c r="I228" s="23"/>
     </row>
-    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B229" s="16">
         <v>862.74012219999997</v>
       </c>
@@ -34083,7 +34083,7 @@
       </c>
       <c r="I229" s="23"/>
     </row>
-    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B230" s="16">
         <v>865.2776222</v>
       </c>
@@ -34112,7 +34112,7 @@
       </c>
       <c r="I230" s="23"/>
     </row>
-    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B231" s="16">
         <v>867.81512220000002</v>
       </c>
@@ -34141,7 +34141,7 @@
       </c>
       <c r="I231" s="23"/>
     </row>
-    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B232" s="16">
         <v>870.35262220000004</v>
       </c>
@@ -34170,7 +34170,7 @@
       </c>
       <c r="I232" s="23"/>
     </row>
-    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B233" s="16">
         <v>875.42762219999997</v>
       </c>
@@ -34199,7 +34199,7 @@
       </c>
       <c r="I233" s="23"/>
     </row>
-    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B234" s="16">
         <v>877.9651222</v>
       </c>
@@ -34228,7 +34228,7 @@
       </c>
       <c r="I234" s="23"/>
     </row>
-    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B235" s="16">
         <v>880.50262220000002</v>
       </c>
@@ -34257,7 +34257,7 @@
       </c>
       <c r="I235" s="23"/>
     </row>
-    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B236" s="16">
         <v>883.04012220000004</v>
       </c>
@@ -34286,7 +34286,7 @@
       </c>
       <c r="I236" s="23"/>
     </row>
-    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B237" s="16">
         <v>885.57762219999995</v>
       </c>
@@ -34315,7 +34315,7 @@
       </c>
       <c r="I237" s="23"/>
     </row>
-    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B238" s="16">
         <v>888.11512219999997</v>
       </c>
@@ -34344,7 +34344,7 @@
       </c>
       <c r="I238" s="23"/>
     </row>
-    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B239" s="16">
         <v>890.6526222</v>
       </c>
@@ -34373,7 +34373,7 @@
       </c>
       <c r="I239" s="23"/>
     </row>
-    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B240" s="16">
         <v>893.19012220000002</v>
       </c>
@@ -34402,7 +34402,7 @@
       </c>
       <c r="I240" s="23"/>
     </row>
-    <row r="241" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B241" s="16">
         <v>895.72762220000004</v>
       </c>
@@ -34431,7 +34431,7 @@
       </c>
       <c r="I241" s="23"/>
     </row>
-    <row r="242" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B242" s="16">
         <v>898.26512219999995</v>
       </c>
@@ -34460,7 +34460,7 @@
       </c>
       <c r="I242" s="23"/>
     </row>
-    <row r="243" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B243" s="16">
         <v>903.3401222</v>
       </c>
@@ -34489,7 +34489,7 @@
       </c>
       <c r="I243" s="23"/>
     </row>
-    <row r="244" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B244" s="16">
         <v>905.87762220000002</v>
       </c>
@@ -34518,7 +34518,7 @@
       </c>
       <c r="I244" s="23"/>
     </row>
-    <row r="245" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B245" s="16">
         <v>908.41512220000004</v>
       </c>
@@ -34547,7 +34547,7 @@
       </c>
       <c r="I245" s="23"/>
     </row>
-    <row r="246" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B246" s="16">
         <v>910.95262219999995</v>
       </c>
@@ -34576,7 +34576,7 @@
       </c>
       <c r="I246" s="23"/>
     </row>
-    <row r="247" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B247" s="16">
         <v>913.49012219999997</v>
       </c>
@@ -34605,7 +34605,7 @@
       </c>
       <c r="I247" s="23"/>
     </row>
-    <row r="248" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B248" s="16">
         <v>916.0276222</v>
       </c>
@@ -34634,7 +34634,7 @@
       </c>
       <c r="I248" s="23"/>
     </row>
-    <row r="249" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B249" s="16">
         <v>918.56512220000002</v>
       </c>
@@ -34673,18 +34673,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7C6D852-0D8E-4D93-A850-674254DEB023}">
   <dimension ref="B2:P282"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>25</v>
       </c>
@@ -34710,7 +34710,7 @@
         <v>0.41299999999999998</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B4" s="16">
         <v>3.3833333329999999</v>
       </c>
@@ -34734,7 +34734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B5" s="16">
         <v>6.766666667</v>
       </c>
@@ -34758,7 +34758,7 @@
         <v>-6.6703190799030365E-3</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B6" s="16">
         <v>10.15</v>
       </c>
@@ -34782,7 +34782,7 @@
         <v>-6.9276185472156027E-3</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B7" s="16">
         <v>13.53333333</v>
       </c>
@@ -34806,7 +34806,7 @@
         <v>-9.8220041162236371E-4</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B8" s="16">
         <v>16.916666670000001</v>
       </c>
@@ -34830,7 +34830,7 @@
         <v>-5.4870717191282115E-3</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B9" s="16">
         <v>20.3</v>
       </c>
@@ -34854,7 +34854,7 @@
         <v>-5.9491188861985622E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B10" s="16">
         <v>23.68333333</v>
       </c>
@@ -34878,7 +34878,7 @@
         <v>-1.7820771670702118E-3</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B11" s="16">
         <v>27.06666667</v>
       </c>
@@ -34902,7 +34902,7 @@
         <v>-3.9022725665859848E-3</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B12" s="16">
         <v>30.45</v>
       </c>
@@ -34926,7 +34926,7 @@
         <v>-5.3437460048426366E-3</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B13" s="16">
         <v>33.833333330000002</v>
       </c>
@@ -34950,7 +34950,7 @@
         <v>-2.4305111622275333E-3</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B14" s="16">
         <v>43.983333330000001</v>
       </c>
@@ -34974,7 +34974,7 @@
         <v>-3.2054954721549012E-3</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B15" s="16">
         <v>47.366666670000001</v>
       </c>
@@ -34998,7 +34998,7 @@
         <v>-4.6450092493945383E-3</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
       <c r="B16" s="16">
         <v>50.75</v>
       </c>
@@ -35022,7 +35022,7 @@
         <v>-5.3185433898304824E-3</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B17" s="16">
         <v>60.9</v>
       </c>
@@ -35046,7 +35046,7 @@
         <v>-4.3175348668279545E-3</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B18" s="16">
         <v>71.05</v>
       </c>
@@ -35070,7 +35070,7 @@
         <v>-4.460868184019473E-3</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B19" s="16">
         <v>74.433333329999996</v>
       </c>
@@ -35094,7 +35094,7 @@
         <v>-3.4211501210652528E-3</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B20" s="16">
         <v>77.816666670000004</v>
       </c>
@@ -35118,7 +35118,7 @@
         <v>-3.4513809200969192E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B21" s="16">
         <v>81.2</v>
       </c>
@@ -35142,7 +35142,7 @@
         <v>-3.287653414043662E-3</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B22" s="16">
         <v>84.583333330000002</v>
       </c>
@@ -35166,7 +35166,7 @@
         <v>-2.8251392978208556E-3</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B23" s="16">
         <v>87.966666669999995</v>
       </c>
@@ -35190,7 +35190,7 @@
         <v>-2.9365618644068003E-3</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B24" s="16">
         <v>91.35</v>
       </c>
@@ -35217,7 +35217,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B25" s="16">
         <v>94.733333329999994</v>
       </c>
@@ -35241,7 +35241,7 @@
         <v>-2.6056747699757243E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B26" s="16">
         <v>98.116666670000001</v>
       </c>
@@ -35265,7 +35265,7 @@
         <v>-2.6342722033897703E-3</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B27" s="16">
         <v>101.5</v>
       </c>
@@ -35289,7 +35289,7 @@
         <v>-3.1062741162228014E-3</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B28" s="16">
         <v>104.8833333</v>
       </c>
@@ -35313,7 +35313,7 @@
         <v>-2.9959357384987673E-3</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B29" s="16">
         <v>108.2666667</v>
       </c>
@@ -35337,7 +35337,7 @@
         <v>-2.9254572639225707E-3</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B30" s="16">
         <v>111.65</v>
       </c>
@@ -35361,7 +35361,7 @@
         <v>-3.1913283777240398E-3</v>
       </c>
     </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B31" s="16">
         <v>115.0333333</v>
       </c>
@@ -35385,7 +35385,7 @@
         <v>-2.5953218159806835E-3</v>
       </c>
     </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.3">
       <c r="B32" s="16">
         <v>121.8</v>
       </c>
@@ -35409,7 +35409,7 @@
         <v>-2.7814775302664463E-3</v>
       </c>
     </row>
-    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" s="16">
         <v>125.1833333</v>
       </c>
@@ -35433,7 +35433,7 @@
         <v>-2.3418469733655356E-3</v>
       </c>
     </row>
-    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" s="16">
         <v>128.56666670000001</v>
       </c>
@@ -35457,7 +35457,7 @@
         <v>-2.2853588135593461E-3</v>
       </c>
     </row>
-    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" s="16">
         <v>131.94999999999999</v>
       </c>
@@ -35481,7 +35481,7 @@
         <v>-2.412047239709364E-3</v>
       </c>
     </row>
-    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" s="16">
         <v>135.33333329999999</v>
       </c>
@@ -35505,7 +35505,7 @@
         <v>-2.7199367312347733E-3</v>
       </c>
     </row>
-    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" s="16">
         <v>138.71666669999999</v>
       </c>
@@ -35529,7 +35529,7 @@
         <v>-2.4191671186441221E-3</v>
       </c>
     </row>
-    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" s="16">
         <v>145.4833333</v>
       </c>
@@ -35553,7 +35553,7 @@
         <v>-2.6541400726392272E-3</v>
       </c>
     </row>
-    <row r="39" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" s="16">
         <v>148.8666667</v>
       </c>
@@ -35577,7 +35577,7 @@
         <v>-2.3380158111378779E-3</v>
       </c>
     </row>
-    <row r="40" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" s="16">
         <v>162.4</v>
       </c>
@@ -35601,7 +35601,7 @@
         <v>-2.2632626634382647E-3</v>
       </c>
     </row>
-    <row r="41" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" s="16">
         <v>165.78333330000001</v>
       </c>
@@ -35625,7 +35625,7 @@
         <v>-2.2643490556899237E-3</v>
       </c>
     </row>
-    <row r="42" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" s="16">
         <v>169.16666670000001</v>
       </c>
@@ -35649,7 +35649,7 @@
         <v>-1.9636732203389407E-3</v>
       </c>
     </row>
-    <row r="43" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" s="16">
         <v>172.55</v>
       </c>
@@ -35673,7 +35673,7 @@
         <v>-2.2757915738499668E-3</v>
       </c>
     </row>
-    <row r="44" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" s="16">
         <v>175.93333329999999</v>
       </c>
@@ -35697,7 +35697,7 @@
         <v>-1.381522493946602E-3</v>
       </c>
     </row>
-    <row r="45" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" s="16">
         <v>179.31666670000001</v>
       </c>
@@ -35721,7 +35721,7 @@
         <v>-2.3182107990313838E-3</v>
       </c>
     </row>
-    <row r="46" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" s="16">
         <v>182.7</v>
       </c>
@@ -35745,7 +35745,7 @@
         <v>-2.470263438256709E-3</v>
       </c>
     </row>
-    <row r="47" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" s="16">
         <v>186.08333329999999</v>
       </c>
@@ -35769,7 +35769,7 @@
         <v>-2.3796486682808038E-3</v>
       </c>
     </row>
-    <row r="48" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" s="16">
         <v>189.46666669999999</v>
       </c>
@@ -35793,7 +35793,7 @@
         <v>-1.7057666828087792E-3</v>
       </c>
     </row>
-    <row r="49" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" s="16">
         <v>192.85</v>
       </c>
@@ -35817,7 +35817,7 @@
         <v>-2.5579607263921667E-3</v>
       </c>
     </row>
-    <row r="50" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" s="16">
         <v>196.2333333</v>
       </c>
@@ -35841,7 +35841,7 @@
         <v>-1.6739505811136646E-3</v>
       </c>
     </row>
-    <row r="51" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" s="16">
         <v>203</v>
       </c>
@@ -35865,7 +35865,7 @@
         <v>-1.8684360774817166E-3</v>
       </c>
     </row>
-    <row r="52" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" s="16">
         <v>206.3833333</v>
       </c>
@@ -35889,7 +35889,7 @@
         <v>-2.7432608474575182E-3</v>
       </c>
     </row>
-    <row r="53" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" s="16">
         <v>209.7666667</v>
       </c>
@@ -35913,7 +35913,7 @@
         <v>-1.9847527602905313E-3</v>
       </c>
     </row>
-    <row r="54" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" s="16">
         <v>213.15</v>
       </c>
@@ -35937,7 +35937,7 @@
         <v>-1.0670435351090579E-3</v>
       </c>
     </row>
-    <row r="55" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" s="16">
         <v>216.53333330000001</v>
       </c>
@@ -35961,7 +35961,7 @@
         <v>-5.7788639225175853E-4</v>
       </c>
     </row>
-    <row r="56" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" s="16">
         <v>219.91666670000001</v>
       </c>
@@ -35985,7 +35985,7 @@
         <v>-1.1311858595641211E-3</v>
       </c>
     </row>
-    <row r="57" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" s="16">
         <v>223.3</v>
       </c>
@@ -36009,7 +36009,7 @@
         <v>-7.5893271186450173E-4</v>
       </c>
     </row>
-    <row r="58" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" s="16">
         <v>226.68333329999999</v>
       </c>
@@ -36033,7 +36033,7 @@
         <v>-6.5690007263910499E-4</v>
       </c>
     </row>
-    <row r="59" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" s="16">
         <v>230.06666670000001</v>
       </c>
@@ -36057,7 +36057,7 @@
         <v>-7.0650181598050366E-4</v>
       </c>
     </row>
-    <row r="60" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" s="16">
         <v>233.45</v>
       </c>
@@ -36081,7 +36081,7 @@
         <v>-2.0870097094430329E-3</v>
       </c>
     </row>
-    <row r="61" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" s="16">
         <v>236.83333329999999</v>
       </c>
@@ -36105,7 +36105,7 @@
         <v>-1.2663572397093315E-3</v>
       </c>
     </row>
-    <row r="62" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" s="16">
         <v>240.21666669999999</v>
       </c>
@@ -36129,7 +36129,7 @@
         <v>-6.9937210653756021E-4</v>
       </c>
     </row>
-    <row r="63" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" s="16">
         <v>243.6</v>
       </c>
@@ -36153,7 +36153,7 @@
         <v>-1.2358606537530015E-3</v>
       </c>
     </row>
-    <row r="64" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" s="16">
         <v>246.9833333</v>
       </c>
@@ -36177,7 +36177,7 @@
         <v>-1.1390078450361774E-3</v>
       </c>
     </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" s="16">
         <v>250.3666667</v>
       </c>
@@ -36201,7 +36201,7 @@
         <v>-1.1266868523002738E-3</v>
       </c>
     </row>
-    <row r="66" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" s="16">
         <v>253.75</v>
       </c>
@@ -36225,7 +36225,7 @@
         <v>-1.5206239951573441E-3</v>
       </c>
     </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" s="16">
         <v>257.1333333</v>
       </c>
@@ -36249,7 +36249,7 @@
         <v>-1.8196795399514909E-3</v>
       </c>
     </row>
-    <row r="68" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" s="16">
         <v>260.51666669999997</v>
       </c>
@@ -36273,7 +36273,7 @@
         <v>-1.1315640435836105E-3</v>
       </c>
     </row>
-    <row r="69" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" s="16">
         <v>263.89999999999998</v>
       </c>
@@ -36297,7 +36297,7 @@
         <v>-1.6267432929780723E-3</v>
       </c>
     </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" s="16">
         <v>270.66666670000001</v>
       </c>
@@ -36321,7 +36321,7 @@
         <v>-6.4672060532697251E-4</v>
       </c>
     </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" s="16">
         <v>274.05</v>
       </c>
@@ -36345,7 +36345,7 @@
         <v>-6.2411290556899091E-4</v>
       </c>
     </row>
-    <row r="72" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" s="16">
         <v>277.43333330000002</v>
       </c>
@@ -36369,7 +36369,7 @@
         <v>-1.0562300726392471E-3</v>
       </c>
     </row>
-    <row r="73" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" s="16">
         <v>280.81666669999998</v>
       </c>
@@ -36393,7 +36393,7 @@
         <v>-1.553233123486597E-3</v>
       </c>
     </row>
-    <row r="74" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" s="16">
         <v>284.2</v>
       </c>
@@ -36417,7 +36417,7 @@
         <v>-1.6667273607734456E-4</v>
       </c>
     </row>
-    <row r="75" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" s="16">
         <v>287.58333329999999</v>
       </c>
@@ -36441,7 +36441,7 @@
         <v>1.8133457627128591E-4</v>
       </c>
     </row>
-    <row r="76" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" s="16">
         <v>290.96666670000002</v>
       </c>
@@ -36465,7 +36465,7 @@
         <v>7.1393389830615162E-5</v>
       </c>
     </row>
-    <row r="77" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" s="16">
         <v>294.35000000000002</v>
       </c>
@@ -36489,7 +36489,7 @@
         <v>-6.9328692493950128E-4</v>
       </c>
     </row>
-    <row r="78" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" s="16">
         <v>297.73333330000003</v>
       </c>
@@ -36513,7 +36513,7 @@
         <v>1.5551782082329213E-4</v>
       </c>
     </row>
-    <row r="79" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" s="16">
         <v>301.1166667</v>
       </c>
@@ -36537,7 +36537,7 @@
         <v>2.5576026634382965E-4</v>
       </c>
     </row>
-    <row r="80" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" s="16">
         <v>304.5</v>
       </c>
@@ -36561,7 +36561,7 @@
         <v>-8.1857801452775436E-4</v>
       </c>
     </row>
-    <row r="81" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" s="16">
         <v>307.8833333</v>
       </c>
@@ -36585,7 +36585,7 @@
         <v>-1.0127513559321233E-3</v>
       </c>
     </row>
-    <row r="82" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" s="16">
         <v>311.26666669999997</v>
       </c>
@@ -36609,7 +36609,7 @@
         <v>4.2434915254269123E-5</v>
       </c>
     </row>
-    <row r="83" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" s="16">
         <v>314.64999999999998</v>
       </c>
@@ -36633,7 +36633,7 @@
         <v>-1.9669636803862356E-4</v>
       </c>
     </row>
-    <row r="84" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" s="16">
         <v>318.03333329999998</v>
       </c>
@@ -36657,7 +36657,7 @@
         <v>3.4883338983054957E-4</v>
       </c>
     </row>
-    <row r="85" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" s="16">
         <v>321.41666670000001</v>
       </c>
@@ -36681,7 +36681,7 @@
         <v>-6.4882268765142914E-4</v>
       </c>
     </row>
-    <row r="86" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" s="16">
         <v>324.8</v>
       </c>
@@ -36705,7 +36705,7 @@
         <v>-1.5875898789347309E-3</v>
       </c>
     </row>
-    <row r="87" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" s="16">
         <v>328.18333330000002</v>
       </c>
@@ -36729,7 +36729,7 @@
         <v>-1.2866978208233015E-3</v>
       </c>
     </row>
-    <row r="88" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" s="16">
         <v>331.56666669999998</v>
       </c>
@@ -36753,7 +36753,7 @@
         <v>-1.062478547215584E-3</v>
       </c>
     </row>
-    <row r="89" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" s="16">
         <v>338.33333329999999</v>
       </c>
@@ -36777,7 +36777,7 @@
         <v>-9.7690026634383864E-4</v>
       </c>
     </row>
-    <row r="90" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" s="16">
         <v>341.71666670000002</v>
       </c>
@@ -36801,7 +36801,7 @@
         <v>-1.016966707021838E-3</v>
       </c>
     </row>
-    <row r="91" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" s="16">
         <v>345.1</v>
       </c>
@@ -36825,7 +36825,7 @@
         <v>-7.1015624697345903E-4</v>
       </c>
     </row>
-    <row r="92" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" s="16">
         <v>348.48333330000003</v>
       </c>
@@ -36849,7 +36849,7 @@
         <v>-1.0714298062952654E-3</v>
       </c>
     </row>
-    <row r="93" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" s="16">
         <v>351.8666667</v>
       </c>
@@ -36873,7 +36873,7 @@
         <v>-6.7878537530258187E-4</v>
       </c>
     </row>
-    <row r="94" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" s="16">
         <v>355.25</v>
       </c>
@@ -36897,7 +36897,7 @@
         <v>-1.2981540677967085E-3</v>
       </c>
     </row>
-    <row r="95" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" s="16">
         <v>358.6333333</v>
       </c>
@@ -36921,7 +36921,7 @@
         <v>-1.8907657384986398E-3</v>
       </c>
     </row>
-    <row r="96" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" s="16">
         <v>362.01666669999997</v>
       </c>
@@ -36945,7 +36945,7 @@
         <v>-1.0787617433414554E-3</v>
       </c>
     </row>
-    <row r="97" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" s="16">
         <v>365.4</v>
       </c>
@@ -36969,7 +36969,7 @@
         <v>-1.4028975786925524E-4</v>
       </c>
     </row>
-    <row r="98" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" s="16">
         <v>368.78333329999998</v>
       </c>
@@ -36993,7 +36993,7 @@
         <v>-2.1156583535114626E-4</v>
       </c>
     </row>
-    <row r="99" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" s="16">
         <v>372.16666670000001</v>
       </c>
@@ -37017,7 +37017,7 @@
         <v>4.4284380145273583E-4</v>
       </c>
     </row>
-    <row r="100" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" s="16">
         <v>375.55</v>
       </c>
@@ -37041,7 +37041,7 @@
         <v>-5.8538452784492878E-4</v>
       </c>
     </row>
-    <row r="101" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" s="16">
         <v>378.93333330000002</v>
       </c>
@@ -37065,7 +37065,7 @@
         <v>-1.1428076997578585E-3</v>
       </c>
     </row>
-    <row r="102" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B102" s="16">
         <v>382.31666669999998</v>
       </c>
@@ -37089,7 +37089,7 @@
         <v>-8.9507670702190789E-4</v>
       </c>
     </row>
-    <row r="103" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B103" s="16">
         <v>385.7</v>
       </c>
@@ -37113,7 +37113,7 @@
         <v>-2.0320588377725768E-4</v>
       </c>
     </row>
-    <row r="104" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B104" s="16">
         <v>389.08333329999999</v>
       </c>
@@ -37137,7 +37137,7 @@
         <v>1.1603443099286737E-4</v>
       </c>
     </row>
-    <row r="105" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B105" s="16">
         <v>392.46666670000002</v>
       </c>
@@ -37161,7 +37161,7 @@
         <v>-6.5105799031486833E-4</v>
       </c>
     </row>
-    <row r="106" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B106" s="16">
         <v>395.85</v>
       </c>
@@ -37185,7 +37185,7 @@
         <v>2.5619709443258643E-5</v>
       </c>
     </row>
-    <row r="107" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B107" s="16">
         <v>402.6166667</v>
       </c>
@@ -37209,7 +37209,7 @@
         <v>-3.2846731234856263E-4</v>
       </c>
     </row>
-    <row r="108" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B108" s="16">
         <v>406</v>
       </c>
@@ -37233,7 +37233,7 @@
         <v>-1.13107530266221E-4</v>
       </c>
     </row>
-    <row r="109" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B109" s="16">
         <v>409.3833333</v>
       </c>
@@ -37257,7 +37257,7 @@
         <v>3.3138266343823997E-4</v>
       </c>
     </row>
-    <row r="110" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B110" s="16">
         <v>412.76666669999997</v>
       </c>
@@ -37281,7 +37281,7 @@
         <v>-3.4764452784508126E-4</v>
       </c>
     </row>
-    <row r="111" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B111" s="16">
         <v>416.15</v>
       </c>
@@ -37305,7 +37305,7 @@
         <v>6.3926029055666467E-5</v>
       </c>
     </row>
-    <row r="112" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B112" s="16">
         <v>419.53333329999998</v>
       </c>
@@ -37329,7 +37329,7 @@
         <v>-9.6833157384978996E-4</v>
       </c>
     </row>
-    <row r="113" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B113" s="16">
         <v>422.91666670000001</v>
       </c>
@@ -37353,7 +37353,7 @@
         <v>-5.417091283292097E-4</v>
       </c>
     </row>
-    <row r="114" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B114" s="16">
         <v>426.3</v>
       </c>
@@ -37377,7 +37377,7 @@
         <v>-6.6674232445518289E-4</v>
       </c>
     </row>
-    <row r="115" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B115" s="16">
         <v>429.68333330000002</v>
       </c>
@@ -37401,7 +37401,7 @@
         <v>3.1730808716703973E-4</v>
       </c>
     </row>
-    <row r="116" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B116" s="16">
         <v>433.06666669999998</v>
       </c>
@@ -37425,7 +37425,7 @@
         <v>-1.5813648910414924E-4</v>
       </c>
     </row>
-    <row r="117" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B117" s="16">
         <v>436.45</v>
       </c>
@@ -37449,7 +37449,7 @@
         <v>8.0932593220339744E-4</v>
       </c>
     </row>
-    <row r="118" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B118" s="16">
         <v>439.83333329999999</v>
       </c>
@@ -37473,7 +37473,7 @@
         <v>3.4999813559313808E-4</v>
       </c>
     </row>
-    <row r="119" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B119" s="16">
         <v>443.21666670000002</v>
       </c>
@@ -37497,7 +37497,7 @@
         <v>-1.7641133171911183E-4</v>
       </c>
     </row>
-    <row r="120" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B120" s="16">
         <v>446.6</v>
       </c>
@@ -37521,7 +37521,7 @@
         <v>-1.1318602905567576E-3</v>
       </c>
     </row>
-    <row r="121" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B121" s="16">
         <v>449.98333330000003</v>
       </c>
@@ -37545,7 +37545,7 @@
         <v>-1.2228532445521523E-3</v>
       </c>
     </row>
-    <row r="122" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B122" s="16">
         <v>453.3666667</v>
       </c>
@@ -37569,7 +37569,7 @@
         <v>-1.0898293704599549E-3</v>
       </c>
     </row>
-    <row r="123" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B123" s="16">
         <v>456.75</v>
       </c>
@@ -37593,7 +37593,7 @@
         <v>4.2000164648914318E-4</v>
       </c>
     </row>
-    <row r="124" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B124" s="16">
         <v>460.1333333</v>
       </c>
@@ -37617,7 +37617,7 @@
         <v>1.4693986682809135E-3</v>
       </c>
     </row>
-    <row r="125" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B125" s="16">
         <v>463.51666669999997</v>
       </c>
@@ -37641,7 +37641,7 @@
         <v>6.9596009685229943E-4</v>
       </c>
     </row>
-    <row r="126" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B126" s="16">
         <v>466.9</v>
       </c>
@@ -37665,7 +37665,7 @@
         <v>-3.414966101694672E-4</v>
       </c>
     </row>
-    <row r="127" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B127" s="16">
         <v>470.28333329999998</v>
       </c>
@@ -37689,7 +37689,7 @@
         <v>-4.4153179176753543E-4</v>
       </c>
     </row>
-    <row r="128" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B128" s="16">
         <v>473.66666670000001</v>
       </c>
@@ -37713,7 +37713,7 @@
         <v>-7.6321883777227817E-4</v>
       </c>
     </row>
-    <row r="129" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B129" s="16">
         <v>477.05</v>
       </c>
@@ -37737,7 +37737,7 @@
         <v>-1.0080953026633255E-3</v>
       </c>
     </row>
-    <row r="130" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B130" s="16">
         <v>480.43333330000002</v>
       </c>
@@ -37761,7 +37761,7 @@
         <v>-2.9679803874091415E-4</v>
       </c>
     </row>
-    <row r="131" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B131" s="16">
         <v>483.81666669999998</v>
       </c>
@@ -37785,7 +37785,7 @@
         <v>-4.7838801452781965E-4</v>
       </c>
     </row>
-    <row r="132" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B132" s="16">
         <v>487.2</v>
       </c>
@@ -37809,7 +37809,7 @@
         <v>-6.1033462469733957E-4</v>
       </c>
     </row>
-    <row r="133" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B133" s="16">
         <v>493.96666670000002</v>
       </c>
@@ -37833,7 +37833,7 @@
         <v>-5.7519956416457463E-4</v>
       </c>
     </row>
-    <row r="134" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B134" s="16">
         <v>497.35</v>
       </c>
@@ -37857,7 +37857,7 @@
         <v>6.3958692493953917E-5</v>
       </c>
     </row>
-    <row r="135" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B135" s="16">
         <v>504.1166667</v>
       </c>
@@ -37881,7 +37881,7 @@
         <v>-4.4330341404363871E-4</v>
       </c>
     </row>
-    <row r="136" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B136" s="16">
         <v>507.5</v>
       </c>
@@ -37905,7 +37905,7 @@
         <v>8.9913171912731071E-5</v>
       </c>
     </row>
-    <row r="137" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B137" s="16">
         <v>510.8833333</v>
       </c>
@@ -37929,7 +37929,7 @@
         <v>5.481355932202836E-4</v>
       </c>
     </row>
-    <row r="138" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B138" s="16">
         <v>514.26666669999997</v>
       </c>
@@ -37953,7 +37953,7 @@
         <v>-8.1074334140443516E-4</v>
       </c>
     </row>
-    <row r="139" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B139" s="16">
         <v>517.65</v>
       </c>
@@ -37977,7 +37977,7 @@
         <v>-2.6358983050867035E-5</v>
       </c>
     </row>
-    <row r="140" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B140" s="16">
         <v>521.03333329999998</v>
       </c>
@@ -38001,7 +38001,7 @@
         <v>9.8991360774830506E-4</v>
       </c>
     </row>
-    <row r="141" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B141" s="16">
         <v>524.41666669999995</v>
       </c>
@@ -38025,7 +38025,7 @@
         <v>9.468841404359496E-4</v>
       </c>
     </row>
-    <row r="142" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B142" s="16">
         <v>527.79999999999995</v>
       </c>
@@ -38049,7 +38049,7 @@
         <v>2.1576866828085239E-4</v>
       </c>
     </row>
-    <row r="143" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B143" s="16">
         <v>531.18333329999996</v>
       </c>
@@ -38073,7 +38073,7 @@
         <v>1.3538868038742435E-3</v>
       </c>
     </row>
-    <row r="144" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B144" s="16">
         <v>537.95000000000005</v>
       </c>
@@ -38097,7 +38097,7 @@
         <v>1.2261157869248307E-3</v>
       </c>
     </row>
-    <row r="145" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B145" s="16">
         <v>541.33333330000005</v>
       </c>
@@ -38121,7 +38121,7 @@
         <v>1.6529035108960033E-3</v>
       </c>
     </row>
-    <row r="146" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B146" s="16">
         <v>544.71666670000002</v>
       </c>
@@ -38145,7 +38145,7 @@
         <v>1.3780524455207221E-3</v>
       </c>
     </row>
-    <row r="147" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B147" s="16">
         <v>548.1</v>
       </c>
@@ -38169,7 +38169,7 @@
         <v>2.8179668280867154E-4</v>
       </c>
     </row>
-    <row r="148" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B148" s="16">
         <v>551.48333330000003</v>
       </c>
@@ -38193,7 +38193,7 @@
         <v>5.9375302657871387E-7</v>
       </c>
     </row>
-    <row r="149" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B149" s="16">
         <v>554.8666667</v>
       </c>
@@ -38217,7 +38217,7 @@
         <v>4.1467198547209816E-4</v>
       </c>
     </row>
-    <row r="150" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B150" s="16">
         <v>558.25</v>
       </c>
@@ -38241,7 +38241,7 @@
         <v>8.7589414043590108E-4</v>
       </c>
     </row>
-    <row r="151" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B151" s="16">
         <v>561.6333333</v>
       </c>
@@ -38265,7 +38265,7 @@
         <v>8.2517133171916557E-4</v>
       </c>
     </row>
-    <row r="152" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B152" s="16">
         <v>565.01666669999997</v>
       </c>
@@ -38289,7 +38289,7 @@
         <v>-2.6424162227614567E-4</v>
       </c>
     </row>
-    <row r="153" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B153" s="16">
         <v>568.4</v>
       </c>
@@ -38313,7 +38313,7 @@
         <v>3.3578995157398928E-4</v>
       </c>
     </row>
-    <row r="154" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B154" s="16">
         <v>571.78333329999998</v>
       </c>
@@ -38337,7 +38337,7 @@
         <v>1.2509149636802941E-3</v>
       </c>
     </row>
-    <row r="155" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B155" s="16">
         <v>575.16666669999995</v>
       </c>
@@ -38361,7 +38361,7 @@
         <v>3.0928939709443104E-3</v>
       </c>
     </row>
-    <row r="156" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B156" s="16">
         <v>578.54999999999995</v>
       </c>
@@ -38385,7 +38385,7 @@
         <v>9.3710072639280328E-5</v>
       </c>
     </row>
-    <row r="157" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B157" s="16">
         <v>581.93333329999996</v>
       </c>
@@ -38409,7 +38409,7 @@
         <v>4.7361503631959678E-4</v>
       </c>
     </row>
-    <row r="158" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B158" s="16">
         <v>585.31666670000004</v>
       </c>
@@ -38433,7 +38433,7 @@
         <v>1.0782676513317602E-3</v>
       </c>
     </row>
-    <row r="159" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B159" s="16">
         <v>588.70000000000005</v>
       </c>
@@ -38457,7 +38457,7 @@
         <v>-1.1022251815845374E-5</v>
       </c>
     </row>
-    <row r="160" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B160" s="16">
         <v>598.85</v>
       </c>
@@ -38481,7 +38481,7 @@
         <v>1.2087838498789361E-3</v>
       </c>
     </row>
-    <row r="161" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="161" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B161" s="16">
         <v>602.23333330000003</v>
       </c>
@@ -38505,7 +38505,7 @@
         <v>3.0902659322034065E-3</v>
       </c>
     </row>
-    <row r="162" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B162" s="16">
         <v>605.6166667</v>
       </c>
@@ -38529,7 +38529,7 @@
         <v>7.0007866828078469E-4</v>
       </c>
     </row>
-    <row r="163" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="163" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B163" s="16">
         <v>609</v>
       </c>
@@ -38553,7 +38553,7 @@
         <v>8.096676513317802E-4</v>
       </c>
     </row>
-    <row r="164" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="164" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B164" s="16">
         <v>612.3833333</v>
       </c>
@@ -38577,7 +38577,7 @@
         <v>1.2971701694914073E-3</v>
       </c>
     </row>
-    <row r="165" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="165" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B165" s="16">
         <v>615.76666669999997</v>
       </c>
@@ -38601,7 +38601,7 @@
         <v>2.2484298062953045E-3</v>
       </c>
     </row>
-    <row r="166" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B166" s="16">
         <v>619.15</v>
       </c>
@@ -38625,7 +38625,7 @@
         <v>1.5932415012106516E-3</v>
       </c>
     </row>
-    <row r="167" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B167" s="16">
         <v>622.53333329999998</v>
       </c>
@@ -38649,7 +38649,7 @@
         <v>1.7184656900726403E-3</v>
       </c>
     </row>
-    <row r="168" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B168" s="16">
         <v>625.91666669999995</v>
       </c>
@@ -38673,7 +38673,7 @@
         <v>1.8265905084745571E-3</v>
       </c>
     </row>
-    <row r="169" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B169" s="16">
         <v>629.29999999999995</v>
       </c>
@@ -38697,7 +38697,7 @@
         <v>1.4207858595643164E-3</v>
       </c>
     </row>
-    <row r="170" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="170" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B170" s="16">
         <v>632.68333329999996</v>
       </c>
@@ -38721,7 +38721,7 @@
         <v>2.0319948668280075E-3</v>
       </c>
     </row>
-    <row r="171" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="171" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B171" s="16">
         <v>636.06666670000004</v>
       </c>
@@ -38745,7 +38745,7 @@
         <v>1.1873196368040184E-3</v>
       </c>
     </row>
-    <row r="172" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="172" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B172" s="16">
         <v>639.45000000000005</v>
       </c>
@@ -38769,7 +38769,7 @@
         <v>2.1599529539952089E-3</v>
       </c>
     </row>
-    <row r="173" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B173" s="16">
         <v>642.83333330000005</v>
       </c>
@@ -38793,7 +38793,7 @@
         <v>2.2365477481841589E-3</v>
       </c>
     </row>
-    <row r="174" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="174" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B174" s="16">
         <v>646.21666670000002</v>
       </c>
@@ -38817,7 +38817,7 @@
         <v>1.1810181598062852E-3</v>
       </c>
     </row>
-    <row r="175" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B175" s="16">
         <v>649.6</v>
       </c>
@@ -38841,7 +38841,7 @@
         <v>2.2421409200968634E-3</v>
       </c>
     </row>
-    <row r="176" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="176" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B176" s="16">
         <v>652.98333330000003</v>
       </c>
@@ -38865,7 +38865,7 @@
         <v>4.0765277723972537E-3</v>
       </c>
     </row>
-    <row r="177" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="177" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B177" s="16">
         <v>656.3666667</v>
       </c>
@@ -38889,7 +38889,7 @@
         <v>1.601210677966064E-3</v>
       </c>
     </row>
-    <row r="178" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="178" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B178" s="16">
         <v>659.75</v>
       </c>
@@ -38913,7 +38913,7 @@
         <v>1.8457788377723716E-3</v>
       </c>
     </row>
-    <row r="179" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="179" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B179" s="16">
         <v>663.1333333</v>
       </c>
@@ -38937,7 +38937,7 @@
         <v>1.8459478208232294E-3</v>
       </c>
     </row>
-    <row r="180" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="180" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B180" s="16">
         <v>666.51666669999997</v>
       </c>
@@ -38961,7 +38961,7 @@
         <v>1.7141320823244877E-3</v>
       </c>
     </row>
-    <row r="181" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="181" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B181" s="16">
         <v>669.9</v>
       </c>
@@ -38985,7 +38985,7 @@
         <v>1.5005160532687301E-3</v>
       </c>
     </row>
-    <row r="182" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="182" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B182" s="16">
         <v>673.28333329999998</v>
       </c>
@@ -39009,7 +39009,7 @@
         <v>1.178466852300164E-3</v>
       </c>
     </row>
-    <row r="183" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="183" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B183" s="16">
         <v>676.66666669999995</v>
       </c>
@@ -39033,7 +39033,7 @@
         <v>1.8020641404358217E-3</v>
       </c>
     </row>
-    <row r="184" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="184" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B184" s="16">
         <v>680.05</v>
       </c>
@@ -39057,7 +39057,7 @@
         <v>2.0140138498790372E-3</v>
       </c>
     </row>
-    <row r="185" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="185" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B185" s="16">
         <v>683.43333329999996</v>
       </c>
@@ -39081,7 +39081,7 @@
         <v>1.6712602421308786E-3</v>
       </c>
     </row>
-    <row r="186" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="186" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B186" s="16">
         <v>686.81666670000004</v>
       </c>
@@ -39105,7 +39105,7 @@
         <v>1.4687769491524838E-3</v>
       </c>
     </row>
-    <row r="187" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="187" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B187" s="16">
         <v>690.2</v>
       </c>
@@ -39129,7 +39129,7 @@
         <v>2.189159515738448E-3</v>
       </c>
     </row>
-    <row r="188" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="188" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B188" s="16">
         <v>693.58333330000005</v>
       </c>
@@ -39153,7 +39153,7 @@
         <v>2.0379121307506076E-3</v>
       </c>
     </row>
-    <row r="189" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="189" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B189" s="16">
         <v>696.96666670000002</v>
       </c>
@@ -39177,7 +39177,7 @@
         <v>2.0912908958836685E-3</v>
       </c>
     </row>
-    <row r="190" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="190" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B190" s="16">
         <v>700.35</v>
       </c>
@@ -39201,7 +39201,7 @@
         <v>9.5985457627134618E-4</v>
       </c>
     </row>
-    <row r="191" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="191" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B191" s="16">
         <v>703.73333330000003</v>
       </c>
@@ -39225,7 +39225,7 @@
         <v>1.9431204600484087E-3</v>
       </c>
     </row>
-    <row r="192" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="192" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B192" s="16">
         <v>707.1166667</v>
       </c>
@@ -39249,7 +39249,7 @@
         <v>1.7979739709443054E-3</v>
       </c>
     </row>
-    <row r="193" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="193" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B193" s="16">
         <v>710.5</v>
       </c>
@@ -39273,7 +39273,7 @@
         <v>1.7585176271185388E-3</v>
       </c>
     </row>
-    <row r="194" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="194" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B194" s="16">
         <v>713.8833333</v>
       </c>
@@ -39297,7 +39297,7 @@
         <v>1.1267010653754628E-3</v>
       </c>
     </row>
-    <row r="195" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="195" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B195" s="16">
         <v>717.26666669999997</v>
       </c>
@@ -39321,7 +39321,7 @@
         <v>2.277435690072771E-3</v>
       </c>
     </row>
-    <row r="196" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="196" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B196" s="16">
         <v>720.65</v>
       </c>
@@ -39345,7 +39345,7 @@
         <v>1.0479265617434619E-3</v>
       </c>
     </row>
-    <row r="197" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="197" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B197" s="16">
         <v>724.03333329999998</v>
       </c>
@@ -39369,7 +39369,7 @@
         <v>2.1697119612590632E-3</v>
       </c>
     </row>
-    <row r="198" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="198" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B198" s="16">
         <v>727.41666669999995</v>
       </c>
@@ -39393,7 +39393,7 @@
         <v>1.1645182566586976E-3</v>
       </c>
     </row>
-    <row r="199" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="199" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B199" s="16">
         <v>730.8</v>
       </c>
@@ -39417,7 +39417,7 @@
         <v>3.2713032203389447E-3</v>
       </c>
     </row>
-    <row r="200" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="200" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B200" s="16">
         <v>734.18333329999996</v>
       </c>
@@ -39441,7 +39441,7 @@
         <v>1.5415621065376639E-3</v>
       </c>
     </row>
-    <row r="201" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="201" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B201" s="16">
         <v>737.56666670000004</v>
       </c>
@@ -39465,7 +39465,7 @@
         <v>1.2723348668282342E-3</v>
       </c>
     </row>
-    <row r="202" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="202" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B202" s="16">
         <v>740.95</v>
       </c>
@@ -39489,7 +39489,7 @@
         <v>1.8414603389829698E-3</v>
       </c>
     </row>
-    <row r="203" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="203" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B203" s="16">
         <v>744.33333330000005</v>
       </c>
@@ -39513,7 +39513,7 @@
         <v>1.9749657869248538E-3</v>
       </c>
     </row>
-    <row r="204" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="204" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B204" s="16">
         <v>747.71666670000002</v>
       </c>
@@ -39537,7 +39537,7 @@
         <v>1.4616672881357373E-3</v>
       </c>
     </row>
-    <row r="205" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="205" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B205" s="16">
         <v>751.1</v>
       </c>
@@ -39561,7 +39561,7 @@
         <v>1.5032815012106515E-3</v>
       </c>
     </row>
-    <row r="206" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="206" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B206" s="16">
         <v>754.48333330000003</v>
       </c>
@@ -39585,7 +39585,7 @@
         <v>1.9503699273608344E-3</v>
       </c>
     </row>
-    <row r="207" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="207" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B207" s="16">
         <v>757.8666667</v>
       </c>
@@ -39609,7 +39609,7 @@
         <v>1.4490618159805346E-3</v>
       </c>
     </row>
-    <row r="208" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="208" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B208" s="16">
         <v>761.25</v>
       </c>
@@ -39633,7 +39633,7 @@
         <v>2.0123961501211651E-3</v>
       </c>
     </row>
-    <row r="209" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="209" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B209" s="16">
         <v>764.6333333</v>
       </c>
@@ -39657,7 +39657,7 @@
         <v>2.1975126150120539E-3</v>
       </c>
     </row>
-    <row r="210" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="210" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B210" s="16">
         <v>768.01666669999997</v>
       </c>
@@ -39681,7 +39681,7 @@
         <v>2.4178482566586945E-3</v>
       </c>
     </row>
-    <row r="211" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="211" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B211" s="16">
         <v>771.4</v>
       </c>
@@ -39705,7 +39705,7 @@
         <v>9.1520232445518879E-4</v>
       </c>
     </row>
-    <row r="212" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="212" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B212" s="16">
         <v>774.78333329999998</v>
       </c>
@@ -39729,7 +39729,7 @@
         <v>2.2935513075059699E-3</v>
       </c>
     </row>
-    <row r="213" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="213" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B213" s="16">
         <v>778.16666669999995</v>
       </c>
@@ -39753,7 +39753,7 @@
         <v>1.7983182082324245E-3</v>
       </c>
     </row>
-    <row r="214" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="214" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B214" s="16">
         <v>781.55</v>
       </c>
@@ -39777,7 +39777,7 @@
         <v>2.0720270944310781E-3</v>
       </c>
     </row>
-    <row r="215" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="215" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B215" s="16">
         <v>784.93333329999996</v>
       </c>
@@ -39801,7 +39801,7 @@
         <v>1.4240700484262625E-3</v>
       </c>
     </row>
-    <row r="216" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="216" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B216" s="16">
         <v>788.31666670000004</v>
       </c>
@@ -39825,7 +39825,7 @@
         <v>1.597276682808707E-3</v>
       </c>
     </row>
-    <row r="217" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="217" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B217" s="16">
         <v>791.7</v>
       </c>
@@ -39849,7 +39849,7 @@
         <v>2.5407928571427596E-3</v>
       </c>
     </row>
-    <row r="218" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="218" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B218" s="16">
         <v>795.08333330000005</v>
       </c>
@@ -39873,7 +39873,7 @@
         <v>2.3865708958838716E-3</v>
       </c>
     </row>
-    <row r="219" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="219" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B219" s="16">
         <v>798.46666670000002</v>
       </c>
@@ -39897,7 +39897,7 @@
         <v>1.2635746004842907E-3</v>
       </c>
     </row>
-    <row r="220" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="220" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B220" s="16">
         <v>801.85</v>
       </c>
@@ -39921,7 +39921,7 @@
         <v>2.3087096610170388E-3</v>
       </c>
     </row>
-    <row r="221" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="221" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B221" s="16">
         <v>805.23333330000003</v>
       </c>
@@ -39945,7 +39945,7 @@
         <v>1.9724293946731253E-3</v>
       </c>
     </row>
-    <row r="222" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="222" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B222" s="16">
         <v>808.6166667</v>
       </c>
@@ -39969,7 +39969,7 @@
         <v>1.4955123244551338E-3</v>
       </c>
     </row>
-    <row r="223" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="223" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B223" s="16">
         <v>812</v>
       </c>
@@ -39993,7 +39993,7 @@
         <v>1.3834515738499753E-3</v>
       </c>
     </row>
-    <row r="224" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="224" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B224" s="16">
         <v>815.3833333</v>
       </c>
@@ -40017,7 +40017,7 @@
         <v>2.2217988135593003E-3</v>
       </c>
     </row>
-    <row r="225" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="225" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B225" s="16">
         <v>822.15</v>
       </c>
@@ -40041,7 +40041,7 @@
         <v>3.018183970944277E-3</v>
       </c>
     </row>
-    <row r="226" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="226" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B226" s="16">
         <v>828.91666669999995</v>
       </c>
@@ -40065,7 +40065,7 @@
         <v>1.9100077723971098E-3</v>
       </c>
     </row>
-    <row r="227" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="227" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B227" s="16">
         <v>832.3</v>
       </c>
@@ -40089,7 +40089,7 @@
         <v>1.4027863680388664E-3</v>
       </c>
     </row>
-    <row r="228" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="228" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B228" s="16">
         <v>835.68333329999996</v>
       </c>
@@ -40113,7 +40113,7 @@
         <v>1.9824203631961523E-3</v>
       </c>
     </row>
-    <row r="229" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="229" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B229" s="16">
         <v>839.06666670000004</v>
       </c>
@@ -40137,7 +40137,7 @@
         <v>1.3252849152542712E-3</v>
       </c>
     </row>
-    <row r="230" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="230" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B230" s="16">
         <v>842.45</v>
       </c>
@@ -40161,7 +40161,7 @@
         <v>1.6650002663437524E-3</v>
       </c>
     </row>
-    <row r="231" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="231" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B231" s="16">
         <v>845.83333330000005</v>
       </c>
@@ -40185,7 +40185,7 @@
         <v>2.331983801452775E-3</v>
       </c>
     </row>
-    <row r="232" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="232" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B232" s="16">
         <v>849.21666670000002</v>
       </c>
@@ -40209,7 +40209,7 @@
         <v>2.995455012106546E-3</v>
       </c>
     </row>
-    <row r="233" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="233" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B233" s="16">
         <v>852.6</v>
       </c>
@@ -40233,7 +40233,7 @@
         <v>1.7489712590799955E-3</v>
       </c>
     </row>
-    <row r="234" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="234" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B234" s="16">
         <v>855.98333330000003</v>
       </c>
@@ -40257,7 +40257,7 @@
         <v>1.8509057869249279E-3</v>
       </c>
     </row>
-    <row r="235" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="235" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B235" s="16">
         <v>859.3666667</v>
       </c>
@@ -40281,7 +40281,7 @@
         <v>1.8967518886198742E-3</v>
       </c>
     </row>
-    <row r="236" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="236" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B236" s="16">
         <v>862.75</v>
       </c>
@@ -40305,7 +40305,7 @@
         <v>1.0879062711864063E-3</v>
       </c>
     </row>
-    <row r="237" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="237" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B237" s="16">
         <v>866.1333333</v>
       </c>
@@ -40329,7 +40329,7 @@
         <v>1.9323536803874108E-3</v>
       </c>
     </row>
-    <row r="238" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="238" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B238" s="16">
         <v>869.51666669999997</v>
       </c>
@@ -40353,7 +40353,7 @@
         <v>1.3595599031476224E-3</v>
       </c>
     </row>
-    <row r="239" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="239" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B239" s="16">
         <v>872.9</v>
       </c>
@@ -40377,7 +40377,7 @@
         <v>1.2364544067796079E-3</v>
       </c>
     </row>
-    <row r="240" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="240" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B240" s="16">
         <v>876.28333329999998</v>
       </c>
@@ -40401,7 +40401,7 @@
         <v>2.2023215738498636E-3</v>
       </c>
     </row>
-    <row r="241" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="241" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B241" s="16">
         <v>879.66666669999995</v>
       </c>
@@ -40425,7 +40425,7 @@
         <v>2.3688986198547313E-3</v>
       </c>
     </row>
-    <row r="242" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="242" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B242" s="16">
         <v>883.05</v>
       </c>
@@ -40449,7 +40449,7 @@
         <v>1.461219128329444E-3</v>
       </c>
     </row>
-    <row r="243" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="243" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B243" s="16">
         <v>886.43333329999996</v>
       </c>
@@ -40473,7 +40473,7 @@
         <v>2.1873578208232991E-3</v>
       </c>
     </row>
-    <row r="244" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="244" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B244" s="16">
         <v>889.81666670000004</v>
       </c>
@@ -40497,7 +40497,7 @@
         <v>2.0425963438256145E-3</v>
       </c>
     </row>
-    <row r="245" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="245" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B245" s="16">
         <v>893.2</v>
       </c>
@@ -40521,7 +40521,7 @@
         <v>2.7416024939468098E-3</v>
       </c>
     </row>
-    <row r="246" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="246" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B246" s="16">
         <v>899.96666670000002</v>
       </c>
@@ -40545,7 +40545,7 @@
         <v>2.7586184503630984E-3</v>
       </c>
     </row>
-    <row r="247" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="247" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B247" s="16">
         <v>903.35</v>
       </c>
@@ -40569,7 +40569,7 @@
         <v>2.9108844309927162E-3</v>
       </c>
     </row>
-    <row r="248" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="248" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B248" s="16">
         <v>906.73333330000003</v>
       </c>
@@ -40593,7 +40593,7 @@
         <v>2.4144001937046189E-3</v>
       </c>
     </row>
-    <row r="249" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="249" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B249" s="16">
         <v>910.1166667</v>
       </c>
@@ -40617,7 +40617,7 @@
         <v>2.1879690556901588E-3</v>
       </c>
     </row>
-    <row r="250" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="250" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B250" s="16">
         <v>916.8833333</v>
       </c>
@@ -40641,7 +40641,7 @@
         <v>3.1995184987893832E-3</v>
       </c>
     </row>
-    <row r="251" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="251" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B251" s="16">
         <v>920.26666669999997</v>
       </c>
@@ -40665,7 +40665,7 @@
         <v>2.8565005084745798E-3</v>
       </c>
     </row>
-    <row r="252" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="252" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B252" s="16">
         <v>923.65</v>
       </c>
@@ -40689,7 +40689,7 @@
         <v>2.9957942615013444E-3</v>
       </c>
     </row>
-    <row r="253" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="253" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B253" s="16">
         <v>927.03333329999998</v>
       </c>
@@ -40713,7 +40713,7 @@
         <v>3.2501631476997972E-3</v>
       </c>
     </row>
-    <row r="254" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="254" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B254" s="16">
         <v>930.41666669999995</v>
       </c>
@@ -40737,7 +40737,7 @@
         <v>3.1946292736078352E-3</v>
       </c>
     </row>
-    <row r="255" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="255" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B255" s="16">
         <v>933.8</v>
       </c>
@@ -40761,7 +40761,7 @@
         <v>2.429788910411762E-3</v>
       </c>
     </row>
-    <row r="256" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="256" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B256" s="16">
         <v>937.18333329999996</v>
       </c>
@@ -40785,7 +40785,7 @@
         <v>3.1811520096852453E-3</v>
       </c>
     </row>
-    <row r="257" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="257" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B257" s="16">
         <v>940.56666670000004</v>
       </c>
@@ -40809,7 +40809,7 @@
         <v>3.0420324939468002E-3</v>
       </c>
     </row>
-    <row r="258" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="258" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B258" s="16">
         <v>943.95</v>
       </c>
@@ -40833,7 +40833,7 @@
         <v>2.4706771428570362E-3</v>
       </c>
     </row>
-    <row r="259" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="259" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B259" s="16">
         <v>947.33333330000005</v>
       </c>
@@ -40857,7 +40857,7 @@
         <v>2.3026994915255339E-3</v>
       </c>
     </row>
-    <row r="260" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="260" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B260" s="16">
         <v>950.71666670000002</v>
       </c>
@@ -40865,23 +40865,23 @@
         <v>-1.2647447649999999E-2</v>
       </c>
       <c r="D260" s="16">
-        <f t="shared" ref="D260:D323" si="16">0.5+ABS(C260)</f>
+        <f t="shared" ref="D260:D282" si="16">0.5+ABS(C260)</f>
         <v>0.51264744765000003</v>
       </c>
       <c r="E260" s="16">
-        <f t="shared" ref="E260:E323" si="17">D260-$J$3</f>
+        <f t="shared" ref="E260:E282" si="17">D260-$J$3</f>
         <v>9.9647447650000054E-2</v>
       </c>
       <c r="F260" s="16">
-        <f t="shared" ref="F260:F323" si="18">E260/$J$3</f>
+        <f t="shared" ref="F260:F282" si="18">E260/$J$3</f>
         <v>0.24127711295399529</v>
       </c>
       <c r="G260" s="27">
-        <f t="shared" ref="G260:G323" si="19">$F$4-F260</f>
+        <f t="shared" ref="G260:G282" si="19">$F$4-F260</f>
         <v>3.125230169491483E-3</v>
       </c>
     </row>
-    <row r="261" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="261" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B261" s="16">
         <v>954.1</v>
       </c>
@@ -40905,7 +40905,7 @@
         <v>3.099654915254213E-3</v>
       </c>
     </row>
-    <row r="262" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="262" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B262" s="16">
         <v>957.48333330000003</v>
       </c>
@@ -40929,7 +40929,7 @@
         <v>2.2020203874092703E-3</v>
       </c>
     </row>
-    <row r="263" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="263" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B263" s="16">
         <v>960.8666667</v>
       </c>
@@ -40953,7 +40953,7 @@
         <v>3.5575746004842534E-3</v>
       </c>
     </row>
-    <row r="264" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="264" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B264" s="16">
         <v>964.25</v>
       </c>
@@ -40977,7 +40977,7 @@
         <v>3.5070180387409278E-3</v>
       </c>
     </row>
-    <row r="265" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="265" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B265" s="16">
         <v>967.6333333</v>
       </c>
@@ -41001,7 +41001,7 @@
         <v>3.4994030508475049E-3</v>
       </c>
     </row>
-    <row r="266" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="266" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B266" s="16">
         <v>971.01666669999997</v>
       </c>
@@ -41025,7 +41025,7 @@
         <v>3.3061801937045443E-3</v>
       </c>
     </row>
-    <row r="267" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="267" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B267" s="16">
         <v>974.4</v>
       </c>
@@ -41049,7 +41049,7 @@
         <v>3.100222808716635E-3</v>
       </c>
     </row>
-    <row r="268" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="268" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B268" s="16">
         <v>977.78333329999998</v>
       </c>
@@ -41073,7 +41073,7 @@
         <v>2.6635077966102594E-3</v>
       </c>
     </row>
-    <row r="269" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="269" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B269" s="16">
         <v>981.16666669999995</v>
       </c>
@@ -41097,7 +41097,7 @@
         <v>2.4071364891042057E-3</v>
       </c>
     </row>
-    <row r="270" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="270" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B270" s="16">
         <v>984.55</v>
       </c>
@@ -41121,7 +41121,7 @@
         <v>2.225850992736117E-3</v>
       </c>
     </row>
-    <row r="271" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="271" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B271" s="16">
         <v>987.93333329999996</v>
       </c>
@@ -41145,7 +41145,7 @@
         <v>3.2324345520582387E-3</v>
       </c>
     </row>
-    <row r="272" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="272" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B272" s="16">
         <v>998.08333330000005</v>
       </c>
@@ -41169,7 +41169,7 @@
         <v>2.326533341404452E-3</v>
       </c>
     </row>
-    <row r="273" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="273" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B273" s="16">
         <v>1001.466667</v>
       </c>
@@ -41193,7 +41193,7 @@
         <v>3.0902895883778148E-3</v>
       </c>
     </row>
-    <row r="274" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="274" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B274" s="16">
         <v>1004.85</v>
       </c>
@@ -41217,7 +41217,7 @@
         <v>3.2005255205811434E-3</v>
       </c>
     </row>
-    <row r="275" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="275" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B275" s="16">
         <v>1008.233333</v>
       </c>
@@ -41241,7 +41241,7 @@
         <v>3.245287941888525E-3</v>
       </c>
     </row>
-    <row r="276" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="276" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B276" s="16">
         <v>1011.616667</v>
       </c>
@@ -41265,7 +41265,7 @@
         <v>2.2182381355932146E-3</v>
       </c>
     </row>
-    <row r="277" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="277" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B277" s="16">
         <v>1018.383333</v>
       </c>
@@ -41289,7 +41289,7 @@
         <v>1.9523255205811663E-3</v>
       </c>
     </row>
-    <row r="278" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="278" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B278" s="16">
         <v>1021.766667</v>
       </c>
@@ -41313,7 +41313,7 @@
         <v>2.2726090072638927E-3</v>
       </c>
     </row>
-    <row r="279" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="279" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B279" s="16">
         <v>1028.5333330000001</v>
       </c>
@@ -41337,7 +41337,7 @@
         <v>3.1419159322035317E-3</v>
       </c>
     </row>
-    <row r="280" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="280" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B280" s="16">
         <v>1031.916667</v>
       </c>
@@ -41361,7 +41361,7 @@
         <v>1.7828713075061786E-3</v>
       </c>
     </row>
-    <row r="281" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="281" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B281" s="16">
         <v>1035.3</v>
       </c>
@@ -41385,7 +41385,7 @@
         <v>3.4143426634383467E-3</v>
       </c>
     </row>
-    <row r="282" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="282" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B282" s="16">
         <v>1038.6833329999999</v>
       </c>

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D54AC25-2478-4807-B573-A90B9E503326}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C185E1-21DB-4084-8279-7DF83090B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
@@ -278,7 +278,7 @@
   <numFmts count="3">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -428,7 +428,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -468,13 +468,40 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -492,37 +519,16 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -577,20 +583,16 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="pt-PT"/>
+              <a:t>F(</a:t>
+            </a:r>
+            <a:r>
               <a:rPr lang="el-GR"/>
               <a:t>Δ</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>L(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT"/>
-              <a:t>m</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>) - Carga</a:t>
+              <a:t>L) - Carga</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -715,7 +717,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$F$3:$F$15</c:f>
+              <c:f>'Carga e Descarga'!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -763,7 +765,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
+              <c:f>'Carga e Descarga'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3178,7 +3180,7 @@
             <c:spPr>
               <a:ln w="19050" cap="rnd">
                 <a:solidFill>
-                  <a:schemeClr val="accent1"/>
+                  <a:schemeClr val="accent2"/>
                 </a:solidFill>
                 <a:prstDash val="sysDot"/>
               </a:ln>
@@ -3221,7 +3223,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$D$3:$D$15</c:f>
+              <c:f>'Carga e Descarga'!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3269,7 +3271,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
+              <c:f>'Carga e Descarga'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3779,7 +3781,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$D$3:$D$15</c:f>
+              <c:f>'Carga e Descarga'!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -3827,7 +3829,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$Y$3:$Y$19</c:f>
+              <c:f>'Carga e Descarga'!$Y$4:$Y$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4300,7 +4302,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$F$3:$F$15</c:f>
+              <c:f>'Carga e Descarga'!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4348,7 +4350,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$AA$3:$AA$15</c:f>
+              <c:f>'Carga e Descarga'!$AA$4:$AA$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4740,7 +4742,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Carga e Descarga: </a:t>
+              <a:t>Carga e Descarga: F(</a:t>
             </a:r>
             <a:r>
               <a:rPr lang="el-GR" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
@@ -4752,19 +4754,7 @@
               <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
                 <a:effectLst/>
               </a:rPr>
-              <a:t>L(</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="pt-PT" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>m</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>)</a:t>
+              <a:t>L)</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -4807,9 +4797,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="0.16434737315354525"/>
-          <c:y val="0.17378178468299524"/>
+          <c:y val="0.13784818905791824"/>
           <c:w val="0.78610886123337231"/>
-          <c:h val="0.64823624113790057"/>
+          <c:h val="0.68416959303627189"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -4874,8 +4864,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.1786670188721545E-2"/>
-                  <c:y val="-4.8997466463944962E-2"/>
+                  <c:x val="5.6389747716151149E-2"/>
+                  <c:y val="-3.9031268800060546E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -4910,7 +4900,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$D$3:$D$15</c:f>
+              <c:f>'Carga e Descarga'!$D$4:$D$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4958,7 +4948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
+              <c:f>'Carga e Descarga'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5056,8 +5046,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="4.6702796884730842E-2"/>
-                  <c:y val="0.33922089945260775"/>
+                  <c:x val="3.4644095665825575E-2"/>
+                  <c:y val="0.34725305584429228"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -5092,7 +5082,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$F$3:$F$15</c:f>
+              <c:f>'Carga e Descarga'!$F$4:$F$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5140,7 +5130,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$B$3:$B$15</c:f>
+              <c:f>'Carga e Descarga'!$B$4:$B$16</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5456,6 +5446,10 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="tr"/>
+      <c:legendEntry>
+        <c:idx val="2"/>
+        <c:delete val="1"/>
+      </c:legendEntry>
       <c:layout>
         <c:manualLayout>
           <c:xMode val="edge"/>
@@ -5679,7 +5673,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$E$31:$E$43</c:f>
+              <c:f>'Carga e Descarga'!$E$32:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5727,7 +5721,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$G$31:$G$43</c:f>
+              <c:f>'Carga e Descarga'!$G$32:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5810,7 +5804,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$F$31:$F$43</c:f>
+              <c:f>'Carga e Descarga'!$F$32:$F$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5858,7 +5852,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$G$31:$G$43</c:f>
+              <c:f>'Carga e Descarga'!$G$32:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
@@ -14724,13 +14718,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>188767</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>65659</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>181840</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>3463</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14768,7 +14762,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>59378</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>12273</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14800,13 +14794,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>191364</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>125928</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>416502</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>103662</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14842,7 +14836,7 @@
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>362692</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>162792</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14874,13 +14868,13 @@
     <xdr:from>
       <xdr:col>18</xdr:col>
       <xdr:colOff>123746</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>47042</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>330574</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>51780</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14910,13 +14904,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>143977</xdr:colOff>
-      <xdr:row>30</xdr:row>
+      <xdr:row>31</xdr:row>
       <xdr:rowOff>69520</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>46</xdr:row>
       <xdr:rowOff>90054</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15471,10 +15465,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
-  <dimension ref="A1:AE44"/>
+  <dimension ref="A1:AE45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="F3" sqref="C3:F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15491,25 +15485,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="X1" s="20" t="s">
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
+      <c r="H1" s="33"/>
+      <c r="I1" s="33"/>
+      <c r="X1" s="29" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20" t="s">
+      <c r="Y1" s="29"/>
+      <c r="Z1" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="20"/>
+      <c r="AA1" s="29"/>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
@@ -15553,123 +15547,90 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="17">
-        <v>1.0240000000000001E-2</v>
-      </c>
-      <c r="B3" s="17">
-        <f>A3*9.81</f>
-        <v>0.10045440000000001</v>
-      </c>
-      <c r="C3" s="17">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="D3" s="17">
-        <f t="shared" ref="D3:D15" si="0">C3-$G$17</f>
-        <v>0</v>
-      </c>
-      <c r="E3" s="17">
-        <v>0.41699999999999998</v>
-      </c>
-      <c r="F3" s="17">
-        <f t="shared" ref="F3:F15" si="1">E3-$G$17</f>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="G3" s="4">
-        <v>3.28E-4</v>
-      </c>
-      <c r="H3" s="4">
-        <v>4.2700000000000002E-4</v>
-      </c>
-      <c r="I3" s="4">
-        <f>G3*H3</f>
-        <v>1.4005600000000002E-7</v>
-      </c>
-      <c r="X3" s="18">
-        <f>$A$19*D3^3+$B$19*D3^2+$C$19*D3+$D$19</f>
-        <v>0.11543688973114569</v>
-      </c>
-      <c r="Y3" s="18">
-        <f>B3-X3</f>
-        <v>-1.4982489731145673E-2</v>
-      </c>
-      <c r="Z3" s="18">
-        <f>$A$23*(F3^3)+$B$23*(F3^2)+$C$23*F3+$D$23</f>
-        <v>0.1138750385595301</v>
-      </c>
-      <c r="AA3" s="18">
-        <f>B3-Z3</f>
-        <v>-1.3420638559530088E-2</v>
-      </c>
+      <c r="A3" s="21"/>
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="X3" s="20"/>
+      <c r="Y3" s="20"/>
+      <c r="Z3" s="20"/>
+      <c r="AA3" s="20"/>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="17">
-        <v>2.0250000000000001E-2</v>
+        <v>1.0240000000000001E-2</v>
       </c>
       <c r="B4" s="17">
-        <f t="shared" ref="B4:B15" si="2">A4*9.81</f>
-        <v>0.19865250000000001</v>
+        <f>A4*9.81</f>
+        <v>0.10045440000000001</v>
       </c>
       <c r="C4" s="17">
-        <v>0.41899999999999998</v>
+        <v>0.41299999999999998</v>
       </c>
       <c r="D4" s="17">
-        <f t="shared" si="0"/>
-        <v>6.0000000000000053E-3</v>
+        <f t="shared" ref="D4:D16" si="0">C4-$G$18</f>
+        <v>0</v>
       </c>
       <c r="E4" s="17">
-        <v>0.42399999999999999</v>
+        <v>0.41699999999999998</v>
       </c>
       <c r="F4" s="17">
-        <f t="shared" si="1"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="5" t="s">
-        <v>4</v>
+        <f t="shared" ref="F4:F16" si="1">E4-$G$18</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="G4" s="4">
+        <v>3.28E-4</v>
+      </c>
+      <c r="H4" s="4">
+        <v>4.2700000000000002E-4</v>
+      </c>
+      <c r="I4" s="4">
+        <f>G4*H4</f>
+        <v>1.4005600000000002E-7</v>
       </c>
       <c r="X4" s="18">
-        <f>$A$19*D4^3+$B$19*D4^2+$C$19*D4+$D$19</f>
-        <v>0.19364495040707835</v>
+        <f t="shared" ref="X4:X16" si="2">$A$20*D4^3+$B$20*D4^2+$C$20*D4+$D$20</f>
+        <v>0.11543688973114569</v>
       </c>
       <c r="Y4" s="18">
-        <f t="shared" ref="Y4:Y15" si="3">B4-X4</f>
-        <v>5.0075495929216562E-3</v>
+        <f>B4-X4</f>
+        <v>-1.4982489731145673E-2</v>
       </c>
       <c r="Z4" s="18">
-        <f>$A$23*(F4^3)+$B$23*(F4^2)+$C$23*F4+$D$23</f>
-        <v>0.19434772374568215</v>
+        <f t="shared" ref="Z4:Z16" si="3">$A$24*(F4^3)+$B$24*(F4^2)+$C$24*F4+$D$24</f>
+        <v>0.1138750385595301</v>
       </c>
       <c r="AA4" s="18">
-        <f t="shared" ref="AA4:AA15" si="4">B4-Z4</f>
-        <v>4.3047762543178547E-3</v>
+        <f>B4-Z4</f>
+        <v>-1.3420638559530088E-2</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="17">
-        <v>3.0339999999999999E-2</v>
+        <v>2.0250000000000001E-2</v>
       </c>
       <c r="B5" s="17">
-        <f t="shared" si="2"/>
-        <v>0.29763539999999999</v>
+        <f t="shared" ref="B5:B16" si="4">A5*9.81</f>
+        <v>0.19865250000000001</v>
       </c>
       <c r="C5" s="17">
-        <v>0.42699999999999999</v>
+        <v>0.41899999999999998</v>
       </c>
       <c r="D5" s="17">
         <f t="shared" si="0"/>
-        <v>1.4000000000000012E-2</v>
+        <v>6.0000000000000053E-3</v>
       </c>
       <c r="E5" s="17">
-        <v>0.433</v>
+        <v>0.42399999999999999</v>
       </c>
       <c r="F5" s="17">
         <f t="shared" si="1"/>
-        <v>2.0000000000000018E-2</v>
+        <v>1.100000000000001E-2</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>4</v>
@@ -15681,43 +15642,43 @@
         <v>4</v>
       </c>
       <c r="X5" s="18">
-        <f>$A$19*D5^3+$B$19*D5^2+$C$19*D5+$D$19</f>
-        <v>0.28999942529810896</v>
+        <f t="shared" si="2"/>
+        <v>0.19364495040707835</v>
       </c>
       <c r="Y5" s="18">
+        <f t="shared" ref="Y5:Y16" si="5">B5-X5</f>
+        <v>5.0075495929216562E-3</v>
+      </c>
+      <c r="Z5" s="18">
         <f t="shared" si="3"/>
-        <v>7.6359747018910351E-3</v>
-      </c>
-      <c r="Z5" s="18">
-        <f>$A$23*(F5^3)+$B$23*(F5^2)+$C$23*F5+$D$23</f>
-        <v>0.28942658841201363</v>
+        <v>0.19434772374568215</v>
       </c>
       <c r="AA5" s="18">
-        <f t="shared" si="4"/>
-        <v>8.2088115879863643E-3</v>
+        <f t="shared" ref="AA5:AA16" si="6">B5-Z5</f>
+        <v>4.3047762543178547E-3</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="17">
-        <v>4.0489999999999998E-2</v>
+        <v>3.0339999999999999E-2</v>
       </c>
       <c r="B6" s="17">
-        <f t="shared" si="2"/>
-        <v>0.39720690000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.29763539999999999</v>
       </c>
       <c r="C6" s="17">
-        <v>0.436</v>
+        <v>0.42699999999999999</v>
       </c>
       <c r="D6" s="17">
         <f t="shared" si="0"/>
-        <v>2.300000000000002E-2</v>
+        <v>1.4000000000000012E-2</v>
       </c>
       <c r="E6" s="17">
-        <v>0.443</v>
+        <v>0.433</v>
       </c>
       <c r="F6" s="17">
         <f t="shared" si="1"/>
-        <v>3.0000000000000027E-2</v>
+        <v>2.0000000000000018E-2</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>4</v>
@@ -15729,43 +15690,43 @@
         <v>4</v>
       </c>
       <c r="X6" s="18">
-        <f>$A$19*D6^3+$B$19*D6^2+$C$19*D6+$D$19</f>
-        <v>0.38830599108672942</v>
+        <f t="shared" si="2"/>
+        <v>0.28999942529810896</v>
       </c>
       <c r="Y6" s="18">
+        <f t="shared" si="5"/>
+        <v>7.6359747018910351E-3</v>
+      </c>
+      <c r="Z6" s="18">
         <f t="shared" si="3"/>
-        <v>8.900908913270611E-3</v>
-      </c>
-      <c r="Z6" s="18">
-        <f>$A$23*(F6^3)+$B$23*(F6^2)+$C$23*F6+$D$23</f>
-        <v>0.38494431336259582</v>
+        <v>0.28942658841201363</v>
       </c>
       <c r="AA6" s="18">
-        <f t="shared" si="4"/>
-        <v>1.2262586637404205E-2</v>
+        <f t="shared" si="6"/>
+        <v>8.2088115879863643E-3</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
-        <v>5.0560000000000001E-2</v>
+        <v>4.0489999999999998E-2</v>
       </c>
       <c r="B7" s="17">
-        <f t="shared" si="2"/>
-        <v>0.49599360000000003</v>
+        <f t="shared" si="4"/>
+        <v>0.39720690000000003</v>
       </c>
       <c r="C7" s="17">
-        <v>0.44700000000000001</v>
+        <v>0.436</v>
       </c>
       <c r="D7" s="17">
         <f t="shared" si="0"/>
-        <v>3.400000000000003E-2</v>
+        <v>2.300000000000002E-2</v>
       </c>
       <c r="E7" s="17">
-        <v>0.45600000000000002</v>
+        <v>0.443</v>
       </c>
       <c r="F7" s="17">
         <f t="shared" si="1"/>
-        <v>4.3000000000000038E-2</v>
+        <v>3.0000000000000027E-2</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>4</v>
@@ -15777,43 +15738,43 @@
         <v>4</v>
       </c>
       <c r="X7" s="18">
-        <f>$A$19*D7^3+$B$19*D7^2+$C$19*D7+$D$19</f>
-        <v>0.49522653182815812</v>
+        <f t="shared" si="2"/>
+        <v>0.38830599108672942</v>
       </c>
       <c r="Y7" s="18">
+        <f t="shared" si="5"/>
+        <v>8.900908913270611E-3</v>
+      </c>
+      <c r="Z7" s="18">
         <f t="shared" si="3"/>
-        <v>7.6706817184191145E-4</v>
-      </c>
-      <c r="Z7" s="18">
-        <f>$A$23*(F7^3)+$B$23*(F7^2)+$C$23*F7+$D$23</f>
-        <v>0.4950025994997459</v>
+        <v>0.38494431336259582</v>
       </c>
       <c r="AA7" s="18">
-        <f t="shared" si="4"/>
-        <v>9.9100050025413555E-4</v>
+        <f t="shared" si="6"/>
+        <v>1.2262586637404205E-2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="17">
-        <v>6.0609999999999997E-2</v>
+        <v>5.0560000000000001E-2</v>
       </c>
       <c r="B8" s="17">
-        <f t="shared" si="2"/>
-        <v>0.59458409999999995</v>
+        <f t="shared" si="4"/>
+        <v>0.49599360000000003</v>
       </c>
       <c r="C8" s="17">
-        <v>0.45800000000000002</v>
+        <v>0.44700000000000001</v>
       </c>
       <c r="D8" s="17">
         <f t="shared" si="0"/>
-        <v>4.500000000000004E-2</v>
+        <v>3.400000000000003E-2</v>
       </c>
       <c r="E8" s="17">
-        <v>0.47</v>
+        <v>0.45600000000000002</v>
       </c>
       <c r="F8" s="17">
         <f t="shared" si="1"/>
-        <v>5.6999999999999995E-2</v>
+        <v>4.3000000000000038E-2</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>4</v>
@@ -15825,43 +15786,43 @@
         <v>4</v>
       </c>
       <c r="X8" s="18">
-        <f>$A$19*D8^3+$B$19*D8^2+$C$19*D8+$D$19</f>
-        <v>0.58915051373090188</v>
+        <f t="shared" si="2"/>
+        <v>0.49522653182815812</v>
       </c>
       <c r="Y8" s="18">
+        <f t="shared" si="5"/>
+        <v>7.6706817184191145E-4</v>
+      </c>
+      <c r="Z8" s="18">
         <f t="shared" si="3"/>
-        <v>5.4335862690980674E-3</v>
-      </c>
-      <c r="Z8" s="18">
-        <f>$A$23*(F8^3)+$B$23*(F8^2)+$C$23*F8+$D$23</f>
-        <v>0.59834250902307207</v>
+        <v>0.4950025994997459</v>
       </c>
       <c r="AA8" s="18">
-        <f t="shared" si="4"/>
-        <v>-3.7584090230721179E-3</v>
+        <f t="shared" si="6"/>
+        <v>9.9100050025413555E-4</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="17">
-        <v>7.0650000000000004E-2</v>
+        <v>6.0609999999999997E-2</v>
       </c>
       <c r="B9" s="17">
-        <f t="shared" si="2"/>
-        <v>0.6930765000000001</v>
+        <f t="shared" si="4"/>
+        <v>0.59458409999999995</v>
       </c>
       <c r="C9" s="17">
-        <v>0.47299999999999998</v>
+        <v>0.45800000000000002</v>
       </c>
       <c r="D9" s="17">
         <f t="shared" si="0"/>
-        <v>0.06</v>
+        <v>4.500000000000004E-2</v>
       </c>
       <c r="E9" s="17">
-        <v>0.48699999999999999</v>
+        <v>0.47</v>
       </c>
       <c r="F9" s="17">
         <f t="shared" si="1"/>
-        <v>7.400000000000001E-2</v>
+        <v>5.6999999999999995E-2</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>4</v>
@@ -15873,43 +15834,43 @@
         <v>4</v>
       </c>
       <c r="X9" s="18">
-        <f>$A$19*D9^3+$B$19*D9^2+$C$19*D9+$D$19</f>
-        <v>0.69928167827754861</v>
+        <f t="shared" si="2"/>
+        <v>0.58915051373090188</v>
       </c>
       <c r="Y9" s="18">
+        <f t="shared" si="5"/>
+        <v>5.4335862690980674E-3</v>
+      </c>
+      <c r="Z9" s="18">
         <f t="shared" si="3"/>
-        <v>-6.2051782775485176E-3</v>
-      </c>
-      <c r="Z9" s="18">
-        <f>$A$23*(F9^3)+$B$23*(F9^2)+$C$23*F9+$D$23</f>
-        <v>0.7070664921675025</v>
+        <v>0.59834250902307207</v>
       </c>
       <c r="AA9" s="18">
-        <f t="shared" si="4"/>
-        <v>-1.3989992167502407E-2</v>
+        <f t="shared" si="6"/>
+        <v>-3.7584090230721179E-3</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="17">
-        <v>8.0750000000000002E-2</v>
+        <v>7.0650000000000004E-2</v>
       </c>
       <c r="B10" s="17">
-        <f t="shared" si="2"/>
-        <v>0.79215750000000007</v>
+        <f t="shared" si="4"/>
+        <v>0.6930765000000001</v>
       </c>
       <c r="C10" s="17">
-        <v>0.49</v>
+        <v>0.47299999999999998</v>
       </c>
       <c r="D10" s="17">
         <f t="shared" si="0"/>
-        <v>7.7000000000000013E-2</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="17">
-        <v>0.504</v>
+        <v>0.48699999999999999</v>
       </c>
       <c r="F10" s="17">
         <f t="shared" si="1"/>
-        <v>9.1000000000000025E-2</v>
+        <v>7.400000000000001E-2</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>4</v>
@@ -15921,43 +15882,43 @@
         <v>4</v>
       </c>
       <c r="X10" s="18">
-        <f>$A$19*D10^3+$B$19*D10^2+$C$19*D10+$D$19</f>
-        <v>0.80392300115051696</v>
+        <f t="shared" si="2"/>
+        <v>0.69928167827754861</v>
       </c>
       <c r="Y10" s="18">
+        <f t="shared" si="5"/>
+        <v>-6.2051782775485176E-3</v>
+      </c>
+      <c r="Z10" s="18">
         <f t="shared" si="3"/>
-        <v>-1.1765501150516888E-2</v>
-      </c>
-      <c r="Z10" s="18">
-        <f>$A$23*(F10^3)+$B$23*(F10^2)+$C$23*F10+$D$23</f>
-        <v>0.80268431952747932</v>
+        <v>0.7070664921675025</v>
       </c>
       <c r="AA10" s="18">
-        <f t="shared" si="4"/>
-        <v>-1.0526819527479248E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.3989992167502407E-2</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="17">
-        <v>9.0929999999999997E-2</v>
+        <v>8.0750000000000002E-2</v>
       </c>
       <c r="B11" s="17">
-        <f t="shared" si="2"/>
-        <v>0.89202329999999996</v>
+        <f t="shared" si="4"/>
+        <v>0.79215750000000007</v>
       </c>
       <c r="C11" s="17">
-        <v>0.50700000000000001</v>
+        <v>0.49</v>
       </c>
       <c r="D11" s="17">
         <f t="shared" si="0"/>
-        <v>9.4000000000000028E-2</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="E11" s="17">
-        <v>0.51900000000000002</v>
+        <v>0.504</v>
       </c>
       <c r="F11" s="17">
         <f t="shared" si="1"/>
-        <v>0.10600000000000004</v>
+        <v>9.1000000000000025E-2</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>4</v>
@@ -15969,43 +15930,43 @@
         <v>4</v>
       </c>
       <c r="X11" s="18">
-        <f>$A$19*D11^3+$B$19*D11^2+$C$19*D11+$D$19</f>
-        <v>0.89301343109781373</v>
+        <f t="shared" si="2"/>
+        <v>0.80392300115051696</v>
       </c>
       <c r="Y11" s="18">
+        <f t="shared" si="5"/>
+        <v>-1.1765501150516888E-2</v>
+      </c>
+      <c r="Z11" s="18">
         <f t="shared" si="3"/>
-        <v>-9.901310978137623E-4</v>
-      </c>
-      <c r="Z11" s="18">
-        <f>$A$23*(F11^3)+$B$23*(F11^2)+$C$23*F11+$D$23</f>
-        <v>0.88064171190349305</v>
+        <v>0.80268431952747932</v>
       </c>
       <c r="AA11" s="18">
-        <f t="shared" si="4"/>
-        <v>1.1381588096506912E-2</v>
+        <f t="shared" si="6"/>
+        <v>-1.0526819527479248E-2</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="17">
-        <v>0.10097</v>
+        <v>9.0929999999999997E-2</v>
       </c>
       <c r="B12" s="17">
-        <f t="shared" si="2"/>
-        <v>0.99051570000000011</v>
+        <f t="shared" si="4"/>
+        <v>0.89202329999999996</v>
       </c>
       <c r="C12" s="17">
-        <v>0.52900000000000003</v>
+        <v>0.50700000000000001</v>
       </c>
       <c r="D12" s="17">
         <f t="shared" si="0"/>
-        <v>0.11600000000000005</v>
+        <v>9.4000000000000028E-2</v>
       </c>
       <c r="E12" s="17">
-        <v>0.53900000000000003</v>
+        <v>0.51900000000000002</v>
       </c>
       <c r="F12" s="17">
         <f t="shared" si="1"/>
-        <v>0.12600000000000006</v>
+        <v>0.10600000000000004</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>4</v>
@@ -16017,43 +15978,43 @@
         <v>4</v>
       </c>
       <c r="X12" s="18">
-        <f>$A$19*D12^3+$B$19*D12^2+$C$19*D12+$D$19</f>
-        <v>0.99520484458816205</v>
+        <f t="shared" si="2"/>
+        <v>0.89301343109781373</v>
       </c>
       <c r="Y12" s="18">
+        <f t="shared" si="5"/>
+        <v>-9.901310978137623E-4</v>
+      </c>
+      <c r="Z12" s="18">
         <f t="shared" si="3"/>
-        <v>-4.689144588161942E-3</v>
-      </c>
-      <c r="Z12" s="18">
-        <f>$A$23*(F12^3)+$B$23*(F12^2)+$C$23*F12+$D$23</f>
-        <v>0.98215719604090768</v>
+        <v>0.88064171190349305</v>
       </c>
       <c r="AA12" s="18">
-        <f t="shared" si="4"/>
-        <v>8.3585039590924337E-3</v>
+        <f t="shared" si="6"/>
+        <v>1.1381588096506912E-2</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="17">
-        <v>0.11103</v>
+        <v>0.10097</v>
       </c>
       <c r="B13" s="17">
-        <f t="shared" si="2"/>
-        <v>1.0892043</v>
+        <f t="shared" si="4"/>
+        <v>0.99051570000000011</v>
       </c>
       <c r="C13" s="17">
-        <v>0.54700000000000004</v>
+        <v>0.52900000000000003</v>
       </c>
       <c r="D13" s="17">
         <f t="shared" si="0"/>
-        <v>0.13400000000000006</v>
+        <v>0.11600000000000005</v>
       </c>
       <c r="E13" s="17">
-        <v>0.55900000000000005</v>
+        <v>0.53900000000000003</v>
       </c>
       <c r="F13" s="17">
         <f t="shared" si="1"/>
-        <v>0.14600000000000007</v>
+        <v>0.12600000000000006</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>4</v>
@@ -16065,43 +16026,43 @@
         <v>4</v>
       </c>
       <c r="X13" s="18">
-        <f>$A$19*D13^3+$B$19*D13^2+$C$19*D13+$D$19</f>
-        <v>1.0763474259512305</v>
+        <f t="shared" si="2"/>
+        <v>0.99520484458816205</v>
       </c>
       <c r="Y13" s="18">
+        <f t="shared" si="5"/>
+        <v>-4.689144588161942E-3</v>
+      </c>
+      <c r="Z13" s="18">
         <f t="shared" si="3"/>
-        <v>1.2856874048769562E-2</v>
-      </c>
-      <c r="Z13" s="18">
-        <f>$A$23*(F13^3)+$B$23*(F13^2)+$C$23*F13+$D$23</f>
-        <v>1.089265503901349</v>
+        <v>0.98215719604090768</v>
       </c>
       <c r="AA13" s="18">
-        <f t="shared" si="4"/>
-        <v>-6.1203901349005108E-5</v>
+        <f t="shared" si="6"/>
+        <v>8.3585039590924337E-3</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="17">
-        <v>0.12107999999999999</v>
+        <v>0.11103</v>
       </c>
       <c r="B14" s="17">
-        <f t="shared" si="2"/>
-        <v>1.1877948</v>
+        <f t="shared" si="4"/>
+        <v>1.0892043</v>
       </c>
       <c r="C14" s="17">
-        <v>0.56899999999999995</v>
+        <v>0.54700000000000004</v>
       </c>
       <c r="D14" s="17">
         <f t="shared" si="0"/>
-        <v>0.15599999999999997</v>
+        <v>0.13400000000000006</v>
       </c>
       <c r="E14" s="17">
-        <v>0.57599999999999996</v>
+        <v>0.55900000000000005</v>
       </c>
       <c r="F14" s="17">
         <f t="shared" si="1"/>
-        <v>0.16299999999999998</v>
+        <v>0.14600000000000007</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>4</v>
@@ -16113,725 +16074,773 @@
         <v>4</v>
       </c>
       <c r="X14" s="18">
-        <f>$A$19*D14^3+$B$19*D14^2+$C$19*D14+$D$19</f>
-        <v>1.1838395452102002</v>
+        <f t="shared" si="2"/>
+        <v>1.0763474259512305</v>
       </c>
       <c r="Y14" s="18">
+        <f t="shared" si="5"/>
+        <v>1.2856874048769562E-2</v>
+      </c>
+      <c r="Z14" s="18">
         <f t="shared" si="3"/>
-        <v>3.9552547897998558E-3</v>
-      </c>
-      <c r="Z14" s="18">
-        <f>$A$23*(F14^3)+$B$23*(F14^2)+$C$23*F14+$D$23</f>
-        <v>1.1915229778502316</v>
+        <v>1.089265503901349</v>
       </c>
       <c r="AA14" s="18">
-        <f t="shared" si="4"/>
-        <v>-3.7281778502316065E-3</v>
+        <f t="shared" si="6"/>
+        <v>-6.1203901349005108E-5</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="17">
-        <v>0.13125999999999999</v>
+        <v>0.12107999999999999</v>
       </c>
       <c r="B15" s="17">
-        <f t="shared" si="2"/>
-        <v>1.2876605999999999</v>
+        <f t="shared" si="4"/>
+        <v>1.1877948</v>
       </c>
       <c r="C15" s="17">
-        <v>0.58799999999999997</v>
+        <v>0.56899999999999995</v>
       </c>
       <c r="D15" s="17">
         <f t="shared" si="0"/>
-        <v>0.17499999999999999</v>
+        <v>0.15599999999999997</v>
       </c>
       <c r="E15" s="17">
-        <v>0.59</v>
+        <v>0.57599999999999996</v>
       </c>
       <c r="F15" s="17">
         <f t="shared" si="1"/>
+        <v>0.16299999999999998</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="I15" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="X15" s="18">
+        <f t="shared" si="2"/>
+        <v>1.1838395452102002</v>
+      </c>
+      <c r="Y15" s="18">
+        <f t="shared" si="5"/>
+        <v>3.9552547897998558E-3</v>
+      </c>
+      <c r="Z15" s="18">
+        <f t="shared" si="3"/>
+        <v>1.1915229778502316</v>
+      </c>
+      <c r="AA15" s="18">
+        <f t="shared" si="6"/>
+        <v>-3.7281778502316065E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>0.13125999999999999</v>
+      </c>
+      <c r="B16" s="17">
+        <f t="shared" si="4"/>
+        <v>1.2876605999999999</v>
+      </c>
+      <c r="C16" s="17">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="D16" s="17">
+        <f t="shared" si="0"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="F16" s="17">
+        <f t="shared" si="1"/>
         <v>0.17699999999999999</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G16" s="4">
         <v>2.24E-4</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H16" s="4">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="I15" s="4">
-        <f>G15*H15</f>
+      <c r="I16" s="4">
+        <f>G16*H16</f>
         <v>9.2512000000000001E-8</v>
       </c>
-      <c r="X15" s="18">
-        <f>$A$19*D15^3+$B$19*D15^2+$C$19*D15+$D$19</f>
+      <c r="X16" s="18">
+        <f t="shared" si="2"/>
         <v>1.2935853716424059</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Y16" s="18">
+        <f t="shared" si="5"/>
+        <v>-5.9247716424060126E-3</v>
+      </c>
+      <c r="Z16" s="18">
         <f t="shared" si="3"/>
-        <v>-5.9247716424060126E-3</v>
-      </c>
-      <c r="Z15" s="18">
-        <f>$A$23*(F15^3)+$B$23*(F15^2)+$C$23*F15+$D$23</f>
         <v>1.287682626006394</v>
       </c>
-      <c r="AA15" s="18">
-        <f t="shared" si="4"/>
+      <c r="AA16" s="18">
+        <f t="shared" si="6"/>
         <v>-2.2026006394115782E-5</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>44</v>
-      </c>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="35"/>
-      <c r="F17" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="G17" s="28">
-        <f>C3</f>
-        <v>0.41299999999999998</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="19" t="s">
-        <v>20</v>
-      </c>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
+      <c r="A18" s="34" t="s">
+        <v>44</v>
+      </c>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="G18" s="22">
+        <f>C4</f>
+        <v>0.41299999999999998</v>
+      </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="4">
-        <f t="array" ref="A19:D19">LINEST(B3:B15,D3:D15^{1,2,3},TRUE,TRUE)</f>
-        <v>207.75294223761728</v>
-      </c>
-      <c r="B19" s="4">
-        <v>-74.895588697844104</v>
-      </c>
-      <c r="C19" s="4">
-        <v>13.476571205588607</v>
-      </c>
-      <c r="D19" s="4">
-        <v>0.11543688973114569</v>
-      </c>
-      <c r="F19" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>24</v>
-      </c>
+      <c r="A19" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F20" s="4">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="G20" s="4">
-        <f>I3</f>
-        <v>1.4005600000000002E-7</v>
+      <c r="A20" s="4">
+        <f t="array" ref="A20:D20">LINEST(B4:B16,D4:D16^{1,2,3},TRUE,TRUE)</f>
+        <v>207.75294223761728</v>
+      </c>
+      <c r="B20" s="4">
+        <v>-74.895588697844104</v>
+      </c>
+      <c r="C20" s="4">
+        <v>13.476571205588607</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.11543688973114569</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="3" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
       <c r="F21" s="4">
-        <f>D15</f>
-        <v>0.17499999999999999</v>
+        <f>D4</f>
+        <v>0</v>
       </c>
       <c r="G21" s="4">
-        <f>I15</f>
-        <v>9.2512000000000001E-8</v>
+        <f>I4</f>
+        <v>1.4005600000000002E-7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C22" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D22" s="19" t="s">
-        <v>20</v>
+      <c r="A22" s="34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="F22" s="4">
+        <f>D16</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G22" s="4">
+        <f>I16</f>
+        <v>9.2512000000000001E-8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="4">
-        <f t="array" ref="A23:D23">LINEST(B3:B15,F3:F15^{1,2,3},TRUE,TRUE)</f>
+      <c r="A23" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A24" s="4">
+        <f t="array" ref="A24:D24">LINEST(B4:B16,F4:F16^{1,2,3},TRUE,TRUE)</f>
         <v>190.1669209069772</v>
       </c>
-      <c r="B23" s="4">
+      <c r="B24" s="4">
         <v>-64.892066449053743</v>
       </c>
-      <c r="C23" s="4">
+      <c r="C24" s="4">
         <v>12.435058667787642</v>
       </c>
-      <c r="D23" s="4">
+      <c r="D24" s="4">
         <v>6.5160906268626306E-2</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B25" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C25" s="21"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="31" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26" s="4">
-        <f t="array" ref="B26:C28">LINEST(G20:G21,F20:F21,TRUE,TRUE)</f>
-        <v>-2.7168000000000022E-7</v>
-      </c>
-      <c r="C26" s="4">
-        <v>1.4005600000000002E-7</v>
-      </c>
-      <c r="D26" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E26" s="21"/>
+      <c r="B26" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="31" t="s">
+      <c r="A27" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4">
+        <f t="array" ref="B27:C29">LINEST(G21:G22,F21:F22,TRUE,TRUE)</f>
+        <v>-2.7168000000000022E-7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.4005600000000002E-7</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E27" s="30"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="25" t="s">
         <v>29</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B28" s="4">
         <v>0</v>
-      </c>
-      <c r="C27" s="4">
-        <v>0</v>
-      </c>
-      <c r="D27" s="22" t="s">
-        <v>28</v>
-      </c>
-      <c r="E27" s="21"/>
-    </row>
-    <row r="28" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A28" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B28" s="4">
-        <v>1</v>
       </c>
       <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="D28" s="22" t="s">
+      <c r="D28" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="E28" s="30"/>
+    </row>
+    <row r="29" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
+      </c>
+      <c r="D29" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E28" s="21"/>
+      <c r="E29" s="30"/>
     </row>
-    <row r="30" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="31" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="B30" s="13" t="s">
+      <c r="B31" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D30" s="13" t="s">
+      <c r="D31" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E31" s="14" t="s">
         <v>39</v>
       </c>
-      <c r="F30" s="12" t="s">
+      <c r="F31" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G30" s="13" t="s">
+      <c r="G31" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="H30" s="13" t="s">
+      <c r="H31" s="13" t="s">
         <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A31" s="32">
-        <f>B3</f>
-        <v>0.10045440000000001</v>
-      </c>
-      <c r="B31" s="32">
-        <f>D3</f>
-        <v>0</v>
-      </c>
-      <c r="C31" s="32">
-        <f>F3</f>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="D31" s="28">
-        <f>$B$26*D3+$C$26</f>
-        <v>1.4005600000000002E-7</v>
-      </c>
-      <c r="E31" s="32">
-        <f>D3/$G$17</f>
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <f>F3/$G$17</f>
-        <v>9.6852300242130842E-3</v>
-      </c>
-      <c r="G31" s="28">
-        <f>A31/D31</f>
-        <v>717244.5307591249</v>
-      </c>
-      <c r="H31" s="16" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="32">
-        <f>B4</f>
-        <v>0.19865250000000001</v>
-      </c>
-      <c r="B32" s="32">
-        <f>D4</f>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="C32" s="32">
-        <f>F4</f>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="D32" s="28">
-        <f>$B$26*D4+$C$26</f>
-        <v>1.3842592000000003E-7</v>
-      </c>
-      <c r="E32" s="32">
-        <f>D4/$G$17</f>
-        <v>1.4527845036319625E-2</v>
+      <c r="A32" s="26">
+        <f t="shared" ref="A32:A44" si="7">B4</f>
+        <v>0.10045440000000001</v>
+      </c>
+      <c r="B32" s="26">
+        <f t="shared" ref="B32:B44" si="8">D4</f>
+        <v>0</v>
+      </c>
+      <c r="C32" s="26">
+        <f t="shared" ref="C32:C44" si="9">F4</f>
+        <v>4.0000000000000036E-3</v>
+      </c>
+      <c r="D32" s="22">
+        <f t="shared" ref="D32:D44" si="10">$B$27*D4+$C$27</f>
+        <v>1.4005600000000002E-7</v>
+      </c>
+      <c r="E32" s="26">
+        <f t="shared" ref="E32:E44" si="11">D4/$G$18</f>
+        <v>0</v>
       </c>
       <c r="F32" s="17">
-        <f>F4/$G$17</f>
-        <v>2.6634382566585981E-2</v>
-      </c>
-      <c r="G32" s="28">
-        <f t="shared" ref="G32:G43" si="5">A32/D32</f>
-        <v>1435081.6667861047</v>
-      </c>
-      <c r="H32" s="28">
-        <f>G32/F32</f>
-        <v>53880793.489332788</v>
+        <f t="shared" ref="F32:F44" si="12">F4/$G$18</f>
+        <v>9.6852300242130842E-3</v>
+      </c>
+      <c r="G32" s="22">
+        <f>A32/D32</f>
+        <v>717244.5307591249</v>
+      </c>
+      <c r="H32" s="16" t="s">
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="32">
-        <f>B5</f>
-        <v>0.29763539999999999</v>
-      </c>
-      <c r="B33" s="32">
-        <f>D5</f>
-        <v>1.4000000000000012E-2</v>
-      </c>
-      <c r="C33" s="32">
-        <f>F5</f>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="D33" s="28">
-        <f>$B$26*D5+$C$26</f>
-        <v>1.3625248000000002E-7</v>
-      </c>
-      <c r="E33" s="32">
-        <f>D5/$G$17</f>
-        <v>3.3898305084745797E-2</v>
+      <c r="A33" s="26">
+        <f t="shared" si="7"/>
+        <v>0.19865250000000001</v>
+      </c>
+      <c r="B33" s="26">
+        <f t="shared" si="8"/>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="C33" s="26">
+        <f t="shared" si="9"/>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="D33" s="22">
+        <f t="shared" si="10"/>
+        <v>1.3842592000000003E-7</v>
+      </c>
+      <c r="E33" s="26">
+        <f t="shared" si="11"/>
+        <v>1.4527845036319625E-2</v>
       </c>
       <c r="F33" s="17">
-        <f>F5/$G$17</f>
-        <v>4.8426150121065423E-2</v>
-      </c>
-      <c r="G33" s="28">
-        <f t="shared" si="5"/>
-        <v>2184440.2391794994</v>
-      </c>
-      <c r="H33" s="28">
-        <f t="shared" ref="H33:H43" si="6">G33/E33</f>
-        <v>64440987.05579517</v>
+        <f t="shared" si="12"/>
+        <v>2.6634382566585981E-2</v>
+      </c>
+      <c r="G33" s="22">
+        <f t="shared" ref="G33:G44" si="13">A33/D33</f>
+        <v>1435081.6667861047</v>
+      </c>
+      <c r="H33" s="22">
+        <f>G33/F33</f>
+        <v>53880793.489332788</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="32">
-        <f>B6</f>
-        <v>0.39720690000000003</v>
-      </c>
-      <c r="B34" s="32">
-        <f>D6</f>
-        <v>2.300000000000002E-2</v>
-      </c>
-      <c r="C34" s="32">
-        <f>F6</f>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="D34" s="28">
-        <f>$B$26*D6+$C$26</f>
-        <v>1.3380736000000001E-7</v>
-      </c>
-      <c r="E34" s="32">
-        <f>D6/$G$17</f>
-        <v>5.5690072639225235E-2</v>
+      <c r="A34" s="26">
+        <f t="shared" si="7"/>
+        <v>0.29763539999999999</v>
+      </c>
+      <c r="B34" s="26">
+        <f t="shared" si="8"/>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="C34" s="26">
+        <f t="shared" si="9"/>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D34" s="22">
+        <f t="shared" si="10"/>
+        <v>1.3625248000000002E-7</v>
+      </c>
+      <c r="E34" s="26">
+        <f t="shared" si="11"/>
+        <v>3.3898305084745797E-2</v>
       </c>
       <c r="F34" s="17">
-        <f>F6/$G$17</f>
-        <v>7.2639225181598127E-2</v>
-      </c>
-      <c r="G34" s="28">
-        <f t="shared" si="5"/>
-        <v>2968498.1453934968</v>
-      </c>
-      <c r="H34" s="28">
-        <f t="shared" si="6"/>
-        <v>53303901.480326653</v>
+        <f t="shared" si="12"/>
+        <v>4.8426150121065423E-2</v>
+      </c>
+      <c r="G34" s="22">
+        <f t="shared" si="13"/>
+        <v>2184440.2391794994</v>
+      </c>
+      <c r="H34" s="22">
+        <f t="shared" ref="H34:H44" si="14">G34/E34</f>
+        <v>64440987.05579517</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="32">
-        <f>B7</f>
-        <v>0.49599360000000003</v>
-      </c>
-      <c r="B35" s="32">
-        <f>D7</f>
-        <v>3.400000000000003E-2</v>
-      </c>
-      <c r="C35" s="32">
-        <f>F7</f>
-        <v>4.3000000000000038E-2</v>
-      </c>
-      <c r="D35" s="28">
-        <f>$B$26*D7+$C$26</f>
-        <v>1.3081888000000002E-7</v>
-      </c>
-      <c r="E35" s="32">
-        <f>D7/$G$17</f>
-        <v>8.232445520581122E-2</v>
+      <c r="A35" s="26">
+        <f t="shared" si="7"/>
+        <v>0.39720690000000003</v>
+      </c>
+      <c r="B35" s="26">
+        <f t="shared" si="8"/>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="C35" s="26">
+        <f t="shared" si="9"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D35" s="22">
+        <f t="shared" si="10"/>
+        <v>1.3380736000000001E-7</v>
+      </c>
+      <c r="E35" s="26">
+        <f t="shared" si="11"/>
+        <v>5.5690072639225235E-2</v>
       </c>
       <c r="F35" s="17">
-        <f>F7/$G$17</f>
-        <v>0.10411622276029066</v>
-      </c>
-      <c r="G35" s="28">
-        <f t="shared" si="5"/>
-        <v>3791452.7322050147</v>
-      </c>
-      <c r="H35" s="28">
-        <f t="shared" si="6"/>
-        <v>46054999.364725575</v>
+        <f t="shared" si="12"/>
+        <v>7.2639225181598127E-2</v>
+      </c>
+      <c r="G35" s="22">
+        <f t="shared" si="13"/>
+        <v>2968498.1453934968</v>
+      </c>
+      <c r="H35" s="22">
+        <f t="shared" si="14"/>
+        <v>53303901.480326653</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="32">
-        <f>B8</f>
-        <v>0.59458409999999995</v>
-      </c>
-      <c r="B36" s="32">
-        <f>D8</f>
-        <v>4.500000000000004E-2</v>
-      </c>
-      <c r="C36" s="32">
-        <f>F8</f>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="D36" s="28">
-        <f>$B$26*D8+$C$26</f>
-        <v>1.278304E-7</v>
-      </c>
-      <c r="E36" s="32">
-        <f>D8/$G$17</f>
-        <v>0.10895883777239719</v>
+      <c r="A36" s="26">
+        <f t="shared" si="7"/>
+        <v>0.49599360000000003</v>
+      </c>
+      <c r="B36" s="26">
+        <f t="shared" si="8"/>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="C36" s="26">
+        <f t="shared" si="9"/>
+        <v>4.3000000000000038E-2</v>
+      </c>
+      <c r="D36" s="22">
+        <f t="shared" si="10"/>
+        <v>1.3081888000000002E-7</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" si="11"/>
+        <v>8.232445520581122E-2</v>
       </c>
       <c r="F36" s="17">
-        <f>F8/$G$17</f>
-        <v>0.13801452784503632</v>
-      </c>
-      <c r="G36" s="28">
-        <f t="shared" si="5"/>
-        <v>4651351.3217513198</v>
-      </c>
-      <c r="H36" s="28">
-        <f t="shared" si="6"/>
-        <v>42689068.797406517</v>
+        <f t="shared" si="12"/>
+        <v>0.10411622276029066</v>
+      </c>
+      <c r="G36" s="22">
+        <f t="shared" si="13"/>
+        <v>3791452.7322050147</v>
+      </c>
+      <c r="H36" s="22">
+        <f t="shared" si="14"/>
+        <v>46054999.364725575</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="32">
-        <f>B9</f>
-        <v>0.6930765000000001</v>
-      </c>
-      <c r="B37" s="32">
-        <f>D9</f>
-        <v>0.06</v>
-      </c>
-      <c r="C37" s="32">
-        <f>F9</f>
-        <v>7.400000000000001E-2</v>
-      </c>
-      <c r="D37" s="28">
-        <f>$B$26*D9+$C$26</f>
-        <v>1.237552E-7</v>
-      </c>
-      <c r="E37" s="32">
-        <f>D9/$G$17</f>
-        <v>0.14527845036319612</v>
+      <c r="A37" s="26">
+        <f t="shared" si="7"/>
+        <v>0.59458409999999995</v>
+      </c>
+      <c r="B37" s="26">
+        <f t="shared" si="8"/>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="C37" s="26">
+        <f t="shared" si="9"/>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="D37" s="22">
+        <f t="shared" si="10"/>
+        <v>1.278304E-7</v>
+      </c>
+      <c r="E37" s="26">
+        <f t="shared" si="11"/>
+        <v>0.10895883777239719</v>
       </c>
       <c r="F37" s="17">
-        <f>F9/$G$17</f>
-        <v>0.17917675544794193</v>
-      </c>
-      <c r="G37" s="28">
-        <f t="shared" si="5"/>
-        <v>5600382.8525993265</v>
-      </c>
-      <c r="H37" s="28">
-        <f t="shared" si="6"/>
-        <v>38549301.968725368</v>
+        <f t="shared" si="12"/>
+        <v>0.13801452784503632</v>
+      </c>
+      <c r="G37" s="22">
+        <f t="shared" si="13"/>
+        <v>4651351.3217513198</v>
+      </c>
+      <c r="H37" s="22">
+        <f t="shared" si="14"/>
+        <v>42689068.797406517</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="32">
-        <f>B10</f>
-        <v>0.79215750000000007</v>
-      </c>
-      <c r="B38" s="32">
-        <f>D10</f>
-        <v>7.7000000000000013E-2</v>
-      </c>
-      <c r="C38" s="32">
-        <f>F10</f>
-        <v>9.1000000000000025E-2</v>
-      </c>
-      <c r="D38" s="28">
-        <f>$B$26*D10+$C$26</f>
-        <v>1.1913664000000001E-7</v>
-      </c>
-      <c r="E38" s="32">
-        <f>D10/$G$17</f>
-        <v>0.18644067796610173</v>
+      <c r="A38" s="26">
+        <f t="shared" si="7"/>
+        <v>0.6930765000000001</v>
+      </c>
+      <c r="B38" s="26">
+        <f t="shared" si="8"/>
+        <v>0.06</v>
+      </c>
+      <c r="C38" s="26">
+        <f t="shared" si="9"/>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="D38" s="22">
+        <f t="shared" si="10"/>
+        <v>1.237552E-7</v>
+      </c>
+      <c r="E38" s="26">
+        <f t="shared" si="11"/>
+        <v>0.14527845036319612</v>
       </c>
       <c r="F38" s="17">
-        <f>F10/$G$17</f>
-        <v>0.22033898305084754</v>
-      </c>
-      <c r="G38" s="28">
-        <f t="shared" si="5"/>
-        <v>6649150.9245182676</v>
-      </c>
-      <c r="H38" s="28">
-        <f t="shared" si="6"/>
-        <v>35663627.686052524</v>
+        <f t="shared" si="12"/>
+        <v>0.17917675544794193</v>
+      </c>
+      <c r="G38" s="22">
+        <f t="shared" si="13"/>
+        <v>5600382.8525993265</v>
+      </c>
+      <c r="H38" s="22">
+        <f t="shared" si="14"/>
+        <v>38549301.968725368</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="32">
-        <f>B11</f>
-        <v>0.89202329999999996</v>
-      </c>
-      <c r="B39" s="32">
-        <f>D11</f>
-        <v>9.4000000000000028E-2</v>
-      </c>
-      <c r="C39" s="32">
-        <f>F11</f>
-        <v>0.10600000000000004</v>
-      </c>
-      <c r="D39" s="28">
-        <f>$B$26*D11+$C$26</f>
-        <v>1.1451807999999999E-7</v>
-      </c>
-      <c r="E39" s="32">
-        <f>D11/$G$17</f>
-        <v>0.22760290556900734</v>
+      <c r="A39" s="26">
+        <f t="shared" si="7"/>
+        <v>0.79215750000000007</v>
+      </c>
+      <c r="B39" s="26">
+        <f t="shared" si="8"/>
+        <v>7.7000000000000013E-2</v>
+      </c>
+      <c r="C39" s="26">
+        <f t="shared" si="9"/>
+        <v>9.1000000000000025E-2</v>
+      </c>
+      <c r="D39" s="22">
+        <f t="shared" si="10"/>
+        <v>1.1913664000000001E-7</v>
+      </c>
+      <c r="E39" s="26">
+        <f t="shared" si="11"/>
+        <v>0.18644067796610173</v>
       </c>
       <c r="F39" s="17">
-        <f>F11/$G$17</f>
-        <v>0.25665859564164661</v>
-      </c>
-      <c r="G39" s="28">
-        <f t="shared" si="5"/>
-        <v>7789366.5349611174</v>
-      </c>
-      <c r="H39" s="28">
-        <f t="shared" si="6"/>
-        <v>34223493.392967455</v>
+        <f t="shared" si="12"/>
+        <v>0.22033898305084754</v>
+      </c>
+      <c r="G39" s="22">
+        <f t="shared" si="13"/>
+        <v>6649150.9245182676</v>
+      </c>
+      <c r="H39" s="22">
+        <f t="shared" si="14"/>
+        <v>35663627.686052524</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="32">
-        <f>B12</f>
-        <v>0.99051570000000011</v>
-      </c>
-      <c r="B40" s="32">
-        <f>D12</f>
-        <v>0.11600000000000005</v>
-      </c>
-      <c r="C40" s="32">
-        <f>F12</f>
-        <v>0.12600000000000006</v>
-      </c>
-      <c r="D40" s="28">
-        <f>$B$26*D12+$C$26</f>
-        <v>1.0854111999999998E-7</v>
-      </c>
-      <c r="E40" s="32">
-        <f>D12/$G$17</f>
-        <v>0.28087167070217933</v>
+      <c r="A40" s="26">
+        <f t="shared" si="7"/>
+        <v>0.89202329999999996</v>
+      </c>
+      <c r="B40" s="26">
+        <f t="shared" si="8"/>
+        <v>9.4000000000000028E-2</v>
+      </c>
+      <c r="C40" s="26">
+        <f t="shared" si="9"/>
+        <v>0.10600000000000004</v>
+      </c>
+      <c r="D40" s="22">
+        <f t="shared" si="10"/>
+        <v>1.1451807999999999E-7</v>
+      </c>
+      <c r="E40" s="26">
+        <f t="shared" si="11"/>
+        <v>0.22760290556900734</v>
       </c>
       <c r="F40" s="17">
-        <f>F12/$G$17</f>
-        <v>0.305084745762712</v>
-      </c>
-      <c r="G40" s="28">
-        <f t="shared" si="5"/>
-        <v>9125718.4373995792</v>
-      </c>
-      <c r="H40" s="28">
-        <f t="shared" si="6"/>
-        <v>32490704.436603658</v>
+        <f t="shared" si="12"/>
+        <v>0.25665859564164661</v>
+      </c>
+      <c r="G40" s="22">
+        <f t="shared" si="13"/>
+        <v>7789366.5349611174</v>
+      </c>
+      <c r="H40" s="22">
+        <f t="shared" si="14"/>
+        <v>34223493.392967455</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="32">
-        <f>B13</f>
-        <v>1.0892043</v>
-      </c>
-      <c r="B41" s="32">
-        <f>D13</f>
-        <v>0.13400000000000006</v>
-      </c>
-      <c r="C41" s="32">
-        <f>F13</f>
-        <v>0.14600000000000007</v>
-      </c>
-      <c r="D41" s="28">
-        <f>$B$26*D13+$C$26</f>
-        <v>1.0365087999999997E-7</v>
-      </c>
-      <c r="E41" s="32">
-        <f>D13/$G$17</f>
-        <v>0.32445520581113818</v>
+      <c r="A41" s="26">
+        <f t="shared" si="7"/>
+        <v>0.99051570000000011</v>
+      </c>
+      <c r="B41" s="26">
+        <f t="shared" si="8"/>
+        <v>0.11600000000000005</v>
+      </c>
+      <c r="C41" s="26">
+        <f t="shared" si="9"/>
+        <v>0.12600000000000006</v>
+      </c>
+      <c r="D41" s="22">
+        <f t="shared" si="10"/>
+        <v>1.0854111999999998E-7</v>
+      </c>
+      <c r="E41" s="26">
+        <f t="shared" si="11"/>
+        <v>0.28087167070217933</v>
       </c>
       <c r="F41" s="17">
-        <f>F13/$G$17</f>
-        <v>0.35351089588377743</v>
-      </c>
-      <c r="G41" s="28">
-        <f t="shared" si="5"/>
-        <v>10508394.140020812</v>
-      </c>
-      <c r="H41" s="28">
-        <f t="shared" si="6"/>
-        <v>32387811.789765619</v>
+        <f t="shared" si="12"/>
+        <v>0.305084745762712</v>
+      </c>
+      <c r="G41" s="22">
+        <f t="shared" si="13"/>
+        <v>9125718.4373995792</v>
+      </c>
+      <c r="H41" s="22">
+        <f t="shared" si="14"/>
+        <v>32490704.436603658</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="32">
-        <f>B14</f>
-        <v>1.1877948</v>
-      </c>
-      <c r="B42" s="32">
-        <f>D14</f>
-        <v>0.15599999999999997</v>
-      </c>
-      <c r="C42" s="32">
-        <f>F14</f>
-        <v>0.16299999999999998</v>
-      </c>
-      <c r="D42" s="28">
-        <f>$B$26*D14+$C$26</f>
-        <v>9.7673919999999993E-8</v>
-      </c>
-      <c r="E42" s="32">
-        <f>D14/$G$17</f>
-        <v>0.37772397094430987</v>
+      <c r="A42" s="26">
+        <f t="shared" si="7"/>
+        <v>1.0892043</v>
+      </c>
+      <c r="B42" s="26">
+        <f t="shared" si="8"/>
+        <v>0.13400000000000006</v>
+      </c>
+      <c r="C42" s="26">
+        <f t="shared" si="9"/>
+        <v>0.14600000000000007</v>
+      </c>
+      <c r="D42" s="22">
+        <f t="shared" si="10"/>
+        <v>1.0365087999999997E-7</v>
+      </c>
+      <c r="E42" s="26">
+        <f t="shared" si="11"/>
+        <v>0.32445520581113818</v>
       </c>
       <c r="F42" s="17">
-        <f>F14/$G$17</f>
-        <v>0.39467312348668276</v>
-      </c>
-      <c r="G42" s="28">
-        <f t="shared" si="5"/>
-        <v>12160818.363796601</v>
-      </c>
-      <c r="H42" s="28">
-        <f t="shared" si="6"/>
-        <v>32194987.078512803</v>
+        <f t="shared" si="12"/>
+        <v>0.35351089588377743</v>
+      </c>
+      <c r="G42" s="22">
+        <f t="shared" si="13"/>
+        <v>10508394.140020812</v>
+      </c>
+      <c r="H42" s="22">
+        <f t="shared" si="14"/>
+        <v>32387811.789765619</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="32">
-        <f>B15</f>
-        <v>1.2876605999999999</v>
-      </c>
-      <c r="B43" s="32">
-        <f>D15</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C43" s="32">
-        <f>F15</f>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D43" s="28">
-        <f>$B$26*D15+$C$26</f>
-        <v>9.2511999999999975E-8</v>
-      </c>
-      <c r="E43" s="32">
-        <f>D15/$G$17</f>
-        <v>0.42372881355932202</v>
+      <c r="A43" s="26">
+        <f t="shared" si="7"/>
+        <v>1.1877948</v>
+      </c>
+      <c r="B43" s="26">
+        <f t="shared" si="8"/>
+        <v>0.15599999999999997</v>
+      </c>
+      <c r="C43" s="26">
+        <f t="shared" si="9"/>
+        <v>0.16299999999999998</v>
+      </c>
+      <c r="D43" s="22">
+        <f t="shared" si="10"/>
+        <v>9.7673919999999993E-8</v>
+      </c>
+      <c r="E43" s="26">
+        <f t="shared" si="11"/>
+        <v>0.37772397094430987</v>
       </c>
       <c r="F43" s="17">
-        <f>F15/$G$17</f>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G43" s="28">
-        <f t="shared" si="5"/>
-        <v>13918849.446558287</v>
-      </c>
-      <c r="H43" s="28">
-        <f t="shared" si="6"/>
-        <v>32848484.693877559</v>
+        <f t="shared" si="12"/>
+        <v>0.39467312348668276</v>
+      </c>
+      <c r="G43" s="22">
+        <f t="shared" si="13"/>
+        <v>12160818.363796601</v>
+      </c>
+      <c r="H43" s="22">
+        <f t="shared" si="14"/>
+        <v>32194987.078512803</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q44" s="7"/>
-      <c r="R44" s="7"/>
-      <c r="S44" s="7"/>
-      <c r="T44" s="7"/>
-      <c r="U44" s="7"/>
-      <c r="V44" s="7"/>
-      <c r="W44" s="7"/>
-      <c r="X44" s="7"/>
-      <c r="Y44" s="7"/>
-      <c r="Z44" s="7"/>
-      <c r="AA44" s="7"/>
-      <c r="AB44" s="7"/>
-      <c r="AC44" s="7"/>
-      <c r="AD44" s="7"/>
-      <c r="AE44" s="7"/>
+      <c r="A44" s="26">
+        <f t="shared" si="7"/>
+        <v>1.2876605999999999</v>
+      </c>
+      <c r="B44" s="26">
+        <f t="shared" si="8"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C44" s="26">
+        <f t="shared" si="9"/>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D44" s="22">
+        <f t="shared" si="10"/>
+        <v>9.2511999999999975E-8</v>
+      </c>
+      <c r="E44" s="26">
+        <f t="shared" si="11"/>
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="F44" s="17">
+        <f t="shared" si="12"/>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="G44" s="22">
+        <f t="shared" si="13"/>
+        <v>13918849.446558287</v>
+      </c>
+      <c r="H44" s="22">
+        <f t="shared" si="14"/>
+        <v>32848484.693877559</v>
+      </c>
+    </row>
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+      <c r="Q45" s="7"/>
+      <c r="R45" s="7"/>
+      <c r="S45" s="7"/>
+      <c r="T45" s="7"/>
+      <c r="U45" s="7"/>
+      <c r="V45" s="7"/>
+      <c r="W45" s="7"/>
+      <c r="X45" s="7"/>
+      <c r="Y45" s="7"/>
+      <c r="Z45" s="7"/>
+      <c r="AA45" s="7"/>
+      <c r="AB45" s="7"/>
+      <c r="AC45" s="7"/>
+      <c r="AD45" s="7"/>
+      <c r="AE45" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="9">
     <mergeCell ref="X1:Y1"/>
     <mergeCell ref="Z1:AA1"/>
-    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
     <mergeCell ref="D27:E27"/>
-    <mergeCell ref="D26:E26"/>
     <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A21:D21"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -16862,24 +16871,24 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AE2" s="20" t="s">
+      <c r="AE2" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="20"/>
-      <c r="AG2" s="20" t="s">
+      <c r="AF2" s="29"/>
+      <c r="AG2" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="20"/>
+      <c r="AH2" s="29"/>
     </row>
     <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="26"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="37"/>
       <c r="AE3" s="6" t="s">
         <v>13</v>
       </c>
@@ -16912,526 +16921,526 @@
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="30">
+      <c r="AE4" s="24">
         <f>$S$19*F6+$T$19</f>
         <v>-3.5879173083905704</v>
       </c>
-      <c r="AF4" s="30">
+      <c r="AF4" s="24">
         <f>E6-AE4</f>
         <v>-0.34390832433375484</v>
       </c>
-      <c r="AG4" s="30">
+      <c r="AG4" s="24">
         <f>$S$39*F26+$T$39</f>
         <v>-5.5813988687434586</v>
       </c>
-      <c r="AH4" s="30">
+      <c r="AH4" s="24">
         <f>E26-AG4</f>
         <v>5.9937950881213453E-2</v>
       </c>
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="27">
+      <c r="A5" s="35">
         <v>9.0939999999999993E-2</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="23">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C5" s="29">
-        <f>B5-'Carga e Descarga'!$G$17</f>
+      <c r="C5" s="23">
+        <f>B5-'Carga e Descarga'!$G$18</f>
         <v>0.10200000000000004</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="23">
         <f t="shared" ref="D5:D21" si="0">C5/$P$18</f>
         <v>0.24697336561743352</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="28">
         <v>30</v>
       </c>
-      <c r="AE5" s="30">
+      <c r="AE5" s="24">
         <f t="shared" ref="AE5:AE16" si="1">$S$19*F7+$T$19</f>
         <v>-3.5496565606661639</v>
       </c>
-      <c r="AF5" s="30">
+      <c r="AF5" s="24">
         <f t="shared" ref="AF5:AF16" si="2">E7-AE5</f>
         <v>2.3296036050003188E-2</v>
       </c>
-      <c r="AG5" s="30">
+      <c r="AG5" s="24">
         <f t="shared" ref="AG5:AG16" si="3">$S$39*F27+$T$39</f>
         <v>-5.6208686979581248</v>
       </c>
-      <c r="AH5" s="30">
+      <c r="AH5" s="24">
         <f t="shared" ref="AH5:AH16" si="4">E27-AG5</f>
         <v>7.4089972111591962E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="25"/>
-      <c r="B6" s="29">
+      <c r="A6" s="36"/>
+      <c r="B6" s="23">
         <v>0.51700000000000002</v>
       </c>
-      <c r="C6" s="29">
-        <f>B6-'Carga e Descarga'!$G$17</f>
+      <c r="C6" s="23">
+        <f>B6-'Carga e Descarga'!$G$18</f>
         <v>0.10400000000000004</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="23">
         <f t="shared" si="0"/>
         <v>0.25181598062954008</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="23">
         <f>LN((-$C$5+C6)/$C$5)</f>
         <v>-3.9318256327243253</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="28">
         <v>80</v>
       </c>
-      <c r="AE6" s="30">
+      <c r="AE6" s="24">
         <f t="shared" si="1"/>
         <v>-3.5205451221802022</v>
       </c>
-      <c r="AF6" s="30">
+      <c r="AF6" s="24">
         <f t="shared" si="2"/>
         <v>5.8723118701605515E-2</v>
       </c>
-      <c r="AG6" s="30">
+      <c r="AG6" s="24">
         <f t="shared" si="3"/>
         <v>-5.6499125345500492</v>
       </c>
-      <c r="AH6" s="30">
+      <c r="AH6" s="24">
         <f t="shared" si="4"/>
         <v>-5.0797759367187112E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="25"/>
-      <c r="B7" s="29">
+      <c r="A7" s="36"/>
+      <c r="B7" s="23">
         <v>0.51800000000000002</v>
       </c>
-      <c r="C7" s="29">
-        <f>B7-'Carga e Descarga'!$G$17</f>
+      <c r="C7" s="23">
+        <f>B7-'Carga e Descarga'!$G$18</f>
         <v>0.10500000000000004</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="23">
         <f t="shared" si="0"/>
         <v>0.25423728813559332</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="23">
         <f t="shared" ref="E7:E21" si="5">LN((-$C$5+C7)/$C$5)</f>
         <v>-3.5263605246161607</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="28">
         <v>126</v>
       </c>
-      <c r="AE7" s="30">
+      <c r="AE7" s="24">
         <f t="shared" si="1"/>
         <v>-3.4839478852264216</v>
       </c>
-      <c r="AF7" s="30">
+      <c r="AF7" s="24">
         <f t="shared" si="2"/>
         <v>-0.11140551087668271</v>
       </c>
-      <c r="AG7" s="30">
+      <c r="AG7" s="24">
         <f t="shared" si="3"/>
         <v>-5.6819352261770426</v>
       </c>
-      <c r="AH7" s="30">
+      <c r="AH7" s="24">
         <f t="shared" si="4"/>
         <v>-2.0446211829749927E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="25"/>
-      <c r="B8" s="29">
+      <c r="A8" s="36"/>
+      <c r="B8" s="23">
         <v>0.51819999999999999</v>
       </c>
-      <c r="C8" s="29">
-        <f>B8-'Carga e Descarga'!$G$17</f>
+      <c r="C8" s="23">
+        <f>B8-'Carga e Descarga'!$G$18</f>
         <v>0.10520000000000002</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="23">
         <f t="shared" si="0"/>
         <v>0.25472154963680393</v>
       </c>
-      <c r="E8" s="29">
+      <c r="E8" s="23">
         <f t="shared" si="5"/>
         <v>-3.4618220034785967</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="28">
         <v>161</v>
       </c>
-      <c r="AE8" s="30">
+      <c r="AE8" s="24">
         <f t="shared" si="1"/>
         <v>-3.4465188928873283</v>
       </c>
-      <c r="AF8" s="30">
+      <c r="AF8" s="24">
         <f t="shared" si="2"/>
         <v>7.4309048098410102E-2</v>
       </c>
-      <c r="AG8" s="30">
+      <c r="AG8" s="24">
         <f t="shared" si="3"/>
         <v>-5.7325757617732185</v>
       </c>
-      <c r="AH8" s="30">
+      <c r="AH8" s="24">
         <f t="shared" si="4"/>
         <v>1.8742951263523544E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="25"/>
-      <c r="B9" s="29">
+      <c r="A9" s="36"/>
+      <c r="B9" s="23">
         <v>0.51780000000000004</v>
       </c>
-      <c r="C9" s="29">
-        <f>B9-'Carga e Descarga'!$G$17</f>
+      <c r="C9" s="23">
+        <f>B9-'Carga e Descarga'!$G$18</f>
         <v>0.10480000000000006</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="23">
         <f t="shared" si="0"/>
         <v>0.25375302663438271</v>
       </c>
-      <c r="E9" s="29">
+      <c r="E9" s="23">
         <f t="shared" si="5"/>
         <v>-3.5953533961031043</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="28">
         <v>205</v>
       </c>
-      <c r="AE9" s="30">
+      <c r="AE9" s="24">
         <f t="shared" si="1"/>
         <v>-3.4007723466951028</v>
       </c>
-      <c r="AF9" s="30">
+      <c r="AF9" s="24">
         <f t="shared" si="2"/>
         <v>8.4132353061019849E-2</v>
       </c>
-      <c r="AG9" s="30">
+      <c r="AG9" s="24">
         <f t="shared" si="3"/>
         <v>-5.7802374423343252</v>
       </c>
-      <c r="AH9" s="30">
+      <c r="AH9" s="24">
         <f t="shared" si="4"/>
         <v>-2.8905547979701574E-2</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="25"/>
-      <c r="B10" s="29">
+      <c r="A10" s="36"/>
+      <c r="B10" s="23">
         <v>0.51849999999999996</v>
       </c>
-      <c r="C10" s="29">
-        <f>B10-'Carga e Descarga'!$G$17</f>
+      <c r="C10" s="23">
+        <f>B10-'Carga e Descarga'!$G$18</f>
         <v>0.10549999999999998</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="23">
         <f t="shared" si="0"/>
         <v>0.2554479418886198</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="23">
         <f t="shared" si="5"/>
         <v>-3.3722098447889182</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="28">
         <v>250</v>
       </c>
-      <c r="AE10" s="30">
+      <c r="AE10" s="24">
         <f t="shared" si="1"/>
         <v>-3.3076157435400253</v>
       </c>
-      <c r="AF10" s="30">
+      <c r="AF10" s="24">
         <f t="shared" si="2"/>
         <v>9.3629903966014005E-2</v>
       </c>
-      <c r="AG10" s="30">
+      <c r="AG10" s="24">
         <f t="shared" si="3"/>
         <v>-5.8301332641717334</v>
       </c>
-      <c r="AH10" s="30">
+      <c r="AH10" s="24">
         <f t="shared" si="4"/>
         <v>-8.4370241800106882E-2</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="25"/>
-      <c r="B11" s="29">
+      <c r="A11" s="36"/>
+      <c r="B11" s="23">
         <v>0.51870000000000005</v>
       </c>
-      <c r="C11" s="29">
-        <f>B11-'Carga e Descarga'!$G$17</f>
+      <c r="C11" s="23">
+        <f>B11-'Carga e Descarga'!$G$18</f>
         <v>0.10570000000000007</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="23">
         <f t="shared" si="0"/>
         <v>0.25593220338983069</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="23">
         <f t="shared" si="5"/>
         <v>-3.3166399936340829</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="28">
         <v>305</v>
       </c>
-      <c r="AE11" s="30">
+      <c r="AE11" s="24">
         <f t="shared" si="1"/>
         <v>-3.2618691973477998</v>
       </c>
-      <c r="AF11" s="30">
+      <c r="AF11" s="24">
         <f t="shared" si="2"/>
         <v>0.14097378083979084</v>
       </c>
-      <c r="AG11" s="30">
+      <c r="AG11" s="24">
         <f t="shared" si="3"/>
         <v>-5.9060940675659968</v>
       </c>
-      <c r="AH11" s="30">
+      <c r="AH11" s="24">
         <f t="shared" si="4"/>
         <v>-4.614976638868562E-2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="25"/>
-      <c r="B12" s="29">
+      <c r="A12" s="36"/>
+      <c r="B12" s="23">
         <v>0.51910000000000001</v>
       </c>
-      <c r="C12" s="29">
-        <f>B12-'Carga e Descarga'!$G$17</f>
+      <c r="C12" s="23">
+        <f>B12-'Carga e Descarga'!$G$18</f>
         <v>0.10610000000000003</v>
       </c>
-      <c r="D12" s="29">
+      <c r="D12" s="23">
         <f t="shared" si="0"/>
         <v>0.25690072639225192</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="23">
         <f t="shared" si="5"/>
         <v>-3.2139858395740113</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="28">
         <v>417</v>
       </c>
-      <c r="AE12" s="30">
+      <c r="AE12" s="24">
         <f t="shared" si="1"/>
         <v>-3.2086368526877553</v>
       </c>
-      <c r="AF12" s="30">
+      <c r="AF12" s="24">
         <f t="shared" si="2"/>
         <v>8.774143617974639E-2</v>
       </c>
-      <c r="AG12" s="30">
+      <c r="AG12" s="24">
         <f t="shared" si="3"/>
         <v>-5.975352447131355</v>
       </c>
-      <c r="AH12" s="30">
+      <c r="AH12" s="24">
         <f t="shared" si="4"/>
         <v>-1.6112099976625771E-2</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="25"/>
-      <c r="B13" s="29">
+      <c r="A13" s="36"/>
+      <c r="B13" s="23">
         <v>0.51949999999999996</v>
       </c>
-      <c r="C13" s="29">
-        <f>B13-'Carga e Descarga'!$G$17</f>
+      <c r="C13" s="23">
+        <f>B13-'Carga e Descarga'!$G$18</f>
         <v>0.10649999999999998</v>
       </c>
-      <c r="D13" s="29">
+      <c r="D13" s="23">
         <f t="shared" si="0"/>
         <v>0.25786924939467309</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="23">
         <f t="shared" si="5"/>
         <v>-3.1208954165080089</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="28">
         <v>472</v>
       </c>
-      <c r="AE13" s="30">
+      <c r="AE13" s="24">
         <f t="shared" si="1"/>
         <v>-3.1603950403395906</v>
       </c>
-      <c r="AF13" s="30">
+      <c r="AF13" s="24">
         <f t="shared" si="2"/>
         <v>0.10403814496917008</v>
       </c>
-      <c r="AG13" s="30">
+      <c r="AG13" s="24">
         <f t="shared" si="3"/>
         <v>-6.0505685367668516</v>
       </c>
-      <c r="AH13" s="30">
+      <c r="AH13" s="24">
         <f t="shared" si="4"/>
         <v>-6.8729381850999083E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="25"/>
-      <c r="B14" s="29">
+      <c r="A14" s="36"/>
+      <c r="B14" s="23">
         <v>0.51949999999999996</v>
       </c>
-      <c r="C14" s="29">
-        <f>B14-'Carga e Descarga'!$G$17</f>
+      <c r="C14" s="23">
+        <f>B14-'Carga e Descarga'!$G$18</f>
         <v>0.10649999999999998</v>
       </c>
-      <c r="D14" s="29">
+      <c r="D14" s="23">
         <f t="shared" si="0"/>
         <v>0.25786924939467309</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="23">
         <f t="shared" si="5"/>
         <v>-3.1208954165080089</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="28">
         <v>536</v>
       </c>
-      <c r="AE14" s="30">
+      <c r="AE14" s="24">
         <f t="shared" si="1"/>
         <v>-3.1121532279914255</v>
       </c>
-      <c r="AF14" s="30">
+      <c r="AF14" s="24">
         <f t="shared" si="2"/>
         <v>7.6415619823738012E-2</v>
       </c>
-      <c r="AG14" s="30">
+      <c r="AG14" s="24">
         <f t="shared" si="3"/>
         <v>-6.1302529089549509</v>
       </c>
-      <c r="AH14" s="30">
+      <c r="AH14" s="24">
         <f t="shared" si="4"/>
         <v>-3.5565025297787045E-2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="25"/>
-      <c r="B15" s="29">
+      <c r="A15" s="36"/>
+      <c r="B15" s="23">
         <v>0.51980000000000004</v>
       </c>
-      <c r="C15" s="29">
-        <f>B15-'Carga e Descarga'!$G$17</f>
+      <c r="C15" s="23">
+        <f>B15-'Carga e Descarga'!$G$18</f>
         <v>0.10680000000000006</v>
       </c>
-      <c r="D15" s="29">
+      <c r="D15" s="23">
         <f t="shared" si="0"/>
         <v>0.25859564164648929</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="23">
         <f t="shared" si="5"/>
         <v>-3.0563568953704205</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="28">
         <v>594</v>
       </c>
-      <c r="AE15" s="30">
+      <c r="AE15" s="24">
         <f t="shared" si="1"/>
         <v>-3.0647431710285735</v>
       </c>
-      <c r="AF15" s="30">
+      <c r="AF15" s="24">
         <f t="shared" si="2"/>
         <v>4.9208270178403346E-2</v>
       </c>
-      <c r="AG15" s="30">
+      <c r="AG15" s="24">
         <f t="shared" si="3"/>
         <v>-6.2121714224193534</v>
       </c>
-      <c r="AH15" s="30">
+      <c r="AH15" s="24">
         <f t="shared" si="4"/>
         <v>-2.4366760028371459E-3</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="25"/>
-      <c r="B16" s="29">
+      <c r="A16" s="36"/>
+      <c r="B16" s="23">
         <v>0.51990000000000003</v>
       </c>
-      <c r="C16" s="29">
-        <f>B16-'Carga e Descarga'!$G$17</f>
+      <c r="C16" s="23">
+        <f>B16-'Carga e Descarga'!$G$18</f>
         <v>0.10690000000000005</v>
       </c>
-      <c r="D16" s="29">
+      <c r="D16" s="23">
         <f t="shared" si="0"/>
         <v>0.25883777239709455</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="23">
         <f t="shared" si="5"/>
         <v>-3.0357376081676875</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="28">
         <v>652</v>
       </c>
       <c r="R16">
         <v>9</v>
       </c>
-      <c r="AE16" s="30">
+      <c r="AE16" s="24">
         <f t="shared" si="1"/>
         <v>-3.0023615171300841</v>
       </c>
-      <c r="AF16" s="30">
+      <c r="AF16" s="24">
         <f t="shared" si="2"/>
         <v>-1.3173383720086029E-2</v>
       </c>
-      <c r="AG16" s="30">
+      <c r="AG16" s="24">
         <f t="shared" si="3"/>
         <v>-6.2702590956032012</v>
       </c>
-      <c r="AH16" s="30">
+      <c r="AH16" s="24">
         <f t="shared" si="4"/>
         <v>5.5650997181010631E-2</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="25"/>
-      <c r="B17" s="29">
+      <c r="A17" s="36"/>
+      <c r="B17" s="23">
         <v>0.52</v>
       </c>
-      <c r="C17" s="29">
-        <f>B17-'Carga e Descarga'!$G$17</f>
+      <c r="C17" s="23">
+        <f>B17-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D17" s="29">
+      <c r="D17" s="23">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="23">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="28">
         <v>709</v>
       </c>
-      <c r="AE17" s="30">
+      <c r="AE17" s="24">
         <f>$S$19*F19+$T$19</f>
         <v>-2.9516244386259798</v>
       </c>
-      <c r="AF17" s="30">
+      <c r="AF17" s="24">
         <f>E19-AE17</f>
         <v>-6.391046222419039E-2</v>
       </c>
-      <c r="AG17" s="30">
+      <c r="AG17" s="24">
         <f>$S$39*F39+$T$39</f>
         <v>-6.2955793634012895</v>
       </c>
-      <c r="AH17" s="30">
+      <c r="AH17" s="24">
         <f>E39-AG17</f>
         <v>8.0971264979099011E-2</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="25"/>
-      <c r="B18" s="29">
+      <c r="A18" s="36"/>
+      <c r="B18" s="23">
         <v>0.52</v>
       </c>
-      <c r="C18" s="29">
-        <f>B18-'Carga e Descarga'!$G$17</f>
+      <c r="C18" s="23">
+        <f>B18-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D18" s="29">
+      <c r="D18" s="23">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E18" s="29">
+      <c r="E18" s="23">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="28">
         <v>784</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -17440,40 +17449,40 @@
       <c r="P18" s="10">
         <v>0.41299999999999998</v>
       </c>
-      <c r="S18" s="21" t="s">
+      <c r="S18" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="T18" s="21"/>
-      <c r="AE18" s="30">
+      <c r="T18" s="30"/>
+      <c r="AE18" s="24">
         <f t="shared" ref="AE18:AE19" si="6">$S$19*F20+$T$19</f>
         <v>-2.9017191155071882</v>
       </c>
-      <c r="AF18" s="30">
+      <c r="AF18" s="24">
         <f t="shared" ref="AF18:AF19" si="7">E20-AE18</f>
         <v>-0.11381578534298198</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="25"/>
-      <c r="B19" s="29">
+      <c r="A19" s="36"/>
+      <c r="B19" s="23">
         <v>0.52</v>
       </c>
-      <c r="C19" s="29">
-        <f>B19-'Carga e Descarga'!$G$17</f>
+      <c r="C19" s="23">
+        <f>B19-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D19" s="29">
+      <c r="D19" s="23">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="23">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="28">
         <v>845</v>
       </c>
-      <c r="R19" s="31" t="s">
+      <c r="R19" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S19" s="4">
@@ -17483,15 +17492,15 @@
       <c r="T19" s="4">
         <v>-3.6544577392156259</v>
       </c>
-      <c r="U19" s="22" t="s">
+      <c r="U19" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="V19" s="21"/>
-      <c r="AE19" s="30">
+      <c r="V19" s="30"/>
+      <c r="AE19" s="24">
         <f t="shared" si="6"/>
         <v>-2.8692806554799737</v>
       </c>
-      <c r="AF19" s="30">
+      <c r="AF19" s="24">
         <f t="shared" si="7"/>
         <v>-0.14625424537019649</v>
       </c>
@@ -17499,26 +17508,26 @@
       <c r="AH19" s="15"/>
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="25"/>
-      <c r="B20" s="29">
+      <c r="A20" s="36"/>
+      <c r="B20" s="23">
         <v>0.52</v>
       </c>
-      <c r="C20" s="29">
-        <f>B20-'Carga e Descarga'!$G$17</f>
+      <c r="C20" s="23">
+        <f>B20-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D20" s="29">
+      <c r="D20" s="23">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="23">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="28">
         <v>905</v>
       </c>
-      <c r="R20" s="31" t="s">
+      <c r="R20" s="25" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="4">
@@ -17527,32 +17536,32 @@
       <c r="T20" s="4">
         <v>6.6880507097966502E-2</v>
       </c>
-      <c r="U20" s="22" t="s">
+      <c r="U20" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="V20" s="21"/>
+      <c r="V20" s="30"/>
     </row>
     <row r="21" spans="1:34" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A21" s="25"/>
-      <c r="B21" s="29">
+      <c r="A21" s="36"/>
+      <c r="B21" s="23">
         <v>0.52</v>
       </c>
-      <c r="C21" s="29">
-        <f>B21-'Carga e Descarga'!$G$17</f>
+      <c r="C21" s="23">
+        <f>B21-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D21" s="29">
+      <c r="D21" s="23">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="23">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="28">
         <v>944</v>
       </c>
-      <c r="R21" s="31" t="s">
+      <c r="R21" s="25" t="s">
         <v>43</v>
       </c>
       <c r="S21" s="4">
@@ -17561,20 +17570,20 @@
       <c r="T21" s="4">
         <v>0.13128518716578064</v>
       </c>
-      <c r="U21" s="22" t="s">
+      <c r="U21" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="21"/>
+      <c r="V21" s="30"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="23" t="s">
+      <c r="A23" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="24"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="26"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="37"/>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
@@ -17597,325 +17606,325 @@
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="27">
+      <c r="A25" s="35">
         <v>1.0290000000000001E-2</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B25" s="23">
         <v>0.41799999999999998</v>
       </c>
-      <c r="C25" s="29">
-        <f>B25-'Carga e Descarga'!$G$17</f>
+      <c r="C25" s="23">
+        <f>B25-'Carga e Descarga'!$G$18</f>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="D25" s="29">
+      <c r="D25" s="23">
         <f t="shared" ref="D25:D39" si="8">C25/$P$18</f>
         <v>1.2106537530266356E-2</v>
       </c>
-      <c r="E25" s="29" t="s">
+      <c r="E25" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="28">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="25"/>
-      <c r="B26" s="29">
+      <c r="A26" s="36"/>
+      <c r="B26" s="23">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C26" s="29">
-        <f>B26-'Carga e Descarga'!$G$17</f>
+      <c r="C26" s="23">
+        <f>B26-'Carga e Descarga'!$G$18</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D26" s="29">
+      <c r="D26" s="23">
         <f t="shared" si="8"/>
         <v>9.6852300242130842E-3</v>
       </c>
-      <c r="E26" s="29">
+      <c r="E26" s="23">
         <f>LN(C26)</f>
         <v>-5.5214609178622451</v>
       </c>
-      <c r="F26" s="34">
+      <c r="F26" s="28">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="25"/>
-      <c r="B27" s="29">
+      <c r="A27" s="36"/>
+      <c r="B27" s="23">
         <v>0.41689999999999999</v>
       </c>
-      <c r="C27" s="29">
-        <f>B27-'Carga e Descarga'!$G$17</f>
+      <c r="C27" s="23">
+        <f>B27-'Carga e Descarga'!$G$18</f>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="23">
         <f t="shared" si="8"/>
         <v>9.4430992736077839E-3</v>
       </c>
-      <c r="E27" s="29">
+      <c r="E27" s="23">
         <f t="shared" ref="E27:E39" si="9">LN(C27)</f>
         <v>-5.5467787258465329</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="28">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="25"/>
-      <c r="B28" s="29">
+      <c r="A28" s="36"/>
+      <c r="B28" s="23">
         <v>0.41649999999999998</v>
       </c>
-      <c r="C28" s="29">
-        <f>B28-'Carga e Descarga'!$G$17</f>
+      <c r="C28" s="23">
+        <f>B28-'Carga e Descarga'!$G$18</f>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="D28" s="29">
+      <c r="D28" s="23">
         <f t="shared" si="8"/>
         <v>8.4745762711864493E-3</v>
       </c>
-      <c r="E28" s="29">
+      <c r="E28" s="23">
         <f t="shared" si="9"/>
         <v>-5.6549923104867679</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="28">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="25"/>
-      <c r="B29" s="29">
+      <c r="A29" s="36"/>
+      <c r="B29" s="23">
         <v>0.41639999999999999</v>
       </c>
-      <c r="C29" s="29">
-        <f>B29-'Carga e Descarga'!$G$17</f>
+      <c r="C29" s="23">
+        <f>B29-'Carga e Descarga'!$G$18</f>
         <v>3.4000000000000141E-3</v>
       </c>
-      <c r="D29" s="29">
+      <c r="D29" s="23">
         <f t="shared" si="8"/>
         <v>8.2324455205811491E-3</v>
       </c>
-      <c r="E29" s="29">
+      <c r="E29" s="23">
         <f t="shared" si="9"/>
         <v>-5.6839798473600176</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="28">
         <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="25"/>
-      <c r="B30" s="29">
+      <c r="A30" s="36"/>
+      <c r="B30" s="23">
         <v>0.4163</v>
       </c>
-      <c r="C30" s="29">
-        <f>B30-'Carga e Descarga'!$G$17</f>
+      <c r="C30" s="23">
+        <f>B30-'Carga e Descarga'!$G$18</f>
         <v>3.3000000000000251E-3</v>
       </c>
-      <c r="D30" s="29">
+      <c r="D30" s="23">
         <f t="shared" si="8"/>
         <v>7.9903147699758488E-3</v>
       </c>
-      <c r="E30" s="29">
+      <c r="E30" s="23">
         <f t="shared" si="9"/>
         <v>-5.7138328105096949</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="28">
         <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="25"/>
-      <c r="B31" s="29">
+      <c r="A31" s="36"/>
+      <c r="B31" s="23">
         <v>0.41599999999999998</v>
       </c>
-      <c r="C31" s="29">
-        <f>B31-'Carga e Descarga'!$G$17</f>
+      <c r="C31" s="23">
+        <f>B31-'Carga e Descarga'!$G$18</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="D31" s="29">
+      <c r="D31" s="23">
         <f t="shared" si="8"/>
         <v>7.2639225181598127E-3</v>
       </c>
-      <c r="E31" s="29">
+      <c r="E31" s="23">
         <f t="shared" si="9"/>
         <v>-5.8091429903140268</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="28">
         <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="25"/>
-      <c r="B32" s="29">
+      <c r="A32" s="36"/>
+      <c r="B32" s="23">
         <v>0.41570000000000001</v>
       </c>
-      <c r="C32" s="29">
-        <f>B32-'Carga e Descarga'!$G$17</f>
+      <c r="C32" s="23">
+        <f>B32-'Carga e Descarga'!$G$18</f>
         <v>2.7000000000000357E-3</v>
       </c>
-      <c r="D32" s="29">
+      <c r="D32" s="23">
         <f t="shared" si="8"/>
         <v>6.5375302663439128E-3</v>
       </c>
-      <c r="E32" s="29">
+      <c r="E32" s="23">
         <f t="shared" si="9"/>
         <v>-5.9145035059718403</v>
       </c>
-      <c r="F32" s="34">
+      <c r="F32" s="28">
         <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A33" s="25"/>
-      <c r="B33" s="29">
+      <c r="A33" s="36"/>
+      <c r="B33" s="23">
         <v>0.41560000000000002</v>
       </c>
-      <c r="C33" s="29">
-        <f>B33-'Carga e Descarga'!$G$17</f>
+      <c r="C33" s="23">
+        <f>B33-'Carga e Descarga'!$G$18</f>
         <v>2.6000000000000467E-3</v>
       </c>
-      <c r="D33" s="29">
+      <c r="D33" s="23">
         <f t="shared" si="8"/>
         <v>6.2953995157386125E-3</v>
       </c>
-      <c r="E33" s="29">
+      <c r="E33" s="23">
         <f t="shared" si="9"/>
         <v>-5.9522438339546824</v>
       </c>
-      <c r="F33" s="34">
+      <c r="F33" s="28">
         <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A34" s="25"/>
-      <c r="B34" s="29">
+      <c r="A34" s="36"/>
+      <c r="B34" s="23">
         <v>0.41549999999999998</v>
       </c>
-      <c r="C34" s="29">
-        <f>B34-'Carga e Descarga'!$G$17</f>
+      <c r="C34" s="23">
+        <f>B34-'Carga e Descarga'!$G$18</f>
         <v>2.5000000000000022E-3</v>
       </c>
-      <c r="D34" s="29">
+      <c r="D34" s="23">
         <f t="shared" si="8"/>
         <v>6.0532687651331778E-3</v>
       </c>
-      <c r="E34" s="29">
+      <c r="E34" s="23">
         <f t="shared" si="9"/>
         <v>-5.9914645471079808</v>
       </c>
-      <c r="F34" s="34">
+      <c r="F34" s="28">
         <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A35" s="25"/>
-      <c r="B35" s="29">
+      <c r="A35" s="36"/>
+      <c r="B35" s="23">
         <v>0.41520000000000001</v>
       </c>
-      <c r="C35" s="29">
-        <f>B35-'Carga e Descarga'!$G$17</f>
+      <c r="C35" s="23">
+        <f>B35-'Carga e Descarga'!$G$18</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="D35" s="29">
+      <c r="D35" s="23">
         <f t="shared" si="8"/>
         <v>5.3268765133172771E-3</v>
       </c>
-      <c r="E35" s="29">
+      <c r="E35" s="23">
         <f t="shared" si="9"/>
         <v>-6.1192979186178507</v>
       </c>
-      <c r="F35" s="34">
+      <c r="F35" s="28">
         <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A36" s="25"/>
-      <c r="B36" s="29">
+      <c r="A36" s="36"/>
+      <c r="B36" s="23">
         <v>0.41510000000000002</v>
       </c>
-      <c r="C36" s="29">
-        <f>B36-'Carga e Descarga'!$G$17</f>
+      <c r="C36" s="23">
+        <f>B36-'Carga e Descarga'!$G$18</f>
         <v>2.1000000000000463E-3</v>
       </c>
-      <c r="D36" s="29">
+      <c r="D36" s="23">
         <f t="shared" si="8"/>
         <v>5.0847457627119768E-3</v>
       </c>
-      <c r="E36" s="29">
+      <c r="E36" s="23">
         <f t="shared" si="9"/>
         <v>-6.1658179342527379</v>
       </c>
-      <c r="F36" s="34">
+      <c r="F36" s="28">
         <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A37" s="25"/>
-      <c r="B37" s="29">
+      <c r="A37" s="36"/>
+      <c r="B37" s="23">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C37" s="29">
-        <f>B37-'Carga e Descarga'!$G$17</f>
+      <c r="C37" s="23">
+        <f>B37-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D37" s="29">
+      <c r="D37" s="23">
         <f t="shared" si="8"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E37" s="29">
+      <c r="E37" s="23">
         <f t="shared" si="9"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F37" s="34">
+      <c r="F37" s="28">
         <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A38" s="25"/>
-      <c r="B38" s="29">
+      <c r="A38" s="36"/>
+      <c r="B38" s="23">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C38" s="29">
-        <f>B38-'Carga e Descarga'!$G$17</f>
+      <c r="C38" s="23">
+        <f>B38-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D38" s="29">
+      <c r="D38" s="23">
         <f t="shared" si="8"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E38" s="29">
+      <c r="E38" s="23">
         <f t="shared" si="9"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F38" s="34">
+      <c r="F38" s="28">
         <v>996</v>
       </c>
-      <c r="S38" s="21" t="s">
+      <c r="S38" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="T38" s="21"/>
+      <c r="T38" s="30"/>
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="A39" s="25"/>
-      <c r="B39" s="29">
+      <c r="A39" s="36"/>
+      <c r="B39" s="23">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C39" s="29">
-        <f>B39-'Carga e Descarga'!$G$17</f>
+      <c r="C39" s="23">
+        <f>B39-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D39" s="29">
+      <c r="D39" s="23">
         <f t="shared" si="8"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E39" s="29">
+      <c r="E39" s="23">
         <f t="shared" si="9"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F39" s="34">
+      <c r="F39" s="28">
         <v>1030</v>
       </c>
-      <c r="R39" s="31" t="s">
+      <c r="R39" s="25" t="s">
         <v>36</v>
       </c>
       <c r="S39" s="4">
@@ -17925,13 +17934,13 @@
       <c r="T39" s="4">
         <v>-5.5285241918709813</v>
       </c>
-      <c r="U39" s="22" t="s">
+      <c r="U39" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="V39" s="21"/>
+      <c r="V39" s="30"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R40" s="31" t="s">
+      <c r="R40" s="25" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="4">
@@ -17940,13 +17949,13 @@
       <c r="T40" s="4">
         <v>2.7175572824945746E-2</v>
       </c>
-      <c r="U40" s="22" t="s">
+      <c r="U40" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="V40" s="21"/>
+      <c r="V40" s="30"/>
     </row>
     <row r="41" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="R41" s="31" t="s">
+      <c r="R41" s="25" t="s">
         <v>43</v>
       </c>
       <c r="S41" s="4">
@@ -17955,10 +17964,10 @@
       <c r="T41" s="4">
         <v>5.4355580392070058E-2</v>
       </c>
-      <c r="U41" s="22" t="s">
+      <c r="U41" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="V41" s="21"/>
+      <c r="V41" s="30"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="11"/>

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59C185E1-21DB-4084-8279-7DF83090B01E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97272EC2-6F60-4F9B-A08F-A2D70FA9B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
   <si>
     <t>Carga e Descarga</t>
   </si>
@@ -270,6 +270,27 @@
   <si>
     <t>Regressão da Descarga</t>
   </si>
+  <si>
+    <t>±0,0001</t>
+  </si>
+  <si>
+    <t>±0,01</t>
+  </si>
+  <si>
+    <t>± 0,0005</t>
+  </si>
+  <si>
+    <t>± 0,00001</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>1,4E-7±5,0E-9</t>
+  </si>
+  <si>
+    <t>9,3E-8±5,0E-9</t>
+  </si>
 </sst>
 </file>
 
@@ -480,9 +501,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -502,6 +520,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -533,7 +554,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -552,7 +573,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -622,7 +643,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -710,7 +731,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -905,7 +926,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -943,7 +964,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -1032,7 +1053,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1070,7 +1091,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -1126,7 +1147,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1163,7 +1184,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1177,7 +1198,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1243,7 +1264,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1486,7 +1507,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1524,7 +1545,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -1603,7 +1624,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1641,7 +1662,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -1697,7 +1718,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1734,7 +1755,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1748,7 +1769,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1831,7 +1852,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1921,7 +1942,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2133,7 +2154,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2171,7 +2192,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1151925264"/>
@@ -2256,7 +2277,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2294,7 +2315,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1151924432"/>
@@ -2350,7 +2371,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2387,7 +2408,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2401,7 +2422,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2484,7 +2505,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2574,7 +2595,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2774,7 +2795,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2812,7 +2833,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066472000"/>
@@ -2913,7 +2934,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2951,7 +2972,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066474080"/>
@@ -3007,7 +3028,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3044,7 +3065,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3058,7 +3079,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3128,7 +3149,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3216,7 +3237,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3411,7 +3432,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3449,7 +3470,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -3529,7 +3550,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3567,7 +3588,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -3623,7 +3644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3660,7 +3681,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3674,7 +3695,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3741,7 +3762,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3978,7 +3999,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4016,7 +4037,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -4095,7 +4116,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4133,7 +4154,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -4181,7 +4202,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4195,7 +4216,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4262,7 +4283,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4491,7 +4512,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4529,7 +4550,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -4610,7 +4631,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4648,7 +4669,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -4696,7 +4717,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4710,7 +4731,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4785,7 +4806,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4893,7 +4914,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5075,7 +5096,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
+                  <a:endParaRPr lang="pt-PT"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5270,7 +5291,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5308,7 +5329,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184421663"/>
@@ -5391,7 +5412,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5429,7 +5450,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184421247"/>
@@ -5489,7 +5510,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5526,7 +5547,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5540,7 +5561,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5623,7 +5644,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5726,43 +5747,43 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>717244.5307591249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1435081.6667861047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2184440.2391794994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2968498.1453934968</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3791452.7322050147</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4651351.3217513198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5600382.8525993265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6649150.9245182676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7789366.5349611174</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9125718.4373995792</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10508394.140020812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12160818.363796601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13918849.446558287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5857,43 +5878,43 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>717244.5307591249</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1435081.6667861047</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2184440.2391794994</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2968498.1453934968</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3791452.7322050147</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4651351.3217513198</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5600382.8525993265</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6649150.9245182676</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7789366.5349611174</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9125718.4373995792</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10508394.140020812</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12160818.363796601</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>13918849.446558287</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -6005,7 +6026,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6043,7 +6064,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023469344"/>
@@ -6134,7 +6155,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6172,7 +6193,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023479744"/>
@@ -6228,7 +6249,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6265,7 +6286,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6279,7 +6300,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6353,7 +6374,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6611,7 +6632,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6649,7 +6670,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -6732,7 +6753,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6770,7 +6791,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -6826,7 +6847,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6863,7 +6884,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6877,7 +6898,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6951,7 +6972,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7199,7 +7220,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7237,7 +7258,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1992673471"/>
@@ -7320,7 +7341,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7358,7 +7379,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1992673055"/>
@@ -7414,7 +7435,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7451,7 +7472,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7465,7 +7486,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="pt-PT"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7532,7 +7553,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7781,7 +7802,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7819,7 +7840,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -7898,7 +7919,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="en-US"/>
+              <a:endParaRPr lang="pt-PT"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7936,7 +7957,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="pt-PT"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -7992,7 +8013,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="pt-PT"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8029,7 +8050,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="pt-PT"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -15169,7 +15190,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15467,8 +15488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F3" sqref="C3:F3"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15547,15 +15568,33 @@
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="3"/>
-      <c r="G3" s="3"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
+      <c r="A3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3" s="28" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>50</v>
+      </c>
       <c r="X3" s="20"/>
       <c r="Y3" s="20"/>
       <c r="Z3" s="20"/>
@@ -15589,9 +15628,8 @@
       <c r="H4" s="4">
         <v>4.2700000000000002E-4</v>
       </c>
-      <c r="I4" s="4">
-        <f>G4*H4</f>
-        <v>1.4005600000000002E-7</v>
+      <c r="I4" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="X4" s="18">
         <f t="shared" ref="X4:X16" si="2">$A$20*D4^3+$B$20*D4^2+$C$20*D4+$D$20</f>
@@ -16166,9 +16204,8 @@
       <c r="H16" s="4">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="I16" s="4">
-        <f>G16*H16</f>
-        <v>9.2512000000000001E-8</v>
+      <c r="I16" s="4" t="s">
+        <v>52</v>
       </c>
       <c r="X16" s="18">
         <f t="shared" si="2"/>
@@ -16197,7 +16234,7 @@
       <c r="F18" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="22">
+      <c r="G18" s="21">
         <f>C4</f>
         <v>0.41299999999999998</v>
       </c>
@@ -16215,8 +16252,8 @@
       <c r="D19" s="19" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
@@ -16244,9 +16281,9 @@
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="4" t="str">
         <f>I4</f>
-        <v>1.4005600000000002E-7</v>
+        <v>1,4E-7±5,0E-9</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -16260,9 +16297,9 @@
         <f>D16</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="4" t="str">
         <f>I16</f>
-        <v>9.2512000000000001E-8</v>
+        <v>9,3E-8±5,0E-9</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -16301,15 +16338,15 @@
       <c r="C26" s="30"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="25" t="s">
+      <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B27" s="4" t="e">
         <f t="array" ref="B27:C29">LINEST(G21:G22,F21:F22,TRUE,TRUE)</f>
-        <v>-2.7168000000000022E-7</v>
-      </c>
-      <c r="C27" s="4">
-        <v>1.4005600000000002E-7</v>
+        <v>#VALUE!</v>
+      </c>
+      <c r="C27" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>27</v>
@@ -16317,14 +16354,14 @@
       <c r="E27" s="30"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4">
-        <v>0</v>
-      </c>
-      <c r="C28" s="4">
-        <v>0</v>
+      <c r="B28" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C28" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>28</v>
@@ -16332,14 +16369,14 @@
       <c r="E28" s="30"/>
     </row>
     <row r="29" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="25" t="s">
+      <c r="A29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="4">
-        <v>1</v>
-      </c>
-      <c r="C29" s="4">
-        <v>0</v>
+      <c r="B29" s="4" t="e">
+        <v>#VALUE!</v>
+      </c>
+      <c r="C29" s="4" t="e">
+        <v>#VALUE!</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>30</v>
@@ -16373,23 +16410,23 @@
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="26">
+      <c r="A32" s="25">
         <f t="shared" ref="A32:A44" si="7">B4</f>
         <v>0.10045440000000001</v>
       </c>
-      <c r="B32" s="26">
+      <c r="B32" s="25">
         <f t="shared" ref="B32:B44" si="8">D4</f>
         <v>0</v>
       </c>
-      <c r="C32" s="26">
+      <c r="C32" s="25">
         <f t="shared" ref="C32:C44" si="9">F4</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D32" s="22">
+      <c r="D32" s="21" t="e">
         <f t="shared" ref="D32:D44" si="10">$B$27*D4+$C$27</f>
-        <v>1.4005600000000002E-7</v>
-      </c>
-      <c r="E32" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E32" s="25">
         <f t="shared" ref="E32:E44" si="11">D4/$G$18</f>
         <v>0</v>
       </c>
@@ -16397,32 +16434,32 @@
         <f t="shared" ref="F32:F44" si="12">F4/$G$18</f>
         <v>9.6852300242130842E-3</v>
       </c>
-      <c r="G32" s="22">
+      <c r="G32" s="21" t="e">
         <f>A32/D32</f>
-        <v>717244.5307591249</v>
+        <v>#VALUE!</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="26">
+      <c r="A33" s="25">
         <f t="shared" si="7"/>
         <v>0.19865250000000001</v>
       </c>
-      <c r="B33" s="26">
+      <c r="B33" s="25">
         <f t="shared" si="8"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="C33" s="26">
+      <c r="C33" s="25">
         <f t="shared" si="9"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="D33" s="22">
+      <c r="D33" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.3842592000000003E-7</v>
-      </c>
-      <c r="E33" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E33" s="25">
         <f t="shared" si="11"/>
         <v>1.4527845036319625E-2</v>
       </c>
@@ -16430,33 +16467,33 @@
         <f t="shared" si="12"/>
         <v>2.6634382566585981E-2</v>
       </c>
-      <c r="G33" s="22">
+      <c r="G33" s="21" t="e">
         <f t="shared" ref="G33:G44" si="13">A33/D33</f>
-        <v>1435081.6667861047</v>
-      </c>
-      <c r="H33" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H33" s="21" t="e">
         <f>G33/F33</f>
-        <v>53880793.489332788</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="26">
+      <c r="A34" s="25">
         <f t="shared" si="7"/>
         <v>0.29763539999999999</v>
       </c>
-      <c r="B34" s="26">
+      <c r="B34" s="25">
         <f t="shared" si="8"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="C34" s="26">
+      <c r="C34" s="25">
         <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.3625248000000002E-7</v>
-      </c>
-      <c r="E34" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E34" s="25">
         <f t="shared" si="11"/>
         <v>3.3898305084745797E-2</v>
       </c>
@@ -16464,33 +16501,33 @@
         <f t="shared" si="12"/>
         <v>4.8426150121065423E-2</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>2184440.2391794994</v>
-      </c>
-      <c r="H34" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H34" s="21" t="e">
         <f t="shared" ref="H34:H44" si="14">G34/E34</f>
-        <v>64440987.05579517</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="26">
+      <c r="A35" s="25">
         <f t="shared" si="7"/>
         <v>0.39720690000000003</v>
       </c>
-      <c r="B35" s="26">
+      <c r="B35" s="25">
         <f t="shared" si="8"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="C35" s="26">
+      <c r="C35" s="25">
         <f t="shared" si="9"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="D35" s="22">
+      <c r="D35" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.3380736000000001E-7</v>
-      </c>
-      <c r="E35" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E35" s="25">
         <f t="shared" si="11"/>
         <v>5.5690072639225235E-2</v>
       </c>
@@ -16498,33 +16535,33 @@
         <f t="shared" si="12"/>
         <v>7.2639225181598127E-2</v>
       </c>
-      <c r="G35" s="22">
+      <c r="G35" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>2968498.1453934968</v>
-      </c>
-      <c r="H35" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H35" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>53303901.480326653</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="26">
+      <c r="A36" s="25">
         <f t="shared" si="7"/>
         <v>0.49599360000000003</v>
       </c>
-      <c r="B36" s="26">
+      <c r="B36" s="25">
         <f t="shared" si="8"/>
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="C36" s="26">
+      <c r="C36" s="25">
         <f t="shared" si="9"/>
         <v>4.3000000000000038E-2</v>
       </c>
-      <c r="D36" s="22">
+      <c r="D36" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.3081888000000002E-7</v>
-      </c>
-      <c r="E36" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E36" s="25">
         <f t="shared" si="11"/>
         <v>8.232445520581122E-2</v>
       </c>
@@ -16532,33 +16569,33 @@
         <f t="shared" si="12"/>
         <v>0.10411622276029066</v>
       </c>
-      <c r="G36" s="22">
+      <c r="G36" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>3791452.7322050147</v>
-      </c>
-      <c r="H36" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H36" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>46054999.364725575</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="26">
+      <c r="A37" s="25">
         <f t="shared" si="7"/>
         <v>0.59458409999999995</v>
       </c>
-      <c r="B37" s="26">
+      <c r="B37" s="25">
         <f t="shared" si="8"/>
         <v>4.500000000000004E-2</v>
       </c>
-      <c r="C37" s="26">
+      <c r="C37" s="25">
         <f t="shared" si="9"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="D37" s="22">
+      <c r="D37" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.278304E-7</v>
-      </c>
-      <c r="E37" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E37" s="25">
         <f t="shared" si="11"/>
         <v>0.10895883777239719</v>
       </c>
@@ -16566,33 +16603,33 @@
         <f t="shared" si="12"/>
         <v>0.13801452784503632</v>
       </c>
-      <c r="G37" s="22">
+      <c r="G37" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>4651351.3217513198</v>
-      </c>
-      <c r="H37" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H37" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>42689068.797406517</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="26">
+      <c r="A38" s="25">
         <f t="shared" si="7"/>
         <v>0.6930765000000001</v>
       </c>
-      <c r="B38" s="26">
+      <c r="B38" s="25">
         <f t="shared" si="8"/>
         <v>0.06</v>
       </c>
-      <c r="C38" s="26">
+      <c r="C38" s="25">
         <f t="shared" si="9"/>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="D38" s="22">
+      <c r="D38" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.237552E-7</v>
-      </c>
-      <c r="E38" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E38" s="25">
         <f t="shared" si="11"/>
         <v>0.14527845036319612</v>
       </c>
@@ -16600,33 +16637,33 @@
         <f t="shared" si="12"/>
         <v>0.17917675544794193</v>
       </c>
-      <c r="G38" s="22">
+      <c r="G38" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>5600382.8525993265</v>
-      </c>
-      <c r="H38" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H38" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>38549301.968725368</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="26">
+      <c r="A39" s="25">
         <f t="shared" si="7"/>
         <v>0.79215750000000007</v>
       </c>
-      <c r="B39" s="26">
+      <c r="B39" s="25">
         <f t="shared" si="8"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="C39" s="26">
+      <c r="C39" s="25">
         <f t="shared" si="9"/>
         <v>9.1000000000000025E-2</v>
       </c>
-      <c r="D39" s="22">
+      <c r="D39" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.1913664000000001E-7</v>
-      </c>
-      <c r="E39" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E39" s="25">
         <f t="shared" si="11"/>
         <v>0.18644067796610173</v>
       </c>
@@ -16634,33 +16671,33 @@
         <f t="shared" si="12"/>
         <v>0.22033898305084754</v>
       </c>
-      <c r="G39" s="22">
+      <c r="G39" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>6649150.9245182676</v>
-      </c>
-      <c r="H39" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H39" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>35663627.686052524</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="26">
+      <c r="A40" s="25">
         <f t="shared" si="7"/>
         <v>0.89202329999999996</v>
       </c>
-      <c r="B40" s="26">
+      <c r="B40" s="25">
         <f t="shared" si="8"/>
         <v>9.4000000000000028E-2</v>
       </c>
-      <c r="C40" s="26">
+      <c r="C40" s="25">
         <f t="shared" si="9"/>
         <v>0.10600000000000004</v>
       </c>
-      <c r="D40" s="22">
+      <c r="D40" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.1451807999999999E-7</v>
-      </c>
-      <c r="E40" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E40" s="25">
         <f t="shared" si="11"/>
         <v>0.22760290556900734</v>
       </c>
@@ -16668,33 +16705,33 @@
         <f t="shared" si="12"/>
         <v>0.25665859564164661</v>
       </c>
-      <c r="G40" s="22">
+      <c r="G40" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>7789366.5349611174</v>
-      </c>
-      <c r="H40" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H40" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>34223493.392967455</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="26">
+      <c r="A41" s="25">
         <f t="shared" si="7"/>
         <v>0.99051570000000011</v>
       </c>
-      <c r="B41" s="26">
+      <c r="B41" s="25">
         <f t="shared" si="8"/>
         <v>0.11600000000000005</v>
       </c>
-      <c r="C41" s="26">
+      <c r="C41" s="25">
         <f t="shared" si="9"/>
         <v>0.12600000000000006</v>
       </c>
-      <c r="D41" s="22">
+      <c r="D41" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.0854111999999998E-7</v>
-      </c>
-      <c r="E41" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E41" s="25">
         <f t="shared" si="11"/>
         <v>0.28087167070217933</v>
       </c>
@@ -16702,33 +16739,33 @@
         <f t="shared" si="12"/>
         <v>0.305084745762712</v>
       </c>
-      <c r="G41" s="22">
+      <c r="G41" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>9125718.4373995792</v>
-      </c>
-      <c r="H41" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H41" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>32490704.436603658</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="26">
+      <c r="A42" s="25">
         <f t="shared" si="7"/>
         <v>1.0892043</v>
       </c>
-      <c r="B42" s="26">
+      <c r="B42" s="25">
         <f t="shared" si="8"/>
         <v>0.13400000000000006</v>
       </c>
-      <c r="C42" s="26">
+      <c r="C42" s="25">
         <f t="shared" si="9"/>
         <v>0.14600000000000007</v>
       </c>
-      <c r="D42" s="22">
+      <c r="D42" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>1.0365087999999997E-7</v>
-      </c>
-      <c r="E42" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E42" s="25">
         <f t="shared" si="11"/>
         <v>0.32445520581113818</v>
       </c>
@@ -16736,33 +16773,33 @@
         <f t="shared" si="12"/>
         <v>0.35351089588377743</v>
       </c>
-      <c r="G42" s="22">
+      <c r="G42" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>10508394.140020812</v>
-      </c>
-      <c r="H42" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H42" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>32387811.789765619</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="26">
+      <c r="A43" s="25">
         <f t="shared" si="7"/>
         <v>1.1877948</v>
       </c>
-      <c r="B43" s="26">
+      <c r="B43" s="25">
         <f t="shared" si="8"/>
         <v>0.15599999999999997</v>
       </c>
-      <c r="C43" s="26">
+      <c r="C43" s="25">
         <f t="shared" si="9"/>
         <v>0.16299999999999998</v>
       </c>
-      <c r="D43" s="22">
+      <c r="D43" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>9.7673919999999993E-8</v>
-      </c>
-      <c r="E43" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E43" s="25">
         <f t="shared" si="11"/>
         <v>0.37772397094430987</v>
       </c>
@@ -16770,33 +16807,33 @@
         <f t="shared" si="12"/>
         <v>0.39467312348668276</v>
       </c>
-      <c r="G43" s="22">
+      <c r="G43" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>12160818.363796601</v>
-      </c>
-      <c r="H43" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H43" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>32194987.078512803</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="26">
+      <c r="A44" s="25">
         <f t="shared" si="7"/>
         <v>1.2876605999999999</v>
       </c>
-      <c r="B44" s="26">
+      <c r="B44" s="25">
         <f t="shared" si="8"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="C44" s="26">
+      <c r="C44" s="25">
         <f t="shared" si="9"/>
         <v>0.17699999999999999</v>
       </c>
-      <c r="D44" s="22">
+      <c r="D44" s="21" t="e">
         <f t="shared" si="10"/>
-        <v>9.2511999999999975E-8</v>
-      </c>
-      <c r="E44" s="26">
+        <v>#VALUE!</v>
+      </c>
+      <c r="E44" s="25">
         <f t="shared" si="11"/>
         <v>0.42372881355932202</v>
       </c>
@@ -16804,13 +16841,13 @@
         <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G44" s="22">
+      <c r="G44" s="21" t="e">
         <f t="shared" si="13"/>
-        <v>13918849.446558287</v>
-      </c>
-      <c r="H44" s="22">
+        <v>#VALUE!</v>
+      </c>
+      <c r="H44" s="21" t="e">
         <f t="shared" si="14"/>
-        <v>32848484.693877559</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
@@ -16921,19 +16958,19 @@
       <c r="F4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="AE4" s="24">
+      <c r="AE4" s="23">
         <f>$S$19*F6+$T$19</f>
         <v>-3.5879173083905704</v>
       </c>
-      <c r="AF4" s="24">
+      <c r="AF4" s="23">
         <f>E6-AE4</f>
         <v>-0.34390832433375484</v>
       </c>
-      <c r="AG4" s="24">
+      <c r="AG4" s="23">
         <f>$S$39*F26+$T$39</f>
         <v>-5.5813988687434586</v>
       </c>
-      <c r="AH4" s="24">
+      <c r="AH4" s="23">
         <f>E26-AG4</f>
         <v>5.9937950881213453E-2</v>
       </c>
@@ -16942,505 +16979,505 @@
       <c r="A5" s="35">
         <v>9.0939999999999993E-2</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="22">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="22">
         <f>B5-'Carga e Descarga'!$G$18</f>
         <v>0.10200000000000004</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="22">
         <f t="shared" ref="D5:D21" si="0">C5/$P$18</f>
         <v>0.24697336561743352</v>
       </c>
       <c r="E5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>30</v>
       </c>
-      <c r="AE5" s="24">
+      <c r="AE5" s="23">
         <f t="shared" ref="AE5:AE16" si="1">$S$19*F7+$T$19</f>
         <v>-3.5496565606661639</v>
       </c>
-      <c r="AF5" s="24">
+      <c r="AF5" s="23">
         <f t="shared" ref="AF5:AF16" si="2">E7-AE5</f>
         <v>2.3296036050003188E-2</v>
       </c>
-      <c r="AG5" s="24">
+      <c r="AG5" s="23">
         <f t="shared" ref="AG5:AG16" si="3">$S$39*F27+$T$39</f>
         <v>-5.6208686979581248</v>
       </c>
-      <c r="AH5" s="24">
+      <c r="AH5" s="23">
         <f t="shared" ref="AH5:AH16" si="4">E27-AG5</f>
         <v>7.4089972111591962E-2</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A6" s="36"/>
-      <c r="B6" s="23">
+      <c r="B6" s="22">
         <v>0.51700000000000002</v>
       </c>
-      <c r="C6" s="23">
+      <c r="C6" s="22">
         <f>B6-'Carga e Descarga'!$G$18</f>
         <v>0.10400000000000004</v>
       </c>
-      <c r="D6" s="23">
+      <c r="D6" s="22">
         <f t="shared" si="0"/>
         <v>0.25181598062954008</v>
       </c>
-      <c r="E6" s="23">
+      <c r="E6" s="22">
         <f>LN((-$C$5+C6)/$C$5)</f>
         <v>-3.9318256327243253</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>80</v>
       </c>
-      <c r="AE6" s="24">
+      <c r="AE6" s="23">
         <f t="shared" si="1"/>
         <v>-3.5205451221802022</v>
       </c>
-      <c r="AF6" s="24">
+      <c r="AF6" s="23">
         <f t="shared" si="2"/>
         <v>5.8723118701605515E-2</v>
       </c>
-      <c r="AG6" s="24">
+      <c r="AG6" s="23">
         <f t="shared" si="3"/>
         <v>-5.6499125345500492</v>
       </c>
-      <c r="AH6" s="24">
+      <c r="AH6" s="23">
         <f t="shared" si="4"/>
         <v>-5.0797759367187112E-3</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A7" s="36"/>
-      <c r="B7" s="23">
+      <c r="B7" s="22">
         <v>0.51800000000000002</v>
       </c>
-      <c r="C7" s="23">
+      <c r="C7" s="22">
         <f>B7-'Carga e Descarga'!$G$18</f>
         <v>0.10500000000000004</v>
       </c>
-      <c r="D7" s="23">
+      <c r="D7" s="22">
         <f t="shared" si="0"/>
         <v>0.25423728813559332</v>
       </c>
-      <c r="E7" s="23">
+      <c r="E7" s="22">
         <f t="shared" ref="E7:E21" si="5">LN((-$C$5+C7)/$C$5)</f>
         <v>-3.5263605246161607</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="27">
         <v>126</v>
       </c>
-      <c r="AE7" s="24">
+      <c r="AE7" s="23">
         <f t="shared" si="1"/>
         <v>-3.4839478852264216</v>
       </c>
-      <c r="AF7" s="24">
+      <c r="AF7" s="23">
         <f t="shared" si="2"/>
         <v>-0.11140551087668271</v>
       </c>
-      <c r="AG7" s="24">
+      <c r="AG7" s="23">
         <f t="shared" si="3"/>
         <v>-5.6819352261770426</v>
       </c>
-      <c r="AH7" s="24">
+      <c r="AH7" s="23">
         <f t="shared" si="4"/>
         <v>-2.0446211829749927E-3</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A8" s="36"/>
-      <c r="B8" s="23">
+      <c r="B8" s="22">
         <v>0.51819999999999999</v>
       </c>
-      <c r="C8" s="23">
+      <c r="C8" s="22">
         <f>B8-'Carga e Descarga'!$G$18</f>
         <v>0.10520000000000002</v>
       </c>
-      <c r="D8" s="23">
+      <c r="D8" s="22">
         <f t="shared" si="0"/>
         <v>0.25472154963680393</v>
       </c>
-      <c r="E8" s="23">
+      <c r="E8" s="22">
         <f t="shared" si="5"/>
         <v>-3.4618220034785967</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>161</v>
       </c>
-      <c r="AE8" s="24">
+      <c r="AE8" s="23">
         <f t="shared" si="1"/>
         <v>-3.4465188928873283</v>
       </c>
-      <c r="AF8" s="24">
+      <c r="AF8" s="23">
         <f t="shared" si="2"/>
         <v>7.4309048098410102E-2</v>
       </c>
-      <c r="AG8" s="24">
+      <c r="AG8" s="23">
         <f t="shared" si="3"/>
         <v>-5.7325757617732185</v>
       </c>
-      <c r="AH8" s="24">
+      <c r="AH8" s="23">
         <f t="shared" si="4"/>
         <v>1.8742951263523544E-2</v>
       </c>
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A9" s="36"/>
-      <c r="B9" s="23">
+      <c r="B9" s="22">
         <v>0.51780000000000004</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="22">
         <f>B9-'Carga e Descarga'!$G$18</f>
         <v>0.10480000000000006</v>
       </c>
-      <c r="D9" s="23">
+      <c r="D9" s="22">
         <f t="shared" si="0"/>
         <v>0.25375302663438271</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="22">
         <f t="shared" si="5"/>
         <v>-3.5953533961031043</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>205</v>
       </c>
-      <c r="AE9" s="24">
+      <c r="AE9" s="23">
         <f t="shared" si="1"/>
         <v>-3.4007723466951028</v>
       </c>
-      <c r="AF9" s="24">
+      <c r="AF9" s="23">
         <f t="shared" si="2"/>
         <v>8.4132353061019849E-2</v>
       </c>
-      <c r="AG9" s="24">
+      <c r="AG9" s="23">
         <f t="shared" si="3"/>
         <v>-5.7802374423343252</v>
       </c>
-      <c r="AH9" s="24">
+      <c r="AH9" s="23">
         <f t="shared" si="4"/>
         <v>-2.8905547979701574E-2</v>
       </c>
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A10" s="36"/>
-      <c r="B10" s="23">
+      <c r="B10" s="22">
         <v>0.51849999999999996</v>
       </c>
-      <c r="C10" s="23">
+      <c r="C10" s="22">
         <f>B10-'Carga e Descarga'!$G$18</f>
         <v>0.10549999999999998</v>
       </c>
-      <c r="D10" s="23">
+      <c r="D10" s="22">
         <f t="shared" si="0"/>
         <v>0.2554479418886198</v>
       </c>
-      <c r="E10" s="23">
+      <c r="E10" s="22">
         <f t="shared" si="5"/>
         <v>-3.3722098447889182</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>250</v>
       </c>
-      <c r="AE10" s="24">
+      <c r="AE10" s="23">
         <f t="shared" si="1"/>
         <v>-3.3076157435400253</v>
       </c>
-      <c r="AF10" s="24">
+      <c r="AF10" s="23">
         <f t="shared" si="2"/>
         <v>9.3629903966014005E-2</v>
       </c>
-      <c r="AG10" s="24">
+      <c r="AG10" s="23">
         <f t="shared" si="3"/>
         <v>-5.8301332641717334</v>
       </c>
-      <c r="AH10" s="24">
+      <c r="AH10" s="23">
         <f t="shared" si="4"/>
         <v>-8.4370241800106882E-2</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A11" s="36"/>
-      <c r="B11" s="23">
+      <c r="B11" s="22">
         <v>0.51870000000000005</v>
       </c>
-      <c r="C11" s="23">
+      <c r="C11" s="22">
         <f>B11-'Carga e Descarga'!$G$18</f>
         <v>0.10570000000000007</v>
       </c>
-      <c r="D11" s="23">
+      <c r="D11" s="22">
         <f t="shared" si="0"/>
         <v>0.25593220338983069</v>
       </c>
-      <c r="E11" s="23">
+      <c r="E11" s="22">
         <f t="shared" si="5"/>
         <v>-3.3166399936340829</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="27">
         <v>305</v>
       </c>
-      <c r="AE11" s="24">
+      <c r="AE11" s="23">
         <f t="shared" si="1"/>
         <v>-3.2618691973477998</v>
       </c>
-      <c r="AF11" s="24">
+      <c r="AF11" s="23">
         <f t="shared" si="2"/>
         <v>0.14097378083979084</v>
       </c>
-      <c r="AG11" s="24">
+      <c r="AG11" s="23">
         <f t="shared" si="3"/>
         <v>-5.9060940675659968</v>
       </c>
-      <c r="AH11" s="24">
+      <c r="AH11" s="23">
         <f t="shared" si="4"/>
         <v>-4.614976638868562E-2</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A12" s="36"/>
-      <c r="B12" s="23">
+      <c r="B12" s="22">
         <v>0.51910000000000001</v>
       </c>
-      <c r="C12" s="23">
+      <c r="C12" s="22">
         <f>B12-'Carga e Descarga'!$G$18</f>
         <v>0.10610000000000003</v>
       </c>
-      <c r="D12" s="23">
+      <c r="D12" s="22">
         <f t="shared" si="0"/>
         <v>0.25690072639225192</v>
       </c>
-      <c r="E12" s="23">
+      <c r="E12" s="22">
         <f t="shared" si="5"/>
         <v>-3.2139858395740113</v>
       </c>
-      <c r="F12" s="28">
+      <c r="F12" s="27">
         <v>417</v>
       </c>
-      <c r="AE12" s="24">
+      <c r="AE12" s="23">
         <f t="shared" si="1"/>
         <v>-3.2086368526877553</v>
       </c>
-      <c r="AF12" s="24">
+      <c r="AF12" s="23">
         <f t="shared" si="2"/>
         <v>8.774143617974639E-2</v>
       </c>
-      <c r="AG12" s="24">
+      <c r="AG12" s="23">
         <f t="shared" si="3"/>
         <v>-5.975352447131355</v>
       </c>
-      <c r="AH12" s="24">
+      <c r="AH12" s="23">
         <f t="shared" si="4"/>
         <v>-1.6112099976625771E-2</v>
       </c>
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A13" s="36"/>
-      <c r="B13" s="23">
+      <c r="B13" s="22">
         <v>0.51949999999999996</v>
       </c>
-      <c r="C13" s="23">
+      <c r="C13" s="22">
         <f>B13-'Carga e Descarga'!$G$18</f>
         <v>0.10649999999999998</v>
       </c>
-      <c r="D13" s="23">
+      <c r="D13" s="22">
         <f t="shared" si="0"/>
         <v>0.25786924939467309</v>
       </c>
-      <c r="E13" s="23">
+      <c r="E13" s="22">
         <f t="shared" si="5"/>
         <v>-3.1208954165080089</v>
       </c>
-      <c r="F13" s="28">
+      <c r="F13" s="27">
         <v>472</v>
       </c>
-      <c r="AE13" s="24">
+      <c r="AE13" s="23">
         <f t="shared" si="1"/>
         <v>-3.1603950403395906</v>
       </c>
-      <c r="AF13" s="24">
+      <c r="AF13" s="23">
         <f t="shared" si="2"/>
         <v>0.10403814496917008</v>
       </c>
-      <c r="AG13" s="24">
+      <c r="AG13" s="23">
         <f t="shared" si="3"/>
         <v>-6.0505685367668516</v>
       </c>
-      <c r="AH13" s="24">
+      <c r="AH13" s="23">
         <f t="shared" si="4"/>
         <v>-6.8729381850999083E-2</v>
       </c>
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A14" s="36"/>
-      <c r="B14" s="23">
+      <c r="B14" s="22">
         <v>0.51949999999999996</v>
       </c>
-      <c r="C14" s="23">
+      <c r="C14" s="22">
         <f>B14-'Carga e Descarga'!$G$18</f>
         <v>0.10649999999999998</v>
       </c>
-      <c r="D14" s="23">
+      <c r="D14" s="22">
         <f t="shared" si="0"/>
         <v>0.25786924939467309</v>
       </c>
-      <c r="E14" s="23">
+      <c r="E14" s="22">
         <f t="shared" si="5"/>
         <v>-3.1208954165080089</v>
       </c>
-      <c r="F14" s="28">
+      <c r="F14" s="27">
         <v>536</v>
       </c>
-      <c r="AE14" s="24">
+      <c r="AE14" s="23">
         <f t="shared" si="1"/>
         <v>-3.1121532279914255</v>
       </c>
-      <c r="AF14" s="24">
+      <c r="AF14" s="23">
         <f t="shared" si="2"/>
         <v>7.6415619823738012E-2</v>
       </c>
-      <c r="AG14" s="24">
+      <c r="AG14" s="23">
         <f t="shared" si="3"/>
         <v>-6.1302529089549509</v>
       </c>
-      <c r="AH14" s="24">
+      <c r="AH14" s="23">
         <f t="shared" si="4"/>
         <v>-3.5565025297787045E-2</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A15" s="36"/>
-      <c r="B15" s="23">
+      <c r="B15" s="22">
         <v>0.51980000000000004</v>
       </c>
-      <c r="C15" s="23">
+      <c r="C15" s="22">
         <f>B15-'Carga e Descarga'!$G$18</f>
         <v>0.10680000000000006</v>
       </c>
-      <c r="D15" s="23">
+      <c r="D15" s="22">
         <f t="shared" si="0"/>
         <v>0.25859564164648929</v>
       </c>
-      <c r="E15" s="23">
+      <c r="E15" s="22">
         <f t="shared" si="5"/>
         <v>-3.0563568953704205</v>
       </c>
-      <c r="F15" s="28">
+      <c r="F15" s="27">
         <v>594</v>
       </c>
-      <c r="AE15" s="24">
+      <c r="AE15" s="23">
         <f t="shared" si="1"/>
         <v>-3.0647431710285735</v>
       </c>
-      <c r="AF15" s="24">
+      <c r="AF15" s="23">
         <f t="shared" si="2"/>
         <v>4.9208270178403346E-2</v>
       </c>
-      <c r="AG15" s="24">
+      <c r="AG15" s="23">
         <f t="shared" si="3"/>
         <v>-6.2121714224193534</v>
       </c>
-      <c r="AH15" s="24">
+      <c r="AH15" s="23">
         <f t="shared" si="4"/>
         <v>-2.4366760028371459E-3</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A16" s="36"/>
-      <c r="B16" s="23">
+      <c r="B16" s="22">
         <v>0.51990000000000003</v>
       </c>
-      <c r="C16" s="23">
+      <c r="C16" s="22">
         <f>B16-'Carga e Descarga'!$G$18</f>
         <v>0.10690000000000005</v>
       </c>
-      <c r="D16" s="23">
+      <c r="D16" s="22">
         <f t="shared" si="0"/>
         <v>0.25883777239709455</v>
       </c>
-      <c r="E16" s="23">
+      <c r="E16" s="22">
         <f t="shared" si="5"/>
         <v>-3.0357376081676875</v>
       </c>
-      <c r="F16" s="28">
+      <c r="F16" s="27">
         <v>652</v>
       </c>
       <c r="R16">
         <v>9</v>
       </c>
-      <c r="AE16" s="24">
+      <c r="AE16" s="23">
         <f t="shared" si="1"/>
         <v>-3.0023615171300841</v>
       </c>
-      <c r="AF16" s="24">
+      <c r="AF16" s="23">
         <f t="shared" si="2"/>
         <v>-1.3173383720086029E-2</v>
       </c>
-      <c r="AG16" s="24">
+      <c r="AG16" s="23">
         <f t="shared" si="3"/>
         <v>-6.2702590956032012</v>
       </c>
-      <c r="AH16" s="24">
+      <c r="AH16" s="23">
         <f t="shared" si="4"/>
         <v>5.5650997181010631E-2</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A17" s="36"/>
-      <c r="B17" s="23">
+      <c r="B17" s="22">
         <v>0.52</v>
       </c>
-      <c r="C17" s="23">
+      <c r="C17" s="22">
         <f>B17-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D17" s="23">
+      <c r="D17" s="22">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E17" s="23">
+      <c r="E17" s="22">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F17" s="28">
+      <c r="F17" s="27">
         <v>709</v>
       </c>
-      <c r="AE17" s="24">
+      <c r="AE17" s="23">
         <f>$S$19*F19+$T$19</f>
         <v>-2.9516244386259798</v>
       </c>
-      <c r="AF17" s="24">
+      <c r="AF17" s="23">
         <f>E19-AE17</f>
         <v>-6.391046222419039E-2</v>
       </c>
-      <c r="AG17" s="24">
+      <c r="AG17" s="23">
         <f>$S$39*F39+$T$39</f>
         <v>-6.2955793634012895</v>
       </c>
-      <c r="AH17" s="24">
+      <c r="AH17" s="23">
         <f>E39-AG17</f>
         <v>8.0971264979099011E-2</v>
       </c>
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A18" s="36"/>
-      <c r="B18" s="23">
+      <c r="B18" s="22">
         <v>0.52</v>
       </c>
-      <c r="C18" s="23">
+      <c r="C18" s="22">
         <f>B18-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D18" s="23">
+      <c r="D18" s="22">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E18" s="23">
+      <c r="E18" s="22">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F18" s="28">
+      <c r="F18" s="27">
         <v>784</v>
       </c>
       <c r="O18" s="1" t="s">
@@ -17453,36 +17490,36 @@
         <v>25</v>
       </c>
       <c r="T18" s="30"/>
-      <c r="AE18" s="24">
+      <c r="AE18" s="23">
         <f t="shared" ref="AE18:AE19" si="6">$S$19*F20+$T$19</f>
         <v>-2.9017191155071882</v>
       </c>
-      <c r="AF18" s="24">
+      <c r="AF18" s="23">
         <f t="shared" ref="AF18:AF19" si="7">E20-AE18</f>
         <v>-0.11381578534298198</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A19" s="36"/>
-      <c r="B19" s="23">
+      <c r="B19" s="22">
         <v>0.52</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="22">
         <f>B19-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D19" s="23">
+      <c r="D19" s="22">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E19" s="23">
+      <c r="E19" s="22">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F19" s="28">
+      <c r="F19" s="27">
         <v>845</v>
       </c>
-      <c r="R19" s="25" t="s">
+      <c r="R19" s="24" t="s">
         <v>36</v>
       </c>
       <c r="S19" s="4">
@@ -17496,11 +17533,11 @@
         <v>35</v>
       </c>
       <c r="V19" s="30"/>
-      <c r="AE19" s="24">
+      <c r="AE19" s="23">
         <f t="shared" si="6"/>
         <v>-2.8692806554799737</v>
       </c>
-      <c r="AF19" s="24">
+      <c r="AF19" s="23">
         <f t="shared" si="7"/>
         <v>-0.14625424537019649</v>
       </c>
@@ -17509,25 +17546,25 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A20" s="36"/>
-      <c r="B20" s="23">
+      <c r="B20" s="22">
         <v>0.52</v>
       </c>
-      <c r="C20" s="23">
+      <c r="C20" s="22">
         <f>B20-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D20" s="23">
+      <c r="D20" s="22">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E20" s="23">
+      <c r="E20" s="22">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F20" s="28">
+      <c r="F20" s="27">
         <v>905</v>
       </c>
-      <c r="R20" s="25" t="s">
+      <c r="R20" s="24" t="s">
         <v>29</v>
       </c>
       <c r="S20" s="4">
@@ -17543,25 +17580,25 @@
     </row>
     <row r="21" spans="1:34" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
-      <c r="B21" s="23">
+      <c r="B21" s="22">
         <v>0.52</v>
       </c>
-      <c r="C21" s="23">
+      <c r="C21" s="22">
         <f>B21-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D21" s="23">
+      <c r="D21" s="22">
         <f t="shared" si="0"/>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E21" s="23">
+      <c r="E21" s="22">
         <f t="shared" si="5"/>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F21" s="28">
+      <c r="F21" s="27">
         <v>944</v>
       </c>
-      <c r="R21" s="25" t="s">
+      <c r="R21" s="24" t="s">
         <v>43</v>
       </c>
       <c r="S21" s="4">
@@ -17609,294 +17646,294 @@
       <c r="A25" s="35">
         <v>1.0290000000000001E-2</v>
       </c>
-      <c r="B25" s="23">
+      <c r="B25" s="22">
         <v>0.41799999999999998</v>
       </c>
-      <c r="C25" s="23">
+      <c r="C25" s="22">
         <f>B25-'Carga e Descarga'!$G$18</f>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="D25" s="23">
+      <c r="D25" s="22">
         <f t="shared" ref="D25:D39" si="8">C25/$P$18</f>
         <v>1.2106537530266356E-2</v>
       </c>
-      <c r="E25" s="23" t="s">
+      <c r="E25" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="28">
+      <c r="F25" s="27">
         <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A26" s="36"/>
-      <c r="B26" s="23">
+      <c r="B26" s="22">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C26" s="23">
+      <c r="C26" s="22">
         <f>B26-'Carga e Descarga'!$G$18</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D26" s="23">
+      <c r="D26" s="22">
         <f t="shared" si="8"/>
         <v>9.6852300242130842E-3</v>
       </c>
-      <c r="E26" s="23">
+      <c r="E26" s="22">
         <f>LN(C26)</f>
         <v>-5.5214609178622451</v>
       </c>
-      <c r="F26" s="28">
+      <c r="F26" s="27">
         <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A27" s="36"/>
-      <c r="B27" s="23">
+      <c r="B27" s="22">
         <v>0.41689999999999999</v>
       </c>
-      <c r="C27" s="23">
+      <c r="C27" s="22">
         <f>B27-'Carga e Descarga'!$G$18</f>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="D27" s="23">
+      <c r="D27" s="22">
         <f t="shared" si="8"/>
         <v>9.4430992736077839E-3</v>
       </c>
-      <c r="E27" s="23">
+      <c r="E27" s="22">
         <f t="shared" ref="E27:E39" si="9">LN(C27)</f>
         <v>-5.5467787258465329</v>
       </c>
-      <c r="F27" s="28">
+      <c r="F27" s="27">
         <v>124</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A28" s="36"/>
-      <c r="B28" s="23">
+      <c r="B28" s="22">
         <v>0.41649999999999998</v>
       </c>
-      <c r="C28" s="23">
+      <c r="C28" s="22">
         <f>B28-'Carga e Descarga'!$G$18</f>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="D28" s="23">
+      <c r="D28" s="22">
         <f t="shared" si="8"/>
         <v>8.4745762711864493E-3</v>
       </c>
-      <c r="E28" s="23">
+      <c r="E28" s="22">
         <f t="shared" si="9"/>
         <v>-5.6549923104867679</v>
       </c>
-      <c r="F28" s="28">
+      <c r="F28" s="27">
         <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A29" s="36"/>
-      <c r="B29" s="23">
+      <c r="B29" s="22">
         <v>0.41639999999999999</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="22">
         <f>B29-'Carga e Descarga'!$G$18</f>
         <v>3.4000000000000141E-3</v>
       </c>
-      <c r="D29" s="23">
+      <c r="D29" s="22">
         <f t="shared" si="8"/>
         <v>8.2324455205811491E-3</v>
       </c>
-      <c r="E29" s="23">
+      <c r="E29" s="22">
         <f t="shared" si="9"/>
         <v>-5.6839798473600176</v>
       </c>
-      <c r="F29" s="28">
+      <c r="F29" s="27">
         <v>206</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A30" s="36"/>
-      <c r="B30" s="23">
+      <c r="B30" s="22">
         <v>0.4163</v>
       </c>
-      <c r="C30" s="23">
+      <c r="C30" s="22">
         <f>B30-'Carga e Descarga'!$G$18</f>
         <v>3.3000000000000251E-3</v>
       </c>
-      <c r="D30" s="23">
+      <c r="D30" s="22">
         <f t="shared" si="8"/>
         <v>7.9903147699758488E-3</v>
       </c>
-      <c r="E30" s="23">
+      <c r="E30" s="22">
         <f t="shared" si="9"/>
         <v>-5.7138328105096949</v>
       </c>
-      <c r="F30" s="28">
+      <c r="F30" s="27">
         <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A31" s="36"/>
-      <c r="B31" s="23">
+      <c r="B31" s="22">
         <v>0.41599999999999998</v>
       </c>
-      <c r="C31" s="23">
+      <c r="C31" s="22">
         <f>B31-'Carga e Descarga'!$G$18</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="D31" s="23">
+      <c r="D31" s="22">
         <f t="shared" si="8"/>
         <v>7.2639225181598127E-3</v>
       </c>
-      <c r="E31" s="23">
+      <c r="E31" s="22">
         <f t="shared" si="9"/>
         <v>-5.8091429903140268</v>
       </c>
-      <c r="F31" s="28">
+      <c r="F31" s="27">
         <v>338</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A32" s="36"/>
-      <c r="B32" s="23">
+      <c r="B32" s="22">
         <v>0.41570000000000001</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C32" s="22">
         <f>B32-'Carga e Descarga'!$G$18</f>
         <v>2.7000000000000357E-3</v>
       </c>
-      <c r="D32" s="23">
+      <c r="D32" s="22">
         <f t="shared" si="8"/>
         <v>6.5375302663439128E-3</v>
       </c>
-      <c r="E32" s="23">
+      <c r="E32" s="22">
         <f t="shared" si="9"/>
         <v>-5.9145035059718403</v>
       </c>
-      <c r="F32" s="28">
+      <c r="F32" s="27">
         <v>405</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
-      <c r="B33" s="23">
+      <c r="B33" s="22">
         <v>0.41560000000000002</v>
       </c>
-      <c r="C33" s="23">
+      <c r="C33" s="22">
         <f>B33-'Carga e Descarga'!$G$18</f>
         <v>2.6000000000000467E-3</v>
       </c>
-      <c r="D33" s="23">
+      <c r="D33" s="22">
         <f t="shared" si="8"/>
         <v>6.2953995157386125E-3</v>
       </c>
-      <c r="E33" s="23">
+      <c r="E33" s="22">
         <f t="shared" si="9"/>
         <v>-5.9522438339546824</v>
       </c>
-      <c r="F33" s="28">
+      <c r="F33" s="27">
         <v>507</v>
       </c>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
-      <c r="B34" s="23">
+      <c r="B34" s="22">
         <v>0.41549999999999998</v>
       </c>
-      <c r="C34" s="23">
+      <c r="C34" s="22">
         <f>B34-'Carga e Descarga'!$G$18</f>
         <v>2.5000000000000022E-3</v>
       </c>
-      <c r="D34" s="23">
+      <c r="D34" s="22">
         <f t="shared" si="8"/>
         <v>6.0532687651331778E-3</v>
       </c>
-      <c r="E34" s="23">
+      <c r="E34" s="22">
         <f t="shared" si="9"/>
         <v>-5.9914645471079808</v>
       </c>
-      <c r="F34" s="28">
+      <c r="F34" s="27">
         <v>600</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
-      <c r="B35" s="23">
+      <c r="B35" s="22">
         <v>0.41520000000000001</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="22">
         <f>B35-'Carga e Descarga'!$G$18</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="22">
         <f t="shared" si="8"/>
         <v>5.3268765133172771E-3</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="22">
         <f t="shared" si="9"/>
         <v>-6.1192979186178507</v>
       </c>
-      <c r="F35" s="28">
+      <c r="F35" s="27">
         <v>701</v>
       </c>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
-      <c r="B36" s="23">
+      <c r="B36" s="22">
         <v>0.41510000000000002</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C36" s="22">
         <f>B36-'Carga e Descarga'!$G$18</f>
         <v>2.1000000000000463E-3</v>
       </c>
-      <c r="D36" s="23">
+      <c r="D36" s="22">
         <f t="shared" si="8"/>
         <v>5.0847457627119768E-3</v>
       </c>
-      <c r="E36" s="23">
+      <c r="E36" s="22">
         <f t="shared" si="9"/>
         <v>-6.1658179342527379</v>
       </c>
-      <c r="F36" s="28">
+      <c r="F36" s="27">
         <v>808</v>
       </c>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
-      <c r="B37" s="23">
+      <c r="B37" s="22">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="22">
         <f>B37-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="22">
         <f t="shared" si="8"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="22">
         <f t="shared" si="9"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F37" s="28">
+      <c r="F37" s="27">
         <v>918</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
-      <c r="B38" s="23">
+      <c r="B38" s="22">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C38" s="22">
         <f>B38-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D38" s="23">
+      <c r="D38" s="22">
         <f t="shared" si="8"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E38" s="23">
+      <c r="E38" s="22">
         <f t="shared" si="9"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F38" s="28">
+      <c r="F38" s="27">
         <v>996</v>
       </c>
       <c r="S38" s="30" t="s">
@@ -17906,25 +17943,25 @@
     </row>
     <row r="39" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
-      <c r="B39" s="23">
+      <c r="B39" s="22">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C39" s="22">
         <f>B39-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D39" s="23">
+      <c r="D39" s="22">
         <f t="shared" si="8"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E39" s="23">
+      <c r="E39" s="22">
         <f t="shared" si="9"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F39" s="28">
+      <c r="F39" s="27">
         <v>1030</v>
       </c>
-      <c r="R39" s="25" t="s">
+      <c r="R39" s="24" t="s">
         <v>36</v>
       </c>
       <c r="S39" s="4">
@@ -17940,7 +17977,7 @@
       <c r="V39" s="30"/>
     </row>
     <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R40" s="25" t="s">
+      <c r="R40" s="24" t="s">
         <v>29</v>
       </c>
       <c r="S40" s="4">
@@ -17955,7 +17992,7 @@
       <c r="V40" s="30"/>
     </row>
     <row r="41" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="R41" s="25" t="s">
+      <c r="R41" s="24" t="s">
         <v>43</v>
       </c>
       <c r="S41" s="4">

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97272EC2-6F60-4F9B-A08F-A2D70FA9B628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD45461-6C75-4A3A-B183-570970EF4D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
   <si>
     <t>Carga e Descarga</t>
   </si>
@@ -283,13 +283,7 @@
     <t>± 0,00001</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>1,4E-7±5,0E-9</t>
-  </si>
-  <si>
-    <t>9,3E-8±5,0E-9</t>
+    <t>±5,0E-9</t>
   </si>
 </sst>
 </file>
@@ -5747,43 +5741,43 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>717531.42857142864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1435468.9693616317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2184640.3405754548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2968154.3831931339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3790013.0992926387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4648300.982800982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5594482.818265683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6638933.1210191082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7773333.2088437406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9100180.9901301991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10471967.503571039</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>12107647.367194779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>13845812.903225806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5878,43 +5872,43 @@
                 <c:formatCode>0.00E+00</c:formatCode>
                 <c:ptCount val="13"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>717531.42857142864</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1435468.9693616317</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2184640.3405754548</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>2968154.3831931339</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>3790013.0992926387</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>4648300.982800982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5594482.818265683</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>6638933.1210191082</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>7773333.2088437406</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>9100180.9901301991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>10471967.503571039</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>12107647.367194779</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>13845812.903225806</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -15488,8 +15482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -15628,8 +15622,8 @@
       <c r="H4" s="4">
         <v>4.2700000000000002E-4</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>51</v>
+      <c r="I4" s="21">
+        <v>1.4000000000000001E-7</v>
       </c>
       <c r="X4" s="18">
         <f t="shared" ref="X4:X16" si="2">$A$20*D4^3+$B$20*D4^2+$C$20*D4+$D$20</f>
@@ -16204,8 +16198,8 @@
       <c r="H16" s="4">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="I16" s="4" t="s">
-        <v>52</v>
+      <c r="I16" s="21">
+        <v>9.2999999999999999E-8</v>
       </c>
       <c r="X16" s="18">
         <f t="shared" si="2"/>
@@ -16281,9 +16275,9 @@
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="G21" s="4" t="str">
+      <c r="G21" s="4">
         <f>I4</f>
-        <v>1,4E-7±5,0E-9</v>
+        <v>1.4000000000000001E-7</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -16297,9 +16291,9 @@
         <f>D16</f>
         <v>0.17499999999999999</v>
       </c>
-      <c r="G22" s="4" t="str">
+      <c r="G22" s="4">
         <f>I16</f>
-        <v>9,3E-8±5,0E-9</v>
+        <v>9.2999999999999999E-8</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -16341,12 +16335,12 @@
       <c r="A27" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="4" t="e">
+      <c r="B27" s="4">
         <f t="array" ref="B27:C29">LINEST(G21:G22,F21:F22,TRUE,TRUE)</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="C27" s="4" t="e">
-        <v>#VALUE!</v>
+        <v>-2.6857142857142862E-7</v>
+      </c>
+      <c r="C27" s="4">
+        <v>1.4000000000000001E-7</v>
       </c>
       <c r="D27" s="31" t="s">
         <v>27</v>
@@ -16357,11 +16351,11 @@
       <c r="A28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="B28" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C28" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="B28" s="4">
+        <v>0</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0</v>
       </c>
       <c r="D28" s="31" t="s">
         <v>28</v>
@@ -16372,11 +16366,11 @@
       <c r="A29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="4" t="e">
-        <v>#VALUE!</v>
-      </c>
-      <c r="C29" s="4" t="e">
-        <v>#VALUE!</v>
+      <c r="B29" s="4">
+        <v>1</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0</v>
       </c>
       <c r="D29" s="31" t="s">
         <v>30</v>
@@ -16422,21 +16416,21 @@
         <f t="shared" ref="C32:C44" si="9">F4</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D32" s="21" t="e">
-        <f t="shared" ref="D32:D44" si="10">$B$27*D4+$C$27</f>
-        <v>#VALUE!</v>
+      <c r="D32" s="21">
+        <f>$B$27*D4+$C$27</f>
+        <v>1.4000000000000001E-7</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E44" si="11">D4/$G$18</f>
+        <f t="shared" ref="E32:E44" si="10">D4/$G$18</f>
         <v>0</v>
       </c>
       <c r="F32" s="17">
-        <f t="shared" ref="F32:F44" si="12">F4/$G$18</f>
+        <f t="shared" ref="F32:F44" si="11">F4/$G$18</f>
         <v>9.6852300242130842E-3</v>
       </c>
-      <c r="G32" s="21" t="e">
+      <c r="G32" s="21">
         <f>A32/D32</f>
-        <v>#VALUE!</v>
+        <v>717531.42857142864</v>
       </c>
       <c r="H32" s="16" t="s">
         <v>4</v>
@@ -16455,25 +16449,25 @@
         <f t="shared" si="9"/>
         <v>1.100000000000001E-2</v>
       </c>
-      <c r="D33" s="21" t="e">
+      <c r="D33" s="21">
+        <f t="shared" ref="D32:D44" si="12">$B$27*D5+$C$27</f>
+        <v>1.3838857142857145E-7</v>
+      </c>
+      <c r="E33" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E33" s="25">
+        <v>1.4527845036319625E-2</v>
+      </c>
+      <c r="F33" s="17">
         <f t="shared" si="11"/>
-        <v>1.4527845036319625E-2</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="12"/>
         <v>2.6634382566585981E-2</v>
       </c>
-      <c r="G33" s="21" t="e">
+      <c r="G33" s="21">
         <f t="shared" ref="G33:G44" si="13">A33/D33</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H33" s="21" t="e">
+        <v>1435468.9693616317</v>
+      </c>
+      <c r="H33" s="21">
         <f>G33/F33</f>
-        <v>#VALUE!</v>
+        <v>53895334.940577574</v>
       </c>
     </row>
     <row r="34" spans="1:31" x14ac:dyDescent="0.3">
@@ -16489,25 +16483,25 @@
         <f t="shared" si="9"/>
         <v>2.0000000000000018E-2</v>
       </c>
-      <c r="D34" s="21" t="e">
+      <c r="D34" s="21">
+        <f t="shared" si="12"/>
+        <v>1.3624000000000001E-7</v>
+      </c>
+      <c r="E34" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E34" s="25">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="F34" s="17">
         <f t="shared" si="11"/>
-        <v>3.3898305084745797E-2</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="12"/>
         <v>4.8426150121065423E-2</v>
       </c>
-      <c r="G34" s="21" t="e">
+      <c r="G34" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H34" s="21" t="e">
+        <v>2184640.3405754548</v>
+      </c>
+      <c r="H34" s="21">
         <f t="shared" ref="H34:H44" si="14">G34/E34</f>
-        <v>#VALUE!</v>
+        <v>64446890.046975851</v>
       </c>
     </row>
     <row r="35" spans="1:31" x14ac:dyDescent="0.3">
@@ -16523,25 +16517,25 @@
         <f t="shared" si="9"/>
         <v>3.0000000000000027E-2</v>
       </c>
-      <c r="D35" s="21" t="e">
+      <c r="D35" s="21">
+        <f t="shared" si="12"/>
+        <v>1.3382285714285714E-7</v>
+      </c>
+      <c r="E35" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E35" s="25">
+        <v>5.5690072639225235E-2</v>
+      </c>
+      <c r="F35" s="17">
         <f t="shared" si="11"/>
-        <v>5.5690072639225235E-2</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="12"/>
         <v>7.2639225181598127E-2</v>
       </c>
-      <c r="G35" s="21" t="e">
+      <c r="G35" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H35" s="21" t="e">
+        <v>2968154.3831931339</v>
+      </c>
+      <c r="H35" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>53297728.706902742</v>
       </c>
     </row>
     <row r="36" spans="1:31" x14ac:dyDescent="0.3">
@@ -16557,25 +16551,25 @@
         <f t="shared" si="9"/>
         <v>4.3000000000000038E-2</v>
       </c>
-      <c r="D36" s="21" t="e">
+      <c r="D36" s="21">
+        <f t="shared" si="12"/>
+        <v>1.3086857142857142E-7</v>
+      </c>
+      <c r="E36" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E36" s="25">
+        <v>8.232445520581122E-2</v>
+      </c>
+      <c r="F36" s="17">
         <f t="shared" si="11"/>
-        <v>8.232445520581122E-2</v>
-      </c>
-      <c r="F36" s="17">
-        <f t="shared" si="12"/>
         <v>0.10411622276029066</v>
       </c>
-      <c r="G36" s="21" t="e">
+      <c r="G36" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H36" s="21" t="e">
+        <v>3790013.0992926387</v>
+      </c>
+      <c r="H36" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>46037512.05905465</v>
       </c>
     </row>
     <row r="37" spans="1:31" x14ac:dyDescent="0.3">
@@ -16591,25 +16585,25 @@
         <f t="shared" si="9"/>
         <v>5.6999999999999995E-2</v>
       </c>
-      <c r="D37" s="21" t="e">
+      <c r="D37" s="21">
+        <f t="shared" si="12"/>
+        <v>1.2791428571428572E-7</v>
+      </c>
+      <c r="E37" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E37" s="25">
+        <v>0.10895883777239719</v>
+      </c>
+      <c r="F37" s="17">
         <f t="shared" si="11"/>
-        <v>0.10895883777239719</v>
-      </c>
-      <c r="F37" s="17">
-        <f t="shared" si="12"/>
         <v>0.13801452784503632</v>
       </c>
-      <c r="G37" s="21" t="e">
+      <c r="G37" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H37" s="21" t="e">
+        <v>4648300.982800982</v>
+      </c>
+      <c r="H37" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>42661073.464373417</v>
       </c>
     </row>
     <row r="38" spans="1:31" x14ac:dyDescent="0.3">
@@ -16625,25 +16619,25 @@
         <f t="shared" si="9"/>
         <v>7.400000000000001E-2</v>
       </c>
-      <c r="D38" s="21" t="e">
+      <c r="D38" s="21">
+        <f t="shared" si="12"/>
+        <v>1.2388571428571429E-7</v>
+      </c>
+      <c r="E38" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E38" s="25">
+        <v>0.14527845036319612</v>
+      </c>
+      <c r="F38" s="17">
         <f t="shared" si="11"/>
-        <v>0.14527845036319612</v>
-      </c>
-      <c r="F38" s="17">
-        <f t="shared" si="12"/>
         <v>0.17917675544794193</v>
       </c>
-      <c r="G38" s="21" t="e">
+      <c r="G38" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H38" s="21" t="e">
+        <v>5594482.818265683</v>
+      </c>
+      <c r="H38" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>38508690.065728791</v>
       </c>
     </row>
     <row r="39" spans="1:31" x14ac:dyDescent="0.3">
@@ -16659,25 +16653,25 @@
         <f t="shared" si="9"/>
         <v>9.1000000000000025E-2</v>
       </c>
-      <c r="D39" s="21" t="e">
+      <c r="D39" s="21">
+        <f t="shared" si="12"/>
+        <v>1.1932000000000001E-7</v>
+      </c>
+      <c r="E39" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E39" s="25">
+        <v>0.18644067796610173</v>
+      </c>
+      <c r="F39" s="17">
         <f t="shared" si="11"/>
-        <v>0.18644067796610173</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="12"/>
         <v>0.22033898305084754</v>
       </c>
-      <c r="G39" s="21" t="e">
+      <c r="G39" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H39" s="21" t="e">
+        <v>6638933.1210191082</v>
+      </c>
+      <c r="H39" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>35608823.10364794</v>
       </c>
     </row>
     <row r="40" spans="1:31" x14ac:dyDescent="0.3">
@@ -16693,25 +16687,25 @@
         <f t="shared" si="9"/>
         <v>0.10600000000000004</v>
       </c>
-      <c r="D40" s="21" t="e">
+      <c r="D40" s="21">
+        <f t="shared" si="12"/>
+        <v>1.1475428571428572E-7</v>
+      </c>
+      <c r="E40" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E40" s="25">
+        <v>0.22760290556900734</v>
+      </c>
+      <c r="F40" s="17">
         <f t="shared" si="11"/>
-        <v>0.22760290556900734</v>
-      </c>
-      <c r="F40" s="17">
-        <f t="shared" si="12"/>
         <v>0.25665859564164661</v>
       </c>
-      <c r="G40" s="21" t="e">
+      <c r="G40" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H40" s="21" t="e">
+        <v>7773333.2088437406</v>
+      </c>
+      <c r="H40" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>34153049.09843047</v>
       </c>
     </row>
     <row r="41" spans="1:31" x14ac:dyDescent="0.3">
@@ -16727,25 +16721,25 @@
         <f t="shared" si="9"/>
         <v>0.12600000000000006</v>
       </c>
-      <c r="D41" s="21" t="e">
+      <c r="D41" s="21">
+        <f t="shared" si="12"/>
+        <v>1.0884571428571429E-7</v>
+      </c>
+      <c r="E41" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E41" s="25">
+        <v>0.28087167070217933</v>
+      </c>
+      <c r="F41" s="17">
         <f t="shared" si="11"/>
-        <v>0.28087167070217933</v>
-      </c>
-      <c r="F41" s="17">
-        <f t="shared" si="12"/>
         <v>0.305084745762712</v>
       </c>
-      <c r="G41" s="21" t="e">
+      <c r="G41" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H41" s="21" t="e">
+        <v>9100180.9901301991</v>
+      </c>
+      <c r="H41" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>32399782.318308365</v>
       </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
@@ -16761,25 +16755,25 @@
         <f t="shared" si="9"/>
         <v>0.14600000000000007</v>
       </c>
-      <c r="D42" s="21" t="e">
+      <c r="D42" s="21">
+        <f t="shared" si="12"/>
+        <v>1.0401142857142855E-7</v>
+      </c>
+      <c r="E42" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E42" s="25">
+        <v>0.32445520581113818</v>
+      </c>
+      <c r="F42" s="17">
         <f t="shared" si="11"/>
-        <v>0.32445520581113818</v>
-      </c>
-      <c r="F42" s="17">
-        <f t="shared" si="12"/>
         <v>0.35351089588377743</v>
       </c>
-      <c r="G42" s="21" t="e">
+      <c r="G42" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H42" s="21" t="e">
+        <v>10471967.503571039</v>
+      </c>
+      <c r="H42" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>32275541.634140573</v>
       </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
@@ -16795,25 +16789,25 @@
         <f t="shared" si="9"/>
         <v>0.16299999999999998</v>
       </c>
-      <c r="D43" s="21" t="e">
+      <c r="D43" s="21">
+        <f t="shared" si="12"/>
+        <v>9.8102857142857161E-8</v>
+      </c>
+      <c r="E43" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E43" s="25">
+        <v>0.37772397094430987</v>
+      </c>
+      <c r="F43" s="17">
         <f t="shared" si="11"/>
-        <v>0.37772397094430987</v>
-      </c>
-      <c r="F43" s="17">
-        <f t="shared" si="12"/>
         <v>0.39467312348668276</v>
       </c>
-      <c r="G43" s="21" t="e">
+      <c r="G43" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H43" s="21" t="e">
+        <v>12107647.367194779</v>
+      </c>
+      <c r="H43" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>32054220.273406696</v>
       </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
@@ -16829,25 +16823,25 @@
         <f t="shared" si="9"/>
         <v>0.17699999999999999</v>
       </c>
-      <c r="D44" s="21" t="e">
+      <c r="D44" s="21">
+        <f t="shared" si="12"/>
+        <v>9.2999999999999999E-8</v>
+      </c>
+      <c r="E44" s="25">
         <f t="shared" si="10"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E44" s="25">
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="F44" s="17">
         <f t="shared" si="11"/>
-        <v>0.42372881355932202</v>
-      </c>
-      <c r="F44" s="17">
-        <f t="shared" si="12"/>
         <v>0.42857142857142855</v>
       </c>
-      <c r="G44" s="21" t="e">
+      <c r="G44" s="21">
         <f t="shared" si="13"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="H44" s="21" t="e">
+        <v>13845812.903225806</v>
+      </c>
+      <c r="H44" s="21">
         <f t="shared" si="14"/>
-        <v>#VALUE!</v>
+        <v>32676118.451612901</v>
       </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD45461-6C75-4A3A-B183-570970EF4D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171BB42-0203-4BFA-B97D-518830F6CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
@@ -14732,15 +14732,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>188767</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>65659</xdr:rowOff>
+      <xdr:colOff>76124</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>178302</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>181840</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>3463</xdr:rowOff>
+      <xdr:colOff>69197</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>135985</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14770,13 +14770,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>69769</xdr:colOff>
+      <xdr:colOff>63143</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>59378</xdr:colOff>
+      <xdr:colOff>52752</xdr:colOff>
       <xdr:row>16</xdr:row>
       <xdr:rowOff>12273</xdr:rowOff>
     </xdr:to>
@@ -14918,15 +14918,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>143977</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>69520</xdr:rowOff>
+      <xdr:colOff>110846</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>149033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>51955</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>90054</xdr:rowOff>
+      <xdr:colOff>18824</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>149689</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15482,8 +15482,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B27" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16450,7 +16450,7 @@
         <v>1.100000000000001E-2</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" ref="D32:D44" si="12">$B$27*D5+$C$27</f>
+        <f t="shared" ref="D33:D44" si="12">$B$27*D5+$C$27</f>
         <v>1.3838857142857145E-7</v>
       </c>
       <c r="E33" s="25">

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5171BB42-0203-4BFA-B97D-518830F6CDDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EF5883-02FD-4807-A3F1-AEED0051447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
   <sheets>
     <sheet name="Carga e Descarga" sheetId="1" r:id="rId1"/>
@@ -1269,10 +1269,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21249576444313714"/>
+          <c:x val="0.15557917685301165"/>
           <c:y val="0.17691636263116342"/>
-          <c:w val="0.70343346085451408"/>
-          <c:h val="0.58798250378025618"/>
+          <c:w val="0.76034994105653331"/>
+          <c:h val="0.63570431337477873"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -1593,6 +1593,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.9795632092542979E-2"/>
+              <c:y val="0.34817582803480107"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2408,7 +2416,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="landscape"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -6379,9 +6387,9 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.15187688548043962"/>
+          <c:x val="0.12178328343083784"/>
           <c:y val="0.17171296296296296"/>
-          <c:w val="0.79087982826480208"/>
+          <c:w val="0.82097342349022318"/>
           <c:h val="0.66070246427529888"/>
         </c:manualLayout>
       </c:layout>
@@ -6722,6 +6730,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.4536489311558954E-4"/>
+              <c:y val="0.40797934132215258"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -6884,7 +6900,7 @@
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -7558,10 +7574,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.21330822091153406"/>
+          <c:x val="0.15228776488723839"/>
           <c:y val="0.17691636263116342"/>
-          <c:w val="0.7192095328602669"/>
-          <c:h val="0.58798250378025618"/>
+          <c:w val="0.78023002772745031"/>
+          <c:h val="0.65819634758141254"/>
         </c:manualLayout>
       </c:layout>
       <c:scatterChart>
@@ -7888,6 +7904,14 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="2.3587551676159401E-2"/>
+              <c:y val="0.34580313988059425"/>
+            </c:manualLayout>
+          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -14959,15 +14983,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>153250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>66016</xdr:rowOff>
+      <xdr:colOff>9815</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>164627</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>555812</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>56235</xdr:rowOff>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>154846</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14997,15 +15021,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>141660</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>88017</xdr:rowOff>
+      <xdr:colOff>105801</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>7335</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>545520</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>83169</xdr:rowOff>
+      <xdr:colOff>509661</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>29381</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15040,10 +15064,10 @@
       <xdr:rowOff>8965</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>41</xdr:col>
-      <xdr:colOff>457898</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>161365</xdr:rowOff>
+      <xdr:col>42</xdr:col>
+      <xdr:colOff>489062</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>17929</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15072,16 +15096,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>605524</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>76607</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>354511</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>37</xdr:col>
-      <xdr:colOff>202752</xdr:colOff>
+      <xdr:col>36</xdr:col>
+      <xdr:colOff>350794</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>49713</xdr:rowOff>
+      <xdr:rowOff>4889</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15111,15 +15135,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>443753</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>138952</xdr:rowOff>
+      <xdr:colOff>147917</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>40340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>138953</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>685800</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>13446</xdr:rowOff>
+      <xdr:rowOff>94128</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15147,15 +15171,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>14</xdr:col>
-      <xdr:colOff>488577</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>49306</xdr:rowOff>
+      <xdr:colOff>147918</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>183777</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>103094</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>685801</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15482,8 +15506,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
   <dimension ref="A1:AE45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E35" sqref="E35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16421,11 +16445,11 @@
         <v>1.4000000000000001E-7</v>
       </c>
       <c r="E32" s="25">
-        <f t="shared" ref="E32:E44" si="10">D4/$G$18</f>
+        <f>D4/$G$18</f>
         <v>0</v>
       </c>
       <c r="F32" s="17">
-        <f t="shared" ref="F32:F44" si="11">F4/$G$18</f>
+        <f t="shared" ref="F32:F44" si="10">F4/$G$18</f>
         <v>9.6852300242130842E-3</v>
       </c>
       <c r="G32" s="21">
@@ -16450,15 +16474,15 @@
         <v>1.100000000000001E-2</v>
       </c>
       <c r="D33" s="21">
-        <f t="shared" ref="D33:D44" si="12">$B$27*D5+$C$27</f>
+        <f t="shared" ref="D33:D44" si="11">$B$27*D5+$C$27</f>
         <v>1.3838857142857145E-7</v>
       </c>
       <c r="E33" s="25">
+        <f t="shared" ref="E33:E44" si="12">D5/$G$18</f>
+        <v>1.4527845036319625E-2</v>
+      </c>
+      <c r="F33" s="17">
         <f t="shared" si="10"/>
-        <v>1.4527845036319625E-2</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="11"/>
         <v>2.6634382566585981E-2</v>
       </c>
       <c r="G33" s="21">
@@ -16484,15 +16508,15 @@
         <v>2.0000000000000018E-2</v>
       </c>
       <c r="D34" s="21">
+        <f t="shared" si="11"/>
+        <v>1.3624000000000001E-7</v>
+      </c>
+      <c r="E34" s="25">
         <f t="shared" si="12"/>
-        <v>1.3624000000000001E-7</v>
-      </c>
-      <c r="E34" s="25">
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="F34" s="17">
         <f t="shared" si="10"/>
-        <v>3.3898305084745797E-2</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="11"/>
         <v>4.8426150121065423E-2</v>
       </c>
       <c r="G34" s="21">
@@ -16518,15 +16542,15 @@
         <v>3.0000000000000027E-2</v>
       </c>
       <c r="D35" s="21">
+        <f t="shared" si="11"/>
+        <v>1.3382285714285714E-7</v>
+      </c>
+      <c r="E35" s="25">
         <f t="shared" si="12"/>
-        <v>1.3382285714285714E-7</v>
-      </c>
-      <c r="E35" s="25">
+        <v>5.5690072639225235E-2</v>
+      </c>
+      <c r="F35" s="17">
         <f t="shared" si="10"/>
-        <v>5.5690072639225235E-2</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="11"/>
         <v>7.2639225181598127E-2</v>
       </c>
       <c r="G35" s="21">
@@ -16552,15 +16576,15 @@
         <v>4.3000000000000038E-2</v>
       </c>
       <c r="D36" s="21">
+        <f t="shared" si="11"/>
+        <v>1.3086857142857142E-7</v>
+      </c>
+      <c r="E36" s="25">
         <f t="shared" si="12"/>
-        <v>1.3086857142857142E-7</v>
-      </c>
-      <c r="E36" s="25">
+        <v>8.232445520581122E-2</v>
+      </c>
+      <c r="F36" s="17">
         <f t="shared" si="10"/>
-        <v>8.232445520581122E-2</v>
-      </c>
-      <c r="F36" s="17">
-        <f t="shared" si="11"/>
         <v>0.10411622276029066</v>
       </c>
       <c r="G36" s="21">
@@ -16586,15 +16610,15 @@
         <v>5.6999999999999995E-2</v>
       </c>
       <c r="D37" s="21">
+        <f t="shared" si="11"/>
+        <v>1.2791428571428572E-7</v>
+      </c>
+      <c r="E37" s="25">
         <f t="shared" si="12"/>
-        <v>1.2791428571428572E-7</v>
-      </c>
-      <c r="E37" s="25">
+        <v>0.10895883777239719</v>
+      </c>
+      <c r="F37" s="17">
         <f t="shared" si="10"/>
-        <v>0.10895883777239719</v>
-      </c>
-      <c r="F37" s="17">
-        <f t="shared" si="11"/>
         <v>0.13801452784503632</v>
       </c>
       <c r="G37" s="21">
@@ -16620,15 +16644,15 @@
         <v>7.400000000000001E-2</v>
       </c>
       <c r="D38" s="21">
+        <f t="shared" si="11"/>
+        <v>1.2388571428571429E-7</v>
+      </c>
+      <c r="E38" s="25">
         <f t="shared" si="12"/>
-        <v>1.2388571428571429E-7</v>
-      </c>
-      <c r="E38" s="25">
+        <v>0.14527845036319612</v>
+      </c>
+      <c r="F38" s="17">
         <f t="shared" si="10"/>
-        <v>0.14527845036319612</v>
-      </c>
-      <c r="F38" s="17">
-        <f t="shared" si="11"/>
         <v>0.17917675544794193</v>
       </c>
       <c r="G38" s="21">
@@ -16654,15 +16678,15 @@
         <v>9.1000000000000025E-2</v>
       </c>
       <c r="D39" s="21">
+        <f t="shared" si="11"/>
+        <v>1.1932000000000001E-7</v>
+      </c>
+      <c r="E39" s="25">
         <f t="shared" si="12"/>
-        <v>1.1932000000000001E-7</v>
-      </c>
-      <c r="E39" s="25">
+        <v>0.18644067796610173</v>
+      </c>
+      <c r="F39" s="17">
         <f t="shared" si="10"/>
-        <v>0.18644067796610173</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="11"/>
         <v>0.22033898305084754</v>
       </c>
       <c r="G39" s="21">
@@ -16688,15 +16712,15 @@
         <v>0.10600000000000004</v>
       </c>
       <c r="D40" s="21">
+        <f t="shared" si="11"/>
+        <v>1.1475428571428572E-7</v>
+      </c>
+      <c r="E40" s="25">
         <f t="shared" si="12"/>
-        <v>1.1475428571428572E-7</v>
-      </c>
-      <c r="E40" s="25">
+        <v>0.22760290556900734</v>
+      </c>
+      <c r="F40" s="17">
         <f t="shared" si="10"/>
-        <v>0.22760290556900734</v>
-      </c>
-      <c r="F40" s="17">
-        <f t="shared" si="11"/>
         <v>0.25665859564164661</v>
       </c>
       <c r="G40" s="21">
@@ -16722,15 +16746,15 @@
         <v>0.12600000000000006</v>
       </c>
       <c r="D41" s="21">
+        <f t="shared" si="11"/>
+        <v>1.0884571428571429E-7</v>
+      </c>
+      <c r="E41" s="25">
         <f t="shared" si="12"/>
-        <v>1.0884571428571429E-7</v>
-      </c>
-      <c r="E41" s="25">
+        <v>0.28087167070217933</v>
+      </c>
+      <c r="F41" s="17">
         <f t="shared" si="10"/>
-        <v>0.28087167070217933</v>
-      </c>
-      <c r="F41" s="17">
-        <f t="shared" si="11"/>
         <v>0.305084745762712</v>
       </c>
       <c r="G41" s="21">
@@ -16756,15 +16780,15 @@
         <v>0.14600000000000007</v>
       </c>
       <c r="D42" s="21">
+        <f t="shared" si="11"/>
+        <v>1.0401142857142855E-7</v>
+      </c>
+      <c r="E42" s="25">
         <f t="shared" si="12"/>
-        <v>1.0401142857142855E-7</v>
-      </c>
-      <c r="E42" s="25">
+        <v>0.32445520581113818</v>
+      </c>
+      <c r="F42" s="17">
         <f t="shared" si="10"/>
-        <v>0.32445520581113818</v>
-      </c>
-      <c r="F42" s="17">
-        <f t="shared" si="11"/>
         <v>0.35351089588377743</v>
       </c>
       <c r="G42" s="21">
@@ -16790,15 +16814,15 @@
         <v>0.16299999999999998</v>
       </c>
       <c r="D43" s="21">
+        <f t="shared" si="11"/>
+        <v>9.8102857142857161E-8</v>
+      </c>
+      <c r="E43" s="25">
         <f t="shared" si="12"/>
-        <v>9.8102857142857161E-8</v>
-      </c>
-      <c r="E43" s="25">
+        <v>0.37772397094430987</v>
+      </c>
+      <c r="F43" s="17">
         <f t="shared" si="10"/>
-        <v>0.37772397094430987</v>
-      </c>
-      <c r="F43" s="17">
-        <f t="shared" si="11"/>
         <v>0.39467312348668276</v>
       </c>
       <c r="G43" s="21">
@@ -16824,15 +16848,15 @@
         <v>0.17699999999999999</v>
       </c>
       <c r="D44" s="21">
+        <f t="shared" si="11"/>
+        <v>9.2999999999999999E-8</v>
+      </c>
+      <c r="E44" s="25">
         <f t="shared" si="12"/>
-        <v>9.2999999999999999E-8</v>
-      </c>
-      <c r="E44" s="25">
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="F44" s="17">
         <f t="shared" si="10"/>
-        <v>0.42372881355932202</v>
-      </c>
-      <c r="F44" s="17">
-        <f t="shared" si="11"/>
         <v>0.42857142857142855</v>
       </c>
       <c r="G44" s="21">
@@ -16883,8 +16907,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2182AA-7EBB-49A0-89F7-5F73F45DCB8C}">
   <dimension ref="A2:AH59"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J56" sqref="J56"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AC14" sqref="AC14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -16953,7 +16977,7 @@
         <v>2</v>
       </c>
       <c r="AE4" s="23">
-        <f>$S$19*F6+$T$19</f>
+        <f t="shared" ref="AE4:AE19" si="0">$H$20*F6+$I$20</f>
         <v>-3.5879173083905704</v>
       </c>
       <c r="AF4" s="23">
@@ -16961,7 +16985,7 @@
         <v>-0.34390832433375484</v>
       </c>
       <c r="AG4" s="23">
-        <f>$S$39*F26+$T$39</f>
+        <f t="shared" ref="AG4:AG17" si="1">$Q$35*F26+$R$35</f>
         <v>-5.5813988687434586</v>
       </c>
       <c r="AH4" s="23">
@@ -16981,7 +17005,7 @@
         <v>0.10200000000000004</v>
       </c>
       <c r="D5" s="22">
-        <f t="shared" ref="D5:D21" si="0">C5/$P$18</f>
+        <f t="shared" ref="D5:D21" si="2">C5/$N$20</f>
         <v>0.24697336561743352</v>
       </c>
       <c r="E5" s="18" t="s">
@@ -16991,15 +17015,15 @@
         <v>30</v>
       </c>
       <c r="AE5" s="23">
-        <f t="shared" ref="AE5:AE16" si="1">$S$19*F7+$T$19</f>
+        <f t="shared" si="0"/>
         <v>-3.5496565606661639</v>
       </c>
       <c r="AF5" s="23">
-        <f t="shared" ref="AF5:AF16" si="2">E7-AE5</f>
+        <f t="shared" ref="AF5:AF16" si="3">E7-AE5</f>
         <v>2.3296036050003188E-2</v>
       </c>
       <c r="AG5" s="23">
-        <f t="shared" ref="AG5:AG16" si="3">$S$39*F27+$T$39</f>
+        <f t="shared" si="1"/>
         <v>-5.6208686979581248</v>
       </c>
       <c r="AH5" s="23">
@@ -17017,7 +17041,7 @@
         <v>0.10400000000000004</v>
       </c>
       <c r="D6" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25181598062954008</v>
       </c>
       <c r="E6" s="22">
@@ -17028,15 +17052,15 @@
         <v>80</v>
       </c>
       <c r="AE6" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.5205451221802022</v>
+      </c>
+      <c r="AF6" s="23">
+        <f t="shared" si="3"/>
+        <v>5.8723118701605515E-2</v>
+      </c>
+      <c r="AG6" s="23">
         <f t="shared" si="1"/>
-        <v>-3.5205451221802022</v>
-      </c>
-      <c r="AF6" s="23">
-        <f t="shared" si="2"/>
-        <v>5.8723118701605515E-2</v>
-      </c>
-      <c r="AG6" s="23">
-        <f t="shared" si="3"/>
         <v>-5.6499125345500492</v>
       </c>
       <c r="AH6" s="23">
@@ -17054,7 +17078,7 @@
         <v>0.10500000000000004</v>
       </c>
       <c r="D7" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25423728813559332</v>
       </c>
       <c r="E7" s="22">
@@ -17065,15 +17089,15 @@
         <v>126</v>
       </c>
       <c r="AE7" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.4839478852264216</v>
+      </c>
+      <c r="AF7" s="23">
+        <f t="shared" si="3"/>
+        <v>-0.11140551087668271</v>
+      </c>
+      <c r="AG7" s="23">
         <f t="shared" si="1"/>
-        <v>-3.4839478852264216</v>
-      </c>
-      <c r="AF7" s="23">
-        <f t="shared" si="2"/>
-        <v>-0.11140551087668271</v>
-      </c>
-      <c r="AG7" s="23">
-        <f t="shared" si="3"/>
         <v>-5.6819352261770426</v>
       </c>
       <c r="AH7" s="23">
@@ -17091,7 +17115,7 @@
         <v>0.10520000000000002</v>
       </c>
       <c r="D8" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25472154963680393</v>
       </c>
       <c r="E8" s="22">
@@ -17102,15 +17126,15 @@
         <v>161</v>
       </c>
       <c r="AE8" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.4465188928873283</v>
+      </c>
+      <c r="AF8" s="23">
+        <f t="shared" si="3"/>
+        <v>7.4309048098410102E-2</v>
+      </c>
+      <c r="AG8" s="23">
         <f t="shared" si="1"/>
-        <v>-3.4465188928873283</v>
-      </c>
-      <c r="AF8" s="23">
-        <f t="shared" si="2"/>
-        <v>7.4309048098410102E-2</v>
-      </c>
-      <c r="AG8" s="23">
-        <f t="shared" si="3"/>
         <v>-5.7325757617732185</v>
       </c>
       <c r="AH8" s="23">
@@ -17128,7 +17152,7 @@
         <v>0.10480000000000006</v>
       </c>
       <c r="D9" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25375302663438271</v>
       </c>
       <c r="E9" s="22">
@@ -17139,15 +17163,15 @@
         <v>205</v>
       </c>
       <c r="AE9" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.4007723466951028</v>
+      </c>
+      <c r="AF9" s="23">
+        <f t="shared" si="3"/>
+        <v>8.4132353061019849E-2</v>
+      </c>
+      <c r="AG9" s="23">
         <f t="shared" si="1"/>
-        <v>-3.4007723466951028</v>
-      </c>
-      <c r="AF9" s="23">
-        <f t="shared" si="2"/>
-        <v>8.4132353061019849E-2</v>
-      </c>
-      <c r="AG9" s="23">
-        <f t="shared" si="3"/>
         <v>-5.7802374423343252</v>
       </c>
       <c r="AH9" s="23">
@@ -17165,7 +17189,7 @@
         <v>0.10549999999999998</v>
       </c>
       <c r="D10" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.2554479418886198</v>
       </c>
       <c r="E10" s="22">
@@ -17176,15 +17200,15 @@
         <v>250</v>
       </c>
       <c r="AE10" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.3076157435400253</v>
+      </c>
+      <c r="AF10" s="23">
+        <f t="shared" si="3"/>
+        <v>9.3629903966014005E-2</v>
+      </c>
+      <c r="AG10" s="23">
         <f t="shared" si="1"/>
-        <v>-3.3076157435400253</v>
-      </c>
-      <c r="AF10" s="23">
-        <f t="shared" si="2"/>
-        <v>9.3629903966014005E-2</v>
-      </c>
-      <c r="AG10" s="23">
-        <f t="shared" si="3"/>
         <v>-5.8301332641717334</v>
       </c>
       <c r="AH10" s="23">
@@ -17202,7 +17226,7 @@
         <v>0.10570000000000007</v>
       </c>
       <c r="D11" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25593220338983069</v>
       </c>
       <c r="E11" s="22">
@@ -17213,15 +17237,15 @@
         <v>305</v>
       </c>
       <c r="AE11" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.2618691973477998</v>
+      </c>
+      <c r="AF11" s="23">
+        <f t="shared" si="3"/>
+        <v>0.14097378083979084</v>
+      </c>
+      <c r="AG11" s="23">
         <f t="shared" si="1"/>
-        <v>-3.2618691973477998</v>
-      </c>
-      <c r="AF11" s="23">
-        <f t="shared" si="2"/>
-        <v>0.14097378083979084</v>
-      </c>
-      <c r="AG11" s="23">
-        <f t="shared" si="3"/>
         <v>-5.9060940675659968</v>
       </c>
       <c r="AH11" s="23">
@@ -17239,7 +17263,7 @@
         <v>0.10610000000000003</v>
       </c>
       <c r="D12" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25690072639225192</v>
       </c>
       <c r="E12" s="22">
@@ -17250,15 +17274,15 @@
         <v>417</v>
       </c>
       <c r="AE12" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.2086368526877553</v>
+      </c>
+      <c r="AF12" s="23">
+        <f t="shared" si="3"/>
+        <v>8.774143617974639E-2</v>
+      </c>
+      <c r="AG12" s="23">
         <f t="shared" si="1"/>
-        <v>-3.2086368526877553</v>
-      </c>
-      <c r="AF12" s="23">
-        <f t="shared" si="2"/>
-        <v>8.774143617974639E-2</v>
-      </c>
-      <c r="AG12" s="23">
-        <f t="shared" si="3"/>
         <v>-5.975352447131355</v>
       </c>
       <c r="AH12" s="23">
@@ -17276,7 +17300,7 @@
         <v>0.10649999999999998</v>
       </c>
       <c r="D13" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25786924939467309</v>
       </c>
       <c r="E13" s="22">
@@ -17287,15 +17311,15 @@
         <v>472</v>
       </c>
       <c r="AE13" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.1603950403395906</v>
+      </c>
+      <c r="AF13" s="23">
+        <f t="shared" si="3"/>
+        <v>0.10403814496917008</v>
+      </c>
+      <c r="AG13" s="23">
         <f t="shared" si="1"/>
-        <v>-3.1603950403395906</v>
-      </c>
-      <c r="AF13" s="23">
-        <f t="shared" si="2"/>
-        <v>0.10403814496917008</v>
-      </c>
-      <c r="AG13" s="23">
-        <f t="shared" si="3"/>
         <v>-6.0505685367668516</v>
       </c>
       <c r="AH13" s="23">
@@ -17313,7 +17337,7 @@
         <v>0.10649999999999998</v>
       </c>
       <c r="D14" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25786924939467309</v>
       </c>
       <c r="E14" s="22">
@@ -17324,15 +17348,15 @@
         <v>536</v>
       </c>
       <c r="AE14" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.1121532279914255</v>
+      </c>
+      <c r="AF14" s="23">
+        <f t="shared" si="3"/>
+        <v>7.6415619823738012E-2</v>
+      </c>
+      <c r="AG14" s="23">
         <f t="shared" si="1"/>
-        <v>-3.1121532279914255</v>
-      </c>
-      <c r="AF14" s="23">
-        <f t="shared" si="2"/>
-        <v>7.6415619823738012E-2</v>
-      </c>
-      <c r="AG14" s="23">
-        <f t="shared" si="3"/>
         <v>-6.1302529089549509</v>
       </c>
       <c r="AH14" s="23">
@@ -17350,7 +17374,7 @@
         <v>0.10680000000000006</v>
       </c>
       <c r="D15" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25859564164648929</v>
       </c>
       <c r="E15" s="22">
@@ -17361,15 +17385,15 @@
         <v>594</v>
       </c>
       <c r="AE15" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.0647431710285735</v>
+      </c>
+      <c r="AF15" s="23">
+        <f t="shared" si="3"/>
+        <v>4.9208270178403346E-2</v>
+      </c>
+      <c r="AG15" s="23">
         <f t="shared" si="1"/>
-        <v>-3.0647431710285735</v>
-      </c>
-      <c r="AF15" s="23">
-        <f t="shared" si="2"/>
-        <v>4.9208270178403346E-2</v>
-      </c>
-      <c r="AG15" s="23">
-        <f t="shared" si="3"/>
         <v>-6.2121714224193534</v>
       </c>
       <c r="AH15" s="23">
@@ -17387,7 +17411,7 @@
         <v>0.10690000000000005</v>
       </c>
       <c r="D16" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25883777239709455</v>
       </c>
       <c r="E16" s="22">
@@ -17401,15 +17425,15 @@
         <v>9</v>
       </c>
       <c r="AE16" s="23">
+        <f t="shared" si="0"/>
+        <v>-3.0023615171300841</v>
+      </c>
+      <c r="AF16" s="23">
+        <f t="shared" si="3"/>
+        <v>-1.3173383720086029E-2</v>
+      </c>
+      <c r="AG16" s="23">
         <f t="shared" si="1"/>
-        <v>-3.0023615171300841</v>
-      </c>
-      <c r="AF16" s="23">
-        <f t="shared" si="2"/>
-        <v>-1.3173383720086029E-2</v>
-      </c>
-      <c r="AG16" s="23">
-        <f t="shared" si="3"/>
         <v>-6.2702590956032012</v>
       </c>
       <c r="AH16" s="23">
@@ -17427,7 +17451,7 @@
         <v>0.10700000000000004</v>
       </c>
       <c r="D17" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25907990314769985</v>
       </c>
       <c r="E17" s="22">
@@ -17438,7 +17462,7 @@
         <v>709</v>
       </c>
       <c r="AE17" s="23">
-        <f>$S$19*F19+$T$19</f>
+        <f t="shared" si="0"/>
         <v>-2.9516244386259798</v>
       </c>
       <c r="AF17" s="23">
@@ -17446,7 +17470,7 @@
         <v>-6.391046222419039E-2</v>
       </c>
       <c r="AG17" s="23">
-        <f>$S$39*F39+$T$39</f>
+        <f t="shared" si="1"/>
         <v>-6.2955793634012895</v>
       </c>
       <c r="AH17" s="23">
@@ -17464,7 +17488,7 @@
         <v>0.10700000000000004</v>
       </c>
       <c r="D18" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25907990314769985</v>
       </c>
       <c r="E18" s="22">
@@ -17474,22 +17498,12 @@
       <c r="F18" s="27">
         <v>784</v>
       </c>
-      <c r="O18" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P18" s="10">
-        <v>0.41299999999999998</v>
-      </c>
-      <c r="S18" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T18" s="30"/>
       <c r="AE18" s="23">
-        <f t="shared" ref="AE18:AE19" si="6">$S$19*F20+$T$19</f>
+        <f t="shared" si="0"/>
         <v>-2.9017191155071882</v>
       </c>
       <c r="AF18" s="23">
-        <f t="shared" ref="AF18:AF19" si="7">E20-AE18</f>
+        <f>E20-AE18</f>
         <v>-0.11381578534298198</v>
       </c>
     </row>
@@ -17503,7 +17517,7 @@
         <v>0.10700000000000004</v>
       </c>
       <c r="D19" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25907990314769985</v>
       </c>
       <c r="E19" s="22">
@@ -17513,26 +17527,16 @@
       <c r="F19" s="27">
         <v>845</v>
       </c>
-      <c r="R19" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="S19" s="4">
-        <f t="array" ref="S19:T21">LINEST(E6:E21,F6:F21,TRUE,TRUE)</f>
-        <v>8.3175538531319096E-4</v>
-      </c>
-      <c r="T19" s="4">
-        <v>-3.6544577392156259</v>
-      </c>
-      <c r="U19" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="V19" s="30"/>
+      <c r="H19" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="I19" s="30"/>
       <c r="AE19" s="23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="0"/>
         <v>-2.8692806554799737</v>
       </c>
       <c r="AF19" s="23">
-        <f t="shared" si="7"/>
+        <f>E21-AE19</f>
         <v>-0.14625424537019649</v>
       </c>
       <c r="AG19" s="15"/>
@@ -17548,7 +17552,7 @@
         <v>0.10700000000000004</v>
       </c>
       <c r="D20" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25907990314769985</v>
       </c>
       <c r="E20" s="22">
@@ -17558,21 +17562,28 @@
       <c r="F20" s="27">
         <v>905</v>
       </c>
-      <c r="R20" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S20" s="4">
-        <v>1.167653155472426E-4</v>
-      </c>
-      <c r="T20" s="4">
-        <v>6.6880507097966502E-2</v>
-      </c>
-      <c r="U20" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="V20" s="30"/>
+      <c r="G20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="4">
+        <f t="array" ref="H20:I22">LINEST(E6:E21,F6:F21,TRUE,TRUE)</f>
+        <v>8.3175538531319096E-4</v>
+      </c>
+      <c r="I20" s="4">
+        <v>-3.6544577392156259</v>
+      </c>
+      <c r="J20" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="K20" s="30"/>
+      <c r="M20" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20" s="10">
+        <v>0.41299999999999998</v>
+      </c>
     </row>
-    <row r="21" spans="1:34" ht="16.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A21" s="36"/>
       <c r="B21" s="22">
         <v>0.52</v>
@@ -17582,7 +17593,7 @@
         <v>0.10700000000000004</v>
       </c>
       <c r="D21" s="22">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.25907990314769985</v>
       </c>
       <c r="E21" s="22">
@@ -17592,19 +17603,34 @@
       <c r="F21" s="27">
         <v>944</v>
       </c>
-      <c r="R21" s="24" t="s">
+      <c r="G21" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="H21" s="4">
+        <v>1.167653155472426E-4</v>
+      </c>
+      <c r="I21" s="4">
+        <v>6.6880507097966502E-2</v>
+      </c>
+      <c r="J21" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="K21" s="30"/>
+    </row>
+    <row r="22" spans="1:34" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="G22" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="S21" s="4">
+      <c r="H22" s="4">
         <v>0.78375548496109726</v>
       </c>
-      <c r="T21" s="4">
+      <c r="I22" s="4">
         <v>0.13128518716578064</v>
       </c>
-      <c r="U21" s="31" t="s">
+      <c r="J22" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="V21" s="30"/>
+      <c r="K22" s="30"/>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
@@ -17648,7 +17674,7 @@
         <v>5.0000000000000044E-3</v>
       </c>
       <c r="D25" s="22">
-        <f t="shared" ref="D25:D39" si="8">C25/$P$18</f>
+        <f t="shared" ref="D25:D39" si="6">C25/$N$20</f>
         <v>1.2106537530266356E-2</v>
       </c>
       <c r="E25" s="22" t="s">
@@ -17668,7 +17694,7 @@
         <v>4.0000000000000036E-3</v>
       </c>
       <c r="D26" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.6852300242130842E-3</v>
       </c>
       <c r="E26" s="22">
@@ -17689,11 +17715,11 @@
         <v>3.9000000000000146E-3</v>
       </c>
       <c r="D27" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>9.4430992736077839E-3</v>
       </c>
       <c r="E27" s="22">
-        <f t="shared" ref="E27:E39" si="9">LN(C27)</f>
+        <f t="shared" ref="E27:E39" si="7">LN(C27)</f>
         <v>-5.5467787258465329</v>
       </c>
       <c r="F27" s="27">
@@ -17710,11 +17736,11 @@
         <v>3.5000000000000031E-3</v>
       </c>
       <c r="D28" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8.4745762711864493E-3</v>
       </c>
       <c r="E28" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.6549923104867679</v>
       </c>
       <c r="F28" s="27">
@@ -17731,11 +17757,11 @@
         <v>3.4000000000000141E-3</v>
       </c>
       <c r="D29" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>8.2324455205811491E-3</v>
       </c>
       <c r="E29" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.6839798473600176</v>
       </c>
       <c r="F29" s="27">
@@ -17752,11 +17778,11 @@
         <v>3.3000000000000251E-3</v>
       </c>
       <c r="D30" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.9903147699758488E-3</v>
       </c>
       <c r="E30" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.7138328105096949</v>
       </c>
       <c r="F30" s="27">
@@ -17773,11 +17799,11 @@
         <v>3.0000000000000027E-3</v>
       </c>
       <c r="D31" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>7.2639225181598127E-3</v>
       </c>
       <c r="E31" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.8091429903140268</v>
       </c>
       <c r="F31" s="27">
@@ -17794,18 +17820,18 @@
         <v>2.7000000000000357E-3</v>
       </c>
       <c r="D32" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.5375302663439128E-3</v>
       </c>
       <c r="E32" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.9145035059718403</v>
       </c>
       <c r="F32" s="27">
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A33" s="36"/>
       <c r="B33" s="22">
         <v>0.41560000000000002</v>
@@ -17815,18 +17841,18 @@
         <v>2.6000000000000467E-3</v>
       </c>
       <c r="D33" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.2953995157386125E-3</v>
       </c>
       <c r="E33" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.9522438339546824</v>
       </c>
       <c r="F33" s="27">
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A34" s="36"/>
       <c r="B34" s="22">
         <v>0.41549999999999998</v>
@@ -17836,18 +17862,22 @@
         <v>2.5000000000000022E-3</v>
       </c>
       <c r="D34" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>6.0532687651331778E-3</v>
       </c>
       <c r="E34" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-5.9914645471079808</v>
       </c>
       <c r="F34" s="27">
         <v>600</v>
       </c>
+      <c r="Q34" s="30" t="s">
+        <v>25</v>
+      </c>
+      <c r="R34" s="30"/>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A35" s="36"/>
       <c r="B35" s="22">
         <v>0.41520000000000001</v>
@@ -17857,18 +17887,32 @@
         <v>2.2000000000000353E-3</v>
       </c>
       <c r="D35" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.3268765133172771E-3</v>
       </c>
       <c r="E35" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.1192979186178507</v>
       </c>
       <c r="F35" s="27">
         <v>701</v>
       </c>
+      <c r="P35" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q35" s="4">
+        <f t="array" ref="Q35:R37">LINEST(E26:E39,F26:F39,TRUE,TRUE)</f>
+        <v>-7.4471375876728949E-4</v>
+      </c>
+      <c r="R35" s="4">
+        <v>-5.5285241918709813</v>
+      </c>
+      <c r="S35" s="31" t="s">
+        <v>35</v>
+      </c>
+      <c r="T35" s="30"/>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A36" s="36"/>
       <c r="B36" s="22">
         <v>0.41510000000000002</v>
@@ -17878,18 +17922,31 @@
         <v>2.1000000000000463E-3</v>
       </c>
       <c r="D36" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>5.0847457627119768E-3</v>
       </c>
       <c r="E36" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.1658179342527379</v>
       </c>
       <c r="F36" s="27">
         <v>808</v>
       </c>
+      <c r="P36" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q36" s="4">
+        <v>4.5026637565156572E-5</v>
+      </c>
+      <c r="R36" s="4">
+        <v>2.7175572824945746E-2</v>
+      </c>
+      <c r="S36" s="31" t="s">
+        <v>28</v>
+      </c>
+      <c r="T36" s="30"/>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A37" s="36"/>
       <c r="B37" s="22">
         <v>0.41499999999999998</v>
@@ -17899,18 +17956,31 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="D37" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.8426150121065421E-3</v>
       </c>
       <c r="E37" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.2146080984221905</v>
       </c>
       <c r="F37" s="27">
         <v>918</v>
       </c>
+      <c r="P37" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q37" s="4">
+        <v>0.95797611447723408</v>
+      </c>
+      <c r="R37" s="4">
+        <v>5.4355580392070058E-2</v>
+      </c>
+      <c r="S37" s="31" t="s">
+        <v>30</v>
+      </c>
+      <c r="T37" s="30"/>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" s="36"/>
       <c r="B38" s="22">
         <v>0.41499999999999998</v>
@@ -17920,22 +17990,18 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="D38" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.8426150121065421E-3</v>
       </c>
       <c r="E38" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.2146080984221905</v>
       </c>
       <c r="F38" s="27">
         <v>996</v>
       </c>
-      <c r="S38" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="T38" s="30"/>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A39" s="36"/>
       <c r="B39" s="22">
         <v>0.41499999999999998</v>
@@ -17945,82 +18011,38 @@
         <v>2.0000000000000018E-3</v>
       </c>
       <c r="D39" s="22">
-        <f t="shared" si="8"/>
+        <f t="shared" si="6"/>
         <v>4.8426150121065421E-3</v>
       </c>
       <c r="E39" s="22">
-        <f t="shared" si="9"/>
+        <f t="shared" si="7"/>
         <v>-6.2146080984221905</v>
       </c>
       <c r="F39" s="27">
         <v>1030</v>
       </c>
-      <c r="R39" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="S39" s="4">
-        <f t="array" ref="S39:T41">LINEST(E26:E39,F26:F39,TRUE,TRUE)</f>
-        <v>-7.4471375876728949E-4</v>
-      </c>
-      <c r="T39" s="4">
-        <v>-5.5285241918709813</v>
-      </c>
-      <c r="U39" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="V39" s="30"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
-      <c r="R40" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="S40" s="4">
-        <v>4.5026637565156572E-5</v>
-      </c>
-      <c r="T40" s="4">
-        <v>2.7175572824945746E-2</v>
-      </c>
-      <c r="U40" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="V40" s="30"/>
-    </row>
-    <row r="41" spans="1:22" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="R41" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="S41" s="4">
-        <v>0.95797611447723408</v>
-      </c>
-      <c r="T41" s="4">
-        <v>5.4355580392070058E-2</v>
-      </c>
-      <c r="U41" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="V41" s="30"/>
     </row>
     <row r="59" spans="4:4" x14ac:dyDescent="0.3">
       <c r="D59" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="U40:V40"/>
-    <mergeCell ref="U41:V41"/>
+    <mergeCell ref="S36:T36"/>
+    <mergeCell ref="S37:T37"/>
     <mergeCell ref="A25:A39"/>
     <mergeCell ref="AG2:AH2"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A23:F23"/>
     <mergeCell ref="AE2:AF2"/>
     <mergeCell ref="A5:A21"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U19:V19"/>
-    <mergeCell ref="U20:V20"/>
-    <mergeCell ref="U21:V21"/>
-    <mergeCell ref="S38:T38"/>
-    <mergeCell ref="U39:V39"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="Q34:R34"/>
+    <mergeCell ref="S35:T35"/>
   </mergeCells>
-  <pageMargins left="0.43307086614173229" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>

--- a/T5B - elástico.xlsx
+++ b/T5B - elástico.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sergi\OneDrive - Universidade do Porto\Ambiente de Trabalho\GIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nunop\OneDrive\Documentos\GitHub\LABSFISICAI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A9EF5883-02FD-4807-A3F1-AEED0051447D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F248596-9C57-4C07-BEAB-603F99001BDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{9CE87473-03DA-42DD-9F86-026CAF99A140}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="60">
   <si>
     <t>Carga e Descarga</t>
   </si>
@@ -105,9 +105,6 @@
   </si>
   <si>
     <t>L0 (m)</t>
-  </si>
-  <si>
-    <t>λ</t>
   </si>
   <si>
     <t>S (m^2)</t>
@@ -202,30 +199,6 @@
   </si>
   <si>
     <r>
-      <t>Ec (Nm</t>
-    </r>
-    <r>
-      <rPr>
-        <vertAlign val="superscript"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>-2</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>)</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t>S (m</t>
     </r>
     <r>
@@ -285,6 +258,39 @@
   <si>
     <t>±5,0E-9</t>
   </si>
+  <si>
+    <t>Ec (MPa)</t>
+  </si>
+  <si>
+    <t>u(λc) (s.u.)</t>
+  </si>
+  <si>
+    <t>u(λd) (s.u.)</t>
+  </si>
+  <si>
+    <t>u(L0) (m)</t>
+  </si>
+  <si>
+    <t>u(τ) (Pa)</t>
+  </si>
+  <si>
+    <t>\</t>
+  </si>
+  <si>
+    <t>λ (s.u.)</t>
+  </si>
+  <si>
+    <t>± 0,1</t>
+  </si>
+  <si>
+    <t>± 1,25E-3</t>
+  </si>
+  <si>
+    <t>Análise Estatística - Linearização do Relaxamento</t>
+  </si>
+  <si>
+    <t>Análise Estatística - Linearização do Creep</t>
+  </si>
 </sst>
 </file>
 
@@ -295,7 +301,7 @@
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -345,6 +351,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -378,7 +390,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -438,12 +450,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -476,13 +514,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,9 +530,6 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -510,11 +539,11 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -546,9 +575,52 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
+    <cellStyle name="Currency" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -567,7 +639,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -637,7 +709,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -725,7 +797,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -920,7 +992,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -958,7 +1030,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -1047,7 +1119,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1085,7 +1157,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -1141,7 +1213,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1162,10 +1234,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1178,7 +1247,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1192,7 +1261,7 @@
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1258,7 +1327,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1308,7 +1377,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$F$25:$F$39</c:f>
+              <c:f>'Creep e Relax'!$F$26:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -1362,50 +1431,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$AH$4:$AH$17</c:f>
+              <c:f>'Creep e Relax'!$AA$5:$AA$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>5.9937950881213453E-2</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7.4089972111591962E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>-5.0797759367187112E-3</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-2.0446211829749927E-3</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>1.8742951263523544E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>-2.8905547979701574E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>-8.4370241800106882E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>-4.614976638868562E-2</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>-1.6112099976625771E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>-6.8729381850999083E-2</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>-3.5565025297787045E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>-2.4366760028371459E-3</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>5.5650997181010631E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>8.0971264979099011E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -1501,7 +1570,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1539,7 +1608,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -1626,7 +1695,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -1664,7 +1733,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -1720,7 +1789,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1757,7 +1826,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1771,7 +1840,7 @@
 <file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1854,7 +1923,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1877,6 +1946,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Linear Creep</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -1944,7 +2016,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -2156,7 +2228,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2194,7 +2266,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1151925264"/>
@@ -2279,7 +2351,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2317,7 +2389,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1151924432"/>
@@ -2338,9 +2410,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66422849455900168"/>
+          <c:x val="0.58475064994124026"/>
           <c:y val="0.67208260425780098"/>
-          <c:w val="0.22057418675498944"/>
+          <c:w val="0.30005201805593562"/>
           <c:h val="0.15099585228877993"/>
         </c:manualLayout>
       </c:layout>
@@ -2373,7 +2445,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2394,10 +2466,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -2410,7 +2479,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2424,7 +2493,7 @@
 <file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2507,7 +2576,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2530,6 +2599,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Linear Relaxamento</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="25400" cap="rnd">
               <a:noFill/>
@@ -2597,14 +2669,14 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$F$25:$F$39</c:f>
+              <c:f>'Creep e Relax'!$F$26:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -2658,7 +2730,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$E$26:$E$39</c:f>
+              <c:f>'Creep e Relax'!$E$27:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="14"/>
@@ -2797,7 +2869,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2835,7 +2907,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066472000"/>
@@ -2936,7 +3008,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -2974,7 +3046,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1066474080"/>
@@ -2995,9 +3067,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.66510616187560789"/>
-          <c:y val="0.67208260425780098"/>
-          <c:w val="0.22057418675498944"/>
+          <c:x val="0.55191043564126241"/>
+          <c:y val="0.31889218418614873"/>
+          <c:w val="0.35785407219074522"/>
           <c:h val="0.15192183093898998"/>
         </c:manualLayout>
       </c:layout>
@@ -3030,7 +3102,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3051,10 +3123,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3067,7 +3136,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3081,7 +3150,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3151,7 +3220,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3239,7 +3308,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -3434,7 +3503,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3472,7 +3541,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -3552,7 +3621,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -3590,7 +3659,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -3646,7 +3715,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -3667,10 +3736,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -3683,7 +3749,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -3697,7 +3763,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -3764,7 +3830,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3852,7 +3918,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$Y$4:$Y$20</c:f>
+              <c:f>'Carga e Descarga'!$Z$4:$Z$20</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="17"/>
@@ -4001,7 +4067,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4039,7 +4105,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -4118,7 +4184,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4156,7 +4222,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -4188,10 +4254,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4204,13 +4267,13 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
     <c:headerFooter/>
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
+    <c:pageSetup orientation="portrait"/>
   </c:printSettings>
 </c:chartSpace>
 </file>
@@ -4218,7 +4281,7 @@
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4285,7 +4348,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4373,7 +4436,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$AA$4:$AA$16</c:f>
+              <c:f>'Carga e Descarga'!$AB$4:$AB$16</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -4514,7 +4577,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4552,7 +4615,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -4633,7 +4696,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -4671,7 +4734,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -4703,10 +4766,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -4719,7 +4779,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -4733,7 +4793,7 @@
 <file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -4808,7 +4868,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -4916,7 +4976,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5098,7 +5158,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="pt-PT"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -5293,7 +5353,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5331,7 +5391,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184421663"/>
@@ -5414,7 +5474,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -5452,7 +5512,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1184421247"/>
@@ -5512,7 +5572,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -5533,10 +5593,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -5549,7 +5606,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5563,7 +5620,7 @@
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -5646,7 +5703,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5694,49 +5751,96 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.6180379403794038E-2"/>
+                  <c:y val="-1.0842196390143574E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$E$32:$E$44</c:f>
+              <c:f>'Carga e Descarga'!$E$33:$E$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.4527845036319625E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.4527845036319625E-2</c:v>
+                  <c:v>3.3898305084745797E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>3.3898305084745797E-2</c:v>
+                  <c:v>5.5690072639225235E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.5690072639225235E-2</c:v>
+                  <c:v>8.232445520581122E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>8.232445520581122E-2</c:v>
+                  <c:v>0.10895883777239719</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.10895883777239719</c:v>
+                  <c:v>0.14527845036319612</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.14527845036319612</c:v>
+                  <c:v>0.18644067796610173</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.18644067796610173</c:v>
+                  <c:v>0.22760290556900734</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.22760290556900734</c:v>
+                  <c:v>0.28087167070217933</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.28087167070217933</c:v>
+                  <c:v>0.32445520581113818</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.32445520581113818</c:v>
+                  <c:v>0.37772397094430987</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.37772397094430987</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.42372881355932202</c:v>
                 </c:pt>
               </c:numCache>
@@ -5744,47 +5848,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$G$32:$G$44</c:f>
+              <c:f>'Carga e Descarga'!$I$33:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>717531.42857142864</c:v>
+                  <c:v>1435468.9693616317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1435468.9693616317</c:v>
+                  <c:v>2184640.3405754548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2184640.3405754548</c:v>
+                  <c:v>2968154.3831931339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2968154.3831931339</c:v>
+                  <c:v>3790013.0992926387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3790013.0992926387</c:v>
+                  <c:v>4648300.982800982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4648300.982800982</c:v>
+                  <c:v>5594482.818265683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5594482.818265683</c:v>
+                  <c:v>6638933.1210191082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6638933.1210191082</c:v>
+                  <c:v>7773333.2088437406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7773333.2088437406</c:v>
+                  <c:v>9100180.9901301991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9100180.9901301991</c:v>
+                  <c:v>10471967.503571039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10471967.503571039</c:v>
+                  <c:v>12107647.367194779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12107647.367194779</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>13845812.903225806</c:v>
                 </c:pt>
               </c:numCache>
@@ -5827,47 +5928,44 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$F$32:$F$44</c:f>
+              <c:f>'Carga e Descarga'!$G$33:$G$44</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>9.6852300242130842E-3</c:v>
+                  <c:v>2.6634382566585981E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6634382566585981E-2</c:v>
+                  <c:v>4.8426150121065423E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4.8426150121065423E-2</c:v>
+                  <c:v>7.2639225181598127E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.2639225181598127E-2</c:v>
+                  <c:v>0.10411622276029066</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10411622276029066</c:v>
+                  <c:v>0.13801452784503632</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.13801452784503632</c:v>
+                  <c:v>0.17917675544794193</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.17917675544794193</c:v>
+                  <c:v>0.22033898305084754</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.22033898305084754</c:v>
+                  <c:v>0.25665859564164661</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.25665859564164661</c:v>
+                  <c:v>0.305084745762712</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.305084745762712</c:v>
+                  <c:v>0.35351089588377743</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.35351089588377743</c:v>
+                  <c:v>0.39467312348668276</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0.39467312348668276</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>0.42857142857142855</c:v>
                 </c:pt>
               </c:numCache>
@@ -5875,47 +5973,44 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Carga e Descarga'!$G$32:$G$44</c:f>
+              <c:f>'Carga e Descarga'!$I$33:$I$44</c:f>
               <c:numCache>
                 <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
-                  <c:v>717531.42857142864</c:v>
+                  <c:v>1435468.9693616317</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1435468.9693616317</c:v>
+                  <c:v>2184640.3405754548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2184640.3405754548</c:v>
+                  <c:v>2968154.3831931339</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2968154.3831931339</c:v>
+                  <c:v>3790013.0992926387</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3790013.0992926387</c:v>
+                  <c:v>4648300.982800982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>4648300.982800982</c:v>
+                  <c:v>5594482.818265683</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>5594482.818265683</c:v>
+                  <c:v>6638933.1210191082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6638933.1210191082</c:v>
+                  <c:v>7773333.2088437406</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>7773333.2088437406</c:v>
+                  <c:v>9100180.9901301991</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9100180.9901301991</c:v>
+                  <c:v>10471967.503571039</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>10471967.503571039</c:v>
+                  <c:v>12107647.367194779</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>12107647.367194779</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>13845812.903225806</c:v>
                 </c:pt>
               </c:numCache>
@@ -6028,7 +6123,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6066,7 +6161,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023469344"/>
@@ -6157,7 +6252,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6195,7 +6290,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1023479744"/>
@@ -6216,10 +6311,10 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.77715793320876103"/>
-          <c:y val="0.68666278306597606"/>
-          <c:w val="0.14095630471709869"/>
-          <c:h val="0.14934793508164229"/>
+          <c:x val="0.61746146341463415"/>
+          <c:y val="0.67760267466526558"/>
+          <c:w val="0.30615956639566394"/>
+          <c:h val="0.16384500610132155"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -6251,7 +6346,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6272,10 +6367,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6288,7 +6380,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6302,7 +6394,7 @@
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6376,7 +6468,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -6634,7 +6726,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6672,7 +6764,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156671"/>
@@ -6763,7 +6855,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -6801,7 +6893,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1955156255"/>
@@ -6857,7 +6949,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -6878,10 +6970,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -6894,7 +6983,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -6908,7 +6997,7 @@
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -6982,7 +7071,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7032,7 +7121,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$F$25:$F$39</c:f>
+              <c:f>'Creep e Relax'!$F$26:$F$40</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7086,7 +7175,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$D$25:$D$39</c:f>
+              <c:f>'Creep e Relax'!$D$26:$D$40</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="15"/>
@@ -7230,7 +7319,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7268,7 +7357,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1992673471"/>
@@ -7351,7 +7440,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7389,7 +7478,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1992673055"/>
@@ -7445,7 +7534,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -7466,10 +7555,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -7482,7 +7568,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -7496,7 +7582,7 @@
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="pt-PT"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -7563,7 +7649,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -7673,50 +7759,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Creep e Relax'!$AF$4:$AF$17</c:f>
+              <c:f>'Creep e Relax'!$Y$5:$Y$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="15"/>
                 <c:pt idx="0">
                   <c:v>-0.34390832433375484</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>2.3296036050003188E-2</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>5.8723118701605515E-2</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>-0.11140551087668271</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.4309048098410102E-2</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>8.4132353061019849E-2</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="7">
                   <c:v>9.3629903966014005E-2</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="8">
                   <c:v>0.14097378083979084</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="9">
                   <c:v>8.774143617974639E-2</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="10">
                   <c:v>0.10403814496917008</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="11">
                   <c:v>7.6415619823738012E-2</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="12">
                   <c:v>4.9208270178403346E-2</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="13">
                   <c:v>-1.3173383720086029E-2</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="14">
                   <c:v>-6.391046222419039E-2</c:v>
                 </c:pt>
               </c:numCache>
@@ -7812,7 +7898,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7850,7 +7936,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069504591"/>
@@ -7937,7 +8023,7 @@
                   <a:cs typeface="+mn-cs"/>
                 </a:defRPr>
               </a:pPr>
-              <a:endParaRPr lang="pt-PT"/>
+              <a:endParaRPr lang="en-US"/>
             </a:p>
           </c:txPr>
         </c:title>
@@ -7975,7 +8061,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="pt-PT"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2069502511"/>
@@ -8031,7 +8117,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="pt-PT"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -8068,7 +8154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="pt-PT"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -14755,16 +14841,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76124</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>178302</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>210594</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>178303</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>69197</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>135985</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>221597</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>109092</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14793,16 +14879,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>63143</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>574132</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>107577</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>52752</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>563741</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>12273</xdr:rowOff>
+      <xdr:rowOff>119850</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14831,16 +14917,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>191364</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>125928</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>21035</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>116541</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>416502</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>103662</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>246173</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>40909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14867,16 +14953,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>135082</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>368164</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>125506</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>362692</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>162792</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>595774</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>109004</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14905,16 +14991,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>123746</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>47042</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>231323</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>145654</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>330574</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>51780</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>438151</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>98612</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14941,16 +15027,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>110846</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>149033</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>200491</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>68351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>18824</xdr:colOff>
-      <xdr:row>45</xdr:row>
-      <xdr:rowOff>149689</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>126399</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>95901</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -14983,15 +15069,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>9815</xdr:colOff>
+      <xdr:colOff>413225</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>164627</xdr:rowOff>
+      <xdr:rowOff>57050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>134471</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>154846</xdr:rowOff>
+      <xdr:colOff>537881</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>47269</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15023,13 +15109,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>105801</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>7335</xdr:rowOff>
+      <xdr:rowOff>70088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>509661</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>29381</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>92134</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15058,16 +15144,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>370812</xdr:colOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>85062</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>8965</xdr:rowOff>
+      <xdr:rowOff>104215</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>489062</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>17929</xdr:rowOff>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>165212</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>113179</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15098,13 +15184,13 @@
     <xdr:from>
       <xdr:col>28</xdr:col>
       <xdr:colOff>354511</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>23</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>350794</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>4889</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15142,7 +15228,7 @@
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>685800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>94128</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15172,13 +15258,13 @@
     <xdr:from>
       <xdr:col>14</xdr:col>
       <xdr:colOff>147918</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>156883</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
       <xdr:colOff>685801</xdr:colOff>
-      <xdr:row>32</xdr:row>
+      <xdr:row>34</xdr:row>
       <xdr:rowOff>31377</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -15208,7 +15294,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -15504,47 +15590,48 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{011F8627-D91A-4233-8512-CFE2F65682AE}">
-  <dimension ref="A1:AE45"/>
+  <dimension ref="A1:AF45"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.6640625" customWidth="1"/>
     <col min="6" max="6" width="9.5546875" customWidth="1"/>
-    <col min="8" max="8" width="8.88671875" customWidth="1"/>
+    <col min="8" max="8" width="9.6640625" customWidth="1"/>
     <col min="9" max="9" width="12" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11" customWidth="1"/>
-    <col min="11" max="11" width="12" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10" customWidth="1"/>
-    <col min="17" max="17" width="10.6640625" customWidth="1"/>
-    <col min="22" max="22" width="10.33203125" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
+    <col min="11" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="12" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10" customWidth="1"/>
+    <col min="18" max="18" width="10.6640625" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A1" s="32" t="s">
+    <row r="1" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A1" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
-      <c r="E1" s="33"/>
-      <c r="F1" s="33"/>
-      <c r="G1" s="33"/>
-      <c r="H1" s="33"/>
-      <c r="I1" s="33"/>
-      <c r="X1" s="29" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="Y1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29" t="s">
+      <c r="Z1" s="26"/>
+      <c r="AA1" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="AA1" s="29"/>
+      <c r="AB1" s="26"/>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>21</v>
       </c>
@@ -15564,79 +15651,80 @@
         <v>10</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>34</v>
-      </c>
       <c r="I2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="X2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="41"/>
+      <c r="Y2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="D3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="H3" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="X3" s="20"/>
-      <c r="Y3" s="20"/>
-      <c r="Z3" s="20"/>
-      <c r="AA3" s="20"/>
+      <c r="Y3" s="18"/>
+      <c r="Z3" s="18"/>
+      <c r="AA3" s="18"/>
+      <c r="AB3" s="18"/>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A4" s="17">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>1.0240000000000001E-2</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="15">
         <f>A4*9.81</f>
         <v>0.10045440000000001</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="15">
         <v>0.41299999999999998</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="15">
         <f t="shared" ref="D4:D16" si="0">C4-$G$18</f>
         <v>0</v>
       </c>
-      <c r="E4" s="17">
+      <c r="E4" s="15">
         <v>0.41699999999999998</v>
       </c>
-      <c r="F4" s="17">
+      <c r="F4" s="15">
         <f t="shared" ref="F4:F16" si="1">E4-$G$18</f>
         <v>4.0000000000000036E-3</v>
       </c>
@@ -15646,45 +15734,45 @@
       <c r="H4" s="4">
         <v>4.2700000000000002E-4</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="19">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="X4" s="18">
-        <f t="shared" ref="X4:X16" si="2">$A$20*D4^3+$B$20*D4^2+$C$20*D4+$D$20</f>
+      <c r="Y4" s="16">
+        <f t="shared" ref="Y4:Y16" si="2">$A$20*D4^3+$B$20*D4^2+$C$20*D4+$D$20</f>
         <v>0.11543688973114569</v>
       </c>
-      <c r="Y4" s="18">
-        <f>B4-X4</f>
+      <c r="Z4" s="16">
+        <f>B4-Y4</f>
         <v>-1.4982489731145673E-2</v>
       </c>
-      <c r="Z4" s="18">
-        <f t="shared" ref="Z4:Z16" si="3">$A$24*(F4^3)+$B$24*(F4^2)+$C$24*F4+$D$24</f>
+      <c r="AA4" s="16">
+        <f t="shared" ref="AA4:AA16" si="3">$A$24*(F4^3)+$B$24*(F4^2)+$C$24*F4+$D$24</f>
         <v>0.1138750385595301</v>
       </c>
-      <c r="AA4" s="18">
-        <f>B4-Z4</f>
+      <c r="AB4" s="16">
+        <f>B4-AA4</f>
         <v>-1.3420638559530088E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A5" s="17">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>2.0250000000000001E-2</v>
       </c>
-      <c r="B5" s="17">
+      <c r="B5" s="15">
         <f t="shared" ref="B5:B16" si="4">A5*9.81</f>
         <v>0.19865250000000001</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="15">
         <v>0.41899999999999998</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="15">
         <f t="shared" si="0"/>
         <v>6.0000000000000053E-3</v>
       </c>
-      <c r="E5" s="17">
+      <c r="E5" s="15">
         <v>0.42399999999999999</v>
       </c>
-      <c r="F5" s="17">
+      <c r="F5" s="15">
         <f t="shared" si="1"/>
         <v>1.100000000000001E-2</v>
       </c>
@@ -15697,42 +15785,42 @@
       <c r="I5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X5" s="18">
+      <c r="Y5" s="16">
         <f t="shared" si="2"/>
         <v>0.19364495040707835</v>
       </c>
-      <c r="Y5" s="18">
-        <f t="shared" ref="Y5:Y16" si="5">B5-X5</f>
+      <c r="Z5" s="16">
+        <f t="shared" ref="Z5:Z16" si="5">B5-Y5</f>
         <v>5.0075495929216562E-3</v>
       </c>
-      <c r="Z5" s="18">
+      <c r="AA5" s="16">
         <f t="shared" si="3"/>
         <v>0.19434772374568215</v>
       </c>
-      <c r="AA5" s="18">
-        <f t="shared" ref="AA5:AA16" si="6">B5-Z5</f>
+      <c r="AB5" s="16">
+        <f t="shared" ref="AB5:AB16" si="6">B5-AA5</f>
         <v>4.3047762543178547E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A6" s="17">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
         <v>3.0339999999999999E-2</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="15">
         <f t="shared" si="4"/>
         <v>0.29763539999999999</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="15">
         <v>0.42699999999999999</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="15">
         <f t="shared" si="0"/>
         <v>1.4000000000000012E-2</v>
       </c>
-      <c r="E6" s="17">
+      <c r="E6" s="15">
         <v>0.433</v>
       </c>
-      <c r="F6" s="17">
+      <c r="F6" s="15">
         <f t="shared" si="1"/>
         <v>2.0000000000000018E-2</v>
       </c>
@@ -15745,42 +15833,42 @@
       <c r="I6" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="18">
+      <c r="Y6" s="16">
         <f t="shared" si="2"/>
         <v>0.28999942529810896</v>
       </c>
-      <c r="Y6" s="18">
+      <c r="Z6" s="16">
         <f t="shared" si="5"/>
         <v>7.6359747018910351E-3</v>
       </c>
-      <c r="Z6" s="18">
+      <c r="AA6" s="16">
         <f t="shared" si="3"/>
         <v>0.28942658841201363</v>
       </c>
-      <c r="AA6" s="18">
+      <c r="AB6" s="16">
         <f t="shared" si="6"/>
         <v>8.2088115879863643E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A7" s="17">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
         <v>4.0489999999999998E-2</v>
       </c>
-      <c r="B7" s="17">
+      <c r="B7" s="15">
         <f t="shared" si="4"/>
         <v>0.39720690000000003</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="15">
         <v>0.436</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="15">
         <f t="shared" si="0"/>
         <v>2.300000000000002E-2</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="15">
         <v>0.443</v>
       </c>
-      <c r="F7" s="17">
+      <c r="F7" s="15">
         <f t="shared" si="1"/>
         <v>3.0000000000000027E-2</v>
       </c>
@@ -15793,42 +15881,42 @@
       <c r="I7" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X7" s="18">
+      <c r="Y7" s="16">
         <f t="shared" si="2"/>
         <v>0.38830599108672942</v>
       </c>
-      <c r="Y7" s="18">
+      <c r="Z7" s="16">
         <f t="shared" si="5"/>
         <v>8.900908913270611E-3</v>
       </c>
-      <c r="Z7" s="18">
+      <c r="AA7" s="16">
         <f t="shared" si="3"/>
         <v>0.38494431336259582</v>
       </c>
-      <c r="AA7" s="18">
+      <c r="AB7" s="16">
         <f t="shared" si="6"/>
         <v>1.2262586637404205E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A8" s="17">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
         <v>5.0560000000000001E-2</v>
       </c>
-      <c r="B8" s="17">
+      <c r="B8" s="15">
         <f t="shared" si="4"/>
         <v>0.49599360000000003</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="15">
         <v>0.44700000000000001</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="15">
         <f t="shared" si="0"/>
         <v>3.400000000000003E-2</v>
       </c>
-      <c r="E8" s="17">
+      <c r="E8" s="15">
         <v>0.45600000000000002</v>
       </c>
-      <c r="F8" s="17">
+      <c r="F8" s="15">
         <f t="shared" si="1"/>
         <v>4.3000000000000038E-2</v>
       </c>
@@ -15841,42 +15929,42 @@
       <c r="I8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X8" s="18">
+      <c r="Y8" s="16">
         <f t="shared" si="2"/>
         <v>0.49522653182815812</v>
       </c>
-      <c r="Y8" s="18">
+      <c r="Z8" s="16">
         <f t="shared" si="5"/>
         <v>7.6706817184191145E-4</v>
       </c>
-      <c r="Z8" s="18">
+      <c r="AA8" s="16">
         <f t="shared" si="3"/>
         <v>0.4950025994997459</v>
       </c>
-      <c r="AA8" s="18">
+      <c r="AB8" s="16">
         <f t="shared" si="6"/>
         <v>9.9100050025413555E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A9" s="17">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
         <v>6.0609999999999997E-2</v>
       </c>
-      <c r="B9" s="17">
+      <c r="B9" s="15">
         <f t="shared" si="4"/>
         <v>0.59458409999999995</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="15">
         <v>0.45800000000000002</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="15">
         <f t="shared" si="0"/>
         <v>4.500000000000004E-2</v>
       </c>
-      <c r="E9" s="17">
+      <c r="E9" s="15">
         <v>0.47</v>
       </c>
-      <c r="F9" s="17">
+      <c r="F9" s="15">
         <f t="shared" si="1"/>
         <v>5.6999999999999995E-2</v>
       </c>
@@ -15889,42 +15977,42 @@
       <c r="I9" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X9" s="18">
+      <c r="Y9" s="16">
         <f t="shared" si="2"/>
         <v>0.58915051373090188</v>
       </c>
-      <c r="Y9" s="18">
+      <c r="Z9" s="16">
         <f t="shared" si="5"/>
         <v>5.4335862690980674E-3</v>
       </c>
-      <c r="Z9" s="18">
+      <c r="AA9" s="16">
         <f t="shared" si="3"/>
         <v>0.59834250902307207</v>
       </c>
-      <c r="AA9" s="18">
+      <c r="AB9" s="16">
         <f t="shared" si="6"/>
         <v>-3.7584090230721179E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A10" s="17">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
         <v>7.0650000000000004E-2</v>
       </c>
-      <c r="B10" s="17">
+      <c r="B10" s="15">
         <f t="shared" si="4"/>
         <v>0.6930765000000001</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="15">
         <v>0.47299999999999998</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="15">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="E10" s="17">
+      <c r="E10" s="15">
         <v>0.48699999999999999</v>
       </c>
-      <c r="F10" s="17">
+      <c r="F10" s="15">
         <f t="shared" si="1"/>
         <v>7.400000000000001E-2</v>
       </c>
@@ -15937,42 +16025,42 @@
       <c r="I10" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X10" s="18">
+      <c r="Y10" s="16">
         <f t="shared" si="2"/>
         <v>0.69928167827754861</v>
       </c>
-      <c r="Y10" s="18">
+      <c r="Z10" s="16">
         <f t="shared" si="5"/>
         <v>-6.2051782775485176E-3</v>
       </c>
-      <c r="Z10" s="18">
+      <c r="AA10" s="16">
         <f t="shared" si="3"/>
         <v>0.7070664921675025</v>
       </c>
-      <c r="AA10" s="18">
+      <c r="AB10" s="16">
         <f t="shared" si="6"/>
         <v>-1.3989992167502407E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A11" s="17">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A11" s="15">
         <v>8.0750000000000002E-2</v>
       </c>
-      <c r="B11" s="17">
+      <c r="B11" s="15">
         <f t="shared" si="4"/>
         <v>0.79215750000000007</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="15">
         <v>0.49</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="15">
         <f t="shared" si="0"/>
         <v>7.7000000000000013E-2</v>
       </c>
-      <c r="E11" s="17">
+      <c r="E11" s="15">
         <v>0.504</v>
       </c>
-      <c r="F11" s="17">
+      <c r="F11" s="15">
         <f t="shared" si="1"/>
         <v>9.1000000000000025E-2</v>
       </c>
@@ -15985,42 +16073,43 @@
       <c r="I11" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X11" s="18">
+      <c r="J11" s="41"/>
+      <c r="Y11" s="16">
         <f t="shared" si="2"/>
         <v>0.80392300115051696</v>
       </c>
-      <c r="Y11" s="18">
+      <c r="Z11" s="16">
         <f t="shared" si="5"/>
         <v>-1.1765501150516888E-2</v>
       </c>
-      <c r="Z11" s="18">
+      <c r="AA11" s="16">
         <f t="shared" si="3"/>
         <v>0.80268431952747932</v>
       </c>
-      <c r="AA11" s="18">
+      <c r="AB11" s="16">
         <f t="shared" si="6"/>
         <v>-1.0526819527479248E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A12" s="17">
+    <row r="12" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A12" s="15">
         <v>9.0929999999999997E-2</v>
       </c>
-      <c r="B12" s="17">
+      <c r="B12" s="15">
         <f t="shared" si="4"/>
         <v>0.89202329999999996</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="15">
         <v>0.50700000000000001</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="15">
         <f t="shared" si="0"/>
         <v>9.4000000000000028E-2</v>
       </c>
-      <c r="E12" s="17">
+      <c r="E12" s="15">
         <v>0.51900000000000002</v>
       </c>
-      <c r="F12" s="17">
+      <c r="F12" s="15">
         <f t="shared" si="1"/>
         <v>0.10600000000000004</v>
       </c>
@@ -16033,42 +16122,42 @@
       <c r="I12" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X12" s="18">
+      <c r="Y12" s="16">
         <f t="shared" si="2"/>
         <v>0.89301343109781373</v>
       </c>
-      <c r="Y12" s="18">
+      <c r="Z12" s="16">
         <f t="shared" si="5"/>
         <v>-9.901310978137623E-4</v>
       </c>
-      <c r="Z12" s="18">
+      <c r="AA12" s="16">
         <f t="shared" si="3"/>
         <v>0.88064171190349305</v>
       </c>
-      <c r="AA12" s="18">
+      <c r="AB12" s="16">
         <f t="shared" si="6"/>
         <v>1.1381588096506912E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A13" s="17">
+    <row r="13" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A13" s="15">
         <v>0.10097</v>
       </c>
-      <c r="B13" s="17">
+      <c r="B13" s="15">
         <f t="shared" si="4"/>
         <v>0.99051570000000011</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="15">
         <v>0.52900000000000003</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="15">
         <f t="shared" si="0"/>
         <v>0.11600000000000005</v>
       </c>
-      <c r="E13" s="17">
+      <c r="E13" s="15">
         <v>0.53900000000000003</v>
       </c>
-      <c r="F13" s="17">
+      <c r="F13" s="15">
         <f t="shared" si="1"/>
         <v>0.12600000000000006</v>
       </c>
@@ -16081,42 +16170,42 @@
       <c r="I13" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X13" s="18">
+      <c r="Y13" s="16">
         <f t="shared" si="2"/>
         <v>0.99520484458816205</v>
       </c>
-      <c r="Y13" s="18">
+      <c r="Z13" s="16">
         <f t="shared" si="5"/>
         <v>-4.689144588161942E-3</v>
       </c>
-      <c r="Z13" s="18">
+      <c r="AA13" s="16">
         <f t="shared" si="3"/>
         <v>0.98215719604090768</v>
       </c>
-      <c r="AA13" s="18">
+      <c r="AB13" s="16">
         <f t="shared" si="6"/>
         <v>8.3585039590924337E-3</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A14" s="17">
+    <row r="14" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A14" s="15">
         <v>0.11103</v>
       </c>
-      <c r="B14" s="17">
+      <c r="B14" s="15">
         <f t="shared" si="4"/>
         <v>1.0892043</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="15">
         <v>0.54700000000000004</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="15">
         <f t="shared" si="0"/>
         <v>0.13400000000000006</v>
       </c>
-      <c r="E14" s="17">
+      <c r="E14" s="15">
         <v>0.55900000000000005</v>
       </c>
-      <c r="F14" s="17">
+      <c r="F14" s="15">
         <f t="shared" si="1"/>
         <v>0.14600000000000007</v>
       </c>
@@ -16129,42 +16218,42 @@
       <c r="I14" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X14" s="18">
+      <c r="Y14" s="16">
         <f t="shared" si="2"/>
         <v>1.0763474259512305</v>
       </c>
-      <c r="Y14" s="18">
+      <c r="Z14" s="16">
         <f t="shared" si="5"/>
         <v>1.2856874048769562E-2</v>
       </c>
-      <c r="Z14" s="18">
+      <c r="AA14" s="16">
         <f t="shared" si="3"/>
         <v>1.089265503901349</v>
       </c>
-      <c r="AA14" s="18">
+      <c r="AB14" s="16">
         <f t="shared" si="6"/>
         <v>-6.1203901349005108E-5</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A15" s="17">
+    <row r="15" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A15" s="15">
         <v>0.12107999999999999</v>
       </c>
-      <c r="B15" s="17">
+      <c r="B15" s="15">
         <f t="shared" si="4"/>
         <v>1.1877948</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="15">
         <v>0.56899999999999995</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="15">
         <f t="shared" si="0"/>
         <v>0.15599999999999997</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="15">
         <v>0.57599999999999996</v>
       </c>
-      <c r="F15" s="17">
+      <c r="F15" s="15">
         <f t="shared" si="1"/>
         <v>0.16299999999999998</v>
       </c>
@@ -16177,42 +16266,42 @@
       <c r="I15" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="X15" s="18">
+      <c r="Y15" s="16">
         <f t="shared" si="2"/>
         <v>1.1838395452102002</v>
       </c>
-      <c r="Y15" s="18">
+      <c r="Z15" s="16">
         <f t="shared" si="5"/>
         <v>3.9552547897998558E-3</v>
       </c>
-      <c r="Z15" s="18">
+      <c r="AA15" s="16">
         <f t="shared" si="3"/>
         <v>1.1915229778502316</v>
       </c>
-      <c r="AA15" s="18">
+      <c r="AB15" s="16">
         <f t="shared" si="6"/>
         <v>-3.7281778502316065E-3</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
-      <c r="A16" s="17">
+    <row r="16" spans="1:28" x14ac:dyDescent="0.3">
+      <c r="A16" s="15">
         <v>0.13125999999999999</v>
       </c>
-      <c r="B16" s="17">
+      <c r="B16" s="15">
         <f t="shared" si="4"/>
         <v>1.2876605999999999</v>
       </c>
-      <c r="C16" s="17">
+      <c r="C16" s="15">
         <v>0.58799999999999997</v>
       </c>
-      <c r="D16" s="17">
+      <c r="D16" s="15">
         <f t="shared" si="0"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="E16" s="17">
+      <c r="E16" s="15">
         <v>0.59</v>
       </c>
-      <c r="F16" s="17">
+      <c r="F16" s="15">
         <f t="shared" si="1"/>
         <v>0.17699999999999999</v>
       </c>
@@ -16222,58 +16311,71 @@
       <c r="H16" s="4">
         <v>4.1300000000000001E-4</v>
       </c>
-      <c r="I16" s="21">
+      <c r="I16" s="19">
         <v>9.2999999999999999E-8</v>
       </c>
-      <c r="X16" s="18">
+      <c r="J16" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="16">
         <f t="shared" si="2"/>
         <v>1.2935853716424059</v>
       </c>
-      <c r="Y16" s="18">
+      <c r="Z16" s="16">
         <f t="shared" si="5"/>
         <v>-5.9247716424060126E-3</v>
       </c>
-      <c r="Z16" s="18">
+      <c r="AA16" s="16">
         <f t="shared" si="3"/>
         <v>1.287682626006394</v>
       </c>
-      <c r="AA16" s="18">
+      <c r="AB16" s="16">
         <f t="shared" si="6"/>
         <v>-2.2026006394115782E-5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A18" s="34" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="F18" s="19" t="s">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="F18" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="22">
         <f>C4</f>
         <v>0.41299999999999998</v>
       </c>
+      <c r="I18" s="41">
+        <v>5.0000000000000001E-4</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A19" s="19" t="s">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="17" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="19" t="s">
+      <c r="C19" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="19" t="s">
+      <c r="D19" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="F19" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="G19" s="22">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="I19">
+        <v>0.01</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="4">
         <f t="array" ref="A20:D20">LINEST(B4:B16,D4:D16^{1,2,3},TRUE,TRUE)</f>
         <v>207.75294223761728</v>
@@ -16287,54 +16389,47 @@
       <c r="D20" s="4">
         <v>0.11543688973114569</v>
       </c>
-      <c r="F20" s="19" t="s">
+      <c r="I20" s="11">
+        <v>5.0000000000000001E-9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="31"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="31"/>
+      <c r="F22" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>24</v>
+      <c r="G22" s="3" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="F21" s="4">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23" s="4">
         <f>D4</f>
         <v>0</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G23" s="4">
         <f>I4</f>
         <v>1.4000000000000001E-7</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="F22" s="4">
-        <f>D16</f>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="G22" s="4">
-        <f>I16</f>
-        <v>9.2999999999999999E-8</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A23" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="C23" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="D23" s="19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="4">
         <f t="array" ref="A24:D24">LINEST(B4:B16,F4:F16^{1,2,3},TRUE,TRUE)</f>
         <v>190.1669209069772</v>
@@ -16348,32 +16443,40 @@
       <c r="D24" s="4">
         <v>6.5160906268626306E-2</v>
       </c>
+      <c r="F24" s="4">
+        <f>D16</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="G24" s="4">
+        <f>I16</f>
+        <v>9.2999999999999999E-8</v>
+      </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B26" s="30" t="s">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="27" t="s">
+        <v>24</v>
+      </c>
+      <c r="C26" s="27"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="30"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="24" t="s">
-        <v>26</v>
-      </c>
       <c r="B27" s="4">
-        <f t="array" ref="B27:C29">LINEST(G21:G22,F21:F22,TRUE,TRUE)</f>
+        <f t="array" ref="B27:C29">LINEST(G23:G24,F23:F24,TRUE,TRUE)</f>
         <v>-2.6857142857142862E-7</v>
       </c>
       <c r="C27" s="4">
         <v>1.4000000000000001E-7</v>
       </c>
-      <c r="D27" s="31" t="s">
-        <v>27</v>
-      </c>
-      <c r="E27" s="30"/>
+      <c r="D27" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E27" s="27"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A28" s="24" t="s">
-        <v>29</v>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="21" t="s">
+        <v>28</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -16381,14 +16484,14 @@
       <c r="C28" s="4">
         <v>0</v>
       </c>
-      <c r="D28" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="30"/>
+      <c r="D28" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="E28" s="27"/>
     </row>
-    <row r="29" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A29" s="24" t="s">
-        <v>43</v>
+    <row r="29" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A29" s="21" t="s">
+        <v>41</v>
       </c>
       <c r="B29" s="4">
         <v>1</v>
@@ -16396,14 +16499,14 @@
       <c r="C29" s="4">
         <v>0</v>
       </c>
-      <c r="D29" s="31" t="s">
+      <c r="D29" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="E29" s="27"/>
+    </row>
+    <row r="31" spans="1:11" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A31" s="12" t="s">
         <v>30</v>
-      </c>
-      <c r="E29" s="30"/>
-    </row>
-    <row r="31" spans="1:8" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
-        <v>31</v>
       </c>
       <c r="B31" s="13" t="s">
         <v>8</v>
@@ -16412,464 +16515,604 @@
         <v>10</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="E31" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="36" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="G31" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="F31" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="H31" s="13" t="s">
-        <v>41</v>
+      <c r="H31" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="I31" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="J31" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="K31" s="42" t="s">
+        <v>49</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A32" s="25">
-        <f t="shared" ref="A32:A44" si="7">B4</f>
-        <v>0.10045440000000001</v>
-      </c>
-      <c r="B32" s="25">
-        <f t="shared" ref="B32:B44" si="8">D4</f>
-        <v>0</v>
-      </c>
-      <c r="C32" s="25">
-        <f t="shared" ref="C32:C44" si="9">F4</f>
-        <v>4.0000000000000036E-3</v>
-      </c>
-      <c r="D32" s="21">
-        <f>$B$27*D4+$C$27</f>
-        <v>1.4000000000000001E-7</v>
-      </c>
-      <c r="E32" s="25">
-        <f>D4/$G$18</f>
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <f t="shared" ref="F32:F44" si="10">F4/$G$18</f>
-        <v>9.6852300242130842E-3</v>
-      </c>
-      <c r="G32" s="21">
-        <f>A32/D32</f>
-        <v>717531.42857142864</v>
-      </c>
-      <c r="H32" s="16" t="s">
-        <v>4</v>
-      </c>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="37"/>
+      <c r="F32" s="37"/>
+      <c r="G32" s="39"/>
+      <c r="H32" s="37"/>
+      <c r="I32" s="43"/>
+      <c r="J32" s="37"/>
+      <c r="K32" s="43"/>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A33" s="25">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A33" s="22">
+        <f>B5</f>
+        <v>0.19865250000000001</v>
+      </c>
+      <c r="B33" s="22">
+        <f>D5</f>
+        <v>6.0000000000000053E-3</v>
+      </c>
+      <c r="C33" s="22">
+        <f>F5</f>
+        <v>1.100000000000001E-2</v>
+      </c>
+      <c r="D33" s="19">
+        <f>$B$27*D5+$C$27</f>
+        <v>1.3838857142857145E-7</v>
+      </c>
+      <c r="E33" s="22">
+        <f>D5/$G$18</f>
+        <v>1.4527845036319625E-2</v>
+      </c>
+      <c r="F33" s="19">
+        <f>SQRT((1/$G$18*$I$18)^2+((B33/$G$18^2)*$G$19)^2)</f>
+        <v>1.2107815055364254E-3</v>
+      </c>
+      <c r="G33" s="15">
+        <f>F5/$G$18</f>
+        <v>2.6634382566585981E-2</v>
+      </c>
+      <c r="H33" s="19">
+        <f>SQRT((1/$G$18*$I$18)^2+((C33/$G$18^2)*$G$19)^2)</f>
+        <v>1.2110830899338047E-3</v>
+      </c>
+      <c r="I33" s="19">
+        <f>A33/D33</f>
+        <v>1435468.9693616317</v>
+      </c>
+      <c r="J33" s="19">
+        <f>SQRT((1/D33*$I$19)^2+((A33/D33^2)*$I$20)^2)</f>
+        <v>88946.027342537462</v>
+      </c>
+      <c r="K33" s="35">
+        <f>($A$20*3*B33^2+$B$20*2*B33+$C$20)*($G$18/D33)*0.000001</f>
+        <v>37.603596372429614</v>
+      </c>
+    </row>
+    <row r="34" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A34" s="22">
+        <f>B6</f>
+        <v>0.29763539999999999</v>
+      </c>
+      <c r="B34" s="22">
+        <f>D6</f>
+        <v>1.4000000000000012E-2</v>
+      </c>
+      <c r="C34" s="22">
+        <f>F6</f>
+        <v>2.0000000000000018E-2</v>
+      </c>
+      <c r="D34" s="19">
+        <f>$B$27*D6+$C$27</f>
+        <v>1.3624000000000001E-7</v>
+      </c>
+      <c r="E34" s="22">
+        <f>D6/$G$18</f>
+        <v>3.3898305084745797E-2</v>
+      </c>
+      <c r="F34" s="19">
+        <f t="shared" ref="F34:F44" si="7">SQRT((1/$G$18*$I$18)^2+((B34/$G$18^2)*$G$19)^2)</f>
+        <v>1.2113491314602078E-3</v>
+      </c>
+      <c r="G34" s="15">
+        <f>F6/$G$18</f>
+        <v>4.8426150121065423E-2</v>
+      </c>
+      <c r="H34" s="19">
+        <f t="shared" ref="H34:H44" si="8">SQRT((1/$G$18*$I$18)^2+((C34/$G$18^2)*$G$19)^2)</f>
+        <v>1.2120724689837412E-3</v>
+      </c>
+      <c r="I34" s="19">
+        <f>A34/D34</f>
+        <v>2184640.3405754548</v>
+      </c>
+      <c r="J34" s="19">
+        <f t="shared" ref="J34:J44" si="9">SQRT((1/D34*$I$19)^2+((A34/D34^2)*$I$20)^2)</f>
+        <v>108700.32820216547</v>
+      </c>
+      <c r="K34" s="35">
+        <f>($A$20*3*B34^2+$B$20*2*B34+$C$20)*($G$18/D34)*0.000001</f>
+        <v>34.866286521660122</v>
+      </c>
+    </row>
+    <row r="35" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A35" s="22">
+        <f>B7</f>
+        <v>0.39720690000000003</v>
+      </c>
+      <c r="B35" s="22">
+        <f>D7</f>
+        <v>2.300000000000002E-2</v>
+      </c>
+      <c r="C35" s="22">
+        <f>F7</f>
+        <v>3.0000000000000027E-2</v>
+      </c>
+      <c r="D35" s="19">
+        <f>$B$27*D7+$C$27</f>
+        <v>1.3382285714285714E-7</v>
+      </c>
+      <c r="E35" s="22">
+        <f>D7/$G$18</f>
+        <v>5.5690072639225235E-2</v>
+      </c>
+      <c r="F35" s="19">
         <f t="shared" si="7"/>
-        <v>0.19865250000000001</v>
-      </c>
-      <c r="B33" s="25">
+        <v>1.2125296508875552E-3</v>
+      </c>
+      <c r="G35" s="15">
+        <f>F7/$G$18</f>
+        <v>7.2639225181598127E-2</v>
+      </c>
+      <c r="H35" s="19">
         <f t="shared" si="8"/>
-        <v>6.0000000000000053E-3</v>
-      </c>
-      <c r="C33" s="25">
+        <v>1.2138435321353924E-3</v>
+      </c>
+      <c r="I35" s="19">
+        <f>A35/D35</f>
+        <v>2968154.3831931339</v>
+      </c>
+      <c r="J35" s="19">
         <f t="shared" si="9"/>
-        <v>1.100000000000001E-2</v>
-      </c>
-      <c r="D33" s="21">
-        <f t="shared" ref="D33:D44" si="11">$B$27*D5+$C$27</f>
-        <v>1.3838857142857145E-7</v>
-      </c>
-      <c r="E33" s="25">
-        <f t="shared" ref="E33:E44" si="12">D5/$G$18</f>
-        <v>1.4527845036319625E-2</v>
-      </c>
-      <c r="F33" s="17">
-        <f t="shared" si="10"/>
-        <v>2.6634382566585981E-2</v>
-      </c>
-      <c r="G33" s="21">
-        <f t="shared" ref="G33:G44" si="13">A33/D33</f>
-        <v>1435468.9693616317</v>
-      </c>
-      <c r="H33" s="21">
-        <f>G33/F33</f>
-        <v>53895334.940577574</v>
+        <v>133725.20172826867</v>
+      </c>
+      <c r="K35" s="35">
+        <f>($A$20*3*B35^2+$B$20*2*B35+$C$20)*($G$18/D35)*0.000001</f>
+        <v>31.976041491493405</v>
       </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A34" s="25">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A36" s="22">
+        <f>B8</f>
+        <v>0.49599360000000003</v>
+      </c>
+      <c r="B36" s="22">
+        <f>D8</f>
+        <v>3.400000000000003E-2</v>
+      </c>
+      <c r="C36" s="22">
+        <f>F8</f>
+        <v>4.3000000000000038E-2</v>
+      </c>
+      <c r="D36" s="19">
+        <f>$B$27*D8+$C$27</f>
+        <v>1.3086857142857142E-7</v>
+      </c>
+      <c r="E36" s="22">
+        <f>D8/$G$18</f>
+        <v>8.232445520581122E-2</v>
+      </c>
+      <c r="F36" s="19">
         <f t="shared" si="7"/>
-        <v>0.29763539999999999</v>
-      </c>
-      <c r="B34" s="25">
+        <v>1.2147493169915678E-3</v>
+      </c>
+      <c r="G36" s="15">
+        <f>F8/$G$18</f>
+        <v>0.10411622276029066</v>
+      </c>
+      <c r="H36" s="19">
         <f t="shared" si="8"/>
-        <v>1.4000000000000012E-2</v>
-      </c>
-      <c r="C34" s="25">
+        <v>1.217197922870129E-3</v>
+      </c>
+      <c r="I36" s="19">
+        <f>A36/D36</f>
+        <v>3790013.0992926387</v>
+      </c>
+      <c r="J36" s="19">
         <f t="shared" si="9"/>
-        <v>2.0000000000000018E-2</v>
-      </c>
-      <c r="D34" s="21">
-        <f t="shared" si="11"/>
-        <v>1.3624000000000001E-7</v>
-      </c>
-      <c r="E34" s="25">
-        <f t="shared" si="12"/>
-        <v>3.3898305084745797E-2</v>
-      </c>
-      <c r="F34" s="17">
-        <f t="shared" si="10"/>
-        <v>4.8426150121065423E-2</v>
-      </c>
-      <c r="G34" s="21">
-        <f t="shared" si="13"/>
-        <v>2184640.3405754548</v>
-      </c>
-      <c r="H34" s="21">
-        <f t="shared" ref="H34:H44" si="14">G34/E34</f>
-        <v>64446890.046975851</v>
+        <v>163727.12706488924</v>
+      </c>
+      <c r="K36" s="35">
+        <f>($A$20*3*B36^2+$B$20*2*B36+$C$20)*($G$18/D36)*0.000001</f>
+        <v>28.731248220967515</v>
       </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A35" s="25">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A37" s="22">
+        <f>B9</f>
+        <v>0.59458409999999995</v>
+      </c>
+      <c r="B37" s="22">
+        <f>D9</f>
+        <v>4.500000000000004E-2</v>
+      </c>
+      <c r="C37" s="22">
+        <f>F9</f>
+        <v>5.6999999999999995E-2</v>
+      </c>
+      <c r="D37" s="19">
+        <f>$B$27*D9+$C$27</f>
+        <v>1.2791428571428572E-7</v>
+      </c>
+      <c r="E37" s="22">
+        <f>D9/$G$18</f>
+        <v>0.10895883777239719</v>
+      </c>
+      <c r="F37" s="19">
         <f t="shared" si="7"/>
-        <v>0.39720690000000003</v>
-      </c>
-      <c r="B35" s="25">
+        <v>1.217819007075246E-3</v>
+      </c>
+      <c r="G37" s="15">
+        <f>F9/$G$18</f>
+        <v>0.13801452784503632</v>
+      </c>
+      <c r="H37" s="19">
         <f t="shared" si="8"/>
-        <v>2.300000000000002E-2</v>
-      </c>
-      <c r="C35" s="25">
+        <v>1.2221296349681529E-3</v>
+      </c>
+      <c r="I37" s="19">
+        <f>A37/D37</f>
+        <v>4648300.982800982</v>
+      </c>
+      <c r="J37" s="19">
         <f t="shared" si="9"/>
-        <v>3.0000000000000027E-2</v>
-      </c>
-      <c r="D35" s="21">
-        <f t="shared" si="11"/>
-        <v>1.3382285714285714E-7</v>
-      </c>
-      <c r="E35" s="25">
-        <f t="shared" si="12"/>
-        <v>5.5690072639225235E-2</v>
-      </c>
-      <c r="F35" s="17">
-        <f t="shared" si="10"/>
-        <v>7.2639225181598127E-2</v>
-      </c>
-      <c r="G35" s="21">
-        <f t="shared" si="13"/>
-        <v>2968154.3831931339</v>
-      </c>
-      <c r="H35" s="21">
-        <f t="shared" si="14"/>
-        <v>53297728.706902742</v>
+        <v>197800.67905775076</v>
+      </c>
+      <c r="K37" s="35">
+        <f>($A$20*3*B37^2+$B$20*2*B37+$C$20)*($G$18/D37)*0.000001</f>
+        <v>25.823556734218197</v>
       </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A36" s="25">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A38" s="22">
+        <f>B10</f>
+        <v>0.6930765000000001</v>
+      </c>
+      <c r="B38" s="22">
+        <f>D10</f>
+        <v>0.06</v>
+      </c>
+      <c r="C38" s="22">
+        <f>F10</f>
+        <v>7.400000000000001E-2</v>
+      </c>
+      <c r="D38" s="19">
+        <f>$B$27*D10+$C$27</f>
+        <v>1.2388571428571429E-7</v>
+      </c>
+      <c r="E38" s="22">
+        <f>D10/$G$18</f>
+        <v>0.14527845036319612</v>
+      </c>
+      <c r="F38" s="19">
         <f t="shared" si="7"/>
-        <v>0.49599360000000003</v>
-      </c>
-      <c r="B36" s="25">
+        <v>1.2233629685728092E-3</v>
+      </c>
+      <c r="G38" s="15">
+        <f>F10/$G$18</f>
+        <v>0.17917675544794193</v>
+      </c>
+      <c r="H38" s="19">
         <f t="shared" si="8"/>
-        <v>3.400000000000003E-2</v>
-      </c>
-      <c r="C36" s="25">
+        <v>1.2299338335540009E-3</v>
+      </c>
+      <c r="I38" s="19">
+        <f>A38/D38</f>
+        <v>5594482.818265683</v>
+      </c>
+      <c r="J38" s="19">
         <f t="shared" si="9"/>
-        <v>4.3000000000000038E-2</v>
-      </c>
-      <c r="D36" s="21">
-        <f t="shared" si="11"/>
-        <v>1.3086857142857142E-7</v>
-      </c>
-      <c r="E36" s="25">
-        <f t="shared" si="12"/>
-        <v>8.232445520581122E-2</v>
-      </c>
-      <c r="F36" s="17">
-        <f t="shared" si="10"/>
-        <v>0.10411622276029066</v>
-      </c>
-      <c r="G36" s="21">
-        <f t="shared" si="13"/>
-        <v>3790013.0992926387</v>
-      </c>
-      <c r="H36" s="21">
-        <f t="shared" si="14"/>
-        <v>46037512.05905465</v>
+        <v>239786.80922552335</v>
+      </c>
+      <c r="K38" s="35">
+        <f>($A$20*3*B38^2+$B$20*2*B38+$C$20)*($G$18/D38)*0.000001</f>
+        <v>22.44536241835478</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A37" s="25">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A39" s="22">
+        <f>B11</f>
+        <v>0.79215750000000007</v>
+      </c>
+      <c r="B39" s="22">
+        <f>D11</f>
+        <v>7.7000000000000013E-2</v>
+      </c>
+      <c r="C39" s="22">
+        <f>F11</f>
+        <v>9.1000000000000025E-2</v>
+      </c>
+      <c r="D39" s="19">
+        <f>$B$27*D11+$C$27</f>
+        <v>1.1932000000000001E-7</v>
+      </c>
+      <c r="E39" s="22">
+        <f>D11/$G$18</f>
+        <v>0.18644067796610173</v>
+      </c>
+      <c r="F39" s="19">
         <f t="shared" si="7"/>
-        <v>0.59458409999999995</v>
-      </c>
-      <c r="B37" s="25">
+        <v>1.2315152532624992E-3</v>
+      </c>
+      <c r="G39" s="15">
+        <f>F11/$G$18</f>
+        <v>0.22033898305084754</v>
+      </c>
+      <c r="H39" s="19">
         <f t="shared" si="8"/>
-        <v>4.500000000000004E-2</v>
-      </c>
-      <c r="C37" s="25">
+        <v>1.2396936403326808E-3</v>
+      </c>
+      <c r="I39" s="19">
+        <f>A39/D39</f>
+        <v>6638933.1210191082</v>
+      </c>
+      <c r="J39" s="19">
         <f t="shared" si="9"/>
-        <v>5.6999999999999995E-2</v>
-      </c>
-      <c r="D37" s="21">
-        <f t="shared" si="11"/>
-        <v>1.2791428571428572E-7</v>
-      </c>
-      <c r="E37" s="25">
-        <f t="shared" si="12"/>
-        <v>0.10895883777239719</v>
-      </c>
-      <c r="F37" s="17">
-        <f t="shared" si="10"/>
-        <v>0.13801452784503632</v>
-      </c>
-      <c r="G37" s="21">
-        <f t="shared" si="13"/>
-        <v>4648300.982800982</v>
-      </c>
-      <c r="H37" s="21">
-        <f t="shared" si="14"/>
-        <v>42661073.464373417</v>
+        <v>290548.31545224489</v>
+      </c>
+      <c r="K39" s="35">
+        <f>($A$20*3*B39^2+$B$20*2*B39+$C$20)*($G$18/D39)*0.000001</f>
+        <v>19.514534273940324</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A38" s="25">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A40" s="22">
+        <f>B12</f>
+        <v>0.89202329999999996</v>
+      </c>
+      <c r="B40" s="22">
+        <f>D12</f>
+        <v>9.4000000000000028E-2</v>
+      </c>
+      <c r="C40" s="22">
+        <f>F12</f>
+        <v>0.10600000000000004</v>
+      </c>
+      <c r="D40" s="19">
+        <f>$B$27*D12+$C$27</f>
+        <v>1.1475428571428572E-7</v>
+      </c>
+      <c r="E40" s="22">
+        <f>D12/$G$18</f>
+        <v>0.22760290556900734</v>
+      </c>
+      <c r="F40" s="19">
         <f t="shared" si="7"/>
-        <v>0.6930765000000001</v>
-      </c>
-      <c r="B38" s="25">
+        <v>1.2416156337080014E-3</v>
+      </c>
+      <c r="G40" s="15">
+        <f>F12/$G$18</f>
+        <v>0.25665859564164661</v>
+      </c>
+      <c r="H40" s="19">
         <f t="shared" si="8"/>
-        <v>0.06</v>
-      </c>
-      <c r="C38" s="25">
+        <v>1.2498929330039923E-3</v>
+      </c>
+      <c r="I40" s="19">
+        <f>A40/D40</f>
+        <v>7773333.2088437406</v>
+      </c>
+      <c r="J40" s="19">
         <f t="shared" si="9"/>
-        <v>7.400000000000001E-2</v>
-      </c>
-      <c r="D38" s="21">
-        <f t="shared" si="11"/>
-        <v>1.2388571428571429E-7</v>
-      </c>
-      <c r="E38" s="25">
-        <f t="shared" si="12"/>
-        <v>0.14527845036319612</v>
-      </c>
-      <c r="F38" s="17">
-        <f t="shared" si="10"/>
-        <v>0.17917675544794193</v>
-      </c>
-      <c r="G38" s="21">
-        <f t="shared" si="13"/>
-        <v>5594482.818265683</v>
-      </c>
-      <c r="H38" s="21">
-        <f t="shared" si="14"/>
-        <v>38508690.065728791</v>
+        <v>349725.51924606354</v>
+      </c>
+      <c r="K40" s="35">
+        <f>($A$20*3*B40^2+$B$20*2*B40+$C$20)*($G$18/D40)*0.000001</f>
+        <v>17.647003756665296</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A39" s="25">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A41" s="22">
+        <f>B13</f>
+        <v>0.99051570000000011</v>
+      </c>
+      <c r="B41" s="22">
+        <f>D13</f>
+        <v>0.11600000000000005</v>
+      </c>
+      <c r="C41" s="22">
+        <f>F13</f>
+        <v>0.12600000000000006</v>
+      </c>
+      <c r="D41" s="19">
+        <f>$B$27*D13+$C$27</f>
+        <v>1.0884571428571429E-7</v>
+      </c>
+      <c r="E41" s="22">
+        <f>D13/$G$18</f>
+        <v>0.28087167070217933</v>
+      </c>
+      <c r="F41" s="19">
         <f t="shared" si="7"/>
-        <v>0.79215750000000007</v>
-      </c>
-      <c r="B39" s="25">
+        <v>1.2575009279999091E-3</v>
+      </c>
+      <c r="G41" s="15">
+        <f>F13/$G$18</f>
+        <v>0.305084745762712</v>
+      </c>
+      <c r="H41" s="19">
         <f t="shared" si="8"/>
-        <v>7.7000000000000013E-2</v>
-      </c>
-      <c r="C39" s="25">
+        <v>1.265742234439294E-3</v>
+      </c>
+      <c r="I41" s="19">
+        <f>A41/D41</f>
+        <v>9100180.9901301991</v>
+      </c>
+      <c r="J41" s="19">
         <f t="shared" si="9"/>
-        <v>9.1000000000000025E-2</v>
-      </c>
-      <c r="D39" s="21">
-        <f t="shared" si="11"/>
-        <v>1.1932000000000001E-7</v>
-      </c>
-      <c r="E39" s="25">
-        <f t="shared" si="12"/>
-        <v>0.18644067796610173</v>
-      </c>
-      <c r="F39" s="17">
-        <f t="shared" si="10"/>
-        <v>0.22033898305084754</v>
-      </c>
-      <c r="G39" s="21">
-        <f t="shared" si="13"/>
-        <v>6638933.1210191082</v>
-      </c>
-      <c r="H39" s="21">
-        <f t="shared" si="14"/>
-        <v>35608823.10364794</v>
+        <v>428007.90318188921</v>
+      </c>
+      <c r="K41" s="35">
+        <f>($A$20*3*B41^2+$B$20*2*B41+$C$20)*($G$18/D41)*0.000001</f>
+        <v>17.026687015982791</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A40" s="25">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A42" s="22">
+        <f>B14</f>
+        <v>1.0892043</v>
+      </c>
+      <c r="B42" s="22">
+        <f>D14</f>
+        <v>0.13400000000000006</v>
+      </c>
+      <c r="C42" s="22">
+        <f>F14</f>
+        <v>0.14600000000000007</v>
+      </c>
+      <c r="D42" s="19">
+        <f>$B$27*D14+$C$27</f>
+        <v>1.0401142857142855E-7</v>
+      </c>
+      <c r="E42" s="22">
+        <f>D14/$G$18</f>
+        <v>0.32445520581113818</v>
+      </c>
+      <c r="F42" s="19">
         <f t="shared" si="7"/>
-        <v>0.89202329999999996</v>
-      </c>
-      <c r="B40" s="25">
+        <v>1.272783028590452E-3</v>
+      </c>
+      <c r="G42" s="15">
+        <f>F14/$G$18</f>
+        <v>0.35351089588377743</v>
+      </c>
+      <c r="H42" s="19">
         <f t="shared" si="8"/>
-        <v>9.4000000000000028E-2</v>
-      </c>
-      <c r="C40" s="25">
+        <v>1.284075069774024E-3</v>
+      </c>
+      <c r="I42" s="19">
+        <f>A42/D42</f>
+        <v>10471967.503571039</v>
+      </c>
+      <c r="J42" s="19">
         <f t="shared" si="9"/>
-        <v>0.10600000000000004</v>
-      </c>
-      <c r="D40" s="21">
-        <f t="shared" si="11"/>
-        <v>1.1475428571428572E-7</v>
-      </c>
-      <c r="E40" s="25">
-        <f t="shared" si="12"/>
-        <v>0.22760290556900734</v>
-      </c>
-      <c r="F40" s="17">
-        <f t="shared" si="10"/>
-        <v>0.25665859564164661</v>
-      </c>
-      <c r="G40" s="21">
-        <f t="shared" si="13"/>
-        <v>7773333.2088437406</v>
-      </c>
-      <c r="H40" s="21">
-        <f t="shared" si="14"/>
-        <v>34153049.09843047</v>
+        <v>512503.44301519386</v>
+      </c>
+      <c r="K42" s="35">
+        <f>($A$20*3*B42^2+$B$20*2*B42+$C$20)*($G$18/D42)*0.000001</f>
+        <v>18.248579535245629</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A41" s="25">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A43" s="22">
+        <f>B15</f>
+        <v>1.1877948</v>
+      </c>
+      <c r="B43" s="22">
+        <f>D15</f>
+        <v>0.15599999999999997</v>
+      </c>
+      <c r="C43" s="22">
+        <f>F15</f>
+        <v>0.16299999999999998</v>
+      </c>
+      <c r="D43" s="19">
+        <f>$B$27*D15+$C$27</f>
+        <v>9.8102857142857161E-8</v>
+      </c>
+      <c r="E43" s="22">
+        <f>D15/$G$18</f>
+        <v>0.37772397094430987</v>
+      </c>
+      <c r="F43" s="19">
         <f t="shared" si="7"/>
-        <v>0.99051570000000011</v>
-      </c>
-      <c r="B41" s="25">
+        <v>1.2941403886225821E-3</v>
+      </c>
+      <c r="G43" s="15">
+        <f>F15/$G$18</f>
+        <v>0.39467312348668276</v>
+      </c>
+      <c r="H43" s="19">
         <f t="shared" si="8"/>
-        <v>0.11600000000000005</v>
-      </c>
-      <c r="C41" s="25">
+        <v>1.3015326707858398E-3</v>
+      </c>
+      <c r="I43" s="19">
+        <f>A43/D43</f>
+        <v>12107647.367194779</v>
+      </c>
+      <c r="J43" s="19">
         <f t="shared" si="9"/>
-        <v>0.12600000000000006</v>
-      </c>
-      <c r="D41" s="21">
-        <f t="shared" si="11"/>
-        <v>1.0884571428571429E-7</v>
-      </c>
-      <c r="E41" s="25">
-        <f t="shared" si="12"/>
-        <v>0.28087167070217933</v>
-      </c>
-      <c r="F41" s="17">
-        <f t="shared" si="10"/>
-        <v>0.305084745762712</v>
-      </c>
-      <c r="G41" s="21">
-        <f t="shared" si="13"/>
-        <v>9100180.9901301991</v>
-      </c>
-      <c r="H41" s="21">
-        <f t="shared" si="14"/>
-        <v>32399782.318308365</v>
+        <v>625451.73950479249</v>
+      </c>
+      <c r="K43" s="35">
+        <f>($A$20*3*B43^2+$B$20*2*B43+$C$20)*($G$18/D43)*0.000001</f>
+        <v>22.214519182945583</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A42" s="25">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.3">
+      <c r="A44" s="22">
+        <f>B16</f>
+        <v>1.2876605999999999</v>
+      </c>
+      <c r="B44" s="22">
+        <f>D16</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="C44" s="22">
+        <f>F16</f>
+        <v>0.17699999999999999</v>
+      </c>
+      <c r="D44" s="19">
+        <f>$B$27*D16+$C$27</f>
+        <v>9.2999999999999999E-8</v>
+      </c>
+      <c r="E44" s="22">
+        <f>D16/$G$18</f>
+        <v>0.42372881355932202</v>
+      </c>
+      <c r="F44" s="19">
         <f t="shared" si="7"/>
-        <v>1.0892043</v>
-      </c>
-      <c r="B42" s="25">
+        <v>1.3148536416958013E-3</v>
+      </c>
+      <c r="G44" s="15">
+        <f>F16/$G$18</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="H44" s="19">
         <f t="shared" si="8"/>
-        <v>0.13400000000000006</v>
-      </c>
-      <c r="C42" s="25">
+        <v>1.3171520418304927E-3</v>
+      </c>
+      <c r="I44" s="19">
+        <f>A44/D44</f>
+        <v>13845812.903225806</v>
+      </c>
+      <c r="J44" s="19">
         <f t="shared" si="9"/>
-        <v>0.14600000000000007</v>
-      </c>
-      <c r="D42" s="21">
-        <f t="shared" si="11"/>
-        <v>1.0401142857142855E-7</v>
-      </c>
-      <c r="E42" s="25">
-        <f t="shared" si="12"/>
-        <v>0.32445520581113818</v>
-      </c>
-      <c r="F42" s="17">
-        <f t="shared" si="10"/>
-        <v>0.35351089588377743</v>
-      </c>
-      <c r="G42" s="21">
-        <f t="shared" si="13"/>
-        <v>10471967.503571039</v>
-      </c>
-      <c r="H42" s="21">
-        <f t="shared" si="14"/>
-        <v>32275541.634140573</v>
+        <v>752124.47200397204</v>
+      </c>
+      <c r="K44" s="35">
+        <f>($A$20*3*B44^2+$B$20*2*B44+$C$20)*($G$18/D44)*0.000001</f>
+        <v>28.201313002712013</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A43" s="25">
-        <f t="shared" si="7"/>
-        <v>1.1877948</v>
-      </c>
-      <c r="B43" s="25">
-        <f t="shared" si="8"/>
-        <v>0.15599999999999997</v>
-      </c>
-      <c r="C43" s="25">
-        <f t="shared" si="9"/>
-        <v>0.16299999999999998</v>
-      </c>
-      <c r="D43" s="21">
-        <f t="shared" si="11"/>
-        <v>9.8102857142857161E-8</v>
-      </c>
-      <c r="E43" s="25">
-        <f t="shared" si="12"/>
-        <v>0.37772397094430987</v>
-      </c>
-      <c r="F43" s="17">
-        <f t="shared" si="10"/>
-        <v>0.39467312348668276</v>
-      </c>
-      <c r="G43" s="21">
-        <f t="shared" si="13"/>
-        <v>12107647.367194779</v>
-      </c>
-      <c r="H43" s="21">
-        <f t="shared" si="14"/>
-        <v>32054220.273406696</v>
-      </c>
-    </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="A44" s="25">
-        <f t="shared" si="7"/>
-        <v>1.2876605999999999</v>
-      </c>
-      <c r="B44" s="25">
-        <f t="shared" si="8"/>
-        <v>0.17499999999999999</v>
-      </c>
-      <c r="C44" s="25">
-        <f t="shared" si="9"/>
-        <v>0.17699999999999999</v>
-      </c>
-      <c r="D44" s="21">
-        <f t="shared" si="11"/>
-        <v>9.2999999999999999E-8</v>
-      </c>
-      <c r="E44" s="25">
-        <f t="shared" si="12"/>
-        <v>0.42372881355932202</v>
-      </c>
-      <c r="F44" s="17">
-        <f t="shared" si="10"/>
-        <v>0.42857142857142855</v>
-      </c>
-      <c r="G44" s="21">
-        <f t="shared" si="13"/>
-        <v>13845812.903225806</v>
-      </c>
-      <c r="H44" s="21">
-        <f t="shared" si="14"/>
-        <v>32676118.451612901</v>
-      </c>
-    </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
-      <c r="Q45" s="7"/>
+    <row r="45" spans="1:32" x14ac:dyDescent="0.3">
       <c r="R45" s="7"/>
       <c r="S45" s="7"/>
       <c r="T45" s="7"/>
@@ -16884,11 +17127,19 @@
       <c r="AC45" s="7"/>
       <c r="AD45" s="7"/>
       <c r="AE45" s="7"/>
+      <c r="AF45" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="X1:Y1"/>
-    <mergeCell ref="Z1:AA1"/>
+  <mergeCells count="16">
+    <mergeCell ref="J31:J32"/>
+    <mergeCell ref="K31:K32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="I31:I32"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="AA1:AB1"/>
     <mergeCell ref="B26:C26"/>
     <mergeCell ref="D29:E29"/>
     <mergeCell ref="D28:E28"/>
@@ -16897,7 +17148,7 @@
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A22:D22"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="3.937007874015748E-2" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -16905,1143 +17156,1204 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD2182AA-7EBB-49A0-89F7-5F73F45DCB8C}">
-  <dimension ref="A2:AH59"/>
+  <dimension ref="A2:AA61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="AC14" sqref="AC14"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Z30" sqref="Z30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
+    <col min="7" max="7" width="10.21875" customWidth="1"/>
+    <col min="9" max="9" width="9.77734375" customWidth="1"/>
     <col min="10" max="10" width="13" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="9" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="10.33203125" customWidth="1"/>
     <col min="18" max="18" width="10.5546875" customWidth="1"/>
     <col min="19" max="19" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="9" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.33203125" customWidth="1"/>
+    <col min="22" max="22" width="11.88671875" customWidth="1"/>
     <col min="32" max="32" width="9.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="AE2" s="29" t="s">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A2" s="29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="34"/>
+    </row>
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D3" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="X3" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="AF2" s="29"/>
-      <c r="AG2" s="29" t="s">
+      <c r="Y3" s="26"/>
+      <c r="Z3" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="AH2" s="29"/>
+      <c r="AA3" s="26"/>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A3" s="32" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="37"/>
-      <c r="AE3" s="6" t="s">
+    <row r="4" spans="1:27" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E4" s="43"/>
+      <c r="F4" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J4">
+        <v>5.0000000000000001E-4</v>
+      </c>
+      <c r="X4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AF3" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="AG3" s="6" t="s">
+      <c r="Z4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="AH3" s="6" t="s">
+      <c r="AA4" s="6" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:34" ht="15.6" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="AE4" s="23">
-        <f t="shared" ref="AE4:AE19" si="0">$H$20*F6+$I$20</f>
-        <v>-3.5879173083905704</v>
-      </c>
-      <c r="AF4" s="23">
-        <f>E6-AE4</f>
-        <v>-0.34390832433375484</v>
-      </c>
-      <c r="AG4" s="23">
-        <f t="shared" ref="AG4:AG17" si="1">$Q$35*F26+$R$35</f>
-        <v>-5.5813988687434586</v>
-      </c>
-      <c r="AH4" s="23">
-        <f>E26-AG4</f>
-        <v>5.9937950881213453E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A5" s="35">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A5" s="32">
         <v>9.0939999999999993E-2</v>
       </c>
-      <c r="B5" s="22">
+      <c r="B5" s="16">
         <v>0.51500000000000001</v>
       </c>
-      <c r="C5" s="22">
+      <c r="C5" s="16">
         <f>B5-'Carga e Descarga'!$G$18</f>
         <v>0.10200000000000004</v>
       </c>
-      <c r="D5" s="22">
-        <f t="shared" ref="D5:D21" si="2">C5/$N$20</f>
+      <c r="D5" s="16">
+        <f>C5/$N$21</f>
         <v>0.24697336561743352</v>
       </c>
-      <c r="E5" s="18" t="s">
+      <c r="E5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="27">
+      <c r="F5" s="45">
         <v>30</v>
       </c>
-      <c r="AE5" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.5496565606661639</v>
-      </c>
-      <c r="AF5" s="23">
-        <f t="shared" ref="AF5:AF16" si="3">E7-AE5</f>
-        <v>2.3296036050003188E-2</v>
-      </c>
-      <c r="AG5" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.6208686979581248</v>
-      </c>
-      <c r="AH5" s="23">
-        <f t="shared" ref="AH5:AH16" si="4">E27-AG5</f>
-        <v>7.4089972111591962E-2</v>
+      <c r="X5" s="20">
+        <f>$W$37*F6+$X$37</f>
+        <v>-3.5879173083905704</v>
+      </c>
+      <c r="Y5" s="20">
+        <f>E6-X5</f>
+        <v>-0.34390832433375484</v>
+      </c>
+      <c r="Z5" s="20">
+        <f>$Q$37*F27+$R$37</f>
+        <v>-5.5813988687434586</v>
+      </c>
+      <c r="AA5" s="20">
+        <f>E27-Z5</f>
+        <v>5.9937950881213453E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A6" s="36"/>
-      <c r="B6" s="22">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A6" s="33"/>
+      <c r="B6" s="16">
         <v>0.51700000000000002</v>
       </c>
-      <c r="C6" s="22">
+      <c r="C6" s="16">
         <f>B6-'Carga e Descarga'!$G$18</f>
         <v>0.10400000000000004</v>
       </c>
-      <c r="D6" s="22">
-        <f t="shared" si="2"/>
+      <c r="D6" s="16">
+        <f>C6/$N$21</f>
         <v>0.25181598062954008</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="16">
         <f>LN((-$C$5+C6)/$C$5)</f>
         <v>-3.9318256327243253</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="45">
         <v>80</v>
       </c>
-      <c r="AE6" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.5205451221802022</v>
-      </c>
-      <c r="AF6" s="23">
-        <f t="shared" si="3"/>
-        <v>5.8723118701605515E-2</v>
-      </c>
-      <c r="AG6" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.6499125345500492</v>
-      </c>
-      <c r="AH6" s="23">
-        <f t="shared" si="4"/>
-        <v>-5.0797759367187112E-3</v>
-      </c>
+      <c r="X6" s="20"/>
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="20"/>
+      <c r="AA6" s="20"/>
     </row>
-    <row r="7" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A7" s="36"/>
-      <c r="B7" s="22">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A7" s="33"/>
+      <c r="B7" s="16">
         <v>0.51800000000000002</v>
       </c>
-      <c r="C7" s="22">
+      <c r="C7" s="16">
         <f>B7-'Carga e Descarga'!$G$18</f>
         <v>0.10500000000000004</v>
       </c>
-      <c r="D7" s="22">
-        <f t="shared" si="2"/>
+      <c r="D7" s="16">
+        <f>C7/$N$21</f>
         <v>0.25423728813559332</v>
       </c>
-      <c r="E7" s="22">
-        <f t="shared" ref="E7:E21" si="5">LN((-$C$5+C7)/$C$5)</f>
+      <c r="E7" s="16">
+        <f>LN((-$C$5+C7)/$C$5)</f>
         <v>-3.5263605246161607</v>
       </c>
-      <c r="F7" s="27">
+      <c r="F7" s="45">
         <v>126</v>
       </c>
-      <c r="AE7" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.4839478852264216</v>
-      </c>
-      <c r="AF7" s="23">
-        <f t="shared" si="3"/>
-        <v>-0.11140551087668271</v>
-      </c>
-      <c r="AG7" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.6819352261770426</v>
-      </c>
-      <c r="AH7" s="23">
-        <f t="shared" si="4"/>
-        <v>-2.0446211829749927E-3</v>
+      <c r="X7" s="20">
+        <f>$W$37*F7+$X$37</f>
+        <v>-3.5496565606661639</v>
+      </c>
+      <c r="Y7" s="20">
+        <f>E7-X7</f>
+        <v>2.3296036050003188E-2</v>
+      </c>
+      <c r="Z7" s="20">
+        <f>$Q$37*F28+$R$37</f>
+        <v>-5.6208686979581248</v>
+      </c>
+      <c r="AA7" s="20">
+        <f>E28-Z7</f>
+        <v>7.4089972111591962E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A8" s="36"/>
-      <c r="B8" s="22">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A8" s="33"/>
+      <c r="B8" s="16">
         <v>0.51819999999999999</v>
       </c>
-      <c r="C8" s="22">
+      <c r="C8" s="16">
         <f>B8-'Carga e Descarga'!$G$18</f>
         <v>0.10520000000000002</v>
       </c>
-      <c r="D8" s="22">
-        <f t="shared" si="2"/>
+      <c r="D8" s="16">
+        <f>C8/$N$21</f>
         <v>0.25472154963680393</v>
       </c>
-      <c r="E8" s="22">
-        <f t="shared" si="5"/>
+      <c r="E8" s="16">
+        <f>LN((-$C$5+C8)/$C$5)</f>
         <v>-3.4618220034785967</v>
       </c>
-      <c r="F8" s="27">
+      <c r="F8" s="45">
         <v>161</v>
       </c>
-      <c r="AE8" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.4465188928873283</v>
-      </c>
-      <c r="AF8" s="23">
-        <f t="shared" si="3"/>
-        <v>7.4309048098410102E-2</v>
-      </c>
-      <c r="AG8" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.7325757617732185</v>
-      </c>
-      <c r="AH8" s="23">
-        <f t="shared" si="4"/>
-        <v>1.8742951263523544E-2</v>
+      <c r="X8" s="20">
+        <f>$W$37*F8+$X$37</f>
+        <v>-3.5205451221802022</v>
+      </c>
+      <c r="Y8" s="20">
+        <f>E8-X8</f>
+        <v>5.8723118701605515E-2</v>
+      </c>
+      <c r="Z8" s="20">
+        <f>$Q$37*F29+$R$37</f>
+        <v>-5.6499125345500492</v>
+      </c>
+      <c r="AA8" s="20">
+        <f>E29-Z8</f>
+        <v>-5.0797759367187112E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A9" s="36"/>
-      <c r="B9" s="22">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="16">
         <v>0.51780000000000004</v>
       </c>
-      <c r="C9" s="22">
+      <c r="C9" s="16">
         <f>B9-'Carga e Descarga'!$G$18</f>
         <v>0.10480000000000006</v>
       </c>
-      <c r="D9" s="22">
-        <f t="shared" si="2"/>
+      <c r="D9" s="16">
+        <f>C9/$N$21</f>
         <v>0.25375302663438271</v>
       </c>
-      <c r="E9" s="22">
-        <f t="shared" si="5"/>
+      <c r="E9" s="16">
+        <f>LN((-$C$5+C9)/$C$5)</f>
         <v>-3.5953533961031043</v>
       </c>
-      <c r="F9" s="27">
+      <c r="F9" s="45">
         <v>205</v>
       </c>
-      <c r="AE9" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.4007723466951028</v>
-      </c>
-      <c r="AF9" s="23">
-        <f t="shared" si="3"/>
-        <v>8.4132353061019849E-2</v>
-      </c>
-      <c r="AG9" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.7802374423343252</v>
-      </c>
-      <c r="AH9" s="23">
-        <f t="shared" si="4"/>
-        <v>-2.8905547979701574E-2</v>
+      <c r="X9" s="20">
+        <f>$W$37*F9+$X$37</f>
+        <v>-3.4839478852264216</v>
+      </c>
+      <c r="Y9" s="20">
+        <f>E9-X9</f>
+        <v>-0.11140551087668271</v>
+      </c>
+      <c r="Z9" s="20">
+        <f>$Q$37*F30+$R$37</f>
+        <v>-5.6819352261770426</v>
+      </c>
+      <c r="AA9" s="20">
+        <f>E30-Z9</f>
+        <v>-2.0446211829749927E-3</v>
       </c>
     </row>
-    <row r="10" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A10" s="36"/>
-      <c r="B10" s="22">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="16">
         <v>0.51849999999999996</v>
       </c>
-      <c r="C10" s="22">
+      <c r="C10" s="16">
         <f>B10-'Carga e Descarga'!$G$18</f>
         <v>0.10549999999999998</v>
       </c>
-      <c r="D10" s="22">
-        <f t="shared" si="2"/>
+      <c r="D10" s="16">
+        <f>C10/$N$21</f>
         <v>0.2554479418886198</v>
       </c>
-      <c r="E10" s="22">
-        <f t="shared" si="5"/>
+      <c r="E10" s="16">
+        <f>LN((-$C$5+C10)/$C$5)</f>
         <v>-3.3722098447889182</v>
       </c>
-      <c r="F10" s="27">
+      <c r="F10" s="45">
         <v>250</v>
       </c>
-      <c r="AE10" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.3076157435400253</v>
-      </c>
-      <c r="AF10" s="23">
-        <f t="shared" si="3"/>
-        <v>9.3629903966014005E-2</v>
-      </c>
-      <c r="AG10" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.8301332641717334</v>
-      </c>
-      <c r="AH10" s="23">
-        <f t="shared" si="4"/>
-        <v>-8.4370241800106882E-2</v>
+      <c r="X10" s="20">
+        <f>$W$37*F10+$X$37</f>
+        <v>-3.4465188928873283</v>
+      </c>
+      <c r="Y10" s="20">
+        <f>E10-X10</f>
+        <v>7.4309048098410102E-2</v>
+      </c>
+      <c r="Z10" s="20">
+        <f>$Q$37*F31+$R$37</f>
+        <v>-5.7325757617732185</v>
+      </c>
+      <c r="AA10" s="20">
+        <f>E31-Z10</f>
+        <v>1.8742951263523544E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="22">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="16">
         <v>0.51870000000000005</v>
       </c>
-      <c r="C11" s="22">
+      <c r="C11" s="16">
         <f>B11-'Carga e Descarga'!$G$18</f>
         <v>0.10570000000000007</v>
       </c>
-      <c r="D11" s="22">
-        <f t="shared" si="2"/>
+      <c r="D11" s="16">
+        <f>C11/$N$21</f>
         <v>0.25593220338983069</v>
       </c>
-      <c r="E11" s="22">
-        <f t="shared" si="5"/>
+      <c r="E11" s="16">
+        <f>LN((-$C$5+C11)/$C$5)</f>
         <v>-3.3166399936340829</v>
       </c>
-      <c r="F11" s="27">
+      <c r="F11" s="45">
         <v>305</v>
       </c>
-      <c r="AE11" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.2618691973477998</v>
-      </c>
-      <c r="AF11" s="23">
-        <f t="shared" si="3"/>
-        <v>0.14097378083979084</v>
-      </c>
-      <c r="AG11" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.9060940675659968</v>
-      </c>
-      <c r="AH11" s="23">
-        <f t="shared" si="4"/>
-        <v>-4.614976638868562E-2</v>
+      <c r="X11" s="20">
+        <f>$W$37*F11+$X$37</f>
+        <v>-3.4007723466951028</v>
+      </c>
+      <c r="Y11" s="20">
+        <f>E11-X11</f>
+        <v>8.4132353061019849E-2</v>
+      </c>
+      <c r="Z11" s="20">
+        <f>$Q$37*F32+$R$37</f>
+        <v>-5.7802374423343252</v>
+      </c>
+      <c r="AA11" s="20">
+        <f>E32-Z11</f>
+        <v>-2.8905547979701574E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A12" s="36"/>
-      <c r="B12" s="22">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="16">
         <v>0.51910000000000001</v>
       </c>
-      <c r="C12" s="22">
+      <c r="C12" s="16">
         <f>B12-'Carga e Descarga'!$G$18</f>
         <v>0.10610000000000003</v>
       </c>
-      <c r="D12" s="22">
-        <f t="shared" si="2"/>
+      <c r="D12" s="16">
+        <f>C12/$N$21</f>
         <v>0.25690072639225192</v>
       </c>
-      <c r="E12" s="22">
-        <f t="shared" si="5"/>
+      <c r="E12" s="16">
+        <f>LN((-$C$5+C12)/$C$5)</f>
         <v>-3.2139858395740113</v>
       </c>
-      <c r="F12" s="27">
+      <c r="F12" s="45">
         <v>417</v>
       </c>
-      <c r="AE12" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.2086368526877553</v>
-      </c>
-      <c r="AF12" s="23">
-        <f t="shared" si="3"/>
-        <v>8.774143617974639E-2</v>
-      </c>
-      <c r="AG12" s="23">
-        <f t="shared" si="1"/>
-        <v>-5.975352447131355</v>
-      </c>
-      <c r="AH12" s="23">
-        <f t="shared" si="4"/>
-        <v>-1.6112099976625771E-2</v>
+      <c r="X12" s="20">
+        <f>$W$37*F12+$X$37</f>
+        <v>-3.3076157435400253</v>
+      </c>
+      <c r="Y12" s="20">
+        <f>E12-X12</f>
+        <v>9.3629903966014005E-2</v>
+      </c>
+      <c r="Z12" s="20">
+        <f>$Q$37*F33+$R$37</f>
+        <v>-5.8301332641717334</v>
+      </c>
+      <c r="AA12" s="20">
+        <f>E33-Z12</f>
+        <v>-8.4370241800106882E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A13" s="36"/>
-      <c r="B13" s="22">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="16">
         <v>0.51949999999999996</v>
       </c>
-      <c r="C13" s="22">
+      <c r="C13" s="16">
         <f>B13-'Carga e Descarga'!$G$18</f>
         <v>0.10649999999999998</v>
       </c>
-      <c r="D13" s="22">
-        <f t="shared" si="2"/>
+      <c r="D13" s="16">
+        <f>C13/$N$21</f>
         <v>0.25786924939467309</v>
       </c>
-      <c r="E13" s="22">
-        <f t="shared" si="5"/>
+      <c r="E13" s="16">
+        <f>LN((-$C$5+C13)/$C$5)</f>
         <v>-3.1208954165080089</v>
       </c>
-      <c r="F13" s="27">
+      <c r="F13" s="45">
         <v>472</v>
       </c>
-      <c r="AE13" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.1603950403395906</v>
-      </c>
-      <c r="AF13" s="23">
-        <f t="shared" si="3"/>
-        <v>0.10403814496917008</v>
-      </c>
-      <c r="AG13" s="23">
-        <f t="shared" si="1"/>
-        <v>-6.0505685367668516</v>
-      </c>
-      <c r="AH13" s="23">
-        <f t="shared" si="4"/>
-        <v>-6.8729381850999083E-2</v>
+      <c r="X13" s="20">
+        <f>$W$37*F13+$X$37</f>
+        <v>-3.2618691973477998</v>
+      </c>
+      <c r="Y13" s="20">
+        <f>E13-X13</f>
+        <v>0.14097378083979084</v>
+      </c>
+      <c r="Z13" s="20">
+        <f>$Q$37*F34+$R$37</f>
+        <v>-5.9060940675659968</v>
+      </c>
+      <c r="AA13" s="20">
+        <f>E34-Z13</f>
+        <v>-4.614976638868562E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A14" s="36"/>
-      <c r="B14" s="22">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="16">
         <v>0.51949999999999996</v>
       </c>
-      <c r="C14" s="22">
+      <c r="C14" s="16">
         <f>B14-'Carga e Descarga'!$G$18</f>
         <v>0.10649999999999998</v>
       </c>
-      <c r="D14" s="22">
-        <f t="shared" si="2"/>
+      <c r="D14" s="16">
+        <f>C14/$N$21</f>
         <v>0.25786924939467309</v>
       </c>
-      <c r="E14" s="22">
-        <f t="shared" si="5"/>
+      <c r="E14" s="16">
+        <f>LN((-$C$5+C14)/$C$5)</f>
         <v>-3.1208954165080089</v>
       </c>
-      <c r="F14" s="27">
+      <c r="F14" s="45">
         <v>536</v>
       </c>
-      <c r="AE14" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.1121532279914255</v>
-      </c>
-      <c r="AF14" s="23">
-        <f t="shared" si="3"/>
-        <v>7.6415619823738012E-2</v>
-      </c>
-      <c r="AG14" s="23">
-        <f t="shared" si="1"/>
-        <v>-6.1302529089549509</v>
-      </c>
-      <c r="AH14" s="23">
-        <f t="shared" si="4"/>
-        <v>-3.5565025297787045E-2</v>
+      <c r="X14" s="20">
+        <f>$W$37*F14+$X$37</f>
+        <v>-3.2086368526877553</v>
+      </c>
+      <c r="Y14" s="20">
+        <f>E14-X14</f>
+        <v>8.774143617974639E-2</v>
+      </c>
+      <c r="Z14" s="20">
+        <f>$Q$37*F35+$R$37</f>
+        <v>-5.975352447131355</v>
+      </c>
+      <c r="AA14" s="20">
+        <f>E35-Z14</f>
+        <v>-1.6112099976625771E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A15" s="36"/>
-      <c r="B15" s="22">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="16">
         <v>0.51980000000000004</v>
       </c>
-      <c r="C15" s="22">
+      <c r="C15" s="16">
         <f>B15-'Carga e Descarga'!$G$18</f>
         <v>0.10680000000000006</v>
       </c>
-      <c r="D15" s="22">
-        <f t="shared" si="2"/>
+      <c r="D15" s="16">
+        <f>C15/$N$21</f>
         <v>0.25859564164648929</v>
       </c>
-      <c r="E15" s="22">
-        <f t="shared" si="5"/>
+      <c r="E15" s="16">
+        <f>LN((-$C$5+C15)/$C$5)</f>
         <v>-3.0563568953704205</v>
       </c>
-      <c r="F15" s="27">
+      <c r="F15" s="45">
         <v>594</v>
       </c>
-      <c r="AE15" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.0647431710285735</v>
-      </c>
-      <c r="AF15" s="23">
-        <f t="shared" si="3"/>
-        <v>4.9208270178403346E-2</v>
-      </c>
-      <c r="AG15" s="23">
-        <f t="shared" si="1"/>
-        <v>-6.2121714224193534</v>
-      </c>
-      <c r="AH15" s="23">
-        <f t="shared" si="4"/>
-        <v>-2.4366760028371459E-3</v>
+      <c r="X15" s="20">
+        <f>$W$37*F15+$X$37</f>
+        <v>-3.1603950403395906</v>
+      </c>
+      <c r="Y15" s="20">
+        <f>E15-X15</f>
+        <v>0.10403814496917008</v>
+      </c>
+      <c r="Z15" s="20">
+        <f>$Q$37*F36+$R$37</f>
+        <v>-6.0505685367668516</v>
+      </c>
+      <c r="AA15" s="20">
+        <f>E36-Z15</f>
+        <v>-6.8729381850999083E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A16" s="36"/>
-      <c r="B16" s="22">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="16">
         <v>0.51990000000000003</v>
       </c>
-      <c r="C16" s="22">
+      <c r="C16" s="16">
         <f>B16-'Carga e Descarga'!$G$18</f>
         <v>0.10690000000000005</v>
       </c>
-      <c r="D16" s="22">
-        <f t="shared" si="2"/>
+      <c r="D16" s="16">
+        <f>C16/$N$21</f>
         <v>0.25883777239709455</v>
       </c>
-      <c r="E16" s="22">
-        <f t="shared" si="5"/>
+      <c r="E16" s="16">
+        <f>LN((-$C$5+C16)/$C$5)</f>
         <v>-3.0357376081676875</v>
       </c>
-      <c r="F16" s="27">
+      <c r="F16" s="45">
         <v>652</v>
       </c>
-      <c r="R16">
-        <v>9</v>
-      </c>
-      <c r="AE16" s="23">
-        <f t="shared" si="0"/>
-        <v>-3.0023615171300841</v>
-      </c>
-      <c r="AF16" s="23">
-        <f t="shared" si="3"/>
-        <v>-1.3173383720086029E-2</v>
-      </c>
-      <c r="AG16" s="23">
-        <f t="shared" si="1"/>
-        <v>-6.2702590956032012</v>
-      </c>
-      <c r="AH16" s="23">
-        <f t="shared" si="4"/>
-        <v>5.5650997181010631E-2</v>
+      <c r="X16" s="20">
+        <f>$W$37*F16+$X$37</f>
+        <v>-3.1121532279914255</v>
+      </c>
+      <c r="Y16" s="20">
+        <f>E16-X16</f>
+        <v>7.6415619823738012E-2</v>
+      </c>
+      <c r="Z16" s="20">
+        <f>$Q$37*F37+$R$37</f>
+        <v>-6.1302529089549509</v>
+      </c>
+      <c r="AA16" s="20">
+        <f>E37-Z16</f>
+        <v>-3.5565025297787045E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A17" s="36"/>
-      <c r="B17" s="22">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="16">
         <v>0.52</v>
       </c>
-      <c r="C17" s="22">
+      <c r="C17" s="16">
         <f>B17-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D17" s="22">
-        <f t="shared" si="2"/>
+      <c r="D17" s="16">
+        <f>C17/$N$21</f>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E17" s="22">
-        <f t="shared" si="5"/>
+      <c r="E17" s="16">
+        <f>LN((-$C$5+C17)/$C$5)</f>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F17" s="27">
+      <c r="F17" s="45">
         <v>709</v>
       </c>
-      <c r="AE17" s="23">
-        <f t="shared" si="0"/>
-        <v>-2.9516244386259798</v>
-      </c>
-      <c r="AF17" s="23">
-        <f>E19-AE17</f>
-        <v>-6.391046222419039E-2</v>
-      </c>
-      <c r="AG17" s="23">
-        <f t="shared" si="1"/>
-        <v>-6.2955793634012895</v>
-      </c>
-      <c r="AH17" s="23">
-        <f>E39-AG17</f>
-        <v>8.0971264979099011E-2</v>
+      <c r="R17">
+        <v>9</v>
+      </c>
+      <c r="X17" s="20">
+        <f>$W$37*F17+$X$37</f>
+        <v>-3.0647431710285735</v>
+      </c>
+      <c r="Y17" s="20">
+        <f>E17-X17</f>
+        <v>4.9208270178403346E-2</v>
+      </c>
+      <c r="Z17" s="20">
+        <f>$Q$37*F38+$R$37</f>
+        <v>-6.2121714224193534</v>
+      </c>
+      <c r="AA17" s="20">
+        <f>E38-Z17</f>
+        <v>-2.4366760028371459E-3</v>
       </c>
     </row>
-    <row r="18" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A18" s="36"/>
-      <c r="B18" s="22">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="16">
         <v>0.52</v>
       </c>
-      <c r="C18" s="22">
+      <c r="C18" s="16">
         <f>B18-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D18" s="22">
-        <f t="shared" si="2"/>
+      <c r="D18" s="16">
+        <f>C18/$N$21</f>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E18" s="22">
-        <f t="shared" si="5"/>
+      <c r="E18" s="16">
+        <f>LN((-$C$5+C18)/$C$5)</f>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F18" s="27">
+      <c r="F18" s="45">
         <v>784</v>
       </c>
-      <c r="AE18" s="23">
-        <f t="shared" si="0"/>
-        <v>-2.9017191155071882</v>
-      </c>
-      <c r="AF18" s="23">
-        <f>E20-AE18</f>
-        <v>-0.11381578534298198</v>
+      <c r="X18" s="20">
+        <f>$W$37*F18+$X$37</f>
+        <v>-3.0023615171300841</v>
+      </c>
+      <c r="Y18" s="20">
+        <f>E18-X18</f>
+        <v>-1.3173383720086029E-2</v>
+      </c>
+      <c r="Z18" s="20">
+        <f>$Q$37*F39+$R$37</f>
+        <v>-6.2702590956032012</v>
+      </c>
+      <c r="AA18" s="20">
+        <f>E39-Z18</f>
+        <v>5.5650997181010631E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A19" s="36"/>
-      <c r="B19" s="22">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="16">
         <v>0.52</v>
       </c>
-      <c r="C19" s="22">
+      <c r="C19" s="16">
         <f>B19-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D19" s="22">
-        <f t="shared" si="2"/>
+      <c r="D19" s="16">
+        <f>C19/$N$21</f>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E19" s="22">
-        <f t="shared" si="5"/>
+      <c r="E19" s="16">
+        <f>LN((-$C$5+C19)/$C$5)</f>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F19" s="27">
+      <c r="F19" s="45">
         <v>845</v>
       </c>
-      <c r="H19" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="I19" s="30"/>
-      <c r="AE19" s="23">
-        <f t="shared" si="0"/>
-        <v>-2.8692806554799737</v>
-      </c>
-      <c r="AF19" s="23">
-        <f>E21-AE19</f>
-        <v>-0.14625424537019649</v>
-      </c>
-      <c r="AG19" s="15"/>
-      <c r="AH19" s="15"/>
+      <c r="X19" s="20">
+        <f>$W$37*F19+$X$37</f>
+        <v>-2.9516244386259798</v>
+      </c>
+      <c r="Y19" s="20">
+        <f>E19-X19</f>
+        <v>-6.391046222419039E-2</v>
+      </c>
+      <c r="Z19" s="20">
+        <f>$Q$37*F40+$R$37</f>
+        <v>-6.2955793634012895</v>
+      </c>
+      <c r="AA19" s="20">
+        <f>E40-Z19</f>
+        <v>8.0971264979099011E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A20" s="36"/>
-      <c r="B20" s="22">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+      <c r="B20" s="16">
         <v>0.52</v>
       </c>
-      <c r="C20" s="22">
+      <c r="C20" s="16">
         <f>B20-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D20" s="22">
-        <f t="shared" si="2"/>
+      <c r="D20" s="16">
+        <f>C20/$N$21</f>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E20" s="22">
-        <f t="shared" si="5"/>
+      <c r="E20" s="16">
+        <f>LN((-$C$5+C20)/$C$5)</f>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F20" s="27">
+      <c r="F20" s="45">
         <v>905</v>
       </c>
-      <c r="G20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="4">
-        <f t="array" ref="H20:I22">LINEST(E6:E21,F6:F21,TRUE,TRUE)</f>
-        <v>8.3175538531319096E-4</v>
-      </c>
-      <c r="I20" s="4">
-        <v>-3.6544577392156259</v>
-      </c>
-      <c r="J20" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="K20" s="30"/>
-      <c r="M20" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="N20" s="10">
-        <v>0.41299999999999998</v>
+      <c r="X20" s="20">
+        <f>$W$37*F20+$X$37</f>
+        <v>-2.9017191155071882</v>
+      </c>
+      <c r="Y20" s="20">
+        <f>E20-X20</f>
+        <v>-0.11381578534298198</v>
       </c>
     </row>
-    <row r="21" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A21" s="36"/>
-      <c r="B21" s="22">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A21" s="33"/>
+      <c r="B21" s="16">
         <v>0.52</v>
       </c>
-      <c r="C21" s="22">
+      <c r="C21" s="16">
         <f>B21-'Carga e Descarga'!$G$18</f>
         <v>0.10700000000000004</v>
       </c>
-      <c r="D21" s="22">
-        <f t="shared" si="2"/>
+      <c r="D21" s="16">
+        <f>C21/$N$21</f>
         <v>0.25907990314769985</v>
       </c>
-      <c r="E21" s="22">
-        <f t="shared" si="5"/>
+      <c r="E21" s="16">
+        <f>LN((-$C$5+C21)/$C$5)</f>
         <v>-3.0155349008501702</v>
       </c>
-      <c r="F21" s="27">
+      <c r="F21" s="45">
         <v>944</v>
       </c>
-      <c r="G21" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="H21" s="4">
-        <v>1.167653155472426E-4</v>
-      </c>
-      <c r="I21" s="4">
-        <v>6.6880507097966502E-2</v>
-      </c>
-      <c r="J21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="K21" s="30"/>
+      <c r="M21" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="N21" s="10">
+        <v>0.41299999999999998</v>
+      </c>
+      <c r="X21" s="20">
+        <f>$W$37*F21+$X$37</f>
+        <v>-2.8692806554799737</v>
+      </c>
+      <c r="Y21" s="20">
+        <f>E21-X21</f>
+        <v>-0.14625424537019649</v>
+      </c>
+      <c r="Z21" s="14"/>
+      <c r="AA21" s="14"/>
     </row>
-    <row r="22" spans="1:34" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="G22" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="H22" s="4">
-        <v>0.78375548496109726</v>
-      </c>
-      <c r="I22" s="4">
-        <v>0.13128518716578064</v>
-      </c>
-      <c r="J22" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="K22" s="30"/>
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A22" s="49"/>
+      <c r="B22" s="49"/>
+      <c r="C22" s="49"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
-    <row r="23" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A23" s="32" t="s">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A23" s="46" t="s">
         <v>3</v>
       </c>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="37"/>
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="48"/>
     </row>
-    <row r="24" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A24" s="2" t="s">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A24" s="24" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" s="24" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="C24" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F24" s="3" t="s">
+      <c r="D24" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="F24" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="25" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A25" s="35">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A25" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B25" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A26" s="32">
         <v>1.0290000000000001E-2</v>
       </c>
-      <c r="B25" s="22">
+      <c r="B26" s="16">
         <v>0.41799999999999998</v>
       </c>
-      <c r="C25" s="22">
-        <f>B25-'Carga e Descarga'!$G$18</f>
+      <c r="C26" s="16">
+        <f>B26-'Carga e Descarga'!$G$18</f>
         <v>5.0000000000000044E-3</v>
       </c>
-      <c r="D25" s="22">
-        <f t="shared" ref="D25:D39" si="6">C25/$N$20</f>
+      <c r="D26" s="16">
+        <f t="shared" ref="D26:D40" si="0">C26/$N$21</f>
         <v>1.2106537530266356E-2</v>
       </c>
-      <c r="E25" s="22" t="s">
+      <c r="E26" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="27">
+      <c r="F26" s="45">
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A26" s="36"/>
-      <c r="B26" s="22">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A27" s="33"/>
+      <c r="B27" s="16">
         <v>0.41699999999999998</v>
       </c>
-      <c r="C26" s="22">
-        <f>B26-'Carga e Descarga'!$G$18</f>
+      <c r="C27" s="16">
+        <f>B27-'Carga e Descarga'!$G$18</f>
         <v>4.0000000000000036E-3</v>
       </c>
-      <c r="D26" s="22">
-        <f t="shared" si="6"/>
+      <c r="D27" s="16">
+        <f t="shared" si="0"/>
         <v>9.6852300242130842E-3</v>
       </c>
-      <c r="E26" s="22">
-        <f>LN(C26)</f>
+      <c r="E27" s="16">
+        <f>LN(C27)</f>
         <v>-5.5214609178622451</v>
       </c>
-      <c r="F26" s="27">
+      <c r="F27" s="45">
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A27" s="36"/>
-      <c r="B27" s="22">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A28" s="33"/>
+      <c r="B28" s="16">
         <v>0.41689999999999999</v>
       </c>
-      <c r="C27" s="22">
-        <f>B27-'Carga e Descarga'!$G$18</f>
+      <c r="C28" s="16">
+        <f>B28-'Carga e Descarga'!$G$18</f>
         <v>3.9000000000000146E-3</v>
       </c>
-      <c r="D27" s="22">
-        <f t="shared" si="6"/>
+      <c r="D28" s="16">
+        <f t="shared" si="0"/>
         <v>9.4430992736077839E-3</v>
       </c>
-      <c r="E27" s="22">
-        <f t="shared" ref="E27:E39" si="7">LN(C27)</f>
+      <c r="E28" s="16">
+        <f t="shared" ref="E28:E40" si="1">LN(C28)</f>
         <v>-5.5467787258465329</v>
       </c>
-      <c r="F27" s="27">
+      <c r="F28" s="45">
         <v>124</v>
       </c>
     </row>
-    <row r="28" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A28" s="36"/>
-      <c r="B28" s="22">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A29" s="33"/>
+      <c r="B29" s="16">
         <v>0.41649999999999998</v>
       </c>
-      <c r="C28" s="22">
-        <f>B28-'Carga e Descarga'!$G$18</f>
+      <c r="C29" s="16">
+        <f>B29-'Carga e Descarga'!$G$18</f>
         <v>3.5000000000000031E-3</v>
       </c>
-      <c r="D28" s="22">
-        <f t="shared" si="6"/>
+      <c r="D29" s="16">
+        <f t="shared" si="0"/>
         <v>8.4745762711864493E-3</v>
       </c>
-      <c r="E28" s="22">
-        <f t="shared" si="7"/>
+      <c r="E29" s="16">
+        <f t="shared" si="1"/>
         <v>-5.6549923104867679</v>
       </c>
-      <c r="F28" s="27">
+      <c r="F29" s="45">
         <v>163</v>
       </c>
     </row>
-    <row r="29" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A29" s="36"/>
-      <c r="B29" s="22">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A30" s="33"/>
+      <c r="B30" s="16">
         <v>0.41639999999999999</v>
       </c>
-      <c r="C29" s="22">
-        <f>B29-'Carga e Descarga'!$G$18</f>
+      <c r="C30" s="16">
+        <f>B30-'Carga e Descarga'!$G$18</f>
         <v>3.4000000000000141E-3</v>
       </c>
-      <c r="D29" s="22">
-        <f t="shared" si="6"/>
+      <c r="D30" s="16">
+        <f t="shared" si="0"/>
         <v>8.2324455205811491E-3</v>
       </c>
-      <c r="E29" s="22">
-        <f t="shared" si="7"/>
+      <c r="E30" s="16">
+        <f t="shared" si="1"/>
         <v>-5.6839798473600176</v>
       </c>
-      <c r="F29" s="27">
+      <c r="F30" s="45">
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A30" s="36"/>
-      <c r="B30" s="22">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A31" s="33"/>
+      <c r="B31" s="16">
         <v>0.4163</v>
       </c>
-      <c r="C30" s="22">
-        <f>B30-'Carga e Descarga'!$G$18</f>
+      <c r="C31" s="16">
+        <f>B31-'Carga e Descarga'!$G$18</f>
         <v>3.3000000000000251E-3</v>
       </c>
-      <c r="D30" s="22">
-        <f t="shared" si="6"/>
+      <c r="D31" s="16">
+        <f t="shared" si="0"/>
         <v>7.9903147699758488E-3</v>
       </c>
-      <c r="E30" s="22">
-        <f t="shared" si="7"/>
+      <c r="E31" s="16">
+        <f t="shared" si="1"/>
         <v>-5.7138328105096949</v>
       </c>
-      <c r="F30" s="27">
+      <c r="F31" s="45">
         <v>274</v>
       </c>
     </row>
-    <row r="31" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A31" s="36"/>
-      <c r="B31" s="22">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+      <c r="A32" s="33"/>
+      <c r="B32" s="16">
         <v>0.41599999999999998</v>
       </c>
-      <c r="C31" s="22">
-        <f>B31-'Carga e Descarga'!$G$18</f>
+      <c r="C32" s="16">
+        <f>B32-'Carga e Descarga'!$G$18</f>
         <v>3.0000000000000027E-3</v>
       </c>
-      <c r="D31" s="22">
-        <f t="shared" si="6"/>
+      <c r="D32" s="16">
+        <f t="shared" si="0"/>
         <v>7.2639225181598127E-3</v>
       </c>
-      <c r="E31" s="22">
-        <f t="shared" si="7"/>
+      <c r="E32" s="16">
+        <f t="shared" si="1"/>
         <v>-5.8091429903140268</v>
       </c>
-      <c r="F31" s="27">
+      <c r="F32" s="45">
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:34" x14ac:dyDescent="0.3">
-      <c r="A32" s="36"/>
-      <c r="B32" s="22">
+    <row r="33" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A33" s="33"/>
+      <c r="B33" s="16">
         <v>0.41570000000000001</v>
       </c>
-      <c r="C32" s="22">
-        <f>B32-'Carga e Descarga'!$G$18</f>
+      <c r="C33" s="16">
+        <f>B33-'Carga e Descarga'!$G$18</f>
         <v>2.7000000000000357E-3</v>
       </c>
-      <c r="D32" s="22">
-        <f t="shared" si="6"/>
+      <c r="D33" s="16">
+        <f t="shared" si="0"/>
         <v>6.5375302663439128E-3</v>
       </c>
-      <c r="E32" s="22">
-        <f t="shared" si="7"/>
+      <c r="E33" s="16">
+        <f t="shared" si="1"/>
         <v>-5.9145035059718403</v>
       </c>
-      <c r="F32" s="27">
+      <c r="F33" s="45">
         <v>405</v>
       </c>
     </row>
-    <row r="33" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A33" s="36"/>
-      <c r="B33" s="22">
+    <row r="34" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A34" s="33"/>
+      <c r="B34" s="16">
         <v>0.41560000000000002</v>
       </c>
-      <c r="C33" s="22">
-        <f>B33-'Carga e Descarga'!$G$18</f>
+      <c r="C34" s="16">
+        <f>B34-'Carga e Descarga'!$G$18</f>
         <v>2.6000000000000467E-3</v>
       </c>
-      <c r="D33" s="22">
-        <f t="shared" si="6"/>
+      <c r="D34" s="16">
+        <f t="shared" si="0"/>
         <v>6.2953995157386125E-3</v>
       </c>
-      <c r="E33" s="22">
-        <f t="shared" si="7"/>
+      <c r="E34" s="16">
+        <f t="shared" si="1"/>
         <v>-5.9522438339546824</v>
       </c>
-      <c r="F33" s="27">
+      <c r="F34" s="45">
         <v>507</v>
       </c>
     </row>
-    <row r="34" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A34" s="36"/>
-      <c r="B34" s="22">
+    <row r="35" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A35" s="33"/>
+      <c r="B35" s="16">
         <v>0.41549999999999998</v>
       </c>
-      <c r="C34" s="22">
-        <f>B34-'Carga e Descarga'!$G$18</f>
+      <c r="C35" s="16">
+        <f>B35-'Carga e Descarga'!$G$18</f>
         <v>2.5000000000000022E-3</v>
       </c>
-      <c r="D34" s="22">
-        <f t="shared" si="6"/>
+      <c r="D35" s="16">
+        <f t="shared" si="0"/>
         <v>6.0532687651331778E-3</v>
       </c>
-      <c r="E34" s="22">
-        <f t="shared" si="7"/>
+      <c r="E35" s="16">
+        <f t="shared" si="1"/>
         <v>-5.9914645471079808</v>
       </c>
-      <c r="F34" s="27">
+      <c r="F35" s="45">
         <v>600</v>
       </c>
-      <c r="Q34" s="30" t="s">
-        <v>25</v>
-      </c>
-      <c r="R34" s="30"/>
     </row>
-    <row r="35" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A35" s="36"/>
-      <c r="B35" s="22">
+    <row r="36" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A36" s="33"/>
+      <c r="B36" s="16">
         <v>0.41520000000000001</v>
       </c>
-      <c r="C35" s="22">
-        <f>B35-'Carga e Descarga'!$G$18</f>
+      <c r="C36" s="16">
+        <f>B36-'Carga e Descarga'!$G$18</f>
         <v>2.2000000000000353E-3</v>
       </c>
-      <c r="D35" s="22">
-        <f t="shared" si="6"/>
+      <c r="D36" s="16">
+        <f t="shared" si="0"/>
         <v>5.3268765133172771E-3</v>
       </c>
-      <c r="E35" s="22">
-        <f t="shared" si="7"/>
+      <c r="E36" s="16">
+        <f t="shared" si="1"/>
         <v>-6.1192979186178507</v>
       </c>
-      <c r="F35" s="27">
+      <c r="F36" s="45">
         <v>701</v>
       </c>
-      <c r="P35" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="Q35" s="4">
-        <f t="array" ref="Q35:R37">LINEST(E26:E39,F26:F39,TRUE,TRUE)</f>
+      <c r="P36" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q36" s="27"/>
+      <c r="R36" s="27"/>
+      <c r="S36" s="27"/>
+      <c r="T36" s="27"/>
+      <c r="V36" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="W36" s="27"/>
+      <c r="X36" s="27"/>
+      <c r="Y36" s="27"/>
+      <c r="Z36" s="27"/>
+    </row>
+    <row r="37" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A37" s="33"/>
+      <c r="B37" s="16">
+        <v>0.41510000000000002</v>
+      </c>
+      <c r="C37" s="16">
+        <f>B37-'Carga e Descarga'!$G$18</f>
+        <v>2.1000000000000463E-3</v>
+      </c>
+      <c r="D37" s="16">
+        <f t="shared" si="0"/>
+        <v>5.0847457627119768E-3</v>
+      </c>
+      <c r="E37" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.1658179342527379</v>
+      </c>
+      <c r="F37" s="45">
+        <v>808</v>
+      </c>
+      <c r="P37" s="21" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q37" s="4">
+        <f t="array" ref="Q37:R39">LINEST(E27:E40,F27:F40,TRUE,TRUE)</f>
         <v>-7.4471375876728949E-4</v>
       </c>
-      <c r="R35" s="4">
+      <c r="R37" s="4">
         <v>-5.5285241918709813</v>
       </c>
-      <c r="S35" s="31" t="s">
+      <c r="S37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="T37" s="27"/>
+      <c r="V37" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="T35" s="30"/>
+      <c r="W37" s="4">
+        <f t="array" ref="W37:X39">LINEST(E6:E21,F6:F21,TRUE,TRUE)</f>
+        <v>8.3175538531319096E-4</v>
+      </c>
+      <c r="X37" s="4">
+        <v>-3.6544577392156259</v>
+      </c>
+      <c r="Y37" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="Z37" s="27"/>
     </row>
-    <row r="36" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A36" s="36"/>
-      <c r="B36" s="22">
-        <v>0.41510000000000002</v>
-      </c>
-      <c r="C36" s="22">
-        <f>B36-'Carga e Descarga'!$G$18</f>
-        <v>2.1000000000000463E-3</v>
-      </c>
-      <c r="D36" s="22">
-        <f t="shared" si="6"/>
-        <v>5.0847457627119768E-3</v>
-      </c>
-      <c r="E36" s="22">
-        <f t="shared" si="7"/>
-        <v>-6.1658179342527379</v>
-      </c>
-      <c r="F36" s="27">
-        <v>808</v>
-      </c>
-      <c r="P36" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q36" s="4">
-        <v>4.5026637565156572E-5</v>
-      </c>
-      <c r="R36" s="4">
-        <v>2.7175572824945746E-2</v>
-      </c>
-      <c r="S36" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="T36" s="30"/>
-    </row>
-    <row r="37" spans="1:20" ht="16.2" x14ac:dyDescent="0.3">
-      <c r="A37" s="36"/>
-      <c r="B37" s="22">
+    <row r="38" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A38" s="33"/>
+      <c r="B38" s="16">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C37" s="22">
-        <f>B37-'Carga e Descarga'!$G$18</f>
-        <v>2.0000000000000018E-3</v>
-      </c>
-      <c r="D37" s="22">
-        <f t="shared" si="6"/>
-        <v>4.8426150121065421E-3</v>
-      </c>
-      <c r="E37" s="22">
-        <f t="shared" si="7"/>
-        <v>-6.2146080984221905</v>
-      </c>
-      <c r="F37" s="27">
-        <v>918</v>
-      </c>
-      <c r="P37" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q37" s="4">
-        <v>0.95797611447723408</v>
-      </c>
-      <c r="R37" s="4">
-        <v>5.4355580392070058E-2</v>
-      </c>
-      <c r="S37" s="31" t="s">
-        <v>30</v>
-      </c>
-      <c r="T37" s="30"/>
-    </row>
-    <row r="38" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A38" s="36"/>
-      <c r="B38" s="22">
-        <v>0.41499999999999998</v>
-      </c>
-      <c r="C38" s="22">
+      <c r="C38" s="16">
         <f>B38-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D38" s="22">
-        <f t="shared" si="6"/>
+      <c r="D38" s="16">
+        <f t="shared" si="0"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E38" s="22">
-        <f t="shared" si="7"/>
+      <c r="E38" s="16">
+        <f t="shared" si="1"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F38" s="27">
-        <v>996</v>
-      </c>
+      <c r="F38" s="45">
+        <v>918</v>
+      </c>
+      <c r="P38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q38" s="4">
+        <v>4.5026637565156572E-5</v>
+      </c>
+      <c r="R38" s="4">
+        <v>2.7175572824945746E-2</v>
+      </c>
+      <c r="S38" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="T38" s="27"/>
+      <c r="V38" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="W38" s="4">
+        <v>1.167653155472426E-4</v>
+      </c>
+      <c r="X38" s="4">
+        <v>6.6880507097966502E-2</v>
+      </c>
+      <c r="Y38" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="Z38" s="27"/>
     </row>
-    <row r="39" spans="1:20" x14ac:dyDescent="0.3">
-      <c r="A39" s="36"/>
-      <c r="B39" s="22">
+    <row r="39" spans="1:26" ht="16.2" x14ac:dyDescent="0.3">
+      <c r="A39" s="33"/>
+      <c r="B39" s="16">
         <v>0.41499999999999998</v>
       </c>
-      <c r="C39" s="22">
+      <c r="C39" s="16">
         <f>B39-'Carga e Descarga'!$G$18</f>
         <v>2.0000000000000018E-3</v>
       </c>
-      <c r="D39" s="22">
-        <f t="shared" si="6"/>
+      <c r="D39" s="16">
+        <f t="shared" si="0"/>
         <v>4.8426150121065421E-3</v>
       </c>
-      <c r="E39" s="22">
-        <f t="shared" si="7"/>
+      <c r="E39" s="16">
+        <f t="shared" si="1"/>
         <v>-6.2146080984221905</v>
       </c>
-      <c r="F39" s="27">
+      <c r="F39" s="45">
+        <v>996</v>
+      </c>
+      <c r="P39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q39" s="4">
+        <v>0.95797611447723408</v>
+      </c>
+      <c r="R39" s="4">
+        <v>5.4355580392070058E-2</v>
+      </c>
+      <c r="S39" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="T39" s="27"/>
+      <c r="V39" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="W39" s="4">
+        <v>0.78375548496109726</v>
+      </c>
+      <c r="X39" s="4">
+        <v>0.13128518716578064</v>
+      </c>
+      <c r="Y39" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="Z39" s="27"/>
+    </row>
+    <row r="40" spans="1:26" x14ac:dyDescent="0.3">
+      <c r="A40" s="33"/>
+      <c r="B40" s="16">
+        <v>0.41499999999999998</v>
+      </c>
+      <c r="C40" s="16">
+        <f>B40-'Carga e Descarga'!$G$18</f>
+        <v>2.0000000000000018E-3</v>
+      </c>
+      <c r="D40" s="16">
+        <f t="shared" si="0"/>
+        <v>4.8426150121065421E-3</v>
+      </c>
+      <c r="E40" s="16">
+        <f t="shared" si="1"/>
+        <v>-6.2146080984221905</v>
+      </c>
+      <c r="F40" s="45">
         <v>1030</v>
       </c>
     </row>
-    <row r="59" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D59" s="11"/>
+    <row r="61" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D61" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="14">
-    <mergeCell ref="S36:T36"/>
+  <mergeCells count="16">
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="P36:T36"/>
+    <mergeCell ref="V36:Z36"/>
+    <mergeCell ref="S38:T38"/>
+    <mergeCell ref="S39:T39"/>
+    <mergeCell ref="A26:A40"/>
+    <mergeCell ref="Z3:AA3"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A23:F23"/>
+    <mergeCell ref="X3:Y3"/>
+    <mergeCell ref="A5:A21"/>
+    <mergeCell ref="Y37:Z37"/>
+    <mergeCell ref="Y38:Z38"/>
+    <mergeCell ref="Y39:Z39"/>
     <mergeCell ref="S37:T37"/>
-    <mergeCell ref="A25:A39"/>
-    <mergeCell ref="AG2:AH2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A23:F23"/>
-    <mergeCell ref="AE2:AF2"/>
-    <mergeCell ref="A5:A21"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="Q34:R34"/>
-    <mergeCell ref="S35:T35"/>
   </mergeCells>
+  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="3.937007874015748E-2" right="3.937007874015748E-2" top="3.937007874015748E-2" bottom="0" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
